--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="400">
   <si>
     <t>Última actualización:</t>
   </si>
@@ -1839,15 +1839,15 @@
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(REGULARES!D:D, "SI")</f>
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="1">B3-C3</f>
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="2">(C3/B3)</f>
-        <v>0.4666666667</v>
+        <v>0.5472222222</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E3, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1863,15 +1863,15 @@
       </c>
       <c r="C4" s="9">
         <f>COUNTIF(Estadios!D:D, "SI")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -1884,15 +1884,15 @@
       </c>
       <c r="C5" s="9">
         <f>COUNTIF('¡VAMOS! (361–380)'!D:D, "SI")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" ref="E5:E13" si="3">C5/B5</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F5" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E5, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1908,15 +1908,15 @@
       </c>
       <c r="C6" s="14">
         <f>COUNTIF('Guantes de Oro (381–387)'!D:D, "SI")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="3"/>
-        <v>0.1428571429</v>
+        <v>0.2857142857</v>
       </c>
       <c r="F6" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E6, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1956,15 +1956,15 @@
       </c>
       <c r="C8" s="14">
         <f>COUNTIF('Diamantes (397–414)'!D:D, "SI")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="3"/>
-        <v>0.5555555556</v>
+        <v>0.6666666667</v>
       </c>
       <c r="F8" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E8, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2004,15 +2004,15 @@
       </c>
       <c r="C10" s="14">
         <f>COUNTIF('Protas (424–441)'!D:D, "SI")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="3"/>
-        <v>0.3333333333</v>
+        <v>0.4444444444</v>
       </c>
       <c r="F10" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E10, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2028,15 +2028,15 @@
       </c>
       <c r="C11" s="14">
         <f>COUNTIF('Super Cracks (442–467)'!D:D, "SI")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="3"/>
-        <v>0.3846153846</v>
+        <v>0.4615384615</v>
       </c>
       <c r="F11" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E11, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2052,15 +2052,15 @@
       </c>
       <c r="C12" s="14">
         <f>COUNTIF('Cartas Top y Únicas (468–478)'!D:D, "SI")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>0.1818181818</v>
+        <v>0.2727272727</v>
       </c>
       <c r="F12" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E12, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2077,15 +2077,15 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>0.4236947791</v>
+        <v>0.5301204819</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E13, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2123,6 +2123,9 @@
       <c r="D1" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E1" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">
@@ -2136,6 +2139,9 @@
       </c>
       <c r="D2" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -2270,7 +2276,9 @@
       <c r="C2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="21">
@@ -2346,7 +2354,9 @@
       <c r="C8" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="21">
@@ -2522,7 +2532,12 @@
       <c r="C2" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="22">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="21">
@@ -2731,7 +2746,12 @@
       <c r="C6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="21">
@@ -2798,6 +2818,9 @@
       <c r="D11" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="21">
@@ -2925,7 +2948,9 @@
       <c r="C21" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="21">
@@ -2963,6 +2988,9 @@
       </c>
       <c r="D24" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E24" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -3032,12 +3060,12 @@
     </row>
     <row r="2">
       <c r="A2" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
       </c>
       <c r="B2" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL FERNÁNDEZ")</f>
-        <v>RAÚL FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
+        <v>TENAGLIA</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3046,12 +3074,12 @@
     </row>
     <row r="3">
       <c r="A3" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
       </c>
       <c r="B3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
-        <v>TENAGLIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOUSSA DIARRA")</f>
+        <v>MOUSSA DIARRA</v>
       </c>
       <c r="C3" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3060,12 +3088,12 @@
     </row>
     <row r="4">
       <c r="A4" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
       </c>
       <c r="B4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOUSSA DIARRA")</f>
-        <v>MOUSSA DIARRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURIDI")</f>
+        <v>GURIDI</v>
       </c>
       <c r="C4" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3074,12 +3102,12 @@
     </row>
     <row r="5">
       <c r="A5" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
       <c r="B5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BLANCO")</f>
-        <v>BLANCO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEÑÁ")</f>
+        <v>ALEÑÁ</v>
       </c>
       <c r="C5" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3088,12 +3116,12 @@
     </row>
     <row r="6">
       <c r="A6" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="B6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURIDI")</f>
-        <v>GURIDI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO IBÁÑEZ")</f>
+        <v>PABLO IBÁÑEZ</v>
       </c>
       <c r="C6" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3102,12 +3130,12 @@
     </row>
     <row r="7">
       <c r="A7" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
-        <v>12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
+        <v>14</v>
       </c>
       <c r="B7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEÑÁ")</f>
-        <v>ALEÑÁ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENIS SUÁREZ")</f>
+        <v>DENIS SUÁREZ</v>
       </c>
       <c r="C7" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3116,12 +3144,12 @@
     </row>
     <row r="8">
       <c r="A8" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="B8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO IBÁÑEZ")</f>
-        <v>PABLO IBÁÑEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TONI MARTÍNEZ")</f>
+        <v>TONI MARTÍNEZ</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3130,40 +3158,40 @@
     </row>
     <row r="9">
       <c r="A9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
-        <v>14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
+        <v>19</v>
       </c>
       <c r="B9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENIS SUÁREZ")</f>
-        <v>DENIS SUÁREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TONI MARTÍNEZ")</f>
-        <v>TONI MARTÍNEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
+        <v>UNAI SIMÓN</v>
       </c>
       <c r="C10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
       </c>
       <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAREDES")</f>
+        <v>PAREDES</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3172,12 +3200,12 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
       </c>
       <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
-        <v>UNAI SIMÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
+        <v>LAPORTE</v>
       </c>
       <c r="C12" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3186,12 +3214,12 @@
     </row>
     <row r="13">
       <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
       <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAREDES")</f>
-        <v>PAREDES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YURI")</f>
+        <v>YURI</v>
       </c>
       <c r="C13" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3200,12 +3228,12 @@
     </row>
     <row r="14">
       <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
       <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
-        <v>LAPORTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
+        <v>JAUREGIZAR</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3214,12 +3242,12 @@
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
+        <v>29</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YURI")</f>
-        <v>YURI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VESGA")</f>
+        <v>VESGA</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3228,12 +3256,12 @@
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
-        <v>JAUREGIZAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI GÓMEZ")</f>
+        <v>UNAI GÓMEZ</v>
       </c>
       <c r="C16" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3242,12 +3270,12 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VESGA")</f>
-        <v>VESGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERENGUER")</f>
+        <v>BERENGUER</v>
       </c>
       <c r="C17" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3256,12 +3284,12 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
+        <v>35</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI GÓMEZ")</f>
-        <v>UNAI GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURUZETA")</f>
+        <v>GURUZETA</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3270,12 +3298,12 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERENGUER")</f>
-        <v>BERENGUER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
+        <v>NICO WILLIAMS</v>
       </c>
       <c r="C19" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3284,40 +3312,40 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURUZETA")</f>
-        <v>GURUZETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
-        <v>NICO WILLIAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
+        <v>OBLAK</v>
       </c>
       <c r="C21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
+        <v>45</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOKE")</f>
+        <v>KOKE</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3326,12 +3354,12 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEX BAENA")</f>
+        <v>ALEX BAENA</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3340,12 +3368,12 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.0)</f>
-        <v>41</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
-        <v>LE NORMAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO GONZÁLEZ")</f>
+        <v>NICO GONZÁLEZ</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3354,12 +3382,12 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
+        <v>51</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUGGERI")</f>
-        <v>RUGGERI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIULIANO")</f>
+        <v>GIULIANO</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3368,12 +3396,12 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
-        <v>45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOKE")</f>
-        <v>KOKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
+        <v>JULIÁN ALVAREZ</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3382,12 +3410,12 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
+        <v>53</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEX BAENA")</f>
-        <v>ALEX BAENA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SORLOTH")</f>
+        <v>SORLOTH</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3396,12 +3424,12 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
+        <v>54</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO GONZÁLEZ")</f>
-        <v>NICO GONZÁLEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
+        <v>GRIEZMANN</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3410,68 +3438,68 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
-        <v>51</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
+        <v>57</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIULIANO")</f>
-        <v>GIULIANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SZCZESNY")</f>
+        <v>SZCZESNY</v>
       </c>
       <c r="C29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
-        <v>52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
-        <v>JULIÁN ALVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
+        <v>KOUNDÉ</v>
       </c>
       <c r="C30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
-        <v>53</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
+        <v>60</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SORLOTH")</f>
-        <v>SORLOTH</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ERIC GARCÍA")</f>
+        <v>ERIC GARCÍA</v>
       </c>
       <c r="C31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
-        <v>54</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
+        <v>61</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
-        <v>GRIEZMANN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAÚJO")</f>
+        <v>ARAÚJO</v>
       </c>
       <c r="C32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
-        <v>57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
+        <v>66</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SZCZESNY")</f>
-        <v>SZCZESNY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
+        <v>FERMÍN</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3480,12 +3508,12 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
+        <v>68</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
-        <v>KOUNDÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
+        <v>RAPHINHA</v>
       </c>
       <c r="C34" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3494,12 +3522,12 @@
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
-        <v>60</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
+        <v>69</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ERIC GARCÍA")</f>
-        <v>ERIC GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
+        <v>LAMINE YAMAL</v>
       </c>
       <c r="C35" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3508,12 +3536,12 @@
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
-        <v>61</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
+        <v>70</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAÚJO")</f>
-        <v>ARAÚJO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERRAN TORRES")</f>
+        <v>FERRAN TORRES</v>
       </c>
       <c r="C36" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3522,12 +3550,12 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
-        <v>66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
+        <v>72</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
-        <v>FERMÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
+        <v>RASHFORD</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3536,68 +3564,68 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
-        <v>68</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
+        <v>75</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
-        <v>RAPHINHA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALLES")</f>
+        <v>VALLES</v>
       </c>
       <c r="C38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
-        <v>69</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
+        <v>77</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARTRA")</f>
+        <v>BARTRA</v>
       </c>
       <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
-        <v>70</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),78.0)</f>
+        <v>78</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERRAN TORRES")</f>
-        <v>FERRAN TORRES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LLORENTE")</f>
+        <v>DIEGO LLORENTE</v>
       </c>
       <c r="C40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
-        <v>72</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
+        <v>80</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
-        <v>RASHFORD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
       </c>
       <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
-        <v>75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
+        <v>82</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALLES")</f>
-        <v>VALLES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
+        <v>ALTIMIRA</v>
       </c>
       <c r="C42" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3606,12 +3634,12 @@
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
-        <v>77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARTRA")</f>
-        <v>BARTRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
+        <v>AMRABAT</v>
       </c>
       <c r="C43" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3620,12 +3648,12 @@
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),78.0)</f>
-        <v>78</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LLORENTE")</f>
-        <v>DIEGO LLORENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
+        <v>LO CELSO</v>
       </c>
       <c r="C44" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3634,12 +3662,12 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
-        <v>80</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
+        <v>RIQUELME</v>
       </c>
       <c r="C45" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3648,12 +3676,12 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
-        <v>82</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
+        <v>90</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
-        <v>ALTIMIRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
+        <v>ABDE</v>
       </c>
       <c r="C46" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3662,68 +3690,68 @@
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
-        <v>83</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
+        <v>92</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
-        <v>AMRABAT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
+        <v>RADU</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
-        <v>85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
-        <v>LO CELSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
+        <v>JAVI RUEDA</v>
       </c>
       <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
-        <v>RIQUELME</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RODRÍGUEZ")</f>
+        <v>JAVI RODRÍGUEZ</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
-        <v>90</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
+        <v>96</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
-        <v>ABDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STARFELT")</f>
+        <v>STARFELT</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
-        <v>RADU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C51" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3732,12 +3760,12 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
-        <v>94</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
+        <v>98</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
-        <v>JAVI RUEDA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
+        <v>MINGUEZA</v>
       </c>
       <c r="C52" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3746,12 +3774,12 @@
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RODRÍGUEZ")</f>
-        <v>JAVI RODRÍGUEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
+        <v>FRAN BELTRÁN</v>
       </c>
       <c r="C53" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3760,12 +3788,12 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
-        <v>96</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STARFELT")</f>
-        <v>STARFELT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C54" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3774,12 +3802,12 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C55" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3788,68 +3816,68 @@
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
-        <v>98</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
-        <v>MINGUEZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
+        <v>ÁLVARO NÚÑEZ</v>
       </c>
       <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
+        <v>113</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
-        <v>FRAN BELTRÁN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
+        <v>CHUST</v>
       </c>
       <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
+        <v>114</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIGAS")</f>
+        <v>BIGAS</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),116.0)</f>
+        <v>116</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
-        <v>ÁLVARO NÚÑEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDROSA")</f>
+        <v>PEDROSA</v>
       </c>
       <c r="C60" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3858,12 +3886,12 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
-        <v>113</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
-        <v>CHUST</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GERMÁN VALERA")</f>
+        <v>GERMÁN VALERA</v>
       </c>
       <c r="C61" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3872,12 +3900,12 @@
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
-        <v>114</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
+        <v>119</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIGAS")</f>
-        <v>BIGAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
+        <v>MARTIM NETO</v>
       </c>
       <c r="C62" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3886,12 +3914,12 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
+        <v>FEBAS</v>
       </c>
       <c r="C63" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3900,12 +3928,12 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),116.0)</f>
-        <v>116</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
+        <v>125</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDROSA")</f>
-        <v>PEDROSA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ SILVA")</f>
+        <v>ANDRÉ SILVA</v>
       </c>
       <c r="C64" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3914,12 +3942,12 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
-        <v>118</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
+        <v>126</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GERMÁN VALERA")</f>
-        <v>GERMÁN VALERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
+        <v>RAFA MIR</v>
       </c>
       <c r="C65" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3928,68 +3956,68 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
+        <v>128</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
-        <v>MARTIM NETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
+        <v>DMITROVIC</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
-        <v>120</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
+        <v>132</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIEDEL")</f>
+        <v>RIEDEL</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
-        <v>125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ SILVA")</f>
-        <v>ANDRÉ SILVA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
       </c>
       <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
-        <v>126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
-        <v>RAFA MIR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ROMERO")</f>
+        <v>CARLOS ROMERO</v>
       </c>
       <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
+        <v>142</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
-        <v>DMITROVIC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE GARCÍA")</f>
+        <v>KIKE GARCÍA</v>
       </c>
       <c r="C70" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -3998,12 +4026,12 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
-        <v>132</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
+        <v>143</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIEDEL")</f>
-        <v>RIEDEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PUADO")</f>
+        <v>PUADO</v>
       </c>
       <c r="C71" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -4012,12 +4040,12 @@
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C72" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -4026,68 +4054,68 @@
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
-        <v>134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ROMERO")</f>
-        <v>CARLOS ROMERO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
-        <v>142</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE GARCÍA")</f>
-        <v>KIKE GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
-        <v>143</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
+        <v>147</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PUADO")</f>
-        <v>PUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LETACEK")</f>
+        <v>LETACEK</v>
       </c>
       <c r="C75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
+        <v>IGLESIAS</v>
       </c>
       <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
+        <v>149</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
+        <v>KIKO FEMENÍA</v>
       </c>
       <c r="C77" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4096,12 +4124,12 @@
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
+        <v>150</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
+        <v>DJENÉ</v>
       </c>
       <c r="C78" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4110,12 +4138,12 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
-        <v>147</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
+        <v>151</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LETACEK")</f>
-        <v>LETACEK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
+        <v>DOMINGOS DUARTE</v>
       </c>
       <c r="C79" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4124,12 +4152,12 @@
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
+        <v>155</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
-        <v>IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIO MARTÍN")</f>
+        <v>MARIO MARTÍN</v>
       </c>
       <c r="C80" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4138,12 +4166,12 @@
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
-        <v>149</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),156.0)</f>
+        <v>156</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
-        <v>KIKO FEMENÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBARRI")</f>
+        <v>ARAMBARRI</v>
       </c>
       <c r="C81" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4152,12 +4180,12 @@
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
-        <v>150</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
+        <v>157</v>
       </c>
       <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
-        <v>DJENÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
       </c>
       <c r="C82" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4166,12 +4194,12 @@
     </row>
     <row r="83">
       <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
-        <v>151</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),159.0)</f>
+        <v>159</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
-        <v>DOMINGOS DUARTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI MUÑOZ")</f>
+        <v>JAVI MUÑOZ</v>
       </c>
       <c r="C83" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4180,12 +4208,12 @@
     </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
-        <v>155</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
+        <v>161</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIO MARTÍN")</f>
-        <v>MARIO MARTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
       </c>
       <c r="C84" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4194,12 +4222,12 @@
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),156.0)</f>
-        <v>156</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
+        <v>162</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBARRI")</f>
-        <v>ARAMBARRI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
+        <v>COBA</v>
       </c>
       <c r="C85" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4208,68 +4236,68 @@
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
-        <v>157</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),159.0)</f>
-        <v>159</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
+        <v>164</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI MUÑOZ")</f>
-        <v>JAVI MUÑOZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAZZANIGA")</f>
+        <v>GAZZANIGA</v>
       </c>
       <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
-        <v>161</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),166.0)</f>
+        <v>166</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARNAU")</f>
+        <v>ARNAU</v>
       </c>
       <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
-        <v>162</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
+        <v>167</v>
       </c>
       <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
-        <v>COBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO RINCÓN")</f>
+        <v>HUGO RINCÓN</v>
       </c>
       <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
+        <v>168</v>
       </c>
       <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
+        <v>VITOR REIS</v>
       </c>
       <c r="C90" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -4278,12 +4306,12 @@
     </row>
     <row r="91">
       <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
-        <v>164</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
+        <v>169</v>
       </c>
       <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAZZANIGA")</f>
-        <v>GAZZANIGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BLIND")</f>
+        <v>BLIND</v>
       </c>
       <c r="C91" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -4292,12 +4320,12 @@
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),166.0)</f>
-        <v>166</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
+        <v>178</v>
       </c>
       <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARNAU")</f>
-        <v>ARNAU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
+        <v>VANAT</v>
       </c>
       <c r="C92" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -4306,12 +4334,12 @@
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
-        <v>167</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179.0)</f>
+        <v>179</v>
       </c>
       <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO RINCÓN")</f>
-        <v>HUGO RINCÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STUANI")</f>
+        <v>STUANI</v>
       </c>
       <c r="C93" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -4320,68 +4348,68 @@
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
-        <v>168</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
+        <v>182</v>
       </c>
       <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
-        <v>VITOR REIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
+        <v>RYAN</v>
       </c>
       <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
-        <v>169</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
+        <v>183</v>
       </c>
       <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BLIND")</f>
-        <v>BLIND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
+        <v>PABLO CAMPOS</v>
       </c>
       <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
-        <v>178</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
+        <v>186</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
+        <v>ELGEZABAL</v>
       </c>
       <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179.0)</f>
-        <v>179</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),187.0)</f>
+        <v>187</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STUANI")</f>
-        <v>STUANI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATÍAS MORENO")</f>
+        <v>MATÍAS MORENO</v>
       </c>
       <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
-        <v>181</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
+        <v>189</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
+        <v>PAMPÍN</v>
       </c>
       <c r="C98" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -4390,12 +4418,12 @@
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
-        <v>182</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
+        <v>191</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
-        <v>RYAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
+        <v>PABLO MARTÍNEZ</v>
       </c>
       <c r="C99" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -4404,12 +4432,12 @@
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
-        <v>183</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
+        <v>196</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
-        <v>PABLO CAMPOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
+        <v>BRUGUÉ</v>
       </c>
       <c r="C100" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -4418,12 +4446,12 @@
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),184.0)</f>
-        <v>184</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
+        <v>198</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TOLJAN")</f>
-        <v>TOLJAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
+        <v>ETTA EYONG</v>
       </c>
       <c r="C101" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -4432,1104 +4460,1104 @@
     </row>
     <row r="102">
       <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),185.0)</f>
-        <v>185</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),200.0)</f>
+        <v>200</v>
       </c>
       <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DELA")</f>
-        <v>DELA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COURTOIS")</f>
+        <v>COURTOIS</v>
       </c>
       <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
-        <v>186</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
+        <v>201</v>
       </c>
       <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
-        <v>ELGEZABAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
+        <v>LUNIN</v>
       </c>
       <c r="C103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),187.0)</f>
-        <v>187</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
+        <v>205</v>
       </c>
       <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATÍAS MORENO")</f>
-        <v>MATÍAS MORENO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
+        <v>HUIJSEN</v>
       </c>
       <c r="C104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),188.0)</f>
-        <v>188</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
+        <v>214</v>
       </c>
       <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MANU SÁNCHEZ")</f>
-        <v>MANU SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
+        <v>MBAPPÉ</v>
       </c>
       <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
-        <v>189</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),215.0)</f>
+        <v>215</v>
       </c>
       <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
-        <v>PAMPÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
+        <v>GONZALO</v>
       </c>
       <c r="C106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),190.0)</f>
-        <v>190</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
+        <v>217</v>
       </c>
       <c r="B107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORIOL REY")</f>
-        <v>ORIOL REY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
-        <v>191</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
+        <v>218</v>
       </c>
       <c r="B108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
-        <v>PABLO MARTÍNEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
+        <v>LEO ROMÁN</v>
       </c>
       <c r="C108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),192.0)</f>
-        <v>192</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
+        <v>224</v>
       </c>
       <c r="B109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OLASAGASTI")</f>
-        <v>OLASAGASTI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
+        <v>KUMBULLA</v>
       </c>
       <c r="C109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),193.0)</f>
-        <v>193</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
+        <v>228</v>
       </c>
       <c r="B110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VENCEDOR")</f>
-        <v>VENCEDOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
+        <v>DARDER</v>
       </c>
       <c r="C110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),194.0)</f>
-        <v>194</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
+        <v>229</v>
       </c>
       <c r="B111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
-        <v>CARLOS ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
+        <v>MORLANES</v>
       </c>
       <c r="C111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
-        <v>195</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.0)</f>
+        <v>230</v>
       </c>
       <c r="B112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORALES")</f>
-        <v>MORALES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO TORRE")</f>
+        <v>PABLO TORRE</v>
       </c>
       <c r="C112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
-        <v>196</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
+        <v>231</v>
       </c>
       <c r="B113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
-        <v>BRUGUÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
+        <v>ASANO</v>
       </c>
       <c r="C113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),197.0)</f>
-        <v>197</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
+        <v>232</v>
       </c>
       <c r="B114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN ROMERO")</f>
-        <v>IVÁN ROMERO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
+        <v>MURIQI</v>
       </c>
       <c r="C114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
-        <v>198</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
+        <v>233</v>
       </c>
       <c r="B115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
-        <v>ETTA EYONG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
+        <v>MATEO JOSEPH</v>
       </c>
       <c r="C115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),200.0)</f>
-        <v>200</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
+        <v>239</v>
       </c>
       <c r="B116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COURTOIS")</f>
-        <v>COURTOIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
+        <v>BOYOMO</v>
       </c>
       <c r="C116" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
+        <v>241</v>
+      </c>
+      <c r="B117" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
+        <v>HERRANDO</v>
+      </c>
+      <c r="C117" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
+        <v>242</v>
+      </c>
+      <c r="B118" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
+        <v>JUAN CRUZ</v>
+      </c>
+      <c r="C118" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
+        <v>247</v>
+      </c>
+      <c r="B119" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUBÉN GARCÍA")</f>
+        <v>RUBÉN GARCÍA</v>
+      </c>
+      <c r="C119" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),249.0)</f>
+        <v>249</v>
+      </c>
+      <c r="B120" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
+      </c>
+      <c r="C120" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
+        <v>251</v>
+      </c>
+      <c r="B121" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUDIMIR")</f>
+        <v>BUDIMIR</v>
+      </c>
+      <c r="C121" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
+        <v>252</v>
+      </c>
+      <c r="B122" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECKER")</f>
+        <v>BECKER</v>
+      </c>
+      <c r="C122" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
+        <v>253</v>
+      </c>
+      <c r="B123" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C123" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
+        <v>254</v>
+      </c>
+      <c r="B124" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
+        <v>AARON ESCANDELL</v>
+      </c>
+      <c r="C124" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
+        <v>255</v>
+      </c>
+      <c r="B125" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLDOVAN")</f>
+        <v>MOLDOVAN</v>
+      </c>
+      <c r="C125" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
+      </c>
+      <c r="B126" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
+        <v>RAHIM ALHASSANE</v>
+      </c>
+      <c r="C126" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
+        <v>261</v>
+      </c>
+      <c r="B127" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
+        <v>COLOMBATTO</v>
+      </c>
+      <c r="C127" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
+        <v>263</v>
+      </c>
+      <c r="B128" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
+        <v>DENDONCKER</v>
+      </c>
+      <c r="C128" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
+        <v>266</v>
+      </c>
+      <c r="B129" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
+        <v>HASSAN</v>
+      </c>
+      <c r="C129" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
+        <v>268</v>
+      </c>
+      <c r="B130" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
+        <v>ILYAS CHAIRA</v>
+      </c>
+      <c r="C130" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
+        <v>271</v>
+      </c>
+      <c r="B131" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C131" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
+        <v>273</v>
+      </c>
+      <c r="B132" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
+        <v>CÁRDENAS</v>
+      </c>
+      <c r="C132" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.0)</f>
+        <v>274</v>
+      </c>
+      <c r="B133" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RATIU")</f>
+        <v>RATIU</v>
+      </c>
+      <c r="C133" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
+        <v>276</v>
+      </c>
+      <c r="B134" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
+        <v>LEJEUNE</v>
+      </c>
+      <c r="C134" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
+        <v>279</v>
+      </c>
+      <c r="B135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
+        <v>PATHÉ CISS</v>
+      </c>
+      <c r="C135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
+        <v>280</v>
+      </c>
+      <c r="B136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
+        <v>UNAI LOPEZ</v>
+      </c>
+      <c r="C136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
+        <v>282</v>
+      </c>
+      <c r="B137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
+        <v>ISI</v>
+      </c>
+      <c r="C137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
+        <v>285</v>
+      </c>
+      <c r="B138" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN PÉREZ")</f>
+        <v>FRAN PÉREZ</v>
+      </c>
+      <c r="C138" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
+      </c>
+      <c r="B139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
+        <v>CAMELLO</v>
+      </c>
+      <c r="C139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.0)</f>
+        <v>288</v>
+      </c>
+      <c r="B140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEMAO")</f>
+        <v>ALEMAO</v>
+      </c>
+      <c r="C140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
+        <v>289</v>
+      </c>
+      <c r="B141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
+        <v>294</v>
+      </c>
+      <c r="B142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZUBELDIA")</f>
+        <v>ZUBELDIA</v>
+      </c>
+      <c r="C142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
+      </c>
+      <c r="B143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
+        <v>SERGIO GÓMEZ</v>
+      </c>
+      <c r="C143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
+        <v>297</v>
+      </c>
+      <c r="B144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
+        <v>GORROTXATEGI</v>
+      </c>
+      <c r="C144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
+        <v>300</v>
+      </c>
+      <c r="B145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
+        <v>CARLOS SOLER</v>
+      </c>
+      <c r="C145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
+        <v>301</v>
+      </c>
+      <c r="B146" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
+        <v>BRAIS MÉNDEZ</v>
+      </c>
+      <c r="C146" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
+        <v>305</v>
+      </c>
+      <c r="B147" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
+        <v>ÓSKARSSON</v>
+      </c>
+      <c r="C147" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),308.0)</f>
+        <v>308</v>
+      </c>
+      <c r="B148" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VLACHODIMOS")</f>
+        <v>VLACHODIMOS</v>
+      </c>
+      <c r="C148" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
+        <v>310</v>
+      </c>
+      <c r="B149" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
+        <v>CARMONA</v>
+      </c>
+      <c r="C149" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
+      </c>
+      <c r="B150" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
+        <v>AZPILICUETA</v>
+      </c>
+      <c r="C150" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
+        <v>314</v>
+      </c>
+      <c r="B151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
+        <v>MARCAO</v>
+      </c>
+      <c r="C151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),319.0)</f>
+        <v>319</v>
+      </c>
+      <c r="B152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
+        <v>BATISTA MENDY</v>
+      </c>
+      <c r="C152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
+        <v>320</v>
+      </c>
+      <c r="B153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
+        <v>VARGAS</v>
+      </c>
+      <c r="C153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
+        <v>324</v>
+      </c>
+      <c r="B154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
+      </c>
+      <c r="C154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
+      </c>
+      <c r="B155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
+        <v>337</v>
+      </c>
+      <c r="B156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
+        <v>ANDRÉ ALMEIDA</v>
+      </c>
+      <c r="C156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
+        <v>339</v>
+      </c>
+      <c r="B157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
+        <v>DIEGO LÓPEZ</v>
+      </c>
+      <c r="C157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
+        <v>348</v>
+      </c>
+      <c r="B158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
+        <v>RAFA MARÍN</v>
+      </c>
+      <c r="C158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
+        <v>349</v>
+      </c>
+      <c r="B159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
+        <v>RENATO VEIGA</v>
+      </c>
+      <c r="C159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
+        <v>350</v>
+      </c>
+      <c r="B160" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
+        <v>SERGI CARDONA</v>
+      </c>
+      <c r="C160" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
+        <v>357</v>
+      </c>
+      <c r="B161" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MIKAUTADZE")</f>
+        <v>MIKAUTADZE</v>
+      </c>
+      <c r="C161" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),359.0)</f>
+        <v>359</v>
+      </c>
+      <c r="B162" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OLUWASEYI")</f>
+        <v>OLUWASEYI</v>
+      </c>
+      <c r="C162" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
+        <v>360</v>
+      </c>
+      <c r="B163" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
+        <v>AYOZE</v>
+      </c>
+      <c r="C163" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
+      </c>
+      <c r="B164" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
+      </c>
+      <c r="C164" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
+        <v>364</v>
+      </c>
+      <c r="B165" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="C165" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
+        <v>365</v>
+      </c>
+      <c r="B166" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="C166" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
+        <v>366</v>
+      </c>
+      <c r="B167" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="C167" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367.0)</f>
+        <v>367</v>
+      </c>
+      <c r="B168" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+      <c r="C168" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),372.0)</f>
+        <v>372</v>
+      </c>
+      <c r="B169" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
         <v>REAL MADRID</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
-        <v>201</v>
-      </c>
-      <c r="B117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
-        <v>LUNIN</v>
-      </c>
-      <c r="C117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
-        <v>205</v>
-      </c>
-      <c r="B118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
-        <v>HUIJSEN</v>
-      </c>
-      <c r="C118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
-        <v>214</v>
-      </c>
-      <c r="B119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
-        <v>MBAPPÉ</v>
-      </c>
-      <c r="C119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),215.0)</f>
-        <v>215</v>
-      </c>
-      <c r="B120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
-        <v>GONZALO</v>
-      </c>
-      <c r="C120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
-        <v>217</v>
-      </c>
-      <c r="B121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C121" s="20" t="str">
+      <c r="C169" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
+        <v>373</v>
+      </c>
+      <c r="B170" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
-      </c>
-      <c r="B122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
-      </c>
-      <c r="C122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
-        <v>224</v>
-      </c>
-      <c r="B123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
-        <v>KUMBULLA</v>
-      </c>
-      <c r="C123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
-        <v>228</v>
-      </c>
-      <c r="B124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
-        <v>DARDER</v>
-      </c>
-      <c r="C124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
-        <v>229</v>
-      </c>
-      <c r="B125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
-        <v>MORLANES</v>
-      </c>
-      <c r="C125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.0)</f>
-        <v>230</v>
-      </c>
-      <c r="B126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO TORRE")</f>
-        <v>PABLO TORRE</v>
-      </c>
-      <c r="C126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
-        <v>231</v>
-      </c>
-      <c r="B127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
-        <v>ASANO</v>
-      </c>
-      <c r="C127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
-        <v>232</v>
-      </c>
-      <c r="B128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
-        <v>MURIQI</v>
-      </c>
-      <c r="C128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
-        <v>233</v>
-      </c>
-      <c r="B129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
-      </c>
-      <c r="C129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
-      </c>
-      <c r="B130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
-        <v>AITOR FERNÁNDEZ</v>
-      </c>
-      <c r="C130" s="20" t="str">
+      <c r="C170" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
+        <v>375</v>
+      </c>
+      <c r="B171" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="C171" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376.0)</f>
+        <v>376</v>
+      </c>
+      <c r="B172" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="C172" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
+        <v>377</v>
+      </c>
+      <c r="B173" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+      <c r="C173" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
+        <v>378</v>
+      </c>
+      <c r="B174" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="C174" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
+        <v>380</v>
+      </c>
+      <c r="B175" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="C175" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
+        <v>383</v>
+      </c>
+      <c r="B176" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
+      </c>
+      <c r="C176" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
+        <v>384</v>
+      </c>
+      <c r="B177" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
+      </c>
+      <c r="C177" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
         <v>CA OSASUNA</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
-        <v>239</v>
-      </c>
-      <c r="B131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
-        <v>BOYOMO</v>
-      </c>
-      <c r="C131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
-        <v>241</v>
-      </c>
-      <c r="B132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
-        <v>HERRANDO</v>
-      </c>
-      <c r="C132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
-      </c>
-      <c r="B133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
-        <v>JUAN CRUZ</v>
-      </c>
-      <c r="C133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
-        <v>247</v>
-      </c>
-      <c r="B134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUBÉN GARCÍA")</f>
-        <v>RUBÉN GARCÍA</v>
-      </c>
-      <c r="C134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),249.0)</f>
-        <v>249</v>
-      </c>
-      <c r="B135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
-      </c>
-      <c r="C135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
-        <v>251</v>
-      </c>
-      <c r="B136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUDIMIR")</f>
-        <v>BUDIMIR</v>
-      </c>
-      <c r="C136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
-        <v>252</v>
-      </c>
-      <c r="B137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECKER")</f>
-        <v>BECKER</v>
-      </c>
-      <c r="C137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
-      </c>
-      <c r="B138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
-        <v>254</v>
-      </c>
-      <c r="B139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
-        <v>AARON ESCANDELL</v>
-      </c>
-      <c r="C139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
-        <v>255</v>
-      </c>
-      <c r="B140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLDOVAN")</f>
-        <v>MOLDOVAN</v>
-      </c>
-      <c r="C140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
-      </c>
-      <c r="B141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
-        <v>RAHIM ALHASSANE</v>
-      </c>
-      <c r="C141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
-        <v>261</v>
-      </c>
-      <c r="B142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
-        <v>COLOMBATTO</v>
-      </c>
-      <c r="C142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
-        <v>263</v>
-      </c>
-      <c r="B143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
-        <v>DENDONCKER</v>
-      </c>
-      <c r="C143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
-        <v>266</v>
-      </c>
-      <c r="B144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
-        <v>HASSAN</v>
-      </c>
-      <c r="C144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
-        <v>268</v>
-      </c>
-      <c r="B145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
-        <v>ILYAS CHAIRA</v>
-      </c>
-      <c r="C145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
-        <v>271</v>
-      </c>
-      <c r="B146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C146" s="20" t="str">
+    <row r="178">
+      <c r="A178" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
+        <v>385</v>
+      </c>
+      <c r="B178" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
+        <v>BATALLA</v>
+      </c>
+      <c r="C178" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
         <v>RAYO VALLECANO</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),272.0)</f>
-        <v>272</v>
-      </c>
-      <c r="B147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
-        <v>BATALLA</v>
-      </c>
-      <c r="C147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
-        <v>273</v>
-      </c>
-      <c r="B148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
-        <v>CÁRDENAS</v>
-      </c>
-      <c r="C148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),274.0)</f>
-        <v>274</v>
-      </c>
-      <c r="B149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RATIU")</f>
-        <v>RATIU</v>
-      </c>
-      <c r="C149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
-        <v>275</v>
-      </c>
-      <c r="B150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALLIU")</f>
-        <v>BALLIU</v>
-      </c>
-      <c r="C150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
-        <v>276</v>
-      </c>
-      <c r="B151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
-      </c>
-      <c r="C151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
-      </c>
-      <c r="B152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
-        <v>LUIZ FELIPE</v>
-      </c>
-      <c r="C152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
-      </c>
-      <c r="B153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
-      </c>
-      <c r="C153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
-        <v>279</v>
-      </c>
-      <c r="B154" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
-        <v>PATHÉ CISS</v>
-      </c>
-      <c r="C154" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
-        <v>280</v>
-      </c>
-      <c r="B155" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
-        <v>UNAI LOPEZ</v>
-      </c>
-      <c r="C155" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
-        <v>281</v>
-      </c>
-      <c r="B156" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
-        <v>ÓSCAR VALENTÍN</v>
-      </c>
-      <c r="C156" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
-        <v>282</v>
-      </c>
-      <c r="B157" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
-        <v>ISI</v>
-      </c>
-      <c r="C157" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
-      </c>
-      <c r="B158" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
-        <v>PEDRO DÍAZ</v>
-      </c>
-      <c r="C158" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.0)</f>
-        <v>284</v>
-      </c>
-      <c r="B159" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO GARCÍA")</f>
-        <v>ÁLVARO GARCÍA</v>
-      </c>
-      <c r="C159" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
-        <v>285</v>
-      </c>
-      <c r="B160" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN PÉREZ")</f>
-        <v>FRAN PÉREZ</v>
-      </c>
-      <c r="C160" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
-        <v>286</v>
-      </c>
-      <c r="B161" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
-        <v>CAMELLO</v>
-      </c>
-      <c r="C161" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),287.0)</f>
-        <v>287</v>
-      </c>
-      <c r="B162" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DE FRUTOS")</f>
-        <v>DE FRUTOS</v>
-      </c>
-      <c r="C162" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.0)</f>
-        <v>288</v>
-      </c>
-      <c r="B163" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEMAO")</f>
-        <v>ALEMAO</v>
-      </c>
-      <c r="C163" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
-        <v>289</v>
-      </c>
-      <c r="B164" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C164" s="20" t="str">
+    <row r="179">
+      <c r="A179" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
+        <v>386</v>
+      </c>
+      <c r="B179" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
+      </c>
+      <c r="C179" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
-        <v>294</v>
-      </c>
-      <c r="B165" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZUBELDIA")</f>
-        <v>ZUBELDIA</v>
-      </c>
-      <c r="C165" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
-        <v>296</v>
-      </c>
-      <c r="B166" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
-        <v>SERGIO GÓMEZ</v>
-      </c>
-      <c r="C166" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
-        <v>297</v>
-      </c>
-      <c r="B167" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
-      </c>
-      <c r="C167" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
-        <v>300</v>
-      </c>
-      <c r="B168" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
-      </c>
-      <c r="C168" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
-        <v>301</v>
-      </c>
-      <c r="B169" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
-        <v>BRAIS MÉNDEZ</v>
-      </c>
-      <c r="C169" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
-        <v>305</v>
-      </c>
-      <c r="B170" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
-        <v>ÓSKARSSON</v>
-      </c>
-      <c r="C170" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),308.0)</f>
-        <v>308</v>
-      </c>
-      <c r="B171" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VLACHODIMOS")</f>
-        <v>VLACHODIMOS</v>
-      </c>
-      <c r="C171" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
-        <v>310</v>
-      </c>
-      <c r="B172" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
-        <v>CARMONA</v>
-      </c>
-      <c r="C172" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
-        <v>312</v>
-      </c>
-      <c r="B173" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
-        <v>AZPILICUETA</v>
-      </c>
-      <c r="C173" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
-        <v>314</v>
-      </c>
-      <c r="B174" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
-        <v>MARCAO</v>
-      </c>
-      <c r="C174" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),319.0)</f>
-        <v>319</v>
-      </c>
-      <c r="B175" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
-        <v>BATISTA MENDY</v>
-      </c>
-      <c r="C175" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
-        <v>320</v>
-      </c>
-      <c r="B176" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
-      </c>
-      <c r="C176" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
-        <v>324</v>
-      </c>
-      <c r="B177" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
-      </c>
-      <c r="C177" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
-      </c>
-      <c r="B178" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C178" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),336.0)</f>
-        <v>336</v>
-      </c>
-      <c r="B179" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI GUERRA")</f>
-        <v>JAVI GUERRA</v>
-      </c>
-      <c r="C179" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-    </row>
     <row r="180">
       <c r="A180" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
-        <v>337</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
       </c>
       <c r="B180" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
-        <v>ANDRÉ ALMEIDA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C180" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -5538,502 +5566,502 @@
     </row>
     <row r="181">
       <c r="A181" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
-        <v>339</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
+        <v>388</v>
       </c>
       <c r="B181" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
-        <v>DIEGO LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
+        <v>LAPORTE</v>
       </c>
       <c r="C181" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),389.0)</f>
+        <v>389</v>
+      </c>
+      <c r="B182" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VIVIAN")</f>
+        <v>VIVIAN</v>
+      </c>
+      <c r="C182" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
+        <v>390</v>
+      </c>
+      <c r="B183" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
+        <v>LE NORMAND</v>
+      </c>
+      <c r="C183" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),393.0)</f>
+        <v>393</v>
+      </c>
+      <c r="B184" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILITAO")</f>
+        <v>MILITAO</v>
+      </c>
+      <c r="C184" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
+        <v>394</v>
+      </c>
+      <c r="B185" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
+        <v>LEJEUNE</v>
+      </c>
+      <c r="C185" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),395.0)</f>
+        <v>395</v>
+      </c>
+      <c r="B186" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
+      </c>
+      <c r="C186" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
         <v>VALENCIA CF</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),340.0)</f>
-        <v>340</v>
-      </c>
-      <c r="B182" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAMAZANI")</f>
-        <v>RAMAZANI</v>
-      </c>
-      <c r="C182" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),346.0)</f>
-        <v>346</v>
-      </c>
-      <c r="B183" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOURIÑO")</f>
-        <v>MOURIÑO</v>
-      </c>
-      <c r="C183" s="20" t="str">
+    <row r="187">
+      <c r="A187" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
+        <v>397</v>
+      </c>
+      <c r="B187" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
+        <v>REGO</v>
+      </c>
+      <c r="C187" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
+        <v>399</v>
+      </c>
+      <c r="B188" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
+      </c>
+      <c r="C188" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
+        <v>401</v>
+      </c>
+      <c r="B189" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
+        <v>RODRI MENDOZA</v>
+      </c>
+      <c r="C189" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
+        <v>410</v>
+      </c>
+      <c r="B190" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
+        <v>GONZALO</v>
+      </c>
+      <c r="C190" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),411.0)</f>
+        <v>411</v>
+      </c>
+      <c r="B191" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
+        <v>JAN VIRGILI</v>
+      </c>
+      <c r="C191" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
+        <v>412</v>
+      </c>
+      <c r="B192" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
+        <v>MATEO JOSEPH</v>
+      </c>
+      <c r="C192" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
+        <v>417</v>
+      </c>
+      <c r="B193" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
+        <v>FEBAS</v>
+      </c>
+      <c r="C193" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
+        <v>418</v>
+      </c>
+      <c r="B194" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
+      </c>
+      <c r="C194" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
+        <v>420</v>
+      </c>
+      <c r="B195" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
+        <v>DARDER</v>
+      </c>
+      <c r="C195" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
+        <v>423</v>
+      </c>
+      <c r="B196" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
+        <v>UNAI LÓPEZ</v>
+      </c>
+      <c r="C196" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
+        <v>424</v>
+      </c>
+      <c r="B197" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
+        <v>TENAGLIA</v>
+      </c>
+      <c r="C197" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
+        <v>428</v>
+      </c>
+      <c r="B198" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
+      </c>
+      <c r="C198" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.0)</f>
+        <v>429</v>
+      </c>
+      <c r="B199" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
+      </c>
+      <c r="C199" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
+        <v>430</v>
+      </c>
+      <c r="B200" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
+        <v>VANAT</v>
+      </c>
+      <c r="C200" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),432.0)</f>
+        <v>432</v>
+      </c>
+      <c r="B201" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TCHOUAMÉNI")</f>
+        <v>TCHOUAMÉNI</v>
+      </c>
+      <c r="C201" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
+        <v>433</v>
+      </c>
+      <c r="B202" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
+        <v>LEO ROMÁN</v>
+      </c>
+      <c r="C202" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.0)</f>
+        <v>435</v>
+      </c>
+      <c r="B203" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
+        <v>HASSAN</v>
+      </c>
+      <c r="C203" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
+        <v>437</v>
+      </c>
+      <c r="B204" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
+        <v>GORROTXATEGI</v>
+      </c>
+      <c r="C204" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
+        <v>438</v>
+      </c>
+      <c r="B205" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
+        <v>BATISTA MENDY</v>
+      </c>
+      <c r="C205" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
+        <v>441</v>
+      </c>
+      <c r="B206" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
+        <v>BUCHANAN</v>
+      </c>
+      <c r="C206" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
-        <v>348</v>
-      </c>
-      <c r="B184" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
-        <v>RAFA MARÍN</v>
-      </c>
-      <c r="C184" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
-        <v>349</v>
-      </c>
-      <c r="B185" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
-        <v>RENATO VEIGA</v>
-      </c>
-      <c r="C185" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
-        <v>350</v>
-      </c>
-      <c r="B186" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
-        <v>SERGI CARDONA</v>
-      </c>
-      <c r="C186" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
-      </c>
-      <c r="B187" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
-        <v>SANTI COMESAÑA</v>
-      </c>
-      <c r="C187" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),353.0)</f>
-        <v>353</v>
-      </c>
-      <c r="B188" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAREJO")</f>
-        <v>PAREJO</v>
-      </c>
-      <c r="C188" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),356.0)</f>
-        <v>356</v>
-      </c>
-      <c r="B189" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
-        <v>BUCHANAN</v>
-      </c>
-      <c r="C189" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
-        <v>357</v>
-      </c>
-      <c r="B190" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MIKAUTADZE")</f>
-        <v>MIKAUTADZE</v>
-      </c>
-      <c r="C190" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),359.0)</f>
-        <v>359</v>
-      </c>
-      <c r="B191" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OLUWASEYI")</f>
-        <v>OLUWASEYI</v>
-      </c>
-      <c r="C191" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
-        <v>360</v>
-      </c>
-      <c r="B192" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
-        <v>AYOZE</v>
-      </c>
-      <c r="C192" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
-      </c>
-      <c r="B193" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-      <c r="C193" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),362.0)</f>
-        <v>362</v>
-      </c>
-      <c r="B194" s="20" t="str">
+    <row r="207">
+      <c r="A207" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
+        <v>442</v>
+      </c>
+      <c r="B207" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
+        <v>UNAI SIMÓN</v>
+      </c>
+      <c r="C207" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
         <v>ATHLETIC CLUB</v>
       </c>
-      <c r="C194" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
-        <v>364</v>
-      </c>
-      <c r="B195" s="20" t="str">
+    </row>
+    <row r="208">
+      <c r="A208" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
+        <v>443</v>
+      </c>
+      <c r="B208" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
+        <v>JAUREGIZAR</v>
+      </c>
+      <c r="C208" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
+        <v>445</v>
+      </c>
+      <c r="B209" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
+        <v>MARCOS LLORENTE</v>
+      </c>
+      <c r="C209" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
+        <v>446</v>
+      </c>
+      <c r="B210" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
+        <v>ÁLEX BAENA</v>
+      </c>
+      <c r="C210" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),450.0)</f>
+        <v>450</v>
+      </c>
+      <c r="B211" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALDE")</f>
+        <v>BALDE</v>
+      </c>
+      <c r="C211" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
         <v>FC BARCELONA</v>
       </c>
-      <c r="C195" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
-        <v>365</v>
-      </c>
-      <c r="B196" s="20" t="str">
+    </row>
+    <row r="212">
+      <c r="A212" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
+        <v>451</v>
+      </c>
+      <c r="B212" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
+        <v>RAPHINHA</v>
+      </c>
+      <c r="C212" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
+        <v>453</v>
+      </c>
+      <c r="B213" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
+        <v>RASHFORD</v>
+      </c>
+      <c r="C213" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
+        <v>454</v>
+      </c>
+      <c r="B214" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISCO")</f>
+        <v>ISCO</v>
+      </c>
+      <c r="C214" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
-      <c r="C196" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
-        <v>366</v>
-      </c>
-      <c r="B197" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-      <c r="C197" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367.0)</f>
-        <v>367</v>
-      </c>
-      <c r="B198" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-      <c r="C198" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
-        <v>371</v>
-      </c>
-      <c r="B199" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-      <c r="C199" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),372.0)</f>
-        <v>372</v>
-      </c>
-      <c r="B200" s="20" t="str">
+    </row>
+    <row r="215">
+      <c r="A215" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),457.0)</f>
+        <v>457</v>
+      </c>
+      <c r="B215" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COURTOIS")</f>
+        <v>COURTOIS</v>
+      </c>
+      <c r="C215" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
         <v>REAL MADRID</v>
       </c>
-      <c r="C200" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
-        <v>373</v>
-      </c>
-      <c r="B201" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-      <c r="C201" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
-        <v>375</v>
-      </c>
-      <c r="B202" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="C202" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376.0)</f>
-        <v>376</v>
-      </c>
-      <c r="B203" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-      <c r="C203" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
-        <v>377</v>
-      </c>
-      <c r="B204" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-      <c r="C204" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
-        <v>378</v>
-      </c>
-      <c r="B205" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-      <c r="C205" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
-        <v>380</v>
-      </c>
-      <c r="B206" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="C206" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),381.0)</f>
-        <v>381</v>
-      </c>
-      <c r="B207" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SIVERA")</f>
-        <v>SIVERA</v>
-      </c>
-      <c r="C207" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
-        <v>383</v>
-      </c>
-      <c r="B208" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
-      </c>
-      <c r="C208" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
-        <v>384</v>
-      </c>
-      <c r="B209" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
-      </c>
-      <c r="C209" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
-        <v>385</v>
-      </c>
-      <c r="B210" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
-        <v>BATALLA</v>
-      </c>
-      <c r="C210" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
-        <v>386</v>
-      </c>
-      <c r="B211" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
-      </c>
-      <c r="C211" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
-        <v>387</v>
-      </c>
-      <c r="B212" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
-      </c>
-      <c r="C212" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
-        <v>388</v>
-      </c>
-      <c r="B213" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
-        <v>LAPORTE</v>
-      </c>
-      <c r="C213" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),389.0)</f>
-        <v>389</v>
-      </c>
-      <c r="B214" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VIVIAN")</f>
-        <v>VIVIAN</v>
-      </c>
-      <c r="C214" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
-        <v>390</v>
-      </c>
-      <c r="B215" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
-        <v>LE NORMAND</v>
-      </c>
-      <c r="C215" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),393.0)</f>
-        <v>393</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
+        <v>459</v>
       </c>
       <c r="B216" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILITAO")</f>
-        <v>MILITAO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
       </c>
       <c r="C216" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6042,996 +6070,254 @@
     </row>
     <row r="217">
       <c r="A217" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
-        <v>394</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
+        <v>460</v>
       </c>
       <c r="B217" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
+        <v>MASTANTUONO</v>
       </c>
       <c r="C217" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),463.0)</f>
+        <v>463</v>
+      </c>
+      <c r="B218" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUBO")</f>
+        <v>KUBO</v>
+      </c>
+      <c r="C218" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
+        <v>464</v>
+      </c>
+      <c r="B219" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
+        <v>VARGAS</v>
+      </c>
+      <c r="C219" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
+        <v>466</v>
+      </c>
+      <c r="B220" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
+        <v>MOLEIRO</v>
+      </c>
+      <c r="C220" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
+        <v>468</v>
+      </c>
+      <c r="B221" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
+        <v>CARD CHAMPIONS</v>
+      </c>
+      <c r="C221" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
+        <v>470</v>
+      </c>
+      <c r="B222" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
+        <v>JULIÁN ÁLVAREZ</v>
+      </c>
+      <c r="C222" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
+        <v>BALÓN DE ORO (ATLÉTICO)</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
+        <v>471</v>
+      </c>
+      <c r="B223" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
+        <v>PEDRI</v>
+      </c>
+      <c r="C223" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
+        <v>BALÓN DE ORO (BARÇA)</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
+        <v>472</v>
+      </c>
+      <c r="B224" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
+        <v>LAMINE YAMAL</v>
+      </c>
+      <c r="C224" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
+        <v>BALÓN DE ORO (BARÇA)</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
+        <v>473</v>
+      </c>
+      <c r="B225" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
+      </c>
+      <c r="C225" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (REAL MADRID)")</f>
+        <v>BALÓN DE ORO (REAL MADRID)</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
+        <v>475</v>
+      </c>
+      <c r="B226" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
+        <v>BALÓN DE ORO EXCELLENCE</v>
+      </c>
+      <c r="C226" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
+        <v>476</v>
+      </c>
+      <c r="B227" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
+        <v>CARD ATÓMICA</v>
+      </c>
+      <c r="C227" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),478.0)</f>
+        <v>478</v>
+      </c>
+      <c r="B228" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMPEÓN CARD")</f>
+        <v>CAMPEÓN CARD</v>
+      </c>
+      <c r="C228" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
+        <v>91</v>
+      </c>
+      <c r="B229" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C229" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
+      </c>
+      <c r="B230" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C230" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
+        <v>181</v>
+      </c>
+      <c r="B231" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C231" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
+        <v>217</v>
+      </c>
+      <c r="B232" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C232" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
+      </c>
+      <c r="B233" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C233" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
+        <v>271</v>
+      </c>
+      <c r="B234" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C234" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
         <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),395.0)</f>
-        <v>395</v>
-      </c>
-      <c r="B218" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
-      </c>
-      <c r="C218" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
-        <v>397</v>
-      </c>
-      <c r="B219" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
-        <v>REGO</v>
-      </c>
-      <c r="C219" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
-        <v>399</v>
-      </c>
-      <c r="B220" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
-      </c>
-      <c r="C220" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
-        <v>401</v>
-      </c>
-      <c r="B221" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
-        <v>RODRI MENDOZA</v>
-      </c>
-      <c r="C221" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
-        <v>407</v>
-      </c>
-      <c r="B222" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
-        <v>CARLOS ÁLVAREZ</v>
-      </c>
-      <c r="C222" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.0)</f>
-        <v>408</v>
-      </c>
-      <c r="B223" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
-        <v>ETTA EYONG</v>
-      </c>
-      <c r="C223" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
-        <v>410</v>
-      </c>
-      <c r="B224" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
-        <v>GONZALO</v>
-      </c>
-      <c r="C224" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),411.0)</f>
-        <v>411</v>
-      </c>
-      <c r="B225" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
-        <v>JAN VIRGILI</v>
-      </c>
-      <c r="C225" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
-        <v>412</v>
-      </c>
-      <c r="B226" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
-      </c>
-      <c r="C226" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
-        <v>417</v>
-      </c>
-      <c r="B227" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
-      </c>
-      <c r="C227" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
-        <v>418</v>
-      </c>
-      <c r="B228" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
-      </c>
-      <c r="C228" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
-        <v>420</v>
-      </c>
-      <c r="B229" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
-        <v>DARDER</v>
-      </c>
-      <c r="C229" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
-        <v>423</v>
-      </c>
-      <c r="B230" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
-        <v>UNAI LÓPEZ</v>
-      </c>
-      <c r="C230" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
-        <v>424</v>
-      </c>
-      <c r="B231" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
-        <v>TENAGLIA</v>
-      </c>
-      <c r="C231" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
-        <v>425</v>
-      </c>
-      <c r="B232" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
-        <v>CARLOS VICENTE</v>
-      </c>
-      <c r="C232" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
-        <v>428</v>
-      </c>
-      <c r="B233" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
-      </c>
-      <c r="C233" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.0)</f>
-        <v>429</v>
-      </c>
-      <c r="B234" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
-      </c>
-      <c r="C234" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
-        <v>430</v>
-      </c>
-      <c r="B235" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
-      </c>
-      <c r="C235" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),431.0)</f>
-        <v>431</v>
-      </c>
-      <c r="B236" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MANU SÁNCHEZ")</f>
-        <v>MANU SÁNCHEZ</v>
-      </c>
-      <c r="C236" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),432.0)</f>
-        <v>432</v>
-      </c>
-      <c r="B237" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TCHOUAMÉNI")</f>
-        <v>TCHOUAMÉNI</v>
-      </c>
-      <c r="C237" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
-        <v>433</v>
-      </c>
-      <c r="B238" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
-      </c>
-      <c r="C238" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.0)</f>
-        <v>435</v>
-      </c>
-      <c r="B239" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
-        <v>HASSAN</v>
-      </c>
-      <c r="C239" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
-        <v>437</v>
-      </c>
-      <c r="B240" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
-      </c>
-      <c r="C240" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
-        <v>438</v>
-      </c>
-      <c r="B241" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
-        <v>BATISTA MENDY</v>
-      </c>
-      <c r="C241" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
-        <v>441</v>
-      </c>
-      <c r="B242" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
-        <v>BUCHANAN</v>
-      </c>
-      <c r="C242" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
-        <v>442</v>
-      </c>
-      <c r="B243" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
-        <v>UNAI SIMÓN</v>
-      </c>
-      <c r="C243" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
-        <v>443</v>
-      </c>
-      <c r="B244" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
-        <v>JAUREGIZAR</v>
-      </c>
-      <c r="C244" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
-        <v>445</v>
-      </c>
-      <c r="B245" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
-        <v>MARCOS LLORENTE</v>
-      </c>
-      <c r="C245" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
-        <v>446</v>
-      </c>
-      <c r="B246" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
-        <v>ÁLEX BAENA</v>
-      </c>
-      <c r="C246" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),447.0)</f>
-        <v>447</v>
-      </c>
-      <c r="B247" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
-        <v>ALMADA</v>
-      </c>
-      <c r="C247" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),450.0)</f>
-        <v>450</v>
-      </c>
-      <c r="B248" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALDE")</f>
-        <v>BALDE</v>
-      </c>
-      <c r="C248" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
-        <v>451</v>
-      </c>
-      <c r="B249" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
-        <v>RAPHINHA</v>
-      </c>
-      <c r="C249" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
-        <v>453</v>
-      </c>
-      <c r="B250" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
-        <v>RASHFORD</v>
-      </c>
-      <c r="C250" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
-        <v>454</v>
-      </c>
-      <c r="B251" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISCO")</f>
-        <v>ISCO</v>
-      </c>
-      <c r="C251" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),457.0)</f>
-        <v>457</v>
-      </c>
-      <c r="B252" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COURTOIS")</f>
-        <v>COURTOIS</v>
-      </c>
-      <c r="C252" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
-        <v>459</v>
-      </c>
-      <c r="B253" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
-      </c>
-      <c r="C253" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
-        <v>460</v>
-      </c>
-      <c r="B254" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
-        <v>MASTANTUONO</v>
-      </c>
-      <c r="C254" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
-        <v>462</v>
-      </c>
-      <c r="B255" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
-        <v>ISI</v>
-      </c>
-      <c r="C255" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),463.0)</f>
-        <v>463</v>
-      </c>
-      <c r="B256" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUBO")</f>
-        <v>KUBO</v>
-      </c>
-      <c r="C256" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
-        <v>464</v>
-      </c>
-      <c r="B257" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
-      </c>
-      <c r="C257" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
-        <v>466</v>
-      </c>
-      <c r="B258" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
-        <v>MOLEIRO</v>
-      </c>
-      <c r="C258" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
-        <v>468</v>
-      </c>
-      <c r="B259" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
-        <v>CARD CHAMPIONS</v>
-      </c>
-      <c r="C259" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
-        <v>469</v>
-      </c>
-      <c r="B260" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
-        <v>NICO WILLIAMS</v>
-      </c>
-      <c r="C260" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
-        <v>BALÓN DE ORO (ATHLETIC)</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
-        <v>470</v>
-      </c>
-      <c r="B261" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
-        <v>JULIÁN ÁLVAREZ</v>
-      </c>
-      <c r="C261" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
-        <v>BALÓN DE ORO (ATLÉTICO)</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
-        <v>471</v>
-      </c>
-      <c r="B262" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
-        <v>PEDRI</v>
-      </c>
-      <c r="C262" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
-        <v>472</v>
-      </c>
-      <c r="B263" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
-      </c>
-      <c r="C263" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
-        <v>473</v>
-      </c>
-      <c r="B264" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
-      </c>
-      <c r="C264" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (REAL MADRID)")</f>
-        <v>BALÓN DE ORO (REAL MADRID)</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
-        <v>475</v>
-      </c>
-      <c r="B265" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
-        <v>BALÓN DE ORO EXCELLENCE</v>
-      </c>
-      <c r="C265" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
-        <v>476</v>
-      </c>
-      <c r="B266" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
-        <v>CARD ATÓMICA</v>
-      </c>
-      <c r="C266" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),478.0)</f>
-        <v>478</v>
-      </c>
-      <c r="B267" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMPEÓN CARD")</f>
-        <v>CAMPEÓN CARD</v>
-      </c>
-      <c r="C267" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-      <c r="B268" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C268" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
-      </c>
-      <c r="B269" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C269" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
-      </c>
-      <c r="B270" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C270" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
-        <v>55</v>
-      </c>
-      <c r="B271" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C271" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
-        <v>73</v>
-      </c>
-      <c r="B272" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C272" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
-        <v>91</v>
-      </c>
-      <c r="B273" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C273" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),109.0)</f>
-        <v>109</v>
-      </c>
-      <c r="B274" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C274" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
-        <v>127</v>
-      </c>
-      <c r="B275" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C275" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
-      </c>
-      <c r="B276" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C276" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
-      </c>
-      <c r="B277" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C277" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
-        <v>181</v>
-      </c>
-      <c r="B278" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C278" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),199.0)</f>
-        <v>199</v>
-      </c>
-      <c r="B279" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C279" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
-        <v>217</v>
-      </c>
-      <c r="B280" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C280" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
-      </c>
-      <c r="B281" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C281" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
-      </c>
-      <c r="B282" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C282" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
-        <v>271</v>
-      </c>
-      <c r="B283" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C283" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
-        <v>289</v>
-      </c>
-      <c r="B284" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C284" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),307.0)</f>
-        <v>307</v>
-      </c>
-      <c r="B285" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C285" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
-      </c>
-      <c r="B286" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C286" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
-      </c>
-      <c r="B287" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C287" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
       </c>
     </row>
   </sheetData>
@@ -7079,8 +6365,908 @@
         <v>D. ALAVÉS</v>
       </c>
       <c r="D1" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
+      </c>
+      <c r="B2" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JONNY")</f>
+        <v>JONNY</v>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
+      </c>
+      <c r="D2" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
+      </c>
+      <c r="B3" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
+        <v>RUIZ DE GALARRETA</v>
+      </c>
+      <c r="C3" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+      <c r="D3" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
+      </c>
+      <c r="B4" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
+        <v>MAROAN</v>
+      </c>
+      <c r="C4" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+      <c r="D4" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+      <c r="B5" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
+      </c>
+      <c r="C5" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D5" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
+      </c>
+      <c r="B6" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
+        <v>ALMADA</v>
+      </c>
+      <c r="C6" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D6" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
+        <v>64</v>
+      </c>
+      <c r="B7" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAVI")</f>
+        <v>GAVI</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D7" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
+      </c>
+      <c r="B8" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
+        <v>DANI OLMO</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D8" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
+      </c>
+      <c r="B9" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
+        <v>BELLERÍN</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D9" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
+      </c>
+      <c r="B10" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
+      </c>
+      <c r="C10" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D10" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
+      </c>
+      <c r="B11" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
+      </c>
+      <c r="C11" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D11" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
+      </c>
+      <c r="B12" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
+      </c>
+      <c r="C12" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D12" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
+      </c>
+      <c r="B13" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
+        <v>IÑAKI PEÑA</v>
+      </c>
+      <c r="C13" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+      <c r="D13" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
+      </c>
+      <c r="B14" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+      <c r="D14" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
+        <v>127</v>
+      </c>
+      <c r="B15" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C15" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D15" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
+        <v>130</v>
+      </c>
+      <c r="B16" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EL HILALI")</f>
+        <v>EL HILALI</v>
+      </c>
+      <c r="C16" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D16" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),154.0)</f>
+        <v>154</v>
+      </c>
+      <c r="B17" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVINCHI")</f>
+        <v>DAVINCHI</v>
+      </c>
+      <c r="C17" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D17" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
+      </c>
+      <c r="B18" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
+        <v>JOEL ROCA</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+      <c r="D18" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),180.0)</f>
+        <v>180</v>
+      </c>
+      <c r="B19" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN GIL")</f>
+        <v>BRYAN GIL</v>
+      </c>
+      <c r="C19" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+      <c r="D19" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
+        <v>202</v>
+      </c>
+      <c r="B20" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
+        <v>CARVAJAL</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D20" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
+      </c>
+      <c r="B21" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
+      </c>
+      <c r="C21" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D21" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
+      </c>
+      <c r="B22" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C22" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D22" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),240.0)</f>
+        <v>240</v>
+      </c>
+      <c r="B23" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CATENA")</f>
+        <v>CATENA</v>
+      </c>
+      <c r="C23" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D23" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
+      </c>
+      <c r="B24" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
+      </c>
+      <c r="C24" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D24" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
+      </c>
+      <c r="B25" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
+      </c>
+      <c r="C25" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D25" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),272.0)</f>
+        <v>272</v>
+      </c>
+      <c r="B26" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
+        <v>BATALLA</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D26" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
+        <v>281</v>
+      </c>
+      <c r="B27" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
+        <v>ÓSCAR VALENTÍN</v>
+      </c>
+      <c r="C27" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D27" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
+      </c>
+      <c r="B28" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
+        <v>PEDRO DÍAZ</v>
+      </c>
+      <c r="C28" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D28" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
+        <v>292</v>
+      </c>
+      <c r="B29" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBURU")</f>
+        <v>ARAMBURU</v>
+      </c>
+      <c r="C29" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+      <c r="D29" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
+      </c>
+      <c r="B30" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
+        <v>CALETA-CAR</v>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+      <c r="D30" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
+      </c>
+      <c r="B31" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
+        <v>NYLAND</v>
+      </c>
+      <c r="C31" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D31" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
+        <v>313</v>
+      </c>
+      <c r="B32" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
+        <v>KIKE SALAS</v>
+      </c>
+      <c r="C32" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D32" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
+        <v>317</v>
+      </c>
+      <c r="B33" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGOUME")</f>
+        <v>AGOUME</v>
+      </c>
+      <c r="C33" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D33" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
+      </c>
+      <c r="B34" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
+        <v>AKOR ADAMS</v>
+      </c>
+      <c r="C34" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D34" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
+      </c>
+      <c r="B35" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D35" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
+      </c>
+      <c r="B36" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
+      </c>
+      <c r="C36" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D36" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
+      </c>
+      <c r="B37" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
+      </c>
+      <c r="C37" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D37" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
+      </c>
+      <c r="B38" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C38" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D38" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
+      </c>
+      <c r="B39" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C39" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D39" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
+      </c>
+      <c r="B40" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
+        <v>PAPE GUEYE</v>
+      </c>
+      <c r="C40" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D40" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
+      </c>
+      <c r="B41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="C41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+      <c r="D41" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
+      </c>
+      <c r="B42" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
+      </c>
+      <c r="C42" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D42" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
+      </c>
+      <c r="B43" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
+      </c>
+      <c r="C43" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D43" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
+      </c>
+      <c r="B44" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
+        <v>FRAN GONZÁLEZ</v>
+      </c>
+      <c r="C44" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D44" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),414.0)</f>
+        <v>414</v>
+      </c>
+      <c r="B45" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
+        <v>RENATO VEIGA</v>
+      </c>
+      <c r="C45" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D45" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
+      </c>
+      <c r="B46" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
+      </c>
+      <c r="C46" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D46" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
+      </c>
+      <c r="B47" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
+        <v>SOTELO</v>
+      </c>
+      <c r="C47" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D47" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),447.0)</f>
+        <v>447</v>
+      </c>
+      <c r="B48" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
+        <v>ALMADA</v>
+      </c>
+      <c r="C48" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D48" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
+        <v>452</v>
+      </c>
+      <c r="B49" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
+        <v>LEWANDOWSKI</v>
+      </c>
+      <c r="C49" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D49" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),465.0)</f>
+        <v>465</v>
+      </c>
+      <c r="B50" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI GUERRA")</f>
+        <v>JAVI GUERRA</v>
+      </c>
+      <c r="C50" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D50" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
+        <v>469</v>
+      </c>
+      <c r="B51" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
+        <v>NICO WILLIAMS</v>
+      </c>
+      <c r="C51" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
+        <v>BALÓN DE ORO (ATHLETIC)</v>
+      </c>
+      <c r="D51" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7116,7 +7302,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="22">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
@@ -7141,7 +7327,9 @@
       <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="21">
@@ -7156,6 +7344,9 @@
       <c r="D4" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E4" s="22">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="21">
@@ -7219,7 +7410,9 @@
       <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="21">
@@ -7452,6 +7645,9 @@
       <c r="D27" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E27" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="21">
@@ -7542,6 +7738,9 @@
       <c r="D34" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E34" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="21">
@@ -7629,7 +7828,9 @@
       <c r="C41" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="21"/>
+      <c r="D41" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="21">
@@ -7669,7 +7870,9 @@
       <c r="C44" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="21"/>
+      <c r="D44" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="21">
@@ -7696,6 +7899,9 @@
       <c r="D46" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E46" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="21">
@@ -7736,6 +7942,9 @@
       <c r="D49" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E49" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="21">
@@ -7928,6 +8137,9 @@
       <c r="D64" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E64" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="21">
@@ -7968,6 +8180,9 @@
       <c r="D67" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E67" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="21">
@@ -8084,6 +8299,9 @@
       <c r="D76" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E76" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="21">
@@ -8148,6 +8366,9 @@
       <c r="D81" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E81" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="21">
@@ -8484,6 +8705,9 @@
         <v>110</v>
       </c>
       <c r="D107" s="21"/>
+      <c r="E107" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="21">
@@ -8498,6 +8722,9 @@
       <c r="D108" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E108" s="22">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="21">
@@ -8526,6 +8753,9 @@
       <c r="D110" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E110" s="22">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="21">
@@ -8664,6 +8894,9 @@
       <c r="D121" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E121" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="21">
@@ -8744,6 +8977,9 @@
       <c r="D127" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E127" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="21">
@@ -8784,6 +9020,9 @@
       <c r="D130" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E130" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="21">
@@ -9094,6 +9333,9 @@
       <c r="D154" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E154" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="21">
@@ -9378,6 +9620,9 @@
       <c r="D176" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E176" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="21">
@@ -9430,6 +9675,9 @@
       <c r="D180" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E180" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="21">
@@ -9441,7 +9689,9 @@
       <c r="C181" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D181" s="21"/>
+      <c r="D181" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="21">
@@ -9477,7 +9727,9 @@
       <c r="C184" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D184" s="21"/>
+      <c r="D184" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="21">
@@ -9489,7 +9741,9 @@
       <c r="C185" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D185" s="21"/>
+      <c r="D185" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="21">
@@ -9525,7 +9779,9 @@
       <c r="C188" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="21"/>
+      <c r="D188" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="21">
@@ -9549,7 +9805,9 @@
       <c r="C190" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D190" s="21"/>
+      <c r="D190" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="21">
@@ -9573,7 +9831,9 @@
       <c r="C192" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D192" s="21"/>
+      <c r="D192" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="21">
@@ -9585,7 +9845,9 @@
       <c r="C193" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D193" s="21"/>
+      <c r="D193" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="21">
@@ -9597,7 +9859,9 @@
       <c r="C194" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D194" s="21"/>
+      <c r="D194" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="21">
@@ -9609,7 +9873,9 @@
       <c r="C195" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D195" s="21"/>
+      <c r="D195" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="21">
@@ -9633,7 +9899,9 @@
       <c r="C197" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D197" s="21"/>
+      <c r="D197" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="21">
@@ -9698,6 +9966,9 @@
       <c r="D202" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E202" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="21">
@@ -9794,6 +10065,9 @@
       <c r="D209" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E209" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="21">
@@ -10136,6 +10410,9 @@
       <c r="D235" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E235" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="21">
@@ -10161,7 +10438,9 @@
       <c r="C237" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D237" s="21"/>
+      <c r="D237" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="21">
@@ -10202,6 +10481,9 @@
       <c r="D240" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E240" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="21">
@@ -10450,6 +10732,9 @@
       <c r="D259" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E259" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="21">
@@ -10580,6 +10865,9 @@
       <c r="D269" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E269" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="21">
@@ -10617,7 +10905,12 @@
       <c r="C272" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D272" s="21"/>
+      <c r="D272" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E272" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="21">
@@ -10653,7 +10946,9 @@
       <c r="C275" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D275" s="21"/>
+      <c r="D275" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="21">
@@ -10677,7 +10972,9 @@
       <c r="C277" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D277" s="21"/>
+      <c r="D277" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="21">
@@ -10689,7 +10986,9 @@
       <c r="C278" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D278" s="21"/>
+      <c r="D278" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="21">
@@ -10725,7 +11024,12 @@
       <c r="C281" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D281" s="21"/>
+      <c r="D281" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E281" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="21">
@@ -10749,7 +11053,12 @@
       <c r="C283" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D283" s="21"/>
+      <c r="D283" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E283" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="21">
@@ -10761,7 +11070,9 @@
       <c r="C284" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D284" s="21"/>
+      <c r="D284" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="21">
@@ -10797,7 +11108,9 @@
       <c r="C287" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D287" s="21"/>
+      <c r="D287" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="21">
@@ -10864,6 +11177,9 @@
       <c r="D292" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E292" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="21">
@@ -10904,6 +11220,9 @@
       <c r="D295" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E295" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="21">
@@ -11088,6 +11407,9 @@
       <c r="D309" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E309" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="21">
@@ -11140,6 +11462,9 @@
       <c r="D313" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E313" s="22">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="21">
@@ -11194,6 +11519,9 @@
       <c r="D317" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E317" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="21">
@@ -11274,6 +11602,9 @@
       <c r="D323" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E323" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="21">
@@ -11368,6 +11699,9 @@
       <c r="D330" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E330" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="21">
@@ -11410,6 +11744,9 @@
       <c r="D333" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E333" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="21">
@@ -11449,7 +11786,9 @@
       <c r="C336" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="D336" s="21"/>
+      <c r="D336" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="21">
@@ -11476,6 +11815,9 @@
       <c r="D338" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E338" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="21">
@@ -11499,7 +11841,9 @@
       <c r="C340" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="D340" s="21"/>
+      <c r="D340" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="21">
@@ -11542,6 +11886,9 @@
       <c r="D343" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E343" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="21">
@@ -11581,7 +11928,9 @@
       <c r="C346" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D346" s="21"/>
+      <c r="D346" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="21">
@@ -11643,7 +11992,9 @@
       <c r="C351" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D351" s="21"/>
+      <c r="D351" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="21">
@@ -11658,6 +12009,9 @@
       <c r="D352" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E352" s="22">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="21">
@@ -11669,7 +12023,9 @@
       <c r="C353" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="21"/>
+      <c r="D353" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="21">
@@ -11709,7 +12065,9 @@
       <c r="C356" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D356" s="21"/>
+      <c r="D356" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="21">
@@ -11800,7 +12158,9 @@
       <c r="C1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">
@@ -11812,7 +12172,9 @@
       <c r="C2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="21">
@@ -11824,7 +12186,9 @@
       <c r="C3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="21">
@@ -11836,7 +12200,9 @@
       <c r="C4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="21">
@@ -11848,7 +12214,9 @@
       <c r="C5" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="21">
@@ -11872,7 +12240,9 @@
       <c r="C7" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="21">
@@ -11884,7 +12254,9 @@
       <c r="C8" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="21">
@@ -11896,7 +12268,9 @@
       <c r="C9" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="21">
@@ -11932,7 +12306,9 @@
       <c r="C12" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="21">
@@ -11968,7 +12344,9 @@
       <c r="C15" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21">
@@ -11992,7 +12370,9 @@
       <c r="C17" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21">
@@ -12004,7 +12384,9 @@
       <c r="C18" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="21">
@@ -12016,7 +12398,9 @@
       <c r="C19" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="21">
@@ -12028,7 +12412,12 @@
       <c r="C20" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D20">
@@ -12075,7 +12464,9 @@
       <c r="C2" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="21">
@@ -12166,6 +12557,9 @@
       <c r="D9" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="21">
@@ -12191,7 +12585,9 @@
       <c r="C11" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="21">
@@ -14378,7 +14774,9 @@
       <c r="C1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">
@@ -14539,6 +14937,9 @@
       </c>
       <c r="D5" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E5" s="22">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -14720,6 +15121,9 @@
       <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="21">
@@ -14759,7 +15163,9 @@
       <c r="C11" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="21">
@@ -14771,7 +15177,9 @@
       <c r="C12" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="21">
@@ -14786,6 +15194,9 @@
       <c r="D13" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E13" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="21">
@@ -14849,6 +15260,9 @@
       </c>
       <c r="D18" s="21" t="s">
         <v>386</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B1" s="2">
         <f>TODAY()</f>
-        <v>46053</v>
+        <v>46057</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5559,8 +5559,8 @@
         <v>D. ALAVÉS</v>
       </c>
       <c r="D4" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5655,12 +5655,12 @@
     </row>
     <row r="10">
       <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
-        <v>64</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
       </c>
       <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAVI")</f>
-        <v>GAVI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
+        <v>DANI OLMO</v>
       </c>
       <c r="C10" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -5673,16 +5673,16 @@
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
-        <v>67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
       </c>
       <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
-        <v>DANI OLMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D11" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5691,12 +5691,12 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
-        <v>73</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
+        <v>PAU LÓPEZ</v>
       </c>
       <c r="C12" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -5709,52 +5709,52 @@
     </row>
     <row r="13">
       <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
       </c>
       <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
-        <v>PAU LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
       </c>
       <c r="C13" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
       <c r="D13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
-        <v>JUNIOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
+        <v>CUCHO HERNÁNDEZ</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
       <c r="D14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
+        <v>93</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
-        <v>CUCHO HERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
+        <v>IVÁN VILLAR</v>
       </c>
       <c r="C15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D15" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5763,12 +5763,12 @@
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
-        <v>93</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
-        <v>IVÁN VILLAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C16" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5781,12 +5781,12 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
+        <v>ILAIX MORIBA</v>
       </c>
       <c r="C17" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5799,12 +5799,12 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
-        <v>ILAIX MORIBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
+        <v>HUGO ÁLVAREZ</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5817,12 +5817,12 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
-        <v>HUGO ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C19" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5835,12 +5835,12 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5853,12 +5853,12 @@
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5871,16 +5871,16 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
-        <v>JUTGLÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
+        <v>IÑAKI PEÑA</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D22" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5889,12 +5889,12 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
-        <v>IÑAKI PEÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
+        <v>DITURO</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5907,12 +5907,12 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
-        <v>DITURO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5925,12 +5925,12 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5943,16 +5943,16 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D26" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5961,12 +5961,12 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5979,12 +5979,12 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5997,12 +5997,12 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
+        <v>ROBERTO FERNÁNDEZ</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -6015,12 +6015,12 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
-        <v>ROBERTO FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -6033,16 +6033,16 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D31" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6051,16 +6051,16 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D32" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6069,12 +6069,12 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -6087,48 +6087,48 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
       </c>
       <c r="C34" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
         <v>GIRONA FC</v>
       </c>
       <c r="D34" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
+        <v>202</v>
+      </c>
+      <c r="B35" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
+        <v>CARVAJAL</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D35" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
-      </c>
-      <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
-      </c>
-      <c r="C35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-      <c r="D35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
-        <v>CARVAJAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
       </c>
       <c r="C36" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6141,12 +6141,12 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
+        <v>213</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
+        <v>RODRYGO</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6159,12 +6159,12 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
-        <v>RODRYGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
       </c>
       <c r="C38" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6177,16 +6177,16 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
+        <v>VALJENT</v>
       </c>
       <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D39" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6195,12 +6195,12 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
+        <v>234</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
-        <v>VALJENT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
+        <v>JAN VIRGILI</v>
       </c>
       <c r="C40" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -6213,16 +6213,16 @@
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
-        <v>JAN VIRGILI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D41" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6231,12 +6231,12 @@
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C42" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
@@ -6249,12 +6249,12 @@
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
+        <v>237</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
+        <v>AITOR FERNÁNDEZ</v>
       </c>
       <c r="C43" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
@@ -6267,12 +6267,12 @@
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
-        <v>AITOR FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
+        <v>RAÚL GARCÍA</v>
       </c>
       <c r="C44" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
@@ -6285,16 +6285,16 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
-        <v>RAÚL GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
+        <v>DAVID CARMO</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D45" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6303,12 +6303,12 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
-        <v>DAVID CARMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
       </c>
       <c r="C46" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -6321,12 +6321,12 @@
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
-        <v>DANI CALVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
+        <v>REINA</v>
       </c>
       <c r="C47" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -6339,12 +6339,12 @@
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
-        <v>REINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
       </c>
       <c r="C48" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -6357,16 +6357,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
-        <v>FEDE VIÑAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
+        <v>LUIZ FELIPE</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D49" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6375,48 +6375,48 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
-        <v>LUIZ FELIPE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
+        <v>PEP CHAVARRÍA</v>
       </c>
       <c r="C50" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
         <v>RAYO VALLECANO</v>
       </c>
       <c r="D50" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
+      </c>
+      <c r="B51" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
+        <v>CALETA-CAR</v>
+      </c>
+      <c r="C51" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+      <c r="D51" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
-      </c>
-      <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
-      </c>
-      <c r="C51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-      <c r="D51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
-        <v>CALETA-CAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
+        <v>PABLO MARIN</v>
       </c>
       <c r="C52" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
@@ -6429,16 +6429,16 @@
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
-        <v>PABLO MARIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
+        <v>NYLAND</v>
       </c>
       <c r="C53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D53" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6447,12 +6447,12 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
+        <v>313</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
-        <v>NYLAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
+        <v>KIKE SALAS</v>
       </c>
       <c r="C54" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
@@ -6465,52 +6465,52 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
-        <v>KIKE SALAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
+        <v>EJUKE</v>
       </c>
       <c r="C55" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
       <c r="D55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
-        <v>EJUKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
+        <v>AKOR ADAMS</v>
       </c>
       <c r="C56" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
       <c r="D56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
-        <v>AKOR ADAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D57" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6519,12 +6519,12 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
+        <v>FOULQUIER</v>
       </c>
       <c r="C58" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -6537,12 +6537,12 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
-        <v>FOULQUIER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
       </c>
       <c r="C59" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -6555,12 +6555,12 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
-        <v>330</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
       </c>
       <c r="C60" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -6573,12 +6573,12 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
-        <v>333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
-        <v>GAYÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
       </c>
       <c r="C61" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -6591,16 +6591,16 @@
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
-        <v>LUIS RIOJA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D62" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6613,8 +6613,8 @@
         <v>343</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C63" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
@@ -6627,12 +6627,12 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
+        <v>SANTI COMESAÑA</v>
       </c>
       <c r="C64" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
@@ -6645,12 +6645,12 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
-        <v>SANTI COMESAÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
+        <v>PAPE GUEYE</v>
       </c>
       <c r="C65" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
@@ -6663,16 +6663,16 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
-        <v>352</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
-        <v>PAPE GUEYE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D66" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6681,12 +6681,12 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="C67" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -6699,52 +6699,52 @@
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
-        <v>369</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D68" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
+      </c>
+      <c r="B69" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
+      </c>
+      <c r="C69" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D69" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
-        <v>387</v>
-      </c>
-      <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
-      </c>
-      <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
+        <v>DRO</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6753,16 +6753,16 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
-        <v>398</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
+        <v>413</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
-        <v>DRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D71" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6771,52 +6771,52 @@
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D72" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
+      </c>
+      <c r="B73" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
+        <v>SOTELO</v>
+      </c>
+      <c r="C73" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D73" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
-      </c>
-      <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
-        <v>BARRIOS</v>
-      </c>
-      <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-      <c r="D73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
+        <v>419</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
-        <v>SOTELO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
       </c>
       <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D74" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6825,16 +6825,16 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
+        <v>422</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
+        <v>CAZORLA</v>
       </c>
       <c r="C75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D75" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6843,16 +6843,16 @@
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
+        <v>425</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
-        <v>CAZORLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
+        <v>CARLOS VICENTE</v>
       </c>
       <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D76" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6861,16 +6861,16 @@
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
-        <v>425</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
+        <v>439</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
-        <v>CARLOS VICENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
       </c>
       <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D77" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6879,16 +6879,16 @@
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
-        <v>439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
+        <v>444</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
+        <v>OBLAK</v>
       </c>
       <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D78" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6897,16 +6897,16 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
-        <v>444</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
+        <v>456</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
+        <v>ANTONY</v>
       </c>
       <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D79" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6915,16 +6915,16 @@
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
-        <v>456</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
-        <v>ANTONY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
+        <v>CARRERAS</v>
       </c>
       <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D80" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6933,36 +6933,18 @@
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
-        <v>458</v>
-      </c>
-      <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
-        <v>CARRERAS</v>
-      </c>
-      <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
         <v>469</v>
       </c>
-      <c r="B82" s="20" t="str">
+      <c r="B81" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
         <v>NICO WILLIAMS</v>
       </c>
-      <c r="C82" s="20" t="str">
+      <c r="C81" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
         <v>BALÓN DE ORO (ATHLETIC)</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D81" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
@@ -7235,7 +7217,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -7854,9 +7836,6 @@
       </c>
       <c r="D64" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="E64" s="22">
-        <v>1.0</v>
       </c>
     </row>
     <row r="65">

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="399">
   <si>
     <t>Última actualización:</t>
   </si>
@@ -1836,15 +1836,15 @@
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(REGULARES!D:D, "SI")</f>
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="1">B3-C3</f>
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="2">(C3/B3)</f>
-        <v>0.6722222222</v>
+        <v>0.6916666667</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E3, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1884,15 +1884,15 @@
       </c>
       <c r="C5" s="9">
         <f>COUNTIF('¡VAMOS! (361–380)'!D:D, "SI")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" ref="E5:E13" si="3">C5/B5</f>
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="F5" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E5, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2077,15 +2077,15 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>0.656626506</v>
+        <v>0.6726907631</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E13, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2431,6 +2431,9 @@
       </c>
       <c r="D13" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -2651,6 +2654,9 @@
       </c>
       <c r="D10" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -3208,12 +3214,12 @@
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
+        <v>29</v>
       </c>
       <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
-        <v>JAUREGIZAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VESGA")</f>
+        <v>VESGA</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3222,12 +3228,12 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VESGA")</f>
-        <v>VESGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI GÓMEZ")</f>
+        <v>UNAI GÓMEZ</v>
       </c>
       <c r="C12" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3236,12 +3242,12 @@
     </row>
     <row r="13">
       <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
+        <v>35</v>
       </c>
       <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI GÓMEZ")</f>
-        <v>UNAI GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURUZETA")</f>
+        <v>GURUZETA</v>
       </c>
       <c r="C13" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3250,12 +3256,12 @@
     </row>
     <row r="14">
       <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURUZETA")</f>
-        <v>GURUZETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
+        <v>NICO WILLIAMS</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3264,26 +3270,26 @@
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
-        <v>NICO WILLIAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
+        <v>OBLAK</v>
       </c>
       <c r="C16" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3292,12 +3298,12 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEX BAENA")</f>
+        <v>ALEX BAENA</v>
       </c>
       <c r="C17" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3306,12 +3312,12 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
-        <v>45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOKE")</f>
-        <v>KOKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO GONZÁLEZ")</f>
+        <v>NICO GONZÁLEZ</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3320,12 +3326,12 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
+        <v>51</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEX BAENA")</f>
-        <v>ALEX BAENA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIULIANO")</f>
+        <v>GIULIANO</v>
       </c>
       <c r="C19" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3334,12 +3340,12 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
+        <v>54</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO GONZÁLEZ")</f>
-        <v>NICO GONZÁLEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
+        <v>GRIEZMANN</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3348,40 +3354,40 @@
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
-        <v>51</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
+        <v>57</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIULIANO")</f>
-        <v>GIULIANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SZCZESNY")</f>
+        <v>SZCZESNY</v>
       </c>
       <c r="C21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
-        <v>54</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
-        <v>GRIEZMANN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
+        <v>KOUNDÉ</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
-        <v>57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
+        <v>60</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SZCZESNY")</f>
-        <v>SZCZESNY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ERIC GARCÍA")</f>
+        <v>ERIC GARCÍA</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3390,12 +3396,12 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
+        <v>68</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
-        <v>KOUNDÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
+        <v>RAPHINHA</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3404,12 +3410,12 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
-        <v>60</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
+        <v>69</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ERIC GARCÍA")</f>
-        <v>ERIC GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
+        <v>LAMINE YAMAL</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3418,12 +3424,12 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
-        <v>68</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
+        <v>70</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
-        <v>RAPHINHA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERRAN TORRES")</f>
+        <v>FERRAN TORRES</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3432,40 +3438,40 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
-        <v>69</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
+        <v>77</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARTRA")</f>
+        <v>BARTRA</v>
       </c>
       <c r="C27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
-        <v>70</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
+        <v>80</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERRAN TORRES")</f>
-        <v>FERRAN TORRES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
       </c>
       <c r="C28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
-        <v>77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
+        <v>82</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARTRA")</f>
-        <v>BARTRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
+        <v>ALTIMIRA</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3474,12 +3480,12 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),78.0)</f>
-        <v>78</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LLORENTE")</f>
-        <v>DIEGO LLORENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
+        <v>AMRABAT</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3488,12 +3494,12 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
-        <v>80</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
+        <v>LO CELSO</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3502,12 +3508,12 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
-        <v>82</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
-        <v>ALTIMIRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
+        <v>RIQUELME</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3516,12 +3522,12 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
-        <v>83</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
+        <v>90</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
-        <v>AMRABAT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
+        <v>ABDE</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3530,54 +3536,54 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
-        <v>85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
+        <v>92</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
-        <v>LO CELSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
+        <v>RADU</v>
       </c>
       <c r="C34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
-        <v>RIQUELME</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RODRÍGUEZ")</f>
+        <v>JAVI RODRÍGUEZ</v>
       </c>
       <c r="C35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
-        <v>90</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
+        <v>96</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
-        <v>ABDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STARFELT")</f>
+        <v>STARFELT</v>
       </c>
       <c r="C36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
+        <v>98</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
-        <v>RADU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
+        <v>MINGUEZA</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3586,12 +3592,12 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RODRÍGUEZ")</f>
-        <v>JAVI RODRÍGUEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
+        <v>FRAN BELTRÁN</v>
       </c>
       <c r="C38" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3600,12 +3606,12 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
-        <v>96</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STARFELT")</f>
-        <v>STARFELT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C39" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3614,54 +3620,54 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
-        <v>98</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
+        <v>113</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
-        <v>MINGUEZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
+        <v>CHUST</v>
       </c>
       <c r="C40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
+        <v>114</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
-        <v>FRAN BELTRÁN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIGAS")</f>
+        <v>BIGAS</v>
       </c>
       <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GERMÁN VALERA")</f>
+        <v>GERMÁN VALERA</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
-        <v>113</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
+        <v>119</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
-        <v>CHUST</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
+        <v>MARTIM NETO</v>
       </c>
       <c r="C43" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3670,12 +3676,12 @@
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
-        <v>114</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIGAS")</f>
-        <v>BIGAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
+        <v>FEBAS</v>
       </c>
       <c r="C44" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3684,54 +3690,54 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
-        <v>118</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
+        <v>128</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GERMÁN VALERA")</f>
-        <v>GERMÁN VALERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
+        <v>DMITROVIC</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
+        <v>132</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
-        <v>MARTIM NETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIEDEL")</f>
+        <v>RIEDEL</v>
       </c>
       <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
-        <v>120</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
+        <v>142</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
-        <v>DMITROVIC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE GARCÍA")</f>
+        <v>KIKE GARCÍA</v>
       </c>
       <c r="C48" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -3740,12 +3746,12 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
-        <v>132</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
+        <v>143</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIEDEL")</f>
-        <v>RIEDEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PUADO")</f>
+        <v>PUADO</v>
       </c>
       <c r="C49" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -3754,54 +3760,54 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
-        <v>142</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE GARCÍA")</f>
-        <v>KIKE GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
+        <v>IGLESIAS</v>
       </c>
       <c r="C51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
-        <v>143</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
+        <v>149</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PUADO")</f>
-        <v>PUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
+        <v>KIKO FEMENÍA</v>
       </c>
       <c r="C52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
+        <v>150</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
+        <v>DJENÉ</v>
       </c>
       <c r="C53" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3810,12 +3816,12 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
-        <v>147</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
+        <v>151</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LETACEK")</f>
-        <v>LETACEK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
+        <v>DOMINGOS DUARTE</v>
       </c>
       <c r="C54" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3824,12 +3830,12 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
+        <v>155</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
-        <v>IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIO MARTÍN")</f>
+        <v>MARIO MARTÍN</v>
       </c>
       <c r="C55" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3838,12 +3844,12 @@
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
-        <v>149</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
+        <v>157</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
-        <v>KIKO FEMENÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
       </c>
       <c r="C56" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3852,12 +3858,12 @@
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
-        <v>150</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
+        <v>161</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
-        <v>DJENÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
       </c>
       <c r="C57" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3866,12 +3872,12 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
-        <v>151</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
+        <v>162</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
-        <v>DOMINGOS DUARTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
+        <v>COBA</v>
       </c>
       <c r="C58" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3880,68 +3886,68 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
-        <v>155</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
+        <v>164</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIO MARTÍN")</f>
-        <v>MARIO MARTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAZZANIGA")</f>
+        <v>GAZZANIGA</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
-        <v>157</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
+        <v>167</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO RINCÓN")</f>
+        <v>HUGO RINCÓN</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
-        <v>161</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
+        <v>168</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
+        <v>VITOR REIS</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
-        <v>162</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
+        <v>169</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
-        <v>COBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BLIND")</f>
+        <v>BLIND</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
-        <v>164</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
+        <v>178</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAZZANIGA")</f>
-        <v>GAZZANIGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
+        <v>VANAT</v>
       </c>
       <c r="C63" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -3950,68 +3956,68 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
-        <v>167</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
+        <v>182</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO RINCÓN")</f>
-        <v>HUGO RINCÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
+        <v>RYAN</v>
       </c>
       <c r="C64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
-        <v>168</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
+        <v>183</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
-        <v>VITOR REIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
+        <v>PABLO CAMPOS</v>
       </c>
       <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
-        <v>169</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
+        <v>186</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BLIND")</f>
-        <v>BLIND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
+        <v>ELGEZABAL</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
-        <v>178</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
+        <v>191</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
+        <v>PABLO MARTÍNEZ</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
-        <v>182</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
+        <v>196</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
-        <v>RYAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
+        <v>BRUGUÉ</v>
       </c>
       <c r="C68" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -4020,12 +4026,12 @@
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
-        <v>183</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
+        <v>198</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
-        <v>PABLO CAMPOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
+        <v>ETTA EYONG</v>
       </c>
       <c r="C69" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -4034,110 +4040,110 @@
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
-        <v>186</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
+        <v>201</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
-        <v>ELGEZABAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
+        <v>LUNIN</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
-        <v>191</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
+        <v>205</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
-        <v>PABLO MARTÍNEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
+        <v>HUIJSEN</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
-        <v>196</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
+        <v>214</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
-        <v>BRUGUÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
+        <v>MBAPPÉ</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
-        <v>198</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
+        <v>217</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
-        <v>ETTA EYONG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
-        <v>201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
+        <v>218</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
-        <v>LUNIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
+        <v>LEO ROMÁN</v>
       </c>
       <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
-        <v>205</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
+        <v>224</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
-        <v>HUIJSEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
+        <v>KUMBULLA</v>
       </c>
       <c r="C75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
-        <v>214</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
+        <v>229</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
-        <v>MBAPPÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
+        <v>MORLANES</v>
       </c>
       <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
-        <v>217</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
+        <v>231</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
+        <v>ASANO</v>
       </c>
       <c r="C77" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4146,12 +4152,12 @@
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
+        <v>232</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
+        <v>MURIQI</v>
       </c>
       <c r="C78" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4160,12 +4166,12 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
-        <v>224</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
+        <v>233</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
-        <v>KUMBULLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
+        <v>MATEO JOSEPH</v>
       </c>
       <c r="C79" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4174,138 +4180,138 @@
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
-        <v>229</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
+        <v>239</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
-        <v>MORLANES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
+        <v>BOYOMO</v>
       </c>
       <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
-        <v>231</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
+        <v>241</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
-        <v>ASANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
+        <v>HERRANDO</v>
       </c>
       <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
-        <v>232</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
+        <v>242</v>
       </c>
       <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
-        <v>MURIQI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
+        <v>JUAN CRUZ</v>
       </c>
       <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
-        <v>233</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
+        <v>251</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUDIMIR")</f>
+        <v>BUDIMIR</v>
       </c>
       <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
-        <v>239</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
+        <v>253</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
-        <v>BOYOMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
-        <v>241</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
+        <v>254</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
-        <v>HERRANDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
+        <v>AARON ESCANDELL</v>
       </c>
       <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
-        <v>JUAN CRUZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
+        <v>RAHIM ALHASSANE</v>
       </c>
       <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
-        <v>251</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
+        <v>261</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUDIMIR")</f>
-        <v>BUDIMIR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
+        <v>COLOMBATTO</v>
       </c>
       <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),252.0)</f>
-        <v>252</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
+        <v>263</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BECKER")</f>
-        <v>BECKER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
+        <v>DENDONCKER</v>
       </c>
       <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
+        <v>266</v>
       </c>
       <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
+        <v>HASSAN</v>
       </c>
       <c r="C89" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4314,12 +4320,12 @@
     </row>
     <row r="90">
       <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
-        <v>254</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
+        <v>268</v>
       </c>
       <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
-        <v>AARON ESCANDELL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
+        <v>ILYAS CHAIRA</v>
       </c>
       <c r="C90" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4328,82 +4334,82 @@
     </row>
     <row r="91">
       <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
+        <v>271</v>
       </c>
       <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
-        <v>RAHIM ALHASSANE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
-        <v>261</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
+        <v>273</v>
       </c>
       <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
-        <v>COLOMBATTO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
+        <v>CÁRDENAS</v>
       </c>
       <c r="C92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
-        <v>263</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
+        <v>276</v>
       </c>
       <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
-        <v>DENDONCKER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
+        <v>LEJEUNE</v>
       </c>
       <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
-        <v>266</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
+        <v>279</v>
       </c>
       <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
-        <v>HASSAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
+        <v>PATHÉ CISS</v>
       </c>
       <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
-        <v>268</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
+        <v>280</v>
       </c>
       <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
-        <v>ILYAS CHAIRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
+        <v>UNAI LOPEZ</v>
       </c>
       <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
-        <v>271</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
+        <v>285</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN PÉREZ")</f>
+        <v>FRAN PÉREZ</v>
       </c>
       <c r="C96" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -4412,320 +4418,320 @@
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
-        <v>273</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
+        <v>289</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
-        <v>CÁRDENAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
-        <v>276</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
+        <v>294</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZUBELDIA")</f>
+        <v>ZUBELDIA</v>
       </c>
       <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
-        <v>279</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
+        <v>297</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
-        <v>PATHÉ CISS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
+        <v>GORROTXATEGI</v>
       </c>
       <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
-        <v>280</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
+        <v>300</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
-        <v>UNAI LOPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
+        <v>CARLOS SOLER</v>
       </c>
       <c r="C100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
-        <v>285</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
+        <v>301</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN PÉREZ")</f>
-        <v>FRAN PÉREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
+        <v>BRAIS MÉNDEZ</v>
       </c>
       <c r="C101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.0)</f>
-        <v>288</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
+        <v>305</v>
       </c>
       <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEMAO")</f>
-        <v>ALEMAO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
+        <v>ÓSKARSSON</v>
       </c>
       <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
-        <v>289</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
+        <v>310</v>
       </c>
       <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
+        <v>CARMONA</v>
       </c>
       <c r="C103" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
+        <v>314</v>
+      </c>
+      <c r="B104" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
+        <v>MARCAO</v>
+      </c>
+      <c r="C104" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
+        <v>320</v>
+      </c>
+      <c r="B105" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
+        <v>VARGAS</v>
+      </c>
+      <c r="C105" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
+        <v>324</v>
+      </c>
+      <c r="B106" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
+      </c>
+      <c r="C106" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
+        <v>339</v>
+      </c>
+      <c r="B107" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
+        <v>DIEGO LÓPEZ</v>
+      </c>
+      <c r="C107" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
+        <v>348</v>
+      </c>
+      <c r="B108" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
+        <v>RAFA MARÍN</v>
+      </c>
+      <c r="C108" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
+        <v>349</v>
+      </c>
+      <c r="B109" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
+        <v>RENATO VEIGA</v>
+      </c>
+      <c r="C109" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
+        <v>357</v>
+      </c>
+      <c r="B110" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MIKAUTADZE")</f>
+        <v>MIKAUTADZE</v>
+      </c>
+      <c r="C110" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
+        <v>360</v>
+      </c>
+      <c r="B111" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
+        <v>AYOZE</v>
+      </c>
+      <c r="C111" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
+        <v>364</v>
+      </c>
+      <c r="B112" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="C112" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
+        <v>365</v>
+      </c>
+      <c r="B113" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="C113" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
+        <v>366</v>
+      </c>
+      <c r="B114" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="C114" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
+        <v>373</v>
+      </c>
+      <c r="B115" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+      <c r="C115" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
+        <v>375</v>
+      </c>
+      <c r="B116" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="C116" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
+        <v>377</v>
+      </c>
+      <c r="B117" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
-        <v>294</v>
-      </c>
-      <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZUBELDIA")</f>
-        <v>ZUBELDIA</v>
-      </c>
-      <c r="C104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
-        <v>297</v>
-      </c>
-      <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
-      </c>
-      <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
-        <v>300</v>
-      </c>
-      <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
-      </c>
-      <c r="C106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
-        <v>301</v>
-      </c>
-      <c r="B107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
-        <v>BRAIS MÉNDEZ</v>
-      </c>
-      <c r="C107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
-        <v>305</v>
-      </c>
-      <c r="B108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
-        <v>ÓSKARSSON</v>
-      </c>
-      <c r="C108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
-        <v>310</v>
-      </c>
-      <c r="B109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
-        <v>CARMONA</v>
-      </c>
-      <c r="C109" s="20" t="str">
+      <c r="C117" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
+        <v>378</v>
+      </c>
+      <c r="B118" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
-        <v>314</v>
-      </c>
-      <c r="B110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
-        <v>MARCAO</v>
-      </c>
-      <c r="C110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
-        <v>320</v>
-      </c>
-      <c r="B111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
-      </c>
-      <c r="C111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
-        <v>324</v>
-      </c>
-      <c r="B112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
-      </c>
-      <c r="C112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
-        <v>339</v>
-      </c>
-      <c r="B113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
-        <v>DIEGO LÓPEZ</v>
-      </c>
-      <c r="C113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
-        <v>348</v>
-      </c>
-      <c r="B114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
-        <v>RAFA MARÍN</v>
-      </c>
-      <c r="C114" s="20" t="str">
+      <c r="C118" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
+        <v>380</v>
+      </c>
+      <c r="B119" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
-        <v>349</v>
-      </c>
-      <c r="B115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
-        <v>RENATO VEIGA</v>
-      </c>
-      <c r="C115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
-        <v>357</v>
-      </c>
-      <c r="B116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MIKAUTADZE")</f>
-        <v>MIKAUTADZE</v>
-      </c>
-      <c r="C116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),359.0)</f>
-        <v>359</v>
-      </c>
-      <c r="B117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OLUWASEYI")</f>
-        <v>OLUWASEYI</v>
-      </c>
-      <c r="C117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
-        <v>360</v>
-      </c>
-      <c r="B118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
-        <v>AYOZE</v>
-      </c>
-      <c r="C118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
-        <v>364</v>
-      </c>
-      <c r="B119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
       </c>
       <c r="C119" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4734,208 +4740,208 @@
     </row>
     <row r="120">
       <c r="A120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
-        <v>365</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
+        <v>383</v>
       </c>
       <c r="B120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
-        <v>366</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
+        <v>384</v>
       </c>
       <c r="B121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),367.0)</f>
-        <v>367</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
+        <v>385</v>
       </c>
       <c r="B122" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
+        <v>BATALLA</v>
+      </c>
+      <c r="C122" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
+        <v>386</v>
+      </c>
+      <c r="B123" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
+      </c>
+      <c r="C123" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
+        <v>388</v>
+      </c>
+      <c r="B124" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
+        <v>LAPORTE</v>
+      </c>
+      <c r="C124" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
+        <v>390</v>
+      </c>
+      <c r="B125" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
+        <v>LE NORMAND</v>
+      </c>
+      <c r="C125" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
+        <v>394</v>
+      </c>
+      <c r="B126" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
+        <v>LEJEUNE</v>
+      </c>
+      <c r="C126" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
+        <v>397</v>
+      </c>
+      <c r="B127" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
+        <v>REGO</v>
+      </c>
+      <c r="C127" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
+        <v>401</v>
+      </c>
+      <c r="B128" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
+        <v>RODRI MENDOZA</v>
+      </c>
+      <c r="C128" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
         <v>ELCHE CF</v>
       </c>
-      <c r="C122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
-        <v>373</v>
-      </c>
-      <c r="B123" s="20" t="str">
+    </row>
+    <row r="129">
+      <c r="A129" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
+        <v>410</v>
+      </c>
+      <c r="B129" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
+        <v>GONZALO</v>
+      </c>
+      <c r="C129" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
+        <v>412</v>
+      </c>
+      <c r="B130" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
+        <v>MATEO JOSEPH</v>
+      </c>
+      <c r="C130" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
-      <c r="C123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
-        <v>375</v>
-      </c>
-      <c r="B124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="C124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
-        <v>377</v>
-      </c>
-      <c r="B125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-      <c r="C125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
-        <v>378</v>
-      </c>
-      <c r="B126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-      <c r="C126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
-        <v>380</v>
-      </c>
-      <c r="B127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="C127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
-        <v>383</v>
-      </c>
-      <c r="B128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
-      </c>
-      <c r="C128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
-        <v>384</v>
-      </c>
-      <c r="B129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
-      </c>
-      <c r="C129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
-        <v>385</v>
-      </c>
-      <c r="B130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
-        <v>BATALLA</v>
-      </c>
-      <c r="C130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
-        <v>386</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
+        <v>417</v>
       </c>
       <c r="B131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
+        <v>FEBAS</v>
       </c>
       <c r="C131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
-        <v>388</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
+        <v>418</v>
       </c>
       <c r="B132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
-        <v>LAPORTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
-        <v>390</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
+        <v>420</v>
       </c>
       <c r="B133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
-        <v>LE NORMAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
+        <v>DARDER</v>
       </c>
       <c r="C133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
-        <v>394</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
+        <v>423</v>
       </c>
       <c r="B134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
+        <v>UNAI LÓPEZ</v>
       </c>
       <c r="C134" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -4944,518 +4950,406 @@
     </row>
     <row r="135">
       <c r="A135" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
-        <v>397</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
+        <v>424</v>
       </c>
       <c r="B135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
-        <v>REGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
+        <v>TENAGLIA</v>
       </c>
       <c r="C135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
+        <v>428</v>
+      </c>
+      <c r="B136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
+      </c>
+      <c r="C136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.0)</f>
+        <v>429</v>
+      </c>
+      <c r="B137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
+      </c>
+      <c r="C137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
+        <v>430</v>
+      </c>
+      <c r="B138" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
+        <v>VANAT</v>
+      </c>
+      <c r="C138" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
+        <v>433</v>
+      </c>
+      <c r="B139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
+        <v>LEO ROMÁN</v>
+      </c>
+      <c r="C139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.0)</f>
+        <v>435</v>
+      </c>
+      <c r="B140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
+        <v>HASSAN</v>
+      </c>
+      <c r="C140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
+        <v>437</v>
+      </c>
+      <c r="B141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
+        <v>GORROTXATEGI</v>
+      </c>
+      <c r="C141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
+        <v>438</v>
+      </c>
+      <c r="B142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
+        <v>BATISTA MENDY</v>
+      </c>
+      <c r="C142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
+        <v>441</v>
+      </c>
+      <c r="B143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
+        <v>BUCHANAN</v>
+      </c>
+      <c r="C143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
+        <v>442</v>
+      </c>
+      <c r="B144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
+        <v>UNAI SIMÓN</v>
+      </c>
+      <c r="C144" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
         <v>ATHLETIC CLUB</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
-        <v>401</v>
-      </c>
-      <c r="B136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
-        <v>RODRI MENDOZA</v>
-      </c>
-      <c r="C136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
-        <v>410</v>
-      </c>
-      <c r="B137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
-        <v>GONZALO</v>
-      </c>
-      <c r="C137" s="20" t="str">
+    <row r="145">
+      <c r="A145" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
+        <v>443</v>
+      </c>
+      <c r="B145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
+        <v>JAUREGIZAR</v>
+      </c>
+      <c r="C145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
+        <v>445</v>
+      </c>
+      <c r="B146" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
+        <v>MARCOS LLORENTE</v>
+      </c>
+      <c r="C146" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
+        <v>446</v>
+      </c>
+      <c r="B147" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
+        <v>ÁLEX BAENA</v>
+      </c>
+      <c r="C147" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
+        <v>451</v>
+      </c>
+      <c r="B148" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
+        <v>RAPHINHA</v>
+      </c>
+      <c r="C148" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
+        <v>453</v>
+      </c>
+      <c r="B149" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
+        <v>RASHFORD</v>
+      </c>
+      <c r="C149" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
+        <v>454</v>
+      </c>
+      <c r="B150" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISCO")</f>
+        <v>ISCO</v>
+      </c>
+      <c r="C150" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
+        <v>459</v>
+      </c>
+      <c r="B151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
+      </c>
+      <c r="C151" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
         <v>REAL MADRID</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
-        <v>412</v>
-      </c>
-      <c r="B138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
-      </c>
-      <c r="C138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
-        <v>417</v>
-      </c>
-      <c r="B139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
-      </c>
-      <c r="C139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
-        <v>418</v>
-      </c>
-      <c r="B140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
-      </c>
-      <c r="C140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
-        <v>420</v>
-      </c>
-      <c r="B141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
-        <v>DARDER</v>
-      </c>
-      <c r="C141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
-        <v>423</v>
-      </c>
-      <c r="B142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
-        <v>UNAI LÓPEZ</v>
-      </c>
-      <c r="C142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
-        <v>424</v>
-      </c>
-      <c r="B143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
-        <v>TENAGLIA</v>
-      </c>
-      <c r="C143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
-        <v>428</v>
-      </c>
-      <c r="B144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
-      </c>
-      <c r="C144" s="20" t="str">
+    <row r="152">
+      <c r="A152" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
+        <v>460</v>
+      </c>
+      <c r="B152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
+        <v>MASTANTUONO</v>
+      </c>
+      <c r="C152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
+        <v>464</v>
+      </c>
+      <c r="B153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
+        <v>VARGAS</v>
+      </c>
+      <c r="C153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
+        <v>466</v>
+      </c>
+      <c r="B154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
+        <v>MOLEIRO</v>
+      </c>
+      <c r="C154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
+        <v>468</v>
+      </c>
+      <c r="B155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
+        <v>CARD CHAMPIONS</v>
+      </c>
+      <c r="C155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
+        <v>470</v>
+      </c>
+      <c r="B156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
+        <v>JULIÁN ÁLVAREZ</v>
+      </c>
+      <c r="C156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
+        <v>BALÓN DE ORO (ATLÉTICO)</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
+        <v>471</v>
+      </c>
+      <c r="B157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
+        <v>PEDRI</v>
+      </c>
+      <c r="C157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
+        <v>BALÓN DE ORO (BARÇA)</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
+        <v>472</v>
+      </c>
+      <c r="B158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
+        <v>LAMINE YAMAL</v>
+      </c>
+      <c r="C158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
+        <v>BALÓN DE ORO (BARÇA)</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
+        <v>473</v>
+      </c>
+      <c r="B159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
+      </c>
+      <c r="C159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (REAL MADRID)")</f>
+        <v>BALÓN DE ORO (REAL MADRID)</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
+        <v>475</v>
+      </c>
+      <c r="B160" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
+        <v>BALÓN DE ORO EXCELLENCE</v>
+      </c>
+      <c r="C160" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
+        <v>476</v>
+      </c>
+      <c r="B161" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
+        <v>CARD ATÓMICA</v>
+      </c>
+      <c r="C161" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
+        <v>91</v>
+      </c>
+      <c r="B162" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C162" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.0)</f>
-        <v>429</v>
-      </c>
-      <c r="B145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
-      </c>
-      <c r="C145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
-        <v>430</v>
-      </c>
-      <c r="B146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
-      </c>
-      <c r="C146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
-        <v>433</v>
-      </c>
-      <c r="B147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
-      </c>
-      <c r="C147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.0)</f>
-        <v>435</v>
-      </c>
-      <c r="B148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
-        <v>HASSAN</v>
-      </c>
-      <c r="C148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
-        <v>437</v>
-      </c>
-      <c r="B149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
-      </c>
-      <c r="C149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
-        <v>438</v>
-      </c>
-      <c r="B150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
-        <v>BATISTA MENDY</v>
-      </c>
-      <c r="C150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
-        <v>441</v>
-      </c>
-      <c r="B151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
-        <v>BUCHANAN</v>
-      </c>
-      <c r="C151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
-        <v>442</v>
-      </c>
-      <c r="B152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
-        <v>UNAI SIMÓN</v>
-      </c>
-      <c r="C152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
-        <v>443</v>
-      </c>
-      <c r="B153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
-        <v>JAUREGIZAR</v>
-      </c>
-      <c r="C153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
-        <v>445</v>
-      </c>
-      <c r="B154" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
-        <v>MARCOS LLORENTE</v>
-      </c>
-      <c r="C154" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
-        <v>446</v>
-      </c>
-      <c r="B155" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
-        <v>ÁLEX BAENA</v>
-      </c>
-      <c r="C155" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
-        <v>451</v>
-      </c>
-      <c r="B156" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
-        <v>RAPHINHA</v>
-      </c>
-      <c r="C156" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
-        <v>453</v>
-      </c>
-      <c r="B157" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
-        <v>RASHFORD</v>
-      </c>
-      <c r="C157" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
-        <v>454</v>
-      </c>
-      <c r="B158" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISCO")</f>
-        <v>ISCO</v>
-      </c>
-      <c r="C158" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
-        <v>459</v>
-      </c>
-      <c r="B159" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
-      </c>
-      <c r="C159" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
-        <v>460</v>
-      </c>
-      <c r="B160" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
-        <v>MASTANTUONO</v>
-      </c>
-      <c r="C160" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
-        <v>464</v>
-      </c>
-      <c r="B161" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
-      </c>
-      <c r="C161" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
-        <v>466</v>
-      </c>
-      <c r="B162" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
-        <v>MOLEIRO</v>
-      </c>
-      <c r="C162" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
     <row r="163">
       <c r="A163" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
-        <v>468</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
+        <v>181</v>
       </c>
       <c r="B163" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
-        <v>CARD CHAMPIONS</v>
-      </c>
-      <c r="C163" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
-        <v>470</v>
-      </c>
-      <c r="B164" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
-        <v>JULIÁN ÁLVAREZ</v>
-      </c>
-      <c r="C164" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
-        <v>BALÓN DE ORO (ATLÉTICO)</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
-        <v>471</v>
-      </c>
-      <c r="B165" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
-        <v>PEDRI</v>
-      </c>
-      <c r="C165" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
-        <v>472</v>
-      </c>
-      <c r="B166" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
-      </c>
-      <c r="C166" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
-        <v>473</v>
-      </c>
-      <c r="B167" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
-      </c>
-      <c r="C167" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (REAL MADRID)")</f>
-        <v>BALÓN DE ORO (REAL MADRID)</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
-        <v>475</v>
-      </c>
-      <c r="B168" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
-        <v>BALÓN DE ORO EXCELLENCE</v>
-      </c>
-      <c r="C168" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
-        <v>476</v>
-      </c>
-      <c r="B169" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
-        <v>CARD ATÓMICA</v>
-      </c>
-      <c r="C169" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
-        <v>91</v>
-      </c>
-      <c r="B170" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
         <v>ESTADIO</v>
       </c>
-      <c r="C170" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
-        <v>181</v>
-      </c>
-      <c r="B171" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C171" s="20" t="str">
+      <c r="C163" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
         <v>LEVANTE UD</v>
       </c>
@@ -5925,12 +5819,12 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
+        <v>FEDE REDONDO</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5943,16 +5837,16 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D26" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5961,12 +5855,12 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5979,12 +5873,12 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5997,12 +5891,12 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
-        <v>ROBERTO FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -6015,12 +5909,12 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
+        <v>ROBERTO FERNÁNDEZ</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -6033,16 +5927,16 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D31" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6051,16 +5945,16 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D32" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6069,12 +5963,12 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -6087,48 +5981,48 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C34" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
         <v>GIRONA FC</v>
       </c>
       <c r="D34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
+      </c>
+      <c r="B35" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+      <c r="D35" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
         <v>202</v>
       </c>
-      <c r="B35" s="20" t="str">
+      <c r="B36" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
         <v>CARVAJAL</v>
-      </c>
-      <c r="C35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
-      </c>
-      <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
       </c>
       <c r="C36" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6141,12 +6035,12 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
-        <v>RODRYGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6159,12 +6053,12 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
+        <v>GÜLER</v>
       </c>
       <c r="C38" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6177,16 +6071,16 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
+        <v>213</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
-        <v>VALJENT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
+        <v>RODRYGO</v>
       </c>
       <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D39" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6195,34 +6089,34 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
-        <v>JAN VIRGILI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
       </c>
       <c r="C40" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D40" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
+      </c>
+      <c r="B41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
+        <v>VALJENT</v>
+      </c>
+      <c r="C41" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
-      </c>
-      <c r="D40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
-      </c>
-      <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
       </c>
       <c r="D41" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6231,16 +6125,16 @@
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
+        <v>MOJICA</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D42" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6249,16 +6143,16 @@
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
+        <v>234</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
-        <v>AITOR FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
+        <v>JAN VIRGILI</v>
       </c>
       <c r="C43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D43" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6267,12 +6161,12 @@
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
-        <v>RAÚL GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C44" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
@@ -6285,16 +6179,16 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
-        <v>DAVID CARMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D45" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6303,34 +6197,34 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
+        <v>237</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
-        <v>DANI CALVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
+        <v>AITOR FERNÁNDEZ</v>
       </c>
       <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
-        <v>REINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
+        <v>RAÚL GARCÍA</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D47" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6339,12 +6233,12 @@
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
-        <v>FEDE VIÑAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
+        <v>DAVID CARMO</v>
       </c>
       <c r="C48" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -6357,16 +6251,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
-        <v>LUIZ FELIPE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D49" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6375,34 +6269,34 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
+        <v>REINA</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
-        <v>CALETA-CAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
       </c>
       <c r="C51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D51" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6411,16 +6305,16 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
-        <v>PABLO MARIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
+        <v>LUIZ FELIPE</v>
       </c>
       <c r="C52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D52" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6429,34 +6323,34 @@
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
-        <v>NYLAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
+        <v>PEP CHAVARRÍA</v>
       </c>
       <c r="C53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
-        <v>KIKE SALAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
+        <v>PEDRO DÍAZ</v>
       </c>
       <c r="C54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D54" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6465,34 +6359,34 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
-        <v>EJUKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
+        <v>CALETA-CAR</v>
       </c>
       <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
-        <v>AKOR ADAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
+        <v>SERGIO GÓMEZ</v>
       </c>
       <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D56" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6501,16 +6395,16 @@
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
+        <v>PABLO MARIN</v>
       </c>
       <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D57" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6519,16 +6413,16 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
-        <v>FOULQUIER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
+        <v>NYLAND</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D58" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6537,16 +6431,16 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
-        <v>330</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
+        <v>AZPILICUETA</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D59" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6555,16 +6449,16 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
-        <v>333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
+        <v>313</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
-        <v>GAYÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
+        <v>KIKE SALAS</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D60" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6573,34 +6467,34 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
-        <v>LUIS RIOJA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
+        <v>EJUKE</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
+        <v>AKOR ADAMS</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D62" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6609,16 +6503,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D63" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6627,16 +6521,16 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
+        <v>327</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
-        <v>SANTI COMESAÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
+        <v>DIMITRIEVSKI</v>
       </c>
       <c r="C64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D64" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6645,16 +6539,16 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
-        <v>352</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
-        <v>PAPE GUEYE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
+        <v>FOULQUIER</v>
       </c>
       <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D65" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6663,16 +6557,16 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D66" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6681,16 +6575,16 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
-        <v>369</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D67" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6699,12 +6593,12 @@
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
-        <v>387</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
       </c>
       <c r="C68" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -6717,16 +6611,16 @@
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D69" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6735,16 +6629,16 @@
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
-        <v>398</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
-        <v>DRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6753,16 +6647,16 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
+        <v>SANTI COMESAÑA</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D71" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6771,34 +6665,34 @@
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
-        <v>BARRIOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
+        <v>PAPE GUEYE</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
-        <v>SOTELO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D73" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6807,16 +6701,16 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
-      </c>
-      <c r="C74" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
         <v>GETAFE CF</v>
+      </c>
+      <c r="C74" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D74" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6825,34 +6719,34 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
-        <v>CAZORLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
-        <v>425</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
-        <v>CARLOS VICENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
       </c>
       <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D76" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6861,16 +6755,16 @@
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
-        <v>439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
+        <v>DRO</v>
       </c>
       <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D77" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6879,16 +6773,16 @@
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
-        <v>444</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
       </c>
       <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D78" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6897,16 +6791,16 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
-        <v>456</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
+        <v>413</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
-        <v>ANTONY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
       </c>
       <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D79" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6915,38 +6809,218 @@
     </row>
     <row r="80">
       <c r="A80" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
+      </c>
+      <c r="B80" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
+      </c>
+      <c r="C80" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D80" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
+      </c>
+      <c r="B81" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
+        <v>SOTELO</v>
+      </c>
+      <c r="C81" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D81" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
+        <v>419</v>
+      </c>
+      <c r="B82" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
+      </c>
+      <c r="C82" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D82" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
+        <v>422</v>
+      </c>
+      <c r="B83" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
+        <v>CAZORLA</v>
+      </c>
+      <c r="C83" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D83" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
+        <v>425</v>
+      </c>
+      <c r="B84" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
+        <v>CARLOS VICENTE</v>
+      </c>
+      <c r="C84" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
+      </c>
+      <c r="D84" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
+        <v>436</v>
+      </c>
+      <c r="B85" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
+        <v>CARLOS SOLER</v>
+      </c>
+      <c r="C85" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+      <c r="D85" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
+        <v>439</v>
+      </c>
+      <c r="B86" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
+      </c>
+      <c r="C86" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D86" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
+        <v>444</v>
+      </c>
+      <c r="B87" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
+        <v>OBLAK</v>
+      </c>
+      <c r="C87" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D87" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
+        <v>456</v>
+      </c>
+      <c r="B88" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
+        <v>ANTONY</v>
+      </c>
+      <c r="C88" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D88" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
         <v>458</v>
       </c>
-      <c r="B80" s="20" t="str">
+      <c r="B89" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
         <v>CARRERAS</v>
       </c>
-      <c r="C80" s="20" t="str">
+      <c r="C89" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
         <v>REAL MADRID</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D89" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="20">
+    <row r="90">
+      <c r="A90" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
         <v>469</v>
       </c>
-      <c r="B81" s="20" t="str">
+      <c r="B90" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
         <v>NICO WILLIAMS</v>
       </c>
-      <c r="C81" s="20" t="str">
+      <c r="C90" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
         <v>BALÓN DE ORO (ATHLETIC)</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D90" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),477.0)</f>
+        <v>477</v>
+      </c>
+      <c r="B91" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD INVENCIBLE")</f>
+        <v>CARD INVENCIBLE</v>
+      </c>
+      <c r="C91" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+      <c r="D91" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7351,7 +7425,9 @@
       <c r="C28" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="21">
@@ -7581,7 +7657,9 @@
       <c r="C45" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="21"/>
+      <c r="D45" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="21">
@@ -8028,7 +8106,9 @@
       <c r="C78" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="21"/>
+      <c r="D78" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="21">
@@ -8583,6 +8663,9 @@
       <c r="D117" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E117" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="21">
@@ -9003,7 +9086,9 @@
       <c r="C147" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D147" s="21"/>
+      <c r="D147" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="21">
@@ -9379,7 +9464,7 @@
         <v>20</v>
       </c>
       <c r="E175" s="22">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="176">
@@ -9873,6 +9958,9 @@
       <c r="D211" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E211" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="21">
@@ -9945,7 +10033,7 @@
         <v>20</v>
       </c>
       <c r="E216" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="217">
@@ -10070,6 +10158,9 @@
       <c r="D225" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E225" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="21">
@@ -10240,7 +10331,7 @@
         <v>20</v>
       </c>
       <c r="E237" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="238">
@@ -10444,7 +10535,9 @@
       <c r="C252" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D252" s="21"/>
+      <c r="D252" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="21">
@@ -10873,6 +10966,9 @@
       <c r="D283" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E283" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="21">
@@ -10938,7 +11034,9 @@
       <c r="C288" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D288" s="21"/>
+      <c r="D288" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="21">
@@ -11050,6 +11148,9 @@
       <c r="D296" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E296" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="21">
@@ -11270,6 +11371,9 @@
       <c r="D312" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E312" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="21">
@@ -11396,7 +11500,7 @@
         <v>20</v>
       </c>
       <c r="E321" s="22">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="322">
@@ -11486,6 +11590,9 @@
       <c r="D327" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E327" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="21">
@@ -11650,7 +11757,7 @@
         <v>20</v>
       </c>
       <c r="E338" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="339">
@@ -11944,7 +12051,9 @@
       <c r="C359" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D359" s="21"/>
+      <c r="D359" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="21">
@@ -12386,7 +12495,9 @@
       <c r="C7" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="21">
@@ -14999,6 +15110,9 @@
       <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="21">

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="399">
   <si>
     <t>Última actualización:</t>
   </si>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B1" s="2">
         <f>TODAY()</f>
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1836,15 +1836,15 @@
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(REGULARES!D:D, "SI")</f>
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="1">B3-C3</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="2">(C3/B3)</f>
-        <v>0.6916666667</v>
+        <v>0.7</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E3, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1860,15 +1860,15 @@
       </c>
       <c r="C4" s="9">
         <f>COUNTIF(Estadios!D:D, "SI")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F4" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E4, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2077,15 +2077,15 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>0.6726907631</v>
+        <v>0.6807228916</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E13, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2802,6 +2802,9 @@
       <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="21">
@@ -2841,6 +2844,9 @@
       </c>
       <c r="D11" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -3438,12 +3444,12 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
-        <v>77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
+        <v>80</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARTRA")</f>
-        <v>BARTRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3452,12 +3458,12 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
-        <v>80</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
+        <v>82</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
+        <v>ALTIMIRA</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3466,12 +3472,12 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
-        <v>82</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
-        <v>ALTIMIRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
+        <v>AMRABAT</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3480,12 +3486,12 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
-        <v>83</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
-        <v>AMRABAT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
+        <v>LO CELSO</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3494,12 +3500,12 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
-        <v>85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
-        <v>LO CELSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
+        <v>RIQUELME</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3508,12 +3514,12 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
+        <v>90</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
-        <v>RIQUELME</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
+        <v>ABDE</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3522,26 +3528,26 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
-        <v>90</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
+        <v>92</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
-        <v>ABDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
+        <v>RADU</v>
       </c>
       <c r="C33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
+        <v>95</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
-        <v>RADU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RODRÍGUEZ")</f>
+        <v>JAVI RODRÍGUEZ</v>
       </c>
       <c r="C34" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3550,12 +3556,12 @@
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
+        <v>96</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RODRÍGUEZ")</f>
-        <v>JAVI RODRÍGUEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STARFELT")</f>
+        <v>STARFELT</v>
       </c>
       <c r="C35" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3564,12 +3570,12 @@
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
-        <v>96</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
+        <v>98</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STARFELT")</f>
-        <v>STARFELT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
+        <v>MINGUEZA</v>
       </c>
       <c r="C36" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3578,12 +3584,12 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
-        <v>98</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
-        <v>MINGUEZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
+        <v>FRAN BELTRÁN</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3592,12 +3598,12 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
-        <v>FRAN BELTRÁN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C38" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3606,26 +3612,26 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
+        <v>113</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
+        <v>CHUST</v>
       </c>
       <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
-        <v>113</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
+        <v>114</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
-        <v>CHUST</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIGAS")</f>
+        <v>BIGAS</v>
       </c>
       <c r="C40" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3634,12 +3640,12 @@
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
-        <v>114</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIGAS")</f>
-        <v>BIGAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GERMÁN VALERA")</f>
+        <v>GERMÁN VALERA</v>
       </c>
       <c r="C41" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3648,12 +3654,12 @@
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
-        <v>118</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
+        <v>119</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GERMÁN VALERA")</f>
-        <v>GERMÁN VALERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
+        <v>MARTIM NETO</v>
       </c>
       <c r="C42" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3662,12 +3668,12 @@
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
-        <v>MARTIM NETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
+        <v>FEBAS</v>
       </c>
       <c r="C43" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3676,26 +3682,26 @@
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
-        <v>120</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
+        <v>128</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
+        <v>DMITROVIC</v>
       </c>
       <c r="C44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
+        <v>132</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
-        <v>DMITROVIC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIEDEL")</f>
+        <v>RIEDEL</v>
       </c>
       <c r="C45" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -3704,12 +3710,12 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
-        <v>132</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIEDEL")</f>
-        <v>RIEDEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
       </c>
       <c r="C46" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -3718,12 +3724,12 @@
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
+        <v>143</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PUADO")</f>
+        <v>PUADO</v>
       </c>
       <c r="C47" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -3732,40 +3738,40 @@
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),142.0)</f>
-        <v>142</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE GARCÍA")</f>
-        <v>KIKE GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
-        <v>143</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PUADO")</f>
-        <v>PUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
+        <v>IGLESIAS</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
+        <v>149</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
+        <v>KIKO FEMENÍA</v>
       </c>
       <c r="C50" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3774,12 +3780,12 @@
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
+        <v>150</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
-        <v>IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
+        <v>DJENÉ</v>
       </c>
       <c r="C51" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3788,12 +3794,12 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
-        <v>149</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
+        <v>151</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
-        <v>KIKO FEMENÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
+        <v>DOMINGOS DUARTE</v>
       </c>
       <c r="C52" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3802,12 +3808,12 @@
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
-        <v>150</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
+        <v>155</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
-        <v>DJENÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIO MARTÍN")</f>
+        <v>MARIO MARTÍN</v>
       </c>
       <c r="C53" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3816,12 +3822,12 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
-        <v>151</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
+        <v>157</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
-        <v>DOMINGOS DUARTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
       </c>
       <c r="C54" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3830,12 +3836,12 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
-        <v>155</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
+        <v>161</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIO MARTÍN")</f>
-        <v>MARIO MARTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
       </c>
       <c r="C55" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3844,12 +3850,12 @@
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
-        <v>157</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
+        <v>162</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
+        <v>COBA</v>
       </c>
       <c r="C56" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3858,40 +3864,40 @@
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
-        <v>161</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
+        <v>164</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAZZANIGA")</f>
+        <v>GAZZANIGA</v>
       </c>
       <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
-        <v>162</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
+        <v>167</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
-        <v>COBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO RINCÓN")</f>
+        <v>HUGO RINCÓN</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
-        <v>164</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
+        <v>168</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAZZANIGA")</f>
-        <v>GAZZANIGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
+        <v>VITOR REIS</v>
       </c>
       <c r="C59" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -3900,12 +3906,12 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
-        <v>167</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
+        <v>169</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO RINCÓN")</f>
-        <v>HUGO RINCÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BLIND")</f>
+        <v>BLIND</v>
       </c>
       <c r="C60" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -3914,12 +3920,12 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
-        <v>168</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
+        <v>178</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
-        <v>VITOR REIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
+        <v>VANAT</v>
       </c>
       <c r="C61" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -3928,40 +3934,40 @@
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
-        <v>169</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
+        <v>182</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BLIND")</f>
-        <v>BLIND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
+        <v>RYAN</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
-        <v>178</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
+        <v>183</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
+        <v>PABLO CAMPOS</v>
       </c>
       <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
-        <v>182</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
+        <v>186</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
-        <v>RYAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
+        <v>ELGEZABAL</v>
       </c>
       <c r="C64" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -3970,12 +3976,12 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
-        <v>183</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
+        <v>191</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
-        <v>PABLO CAMPOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
+        <v>PABLO MARTÍNEZ</v>
       </c>
       <c r="C65" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -3984,12 +3990,12 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
-        <v>186</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
+        <v>196</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
-        <v>ELGEZABAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
+        <v>BRUGUÉ</v>
       </c>
       <c r="C66" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -3998,12 +4004,12 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
-        <v>191</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
+        <v>198</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
-        <v>PABLO MARTÍNEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
+        <v>ETTA EYONG</v>
       </c>
       <c r="C67" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -4012,40 +4018,40 @@
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
-        <v>196</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
+        <v>201</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
-        <v>BRUGUÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
+        <v>LUNIN</v>
       </c>
       <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
-        <v>198</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
+        <v>205</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
-        <v>ETTA EYONG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
+        <v>HUIJSEN</v>
       </c>
       <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
-        <v>201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
+        <v>214</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
-        <v>LUNIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
+        <v>MBAPPÉ</v>
       </c>
       <c r="C70" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -4054,40 +4060,40 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
-        <v>205</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
+        <v>217</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
-        <v>HUIJSEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
-        <v>214</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
+        <v>218</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
-        <v>MBAPPÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
+        <v>LEO ROMÁN</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
-        <v>217</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
+        <v>224</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
+        <v>KUMBULLA</v>
       </c>
       <c r="C73" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4096,12 +4102,12 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
+        <v>229</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
+        <v>MORLANES</v>
       </c>
       <c r="C74" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4110,12 +4116,12 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
-        <v>224</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
+        <v>231</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
-        <v>KUMBULLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
+        <v>ASANO</v>
       </c>
       <c r="C75" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4124,12 +4130,12 @@
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
-        <v>229</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
+        <v>232</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
-        <v>MORLANES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
+        <v>MURIQI</v>
       </c>
       <c r="C76" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4138,12 +4144,12 @@
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
-        <v>231</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
+        <v>233</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
-        <v>ASANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
+        <v>MATEO JOSEPH</v>
       </c>
       <c r="C77" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4152,40 +4158,40 @@
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
-        <v>232</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
+        <v>239</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
-        <v>MURIQI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
+        <v>BOYOMO</v>
       </c>
       <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
-        <v>233</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
+        <v>241</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
+        <v>HERRANDO</v>
       </c>
       <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
-        <v>239</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
+        <v>242</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
-        <v>BOYOMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
+        <v>JUAN CRUZ</v>
       </c>
       <c r="C80" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
@@ -4194,12 +4200,12 @@
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
-        <v>241</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
+        <v>251</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
-        <v>HERRANDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUDIMIR")</f>
+        <v>BUDIMIR</v>
       </c>
       <c r="C81" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
@@ -4208,40 +4214,40 @@
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
+        <v>253</v>
       </c>
       <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
-        <v>JUAN CRUZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
-        <v>251</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
+        <v>254</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUDIMIR")</f>
-        <v>BUDIMIR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
+        <v>AARON ESCANDELL</v>
       </c>
       <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
+        <v>RAHIM ALHASSANE</v>
       </c>
       <c r="C84" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4250,12 +4256,12 @@
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
-        <v>254</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
+        <v>261</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
-        <v>AARON ESCANDELL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
+        <v>COLOMBATTO</v>
       </c>
       <c r="C85" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4264,12 +4270,12 @@
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
+        <v>263</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
-        <v>RAHIM ALHASSANE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
+        <v>DENDONCKER</v>
       </c>
       <c r="C86" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4278,12 +4284,12 @@
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
-        <v>261</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
+        <v>266</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
-        <v>COLOMBATTO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
+        <v>HASSAN</v>
       </c>
       <c r="C87" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4292,12 +4298,12 @@
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
-        <v>263</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
+        <v>268</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
-        <v>DENDONCKER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
+        <v>ILYAS CHAIRA</v>
       </c>
       <c r="C88" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4306,40 +4312,40 @@
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
-        <v>266</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
+        <v>271</v>
       </c>
       <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
-        <v>HASSAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
-        <v>268</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
+        <v>273</v>
       </c>
       <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
-        <v>ILYAS CHAIRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
+        <v>CÁRDENAS</v>
       </c>
       <c r="C90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
-        <v>271</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
+        <v>276</v>
       </c>
       <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
+        <v>LEJEUNE</v>
       </c>
       <c r="C91" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -4348,12 +4354,12 @@
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
-        <v>273</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
+        <v>279</v>
       </c>
       <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
-        <v>CÁRDENAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
+        <v>PATHÉ CISS</v>
       </c>
       <c r="C92" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -4362,12 +4368,12 @@
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
-        <v>276</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
+        <v>280</v>
       </c>
       <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
+        <v>UNAI LOPEZ</v>
       </c>
       <c r="C93" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -4376,12 +4382,12 @@
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
-        <v>279</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
+        <v>285</v>
       </c>
       <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
-        <v>PATHÉ CISS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN PÉREZ")</f>
+        <v>FRAN PÉREZ</v>
       </c>
       <c r="C94" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -4390,40 +4396,40 @@
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
-        <v>280</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
+        <v>289</v>
       </c>
       <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
-        <v>UNAI LOPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
-        <v>285</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
+        <v>294</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN PÉREZ")</f>
-        <v>FRAN PÉREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZUBELDIA")</f>
+        <v>ZUBELDIA</v>
       </c>
       <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
-        <v>289</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
+        <v>297</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
+        <v>GORROTXATEGI</v>
       </c>
       <c r="C97" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
@@ -4432,12 +4438,12 @@
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
-        <v>294</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
+        <v>300</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZUBELDIA")</f>
-        <v>ZUBELDIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
+        <v>CARLOS SOLER</v>
       </c>
       <c r="C98" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
@@ -4446,12 +4452,12 @@
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
-        <v>297</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
+        <v>301</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
+        <v>BRAIS MÉNDEZ</v>
       </c>
       <c r="C99" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
@@ -4460,12 +4466,12 @@
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
-        <v>300</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
+        <v>305</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
+        <v>ÓSKARSSON</v>
       </c>
       <c r="C100" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
@@ -4474,40 +4480,40 @@
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
-        <v>301</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
+        <v>310</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
-        <v>BRAIS MÉNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
+        <v>CARMONA</v>
       </c>
       <c r="C101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
-        <v>305</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
+        <v>314</v>
       </c>
       <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
-        <v>ÓSKARSSON</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
+        <v>MARCAO</v>
       </c>
       <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
-        <v>310</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
+        <v>320</v>
       </c>
       <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
-        <v>CARMONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
+        <v>VARGAS</v>
       </c>
       <c r="C103" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
@@ -4516,12 +4522,12 @@
     </row>
     <row r="104">
       <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
-        <v>314</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
+        <v>324</v>
       </c>
       <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
-        <v>MARCAO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
       </c>
       <c r="C104" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
@@ -4530,54 +4536,54 @@
     </row>
     <row r="105">
       <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
-        <v>320</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
+        <v>339</v>
       </c>
       <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
+        <v>DIEGO LÓPEZ</v>
       </c>
       <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
-        <v>324</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
+        <v>348</v>
       </c>
       <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
+        <v>RAFA MARÍN</v>
       </c>
       <c r="C106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
-        <v>339</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
+        <v>349</v>
       </c>
       <c r="B107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
-        <v>DIEGO LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
+        <v>RENATO VEIGA</v>
       </c>
       <c r="C107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
-        <v>348</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
+        <v>360</v>
       </c>
       <c r="B108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
-        <v>RAFA MARÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
+        <v>AYOZE</v>
       </c>
       <c r="C108" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
@@ -4586,54 +4592,54 @@
     </row>
     <row r="109">
       <c r="A109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
-        <v>349</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
+        <v>364</v>
       </c>
       <c r="B109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
-        <v>RENATO VEIGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="C109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),357.0)</f>
-        <v>357</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
+        <v>365</v>
       </c>
       <c r="B110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MIKAUTADZE")</f>
-        <v>MIKAUTADZE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="C110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
-        <v>360</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
+        <v>366</v>
       </c>
       <c r="B111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
-        <v>AYOZE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="C111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
-        <v>364</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
+        <v>373</v>
       </c>
       <c r="B112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="C112" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4642,12 +4648,12 @@
     </row>
     <row r="113">
       <c r="A113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
-        <v>365</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
+        <v>375</v>
       </c>
       <c r="B113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="C113" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4656,12 +4662,12 @@
     </row>
     <row r="114">
       <c r="A114" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
-        <v>366</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
+        <v>377</v>
       </c>
       <c r="B114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="C114" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4670,12 +4676,12 @@
     </row>
     <row r="115">
       <c r="A115" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
-        <v>373</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
+        <v>378</v>
       </c>
       <c r="B115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="C115" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4684,12 +4690,12 @@
     </row>
     <row r="116">
       <c r="A116" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
-        <v>375</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
+        <v>380</v>
       </c>
       <c r="B116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="C116" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4698,110 +4704,110 @@
     </row>
     <row r="117">
       <c r="A117" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
-        <v>377</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
+        <v>383</v>
       </c>
       <c r="B117" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
+      </c>
+      <c r="C117" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
+        <v>384</v>
+      </c>
+      <c r="B118" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
+      </c>
+      <c r="C118" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
+        <v>385</v>
+      </c>
+      <c r="B119" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
+        <v>BATALLA</v>
+      </c>
+      <c r="C119" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
+        <v>386</v>
+      </c>
+      <c r="B120" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
+      </c>
+      <c r="C120" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-      <c r="C117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
-        <v>378</v>
-      </c>
-      <c r="B118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-      <c r="C118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
-        <v>380</v>
-      </c>
-      <c r="B119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="C119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
-        <v>383</v>
-      </c>
-      <c r="B120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
-      </c>
-      <c r="C120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
-        <v>384</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
+        <v>388</v>
       </c>
       <c r="B121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
+        <v>LAPORTE</v>
       </c>
       <c r="C121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
-        <v>385</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
+        <v>390</v>
       </c>
       <c r="B122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
-        <v>BATALLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
+        <v>LE NORMAND</v>
       </c>
       <c r="C122" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
+        <v>394</v>
+      </c>
+      <c r="B123" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
+        <v>LEJEUNE</v>
+      </c>
+      <c r="C123" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
         <v>RAYO VALLECANO</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
-        <v>386</v>
-      </c>
-      <c r="B123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
-      </c>
-      <c r="C123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
     <row r="124">
       <c r="A124" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
-        <v>388</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
+        <v>397</v>
       </c>
       <c r="B124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
-        <v>LAPORTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
+        <v>REGO</v>
       </c>
       <c r="C124" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -4810,54 +4816,54 @@
     </row>
     <row r="125">
       <c r="A125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
-        <v>390</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
+        <v>401</v>
       </c>
       <c r="B125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
-        <v>LE NORMAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
+        <v>RODRI MENDOZA</v>
       </c>
       <c r="C125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
-        <v>394</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
+        <v>410</v>
       </c>
       <c r="B126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
+        <v>GONZALO</v>
       </c>
       <c r="C126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
-        <v>397</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
+        <v>412</v>
       </c>
       <c r="B127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
-        <v>REGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
+        <v>MATEO JOSEPH</v>
       </c>
       <c r="C127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
-        <v>401</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
+        <v>417</v>
       </c>
       <c r="B128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
-        <v>RODRI MENDOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
+        <v>FEBAS</v>
       </c>
       <c r="C128" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -4866,26 +4872,26 @@
     </row>
     <row r="129">
       <c r="A129" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
-        <v>410</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
+        <v>418</v>
       </c>
       <c r="B129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
-        <v>GONZALO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
-        <v>412</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
+        <v>420</v>
       </c>
       <c r="B130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
+        <v>DARDER</v>
       </c>
       <c r="C130" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4894,464 +4900,408 @@
     </row>
     <row r="131">
       <c r="A131" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
-        <v>417</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
+        <v>423</v>
       </c>
       <c r="B131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
+        <v>UNAI LÓPEZ</v>
       </c>
       <c r="C131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
-        <v>418</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
+        <v>424</v>
       </c>
       <c r="B132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
+        <v>TENAGLIA</v>
       </c>
       <c r="C132" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
+        <v>428</v>
+      </c>
+      <c r="B133" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
+      </c>
+      <c r="C133" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.0)</f>
+        <v>429</v>
+      </c>
+      <c r="B134" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
+      </c>
+      <c r="C134" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
-        <v>420</v>
-      </c>
-      <c r="B133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
-        <v>DARDER</v>
-      </c>
-      <c r="C133" s="20" t="str">
+    <row r="135">
+      <c r="A135" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
+        <v>430</v>
+      </c>
+      <c r="B135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
+        <v>VANAT</v>
+      </c>
+      <c r="C135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
+        <v>433</v>
+      </c>
+      <c r="B136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
+        <v>LEO ROMÁN</v>
+      </c>
+      <c r="C136" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
-        <v>423</v>
-      </c>
-      <c r="B134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
-        <v>UNAI LÓPEZ</v>
-      </c>
-      <c r="C134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
-        <v>424</v>
-      </c>
-      <c r="B135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
-        <v>TENAGLIA</v>
-      </c>
-      <c r="C135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
-        <v>428</v>
-      </c>
-      <c r="B136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
-      </c>
-      <c r="C136" s="20" t="str">
+    <row r="137">
+      <c r="A137" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.0)</f>
+        <v>435</v>
+      </c>
+      <c r="B137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
+        <v>HASSAN</v>
+      </c>
+      <c r="C137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
+        <v>437</v>
+      </c>
+      <c r="B138" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
+        <v>GORROTXATEGI</v>
+      </c>
+      <c r="C138" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
+        <v>438</v>
+      </c>
+      <c r="B139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
+        <v>BATISTA MENDY</v>
+      </c>
+      <c r="C139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
+        <v>441</v>
+      </c>
+      <c r="B140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
+        <v>BUCHANAN</v>
+      </c>
+      <c r="C140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
+        <v>442</v>
+      </c>
+      <c r="B141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
+        <v>UNAI SIMÓN</v>
+      </c>
+      <c r="C141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
+        <v>443</v>
+      </c>
+      <c r="B142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
+        <v>JAUREGIZAR</v>
+      </c>
+      <c r="C142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
+        <v>445</v>
+      </c>
+      <c r="B143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
+        <v>MARCOS LLORENTE</v>
+      </c>
+      <c r="C143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
+        <v>446</v>
+      </c>
+      <c r="B144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
+        <v>ÁLEX BAENA</v>
+      </c>
+      <c r="C144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
+        <v>451</v>
+      </c>
+      <c r="B145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
+        <v>RAPHINHA</v>
+      </c>
+      <c r="C145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
+        <v>453</v>
+      </c>
+      <c r="B146" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
+        <v>RASHFORD</v>
+      </c>
+      <c r="C146" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
+        <v>454</v>
+      </c>
+      <c r="B147" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISCO")</f>
+        <v>ISCO</v>
+      </c>
+      <c r="C147" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
+        <v>459</v>
+      </c>
+      <c r="B148" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
+      </c>
+      <c r="C148" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
+        <v>460</v>
+      </c>
+      <c r="B149" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
+        <v>MASTANTUONO</v>
+      </c>
+      <c r="C149" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
+        <v>464</v>
+      </c>
+      <c r="B150" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
+        <v>VARGAS</v>
+      </c>
+      <c r="C150" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
+        <v>466</v>
+      </c>
+      <c r="B151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
+        <v>MOLEIRO</v>
+      </c>
+      <c r="C151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
+        <v>468</v>
+      </c>
+      <c r="B152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
+        <v>CARD CHAMPIONS</v>
+      </c>
+      <c r="C152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
+        <v>470</v>
+      </c>
+      <c r="B153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
+        <v>JULIÁN ÁLVAREZ</v>
+      </c>
+      <c r="C153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
+        <v>BALÓN DE ORO (ATLÉTICO)</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
+        <v>471</v>
+      </c>
+      <c r="B154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
+        <v>PEDRI</v>
+      </c>
+      <c r="C154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
+        <v>BALÓN DE ORO (BARÇA)</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
+        <v>472</v>
+      </c>
+      <c r="B155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
+        <v>LAMINE YAMAL</v>
+      </c>
+      <c r="C155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
+        <v>BALÓN DE ORO (BARÇA)</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
+        <v>473</v>
+      </c>
+      <c r="B156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
+      </c>
+      <c r="C156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (REAL MADRID)")</f>
+        <v>BALÓN DE ORO (REAL MADRID)</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
+        <v>475</v>
+      </c>
+      <c r="B157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
+        <v>BALÓN DE ORO EXCELLENCE</v>
+      </c>
+      <c r="C157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
+        <v>476</v>
+      </c>
+      <c r="B158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
+        <v>CARD ATÓMICA</v>
+      </c>
+      <c r="C158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
+        <v>91</v>
+      </c>
+      <c r="B159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C159" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.0)</f>
-        <v>429</v>
-      </c>
-      <c r="B137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
-      </c>
-      <c r="C137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
-        <v>430</v>
-      </c>
-      <c r="B138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
-      </c>
-      <c r="C138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
-        <v>433</v>
-      </c>
-      <c r="B139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
-      </c>
-      <c r="C139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.0)</f>
-        <v>435</v>
-      </c>
-      <c r="B140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
-        <v>HASSAN</v>
-      </c>
-      <c r="C140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
-        <v>437</v>
-      </c>
-      <c r="B141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
-      </c>
-      <c r="C141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
-        <v>438</v>
-      </c>
-      <c r="B142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
-        <v>BATISTA MENDY</v>
-      </c>
-      <c r="C142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
-        <v>441</v>
-      </c>
-      <c r="B143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
-        <v>BUCHANAN</v>
-      </c>
-      <c r="C143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
-        <v>442</v>
-      </c>
-      <c r="B144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
-        <v>UNAI SIMÓN</v>
-      </c>
-      <c r="C144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
-        <v>443</v>
-      </c>
-      <c r="B145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
-        <v>JAUREGIZAR</v>
-      </c>
-      <c r="C145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
-        <v>445</v>
-      </c>
-      <c r="B146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
-        <v>MARCOS LLORENTE</v>
-      </c>
-      <c r="C146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
-        <v>446</v>
-      </c>
-      <c r="B147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
-        <v>ÁLEX BAENA</v>
-      </c>
-      <c r="C147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
-        <v>451</v>
-      </c>
-      <c r="B148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
-        <v>RAPHINHA</v>
-      </c>
-      <c r="C148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
-        <v>453</v>
-      </c>
-      <c r="B149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
-        <v>RASHFORD</v>
-      </c>
-      <c r="C149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
-        <v>454</v>
-      </c>
-      <c r="B150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISCO")</f>
-        <v>ISCO</v>
-      </c>
-      <c r="C150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
-        <v>459</v>
-      </c>
-      <c r="B151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
-      </c>
-      <c r="C151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
-        <v>460</v>
-      </c>
-      <c r="B152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
-        <v>MASTANTUONO</v>
-      </c>
-      <c r="C152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
-        <v>464</v>
-      </c>
-      <c r="B153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
-      </c>
-      <c r="C153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
-        <v>466</v>
-      </c>
-      <c r="B154" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
-        <v>MOLEIRO</v>
-      </c>
-      <c r="C154" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
-        <v>468</v>
-      </c>
-      <c r="B155" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
-        <v>CARD CHAMPIONS</v>
-      </c>
-      <c r="C155" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
-        <v>470</v>
-      </c>
-      <c r="B156" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
-        <v>JULIÁN ÁLVAREZ</v>
-      </c>
-      <c r="C156" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
-        <v>BALÓN DE ORO (ATLÉTICO)</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
-        <v>471</v>
-      </c>
-      <c r="B157" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
-        <v>PEDRI</v>
-      </c>
-      <c r="C157" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
-        <v>472</v>
-      </c>
-      <c r="B158" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
-      </c>
-      <c r="C158" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
-        <v>473</v>
-      </c>
-      <c r="B159" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
-      </c>
-      <c r="C159" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (REAL MADRID)")</f>
-        <v>BALÓN DE ORO (REAL MADRID)</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
-        <v>475</v>
-      </c>
-      <c r="B160" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
-        <v>BALÓN DE ORO EXCELLENCE</v>
-      </c>
-      <c r="C160" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
-        <v>476</v>
-      </c>
-      <c r="B161" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
-        <v>CARD ATÓMICA</v>
-      </c>
-      <c r="C161" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
-        <v>91</v>
-      </c>
-      <c r="B162" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C162" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
-        <v>181</v>
-      </c>
-      <c r="B163" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C163" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
       </c>
     </row>
   </sheetData>
@@ -5399,8 +5349,8 @@
         <v>D. ALAVÉS</v>
       </c>
       <c r="D1" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -5441,12 +5391,12 @@
     </row>
     <row r="4">
       <c r="A4" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
+        <v>17</v>
       </c>
       <c r="B4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIANO")</f>
-        <v>MARIANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYÉ")</f>
+        <v>BOYÉ</v>
       </c>
       <c r="C4" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -5459,16 +5409,16 @@
     </row>
     <row r="5">
       <c r="A5" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
+        <v>18</v>
       </c>
       <c r="B5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIANO")</f>
+        <v>MARIANO</v>
       </c>
       <c r="C5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D5" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5477,88 +5427,88 @@
     </row>
     <row r="6">
       <c r="A6" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
-        <v>27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
+        <v>19</v>
       </c>
       <c r="B6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
-        <v>RUIZ DE GALARRETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C6" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
         <v>ATHLETIC CLUB</v>
       </c>
       <c r="D6" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="B7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
-        <v>MAROAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
+        <v>RUIZ DE GALARRETA</v>
       </c>
       <c r="C7" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
         <v>ATHLETIC CLUB</v>
       </c>
       <c r="D7" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
+      </c>
+      <c r="B8" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
+        <v>MAROAN</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+      <c r="D8" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="20">
+    <row r="9">
+      <c r="A9" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
         <v>42</v>
       </c>
-      <c r="B8" s="20" t="str">
+      <c r="B9" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
         <v>LENGLET</v>
-      </c>
-      <c r="C8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-      <c r="D8" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
-      </c>
-      <c r="B9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
-        <v>ALMADA</v>
       </c>
       <c r="C9" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
         <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
-        <v>67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
-        <v>DANI OLMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
+        <v>ALMADA</v>
       </c>
       <c r="C10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D10" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5567,16 +5517,16 @@
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
-        <v>73</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
       </c>
       <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
+        <v>DANI OLMO</v>
       </c>
       <c r="C11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D11" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5585,12 +5535,12 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
       </c>
       <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
-        <v>PAU LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C12" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -5603,12 +5553,12 @@
     </row>
     <row r="13">
       <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
-        <v>JUNIOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
+        <v>PAU LÓPEZ</v>
       </c>
       <c r="C13" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -5621,34 +5571,34 @@
     </row>
     <row r="14">
       <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
       </c>
       <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
-        <v>CUCHO HERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
       <c r="D14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
-        <v>93</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
-        <v>IVÁN VILLAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
+        <v>CUCHO HERNÁNDEZ</v>
       </c>
       <c r="C15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D15" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5657,12 +5607,12 @@
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
+        <v>93</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
+        <v>IVÁN VILLAR</v>
       </c>
       <c r="C16" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5675,12 +5625,12 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
-        <v>ILAIX MORIBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C17" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5693,12 +5643,12 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
-        <v>HUGO ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
+        <v>ILAIX MORIBA</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5711,12 +5661,12 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
+        <v>HUGO ÁLVAREZ</v>
       </c>
       <c r="C19" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5729,12 +5679,12 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5747,12 +5697,12 @@
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
-        <v>JUTGLÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
+        <v>IAGO ASPAS</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5765,16 +5715,16 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
-        <v>IÑAKI PEÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D22" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5783,16 +5733,16 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
-        <v>DITURO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
       </c>
       <c r="C23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D23" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5801,12 +5751,12 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
+        <v>IÑAKI PEÑA</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5819,12 +5769,12 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
-        <v>117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
-        <v>FEDE REDONDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
+        <v>DITURO</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5837,12 +5787,12 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5855,16 +5805,16 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
+        <v>FEDE REDONDO</v>
       </c>
       <c r="C27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D27" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5873,16 +5823,16 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
       </c>
       <c r="C28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D28" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5891,12 +5841,12 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5909,12 +5859,12 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
-        <v>ROBERTO FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5927,34 +5877,34 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
+        <v>ROBERTO FERNÁNDEZ</v>
       </c>
       <c r="C32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D32" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5963,16 +5913,16 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D33" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5981,16 +5931,16 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D34" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5999,34 +5949,34 @@
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C35" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D35" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
+      </c>
+      <c r="B36" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C36" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
         <v>GIRONA FC</v>
-      </c>
-      <c r="D35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
-      </c>
-      <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
-        <v>CARVAJAL</v>
-      </c>
-      <c r="C36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
       </c>
       <c r="D36" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6035,16 +5985,16 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D37" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6053,34 +6003,34 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
-        <v>GÜLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
       </c>
       <c r="C38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
+        <v>177</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
-        <v>RODRYGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TSYGANKOV")</f>
+        <v>TSYGANKOV</v>
       </c>
       <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D39" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6089,52 +6039,52 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
+        <v>202</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
+        <v>CARVAJAL</v>
       </c>
       <c r="C40" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
         <v>REAL MADRID</v>
       </c>
       <c r="D40" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
+      </c>
+      <c r="B41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
+      </c>
+      <c r="C41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D41" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
-      </c>
-      <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
-        <v>VALJENT</v>
-      </c>
-      <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-      <c r="D41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
-        <v>MOJICA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
+        <v>GÜLER</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D42" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6143,16 +6093,16 @@
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
+        <v>213</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
-        <v>JAN VIRGILI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
+        <v>RODRYGO</v>
       </c>
       <c r="C43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D43" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6161,34 +6111,34 @@
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
       </c>
       <c r="C44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
+        <v>VALJENT</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D45" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6197,34 +6147,34 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
-        <v>AITOR FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
+        <v>MOJICA</v>
       </c>
       <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
+        <v>234</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
-        <v>RAÚL GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
+        <v>JAN VIRGILI</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D47" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6233,16 +6183,16 @@
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
-        <v>DAVID CARMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D48" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6251,16 +6201,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
-        <v>DANI CALVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D49" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6269,34 +6219,34 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
+        <v>237</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
-        <v>REINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
+        <v>AITOR FERNÁNDEZ</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
-        <v>FEDE VIÑAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
       </c>
       <c r="C51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D51" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6305,16 +6255,16 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
-        <v>LUIZ FELIPE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
+        <v>RAÚL GARCÍA</v>
       </c>
       <c r="C52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D52" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6323,34 +6273,34 @@
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
+        <v>DAVID CARMO</v>
       </c>
       <c r="C53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
-        <v>PEDRO DÍAZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
       </c>
       <c r="C54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D54" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6359,16 +6309,16 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
-        <v>CALETA-CAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
+        <v>REINA</v>
       </c>
       <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D55" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6377,16 +6327,16 @@
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
-        <v>296</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
+        <v>267</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
-        <v>SERGIO GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BREKALO")</f>
+        <v>BREKALO</v>
       </c>
       <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D56" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6395,16 +6345,16 @@
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
-        <v>PABLO MARIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
       </c>
       <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D57" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6413,16 +6363,16 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
-        <v>NYLAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
+        <v>LUIZ FELIPE</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D58" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6431,34 +6381,34 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
-        <v>312</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
-        <v>AZPILICUETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
+        <v>PEP CHAVARRÍA</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
-        <v>KIKE SALAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
+        <v>PEDRO DÍAZ</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D60" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6467,34 +6417,34 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
-        <v>EJUKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
+        <v>CAMELLO</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
-        <v>AKOR ADAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
+        <v>CALETA-CAR</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D62" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6503,16 +6453,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
+        <v>SERGIO GÓMEZ</v>
       </c>
       <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D63" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6521,16 +6471,16 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
-        <v>327</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
-        <v>DIMITRIEVSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
+        <v>PABLO MARIN</v>
       </c>
       <c r="C64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D64" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6539,16 +6489,16 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
-        <v>FOULQUIER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
+        <v>NYLAND</v>
       </c>
       <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D65" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6557,16 +6507,16 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
-        <v>330</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
+        <v>AZPILICUETA</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D66" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6575,16 +6525,16 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
-        <v>333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
+        <v>313</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
-        <v>GAYÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
+        <v>KIKE SALAS</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D67" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6593,52 +6543,52 @@
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
-        <v>LUIS RIOJA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
+        <v>EJUKE</v>
       </c>
       <c r="C68" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D68" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
+      </c>
+      <c r="B69" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
+        <v>AKOR ADAMS</v>
+      </c>
+      <c r="C69" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D69" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
+      </c>
+      <c r="B70" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C70" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
         <v>VALENCIA CF</v>
-      </c>
-      <c r="D68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
-      </c>
-      <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
-      </c>
-      <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
       </c>
       <c r="D70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6647,16 +6597,16 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
+        <v>327</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
-        <v>SANTI COMESAÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
+        <v>DIMITRIEVSKI</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D71" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6665,16 +6615,16 @@
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
-        <v>352</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
-        <v>PAPE GUEYE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
+        <v>FOULQUIER</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D72" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6683,16 +6633,16 @@
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
       </c>
       <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D73" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6701,16 +6651,16 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
-        <v>369</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
+        <v>331</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
+        <v>COPETE</v>
       </c>
       <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D74" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6719,52 +6669,52 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
-        <v>387</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
       </c>
       <c r="C75" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
         <v>VALENCIA CF</v>
       </c>
       <c r="D75" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
+      </c>
+      <c r="B76" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
+      </c>
+      <c r="C76" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D76" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
-      </c>
-      <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
-      </c>
-      <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-      <c r="D76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
-        <v>398</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
-        <v>DRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D77" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6773,16 +6723,16 @@
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
-        <v>404</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D78" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6791,16 +6741,16 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
+        <v>350</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
+        <v>SERGI CARDONA</v>
       </c>
       <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D79" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6809,34 +6759,34 @@
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
-        <v>BARRIOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
+        <v>SANTI COMESAÑA</v>
       </c>
       <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
-        <v>SOTELO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
+        <v>PAPE GUEYE</v>
       </c>
       <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D81" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6845,16 +6795,16 @@
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
       </c>
       <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D82" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6863,16 +6813,16 @@
     </row>
     <row r="83">
       <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
-        <v>CAZORLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D83" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6881,16 +6831,16 @@
     </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
-        <v>425</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
+        <v>371</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
-        <v>CARLOS VICENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D84" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6899,34 +6849,34 @@
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
-        <v>436</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
-        <v>439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
       </c>
       <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D86" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6935,16 +6885,16 @@
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
-        <v>444</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
+        <v>DRO</v>
       </c>
       <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D87" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6953,12 +6903,12 @@
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
-        <v>456</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
+        <v>400</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
-        <v>ANTONY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO GARCÍA")</f>
+        <v>PABLO GARCÍA</v>
       </c>
       <c r="C88" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -6971,16 +6921,16 @@
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
-        <v>458</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
       </c>
       <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
-        <v>CARRERAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
       </c>
       <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D89" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6989,36 +6939,288 @@
     </row>
     <row r="90">
       <c r="A90" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
+      </c>
+      <c r="B90" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
+        <v>FRAN GONZÁLEZ</v>
+      </c>
+      <c r="C90" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D90" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
+        <v>413</v>
+      </c>
+      <c r="B91" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
+      </c>
+      <c r="C91" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D91" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
+      </c>
+      <c r="B92" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
+      </c>
+      <c r="C92" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D92" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
+      </c>
+      <c r="B93" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
+        <v>SOTELO</v>
+      </c>
+      <c r="C93" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D93" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
+        <v>419</v>
+      </c>
+      <c r="B94" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
+      </c>
+      <c r="C94" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D94" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
+        <v>422</v>
+      </c>
+      <c r="B95" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
+        <v>CAZORLA</v>
+      </c>
+      <c r="C95" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D95" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
+        <v>425</v>
+      </c>
+      <c r="B96" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
+        <v>CARLOS VICENTE</v>
+      </c>
+      <c r="C96" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
+      </c>
+      <c r="D96" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
+        <v>436</v>
+      </c>
+      <c r="B97" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
+        <v>CARLOS SOLER</v>
+      </c>
+      <c r="C97" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+      <c r="D97" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
+        <v>439</v>
+      </c>
+      <c r="B98" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
+      </c>
+      <c r="C98" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D98" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
+        <v>444</v>
+      </c>
+      <c r="B99" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
+        <v>OBLAK</v>
+      </c>
+      <c r="C99" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D99" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
+        <v>449</v>
+      </c>
+      <c r="B100" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
+        <v>KOUNDÉ</v>
+      </c>
+      <c r="C100" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D100" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
+        <v>452</v>
+      </c>
+      <c r="B101" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
+        <v>LEWANDOWSKI</v>
+      </c>
+      <c r="C101" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D101" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
+        <v>456</v>
+      </c>
+      <c r="B102" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
+        <v>ANTONY</v>
+      </c>
+      <c r="C102" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D102" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
+      </c>
+      <c r="B103" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
+        <v>CARRERAS</v>
+      </c>
+      <c r="C103" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D103" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
         <v>469</v>
       </c>
-      <c r="B90" s="20" t="str">
+      <c r="B104" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
         <v>NICO WILLIAMS</v>
       </c>
-      <c r="C90" s="20" t="str">
+      <c r="C104" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
         <v>BALÓN DE ORO (ATHLETIC)</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D104" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="20">
+    <row r="105">
+      <c r="A105" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),477.0)</f>
         <v>477</v>
       </c>
-      <c r="B91" s="20" t="str">
+      <c r="B105" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD INVENCIBLE")</f>
         <v>CARD INVENCIBLE</v>
       </c>
-      <c r="C91" s="20" t="str">
+      <c r="C105" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
         <v>ÚNICA</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D105" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
@@ -7056,7 +7258,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="2">
@@ -7276,6 +7478,9 @@
       <c r="D17" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E17" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21">
@@ -8053,7 +8258,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
@@ -8094,7 +8299,9 @@
       <c r="C77" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="21"/>
+      <c r="D77" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="21">
@@ -8500,6 +8707,9 @@
       <c r="D106" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E106" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="21">
@@ -8986,7 +9196,7 @@
         <v>20</v>
       </c>
       <c r="E140" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="141">
@@ -9016,7 +9226,9 @@
       <c r="C142" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D142" s="21"/>
+      <c r="D142" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="21">
@@ -9494,6 +9706,9 @@
       <c r="D177" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E177" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="21">
@@ -9928,7 +10143,7 @@
         <v>20</v>
       </c>
       <c r="E209" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="210">
@@ -10481,6 +10696,9 @@
       <c r="D248" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E248" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="21">
@@ -10745,6 +10963,9 @@
       <c r="D267" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E267" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="21">
@@ -11009,6 +11230,9 @@
       <c r="D286" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E286" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="21">
@@ -11531,7 +11755,7 @@
         <v>20</v>
       </c>
       <c r="E323" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="324">
@@ -11655,6 +11879,9 @@
       <c r="D331" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E331" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="21">
@@ -11924,6 +12151,9 @@
       <c r="D350" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E350" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="21">
@@ -12025,7 +12255,9 @@
       <c r="C357" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D357" s="21"/>
+      <c r="D357" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="21">
@@ -12225,6 +12457,9 @@
       <c r="D9" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="21">
@@ -12250,7 +12485,9 @@
       <c r="C11" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="21">
@@ -12556,6 +12793,9 @@
       </c>
       <c r="D11" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -15056,6 +15296,9 @@
       <c r="D4" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E4" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="21">
@@ -15182,6 +15425,9 @@
       </c>
       <c r="D13" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B1" s="2">
         <f>TODAY()</f>
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5481,52 +5481,52 @@
     </row>
     <row r="9">
       <c r="A9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="B9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
-        <v>LENGLET</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
+        <v>MARCOS LLORENTE</v>
       </c>
       <c r="C9" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
         <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
       <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
-        <v>ALMADA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
+        <v>LENGLET</v>
       </c>
       <c r="C10" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
         <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
-        <v>67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
-        <v>DANI OLMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
+        <v>ALMADA</v>
       </c>
       <c r="C11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D11" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5535,16 +5535,16 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
-        <v>73</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
       </c>
       <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
+        <v>DANI OLMO</v>
       </c>
       <c r="C12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D12" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5553,30 +5553,30 @@
     </row>
     <row r="13">
       <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
       </c>
       <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
-        <v>PAU LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C13" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
       <c r="D13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
-        <v>JUNIOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
+        <v>PAU LÓPEZ</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -5589,34 +5589,34 @@
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
-        <v>CUCHO HERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
       <c r="D15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
-        <v>93</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
-        <v>IVÁN VILLAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
+        <v>CUCHO HERNÁNDEZ</v>
       </c>
       <c r="C16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D16" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5625,12 +5625,12 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
+        <v>93</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
+        <v>IVÁN VILLAR</v>
       </c>
       <c r="C17" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5643,12 +5643,12 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
-        <v>ILAIX MORIBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5661,12 +5661,12 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
-        <v>HUGO ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
+        <v>ILAIX MORIBA</v>
       </c>
       <c r="C19" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5679,12 +5679,12 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
+        <v>HUGO ÁLVAREZ</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5697,12 +5697,12 @@
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
-        <v>106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
-        <v>IAGO ASPAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5715,12 +5715,12 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
+        <v>IAGO ASPAS</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5733,12 +5733,12 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
-        <v>JUTGLÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5751,16 +5751,16 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
-        <v>IÑAKI PEÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D24" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5769,12 +5769,12 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
-        <v>DITURO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
+        <v>IÑAKI PEÑA</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5787,12 +5787,12 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
+        <v>DITURO</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5805,12 +5805,12 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
-        <v>117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
-        <v>FEDE REDONDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5823,12 +5823,12 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
+        <v>FEDE REDONDO</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5841,16 +5841,16 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
       </c>
       <c r="C29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D29" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5859,12 +5859,12 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5877,48 +5877,48 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
-        <v>ROBERTO FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
+        <v>ROBERTO FERNÁNDEZ</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5931,16 +5931,16 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D34" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5949,12 +5949,12 @@
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C35" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -5967,16 +5967,16 @@
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D36" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5985,12 +5985,12 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -6003,30 +6003,30 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C38" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
         <v>GIRONA FC</v>
       </c>
       <c r="D38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
-        <v>177</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TSYGANKOV")</f>
-        <v>TSYGANKOV</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
+        <v>IVÁN MARTÍN</v>
       </c>
       <c r="C39" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -6039,48 +6039,48 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
+      </c>
+      <c r="B40" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
+      </c>
+      <c r="C40" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+      <c r="D40" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
+        <v>177</v>
+      </c>
+      <c r="B41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TSYGANKOV")</f>
+        <v>TSYGANKOV</v>
+      </c>
+      <c r="C41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+      <c r="D41" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
         <v>202</v>
       </c>
-      <c r="B40" s="20" t="str">
+      <c r="B42" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
         <v>CARVAJAL</v>
-      </c>
-      <c r="C40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
-      </c>
-      <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
-      </c>
-      <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
-      </c>
-      <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
-        <v>GÜLER</v>
       </c>
       <c r="C42" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6093,52 +6093,52 @@
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
-        <v>RODRYGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
       </c>
       <c r="C43" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
         <v>REAL MADRID</v>
       </c>
       <c r="D43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
+        <v>GÜLER</v>
       </c>
       <c r="C44" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
         <v>REAL MADRID</v>
       </c>
       <c r="D44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
+        <v>213</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
-        <v>VALJENT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
+        <v>RODRYGO</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D45" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6147,30 +6147,30 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
-        <v>MOJICA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
       </c>
       <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
-        <v>JAN VIRGILI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
+        <v>VALJENT</v>
       </c>
       <c r="C47" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -6183,16 +6183,16 @@
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
+        <v>MOJICA</v>
       </c>
       <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D48" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6201,16 +6201,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
+        <v>234</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
+        <v>JAN VIRGILI</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D49" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6219,30 +6219,30 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
-        <v>AITOR FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C50" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
         <v>CA OSASUNA</v>
       </c>
       <c r="D50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
-        <v>AIMAR OROZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C51" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
@@ -6255,34 +6255,34 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
+        <v>237</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
-        <v>RAÚL GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
+        <v>AITOR FERNÁNDEZ</v>
       </c>
       <c r="C52" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
         <v>CA OSASUNA</v>
       </c>
       <c r="D52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
-        <v>DAVID CARMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
       </c>
       <c r="C53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D53" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6291,16 +6291,16 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
-        <v>DANI CALVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
+        <v>RAÚL GARCÍA</v>
       </c>
       <c r="C54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D54" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6309,12 +6309,12 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
-        <v>REINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
+        <v>DAVID CARMO</v>
       </c>
       <c r="C55" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -6327,12 +6327,12 @@
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
-        <v>267</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BREKALO")</f>
-        <v>BREKALO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
       </c>
       <c r="C56" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -6345,12 +6345,12 @@
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
-        <v>FEDE VIÑAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
+        <v>REINA</v>
       </c>
       <c r="C57" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -6363,16 +6363,16 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
+        <v>267</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
-        <v>LUIZ FELIPE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BREKALO")</f>
+        <v>BREKALO</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D58" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6381,30 +6381,30 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
-        <v>PEDRO DÍAZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
+        <v>LUIZ FELIPE</v>
       </c>
       <c r="C60" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -6417,34 +6417,34 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
-        <v>286</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
-        <v>CAMELLO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
+        <v>PEP CHAVARRÍA</v>
       </c>
       <c r="C61" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
         <v>RAYO VALLECANO</v>
       </c>
       <c r="D61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
-        <v>CALETA-CAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
+        <v>PEDRO DÍAZ</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D62" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6453,16 +6453,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
-        <v>296</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
-        <v>SERGIO GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
+        <v>CAMELLO</v>
       </c>
       <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D63" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6471,12 +6471,12 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
+        <v>290</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
-        <v>PABLO MARIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
       </c>
       <c r="C64" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
@@ -6489,16 +6489,16 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
-        <v>NYLAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
+        <v>CALETA-CAR</v>
       </c>
       <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D65" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6507,16 +6507,16 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
-        <v>312</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
-        <v>AZPILICUETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
+        <v>SERGIO GÓMEZ</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D66" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6525,16 +6525,16 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
-        <v>KIKE SALAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
+        <v>PABLO MARIN</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D67" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6543,52 +6543,52 @@
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
-        <v>EJUKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
+        <v>NYLAND</v>
       </c>
       <c r="C68" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
       <c r="D68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
-        <v>AKOR ADAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
+        <v>AZPILICUETA</v>
       </c>
       <c r="C69" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
       <c r="D69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
+        <v>313</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
+        <v>KIKE SALAS</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6597,48 +6597,48 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
-        <v>327</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
-        <v>DIMITRIEVSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
+        <v>EJUKE</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
-        <v>FOULQUIER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
+        <v>AKOR ADAMS</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
-        <v>330</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C73" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -6651,12 +6651,12 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
-        <v>331</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
+        <v>327</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
-        <v>COPETE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
+        <v>DIMITRIEVSKI</v>
       </c>
       <c r="C74" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -6669,12 +6669,12 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
-        <v>333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
-        <v>GAYÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
+        <v>FOULQUIER</v>
       </c>
       <c r="C75" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -6687,34 +6687,34 @@
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
-        <v>LUIS RIOJA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
       </c>
       <c r="C76" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
         <v>VALENCIA CF</v>
       </c>
       <c r="D76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
+        <v>331</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
+        <v>COPETE</v>
       </c>
       <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D77" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6723,16 +6723,16 @@
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
       </c>
       <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D78" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6741,30 +6741,30 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
-        <v>350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
-        <v>SERGI CARDONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
       </c>
       <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
-        <v>SANTI COMESAÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C80" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
@@ -6777,12 +6777,12 @@
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
-        <v>352</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
-        <v>PAPE GUEYE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C81" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
@@ -6795,16 +6795,16 @@
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
+        <v>350</v>
       </c>
       <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
+        <v>SERGI CARDONA</v>
       </c>
       <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D82" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6813,16 +6813,16 @@
     </row>
     <row r="83">
       <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
-        <v>369</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
+        <v>SANTI COMESAÑA</v>
       </c>
       <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D83" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6831,16 +6831,16 @@
     </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
-        <v>371</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
+        <v>PAPE GUEYE</v>
       </c>
       <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D84" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6849,34 +6849,34 @@
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
-        <v>387</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D86" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6885,16 +6885,16 @@
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
-        <v>398</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
+        <v>371</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
-        <v>DRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D87" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6903,34 +6903,34 @@
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
-        <v>400</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO GARCÍA")</f>
-        <v>PABLO GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
-        <v>404</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
       </c>
       <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
       </c>
       <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D89" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6939,16 +6939,16 @@
     </row>
     <row r="90">
       <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
-        <v>409</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
       </c>
       <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
-        <v>FRAN GONZÁLEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
+        <v>DRO</v>
       </c>
       <c r="C90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D90" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6957,16 +6957,16 @@
     </row>
     <row r="91">
       <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
+        <v>400</v>
       </c>
       <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO GARCÍA")</f>
+        <v>PABLO GARCÍA</v>
       </c>
       <c r="C91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D91" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6975,34 +6975,34 @@
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
       </c>
       <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
-        <v>BARRIOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
       </c>
       <c r="C92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
       </c>
       <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
-        <v>SOTELO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
+        <v>FRAN GONZÁLEZ</v>
       </c>
       <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D93" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7011,16 +7011,16 @@
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
+        <v>413</v>
       </c>
       <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
       </c>
       <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D94" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7029,34 +7029,34 @@
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
       </c>
       <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
-        <v>CAZORLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
       </c>
       <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
-        <v>425</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
-        <v>CARLOS VICENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
+        <v>SOTELO</v>
       </c>
       <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D96" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7065,16 +7065,16 @@
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
-        <v>436</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
+        <v>419</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
       </c>
       <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D97" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7083,16 +7083,16 @@
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
-        <v>439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
+        <v>422</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
+        <v>CAZORLA</v>
       </c>
       <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D98" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7101,16 +7101,16 @@
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
-        <v>444</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
+        <v>425</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
+        <v>CARLOS VICENTE</v>
       </c>
       <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D99" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7119,16 +7119,16 @@
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
-        <v>449</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
+        <v>436</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
-        <v>KOUNDÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
+        <v>CARLOS SOLER</v>
       </c>
       <c r="C100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D100" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7137,16 +7137,16 @@
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
-        <v>452</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
+        <v>439</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
-        <v>LEWANDOWSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
       </c>
       <c r="C101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D101" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7155,16 +7155,16 @@
     </row>
     <row r="102">
       <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
-        <v>456</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
+        <v>444</v>
       </c>
       <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
-        <v>ANTONY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
+        <v>OBLAK</v>
       </c>
       <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D102" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7173,16 +7173,16 @@
     </row>
     <row r="103">
       <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
-        <v>458</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
+        <v>449</v>
       </c>
       <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
-        <v>CARRERAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
+        <v>KOUNDÉ</v>
       </c>
       <c r="C103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D103" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7191,36 +7191,90 @@
     </row>
     <row r="104">
       <c r="A104" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
+        <v>452</v>
+      </c>
+      <c r="B104" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
+        <v>LEWANDOWSKI</v>
+      </c>
+      <c r="C104" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D104" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
+        <v>456</v>
+      </c>
+      <c r="B105" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
+        <v>ANTONY</v>
+      </c>
+      <c r="C105" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D105" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
+      </c>
+      <c r="B106" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
+        <v>CARRERAS</v>
+      </c>
+      <c r="C106" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D106" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
         <v>469</v>
       </c>
-      <c r="B104" s="20" t="str">
+      <c r="B107" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
         <v>NICO WILLIAMS</v>
       </c>
-      <c r="C104" s="20" t="str">
+      <c r="C107" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
         <v>BALÓN DE ORO (ATHLETIC)</v>
       </c>
-      <c r="D104" s="20">
+      <c r="D107" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="20">
+    <row r="108">
+      <c r="A108" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),477.0)</f>
         <v>477</v>
       </c>
-      <c r="B105" s="20" t="str">
+      <c r="B108" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD INVENCIBLE")</f>
         <v>CARD INVENCIBLE</v>
       </c>
-      <c r="C105" s="20" t="str">
+      <c r="C108" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
         <v>ÚNICA</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D108" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
@@ -7792,6 +7846,9 @@
       <c r="D40" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E40" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="21">
@@ -9661,6 +9718,9 @@
       <c r="D174" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E174" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="21">
@@ -11286,6 +11346,9 @@
       </c>
       <c r="D290" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E290" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="291">

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="399">
   <si>
     <t>Última actualización:</t>
   </si>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B1" s="2">
         <f>TODAY()</f>
-        <v>46059</v>
+        <v>46061</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1836,15 +1836,15 @@
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(REGULARES!D:D, "SI")</f>
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="1">B3-C3</f>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="2">(C3/B3)</f>
-        <v>0.7</v>
+        <v>0.7083333333</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E3, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2004,15 +2004,15 @@
       </c>
       <c r="C10" s="14">
         <f>COUNTIF('Protas (424–441)'!D:D, "SI")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.5555555556</v>
       </c>
       <c r="F10" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E10, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2028,15 +2028,15 @@
       </c>
       <c r="C11" s="14">
         <f>COUNTIF('Super Cracks (442–467)'!D:D, "SI")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="3"/>
-        <v>0.5769230769</v>
+        <v>0.6153846154</v>
       </c>
       <c r="F11" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E11, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2077,15 +2077,15 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>0.6807228916</v>
+        <v>0.6907630522</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E13, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2339,7 +2339,9 @@
       <c r="C6" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="21">
@@ -2945,7 +2947,9 @@
       <c r="C18" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="21">
@@ -3080,12 +3084,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("{FILTER(REGULARES!A:C, REGULARES!D:D&lt;&gt;""SI"", REGULARES!A:A&lt;&gt;""""); FILTER('¡VAMOS! (361–380)'!A:C, '¡VAMOS! (361–380)'!D:D&lt;&gt;""SI"", '¡VAMOS! (361–380)'!A:A&lt;&gt;""""); FILTER('Guantes de Oro (381–387)'!A:C, 'Guantes de Oro (381–387)'!D:D&lt;&gt;""SI"", 'Guantes de"&amp;" Oro (381–387)'!A:A&lt;&gt;""""); FILTER('Kryptonita (388–396)'!A:C, 'Kryptonita (388–396)'!D:D&lt;&gt;""SI"", 'Kryptonita (388–396)'!A:A&lt;&gt;""""); FILTER('Diamantes (397–414)'!A:C, 'Diamantes (397–414)'!D:D&lt;&gt;""SI"", 'Diamantes (397–414)'!A:A&lt;&gt;""""); FILTER('Influencer"&amp;"s (415–423)'!A:C, 'Influencers (415–423)'!D:D&lt;&gt;""SI"", 'Influencers (415–423)'!A:A&lt;&gt;""""); FILTER('Protas (424–441)'!A:C, 'Protas (424–441)'!D:D&lt;&gt;""SI"", 'Protas (424–441)'!A:A&lt;&gt;""""); FILTER('Super Cracks (442–467)'!A:C, 'Super Cracks (442–467)'!D:D&lt;&gt;""S"&amp;"I"", 'Super Cracks (442–467)'!A:A&lt;&gt;""""); FILTER('Cartas Top y Únicas (468–478)'!A:C, 'Cartas Top y Únicas (468–478)'!D:D&lt;&gt;""SI"", 'Cartas Top y Únicas (468–478)'!A:A&lt;&gt;""""); FILTER(Estadios!A:C, Estadios!D:D&lt;&gt;""SI"", Estadios!A:A&lt;&gt;"""")}"),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("{FILTER(REGULARES!A:C, REGULARES!D:D&lt;&gt;""SI"", REGULARES!A:A&lt;&gt;""""); FILTER('¡VAMOS! (361–380)'!A:C, '¡VAMOS! (361–380)'!D:D&lt;&gt;""SI"", '¡VAMOS! (361–380)'!A:A&lt;&gt;""""); FILTER('Guantes de Oro (381–387)'!A:C, 'Guantes de Oro (381–387)'!D:D&lt;&gt;""SI"", 'Guantes de"&amp;" Oro (381–387)'!A:A&lt;&gt;""""); FILTER('Kryptonita (388–396)'!A:C, 'Kryptonita (388–396)'!D:D&lt;&gt;""SI"", 'Kryptonita (388–396)'!A:A&lt;&gt;""""); FILTER('Diamantes (397–414)'!A:C, 'Diamantes (397–414)'!D:D&lt;&gt;""SI"", 'Diamantes (397–414)'!A:A&lt;&gt;""""); FILTER('Influencer"&amp;"s (415–423)'!A:C, 'Influencers (415–423)'!D:D&lt;&gt;""SI"", 'Influencers (415–423)'!A:A&lt;&gt;""""); FILTER('Protas (424–441)'!A:C, 'Protas (424–441)'!D:D&lt;&gt;""SI"", 'Protas (424–441)'!A:A&lt;&gt;""""); FILTER('Super Cracks (442–467)'!A:C, 'Super Cracks (442–467)'!D:D&lt;&gt;""S"&amp;"I"", 'Super Cracks (442–467)'!A:A&lt;&gt;""""); FILTER('Cartas Top y Únicas (468–478)'!A:C, 'Cartas Top y Únicas (468–478)'!D:D&lt;&gt;""SI"", 'Cartas Top y Únicas (468–478)'!A:A&lt;&gt;""""); FILTER(Estadios!A:C, Estadios!D:D&lt;&gt;""SI"", Estadios!A:A&lt;&gt;"""")}"),5.0)</f>
+        <v>5</v>
       </c>
       <c r="B1" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SIVERA")</f>
-        <v>SIVERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
+        <v>TENAGLIA</v>
       </c>
       <c r="C1" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3094,12 +3098,12 @@
     </row>
     <row r="2">
       <c r="A2" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
       </c>
       <c r="B2" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
-        <v>TENAGLIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURIDI")</f>
+        <v>GURIDI</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3108,12 +3112,12 @@
     </row>
     <row r="3">
       <c r="A3" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
       <c r="B3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURIDI")</f>
-        <v>GURIDI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEÑÁ")</f>
+        <v>ALEÑÁ</v>
       </c>
       <c r="C3" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3122,12 +3126,12 @@
     </row>
     <row r="4">
       <c r="A4" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
-        <v>12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="B4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEÑÁ")</f>
-        <v>ALEÑÁ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO IBÁÑEZ")</f>
+        <v>PABLO IBÁÑEZ</v>
       </c>
       <c r="C4" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3136,12 +3140,12 @@
     </row>
     <row r="5">
       <c r="A5" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="B5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO IBÁÑEZ")</f>
-        <v>PABLO IBÁÑEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TONI MARTÍNEZ")</f>
+        <v>TONI MARTÍNEZ</v>
       </c>
       <c r="C5" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3150,26 +3154,26 @@
     </row>
     <row r="6">
       <c r="A6" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="B6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TONI MARTÍNEZ")</f>
-        <v>TONI MARTÍNEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
+        <v>UNAI SIMÓN</v>
       </c>
       <c r="C6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
       </c>
       <c r="B7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
-        <v>UNAI SIMÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAREDES")</f>
+        <v>PAREDES</v>
       </c>
       <c r="C7" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3178,12 +3182,12 @@
     </row>
     <row r="8">
       <c r="A8" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
       </c>
       <c r="B8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAREDES")</f>
-        <v>PAREDES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
+        <v>LAPORTE</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3192,12 +3196,12 @@
     </row>
     <row r="9">
       <c r="A9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
       <c r="B9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
-        <v>LAPORTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YURI")</f>
+        <v>YURI</v>
       </c>
       <c r="C9" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3206,12 +3210,12 @@
     </row>
     <row r="10">
       <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
+        <v>29</v>
       </c>
       <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YURI")</f>
-        <v>YURI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VESGA")</f>
+        <v>VESGA</v>
       </c>
       <c r="C10" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3220,12 +3224,12 @@
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VESGA")</f>
-        <v>VESGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI GÓMEZ")</f>
+        <v>UNAI GÓMEZ</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3234,12 +3238,12 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
+        <v>35</v>
       </c>
       <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI GÓMEZ")</f>
-        <v>UNAI GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURUZETA")</f>
+        <v>GURUZETA</v>
       </c>
       <c r="C12" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3248,12 +3252,12 @@
     </row>
     <row r="13">
       <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURUZETA")</f>
-        <v>GURUZETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
+        <v>NICO WILLIAMS</v>
       </c>
       <c r="C13" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3262,26 +3266,26 @@
     </row>
     <row r="14">
       <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
-        <v>NICO WILLIAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
+        <v>OBLAK</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3290,12 +3294,12 @@
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEX BAENA")</f>
+        <v>ALEX BAENA</v>
       </c>
       <c r="C16" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3304,12 +3308,12 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEX BAENA")</f>
-        <v>ALEX BAENA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO GONZÁLEZ")</f>
+        <v>NICO GONZÁLEZ</v>
       </c>
       <c r="C17" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3318,12 +3322,12 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
+        <v>51</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO GONZÁLEZ")</f>
-        <v>NICO GONZÁLEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIULIANO")</f>
+        <v>GIULIANO</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3332,12 +3336,12 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
-        <v>51</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
+        <v>54</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIULIANO")</f>
-        <v>GIULIANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
+        <v>GRIEZMANN</v>
       </c>
       <c r="C19" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3346,26 +3350,26 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
-        <v>54</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
+        <v>57</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
-        <v>GRIEZMANN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SZCZESNY")</f>
+        <v>SZCZESNY</v>
       </c>
       <c r="C20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
-        <v>57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SZCZESNY")</f>
-        <v>SZCZESNY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
+        <v>KOUNDÉ</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3374,12 +3378,12 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
+        <v>60</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
-        <v>KOUNDÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ERIC GARCÍA")</f>
+        <v>ERIC GARCÍA</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3388,12 +3392,12 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
-        <v>60</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
+        <v>68</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ERIC GARCÍA")</f>
-        <v>ERIC GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
+        <v>RAPHINHA</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3402,12 +3406,12 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
-        <v>68</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
+        <v>69</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
-        <v>RAPHINHA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
+        <v>LAMINE YAMAL</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3416,12 +3420,12 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
-        <v>69</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
+        <v>70</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERRAN TORRES")</f>
+        <v>FERRAN TORRES</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3430,26 +3434,26 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
-        <v>70</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
+        <v>80</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERRAN TORRES")</f>
-        <v>FERRAN TORRES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
-        <v>80</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
+        <v>82</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
+        <v>ALTIMIRA</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3458,12 +3462,12 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
-        <v>82</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
-        <v>ALTIMIRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
+        <v>AMRABAT</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3472,12 +3476,12 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
-        <v>83</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
-        <v>AMRABAT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
+        <v>LO CELSO</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3486,12 +3490,12 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
-        <v>85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
-        <v>LO CELSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
+        <v>RIQUELME</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3500,12 +3504,12 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
+        <v>90</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
-        <v>RIQUELME</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
+        <v>ABDE</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3514,26 +3518,26 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
-        <v>90</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
+        <v>92</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
-        <v>ABDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
+        <v>RADU</v>
       </c>
       <c r="C32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
+        <v>96</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
-        <v>RADU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STARFELT")</f>
+        <v>STARFELT</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3542,12 +3546,12 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95.0)</f>
-        <v>95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
+        <v>98</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RODRÍGUEZ")</f>
-        <v>JAVI RODRÍGUEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
+        <v>MINGUEZA</v>
       </c>
       <c r="C34" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3556,12 +3560,12 @@
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
-        <v>96</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STARFELT")</f>
-        <v>STARFELT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
+        <v>FRAN BELTRÁN</v>
       </c>
       <c r="C35" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3570,12 +3574,12 @@
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
-        <v>98</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
-        <v>MINGUEZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C36" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3584,40 +3588,40 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
+        <v>113</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
-        <v>FRAN BELTRÁN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
+        <v>CHUST</v>
       </c>
       <c r="C37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
+        <v>114</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIGAS")</f>
+        <v>BIGAS</v>
       </c>
       <c r="C38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
-        <v>113</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
-        <v>CHUST</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GERMÁN VALERA")</f>
+        <v>GERMÁN VALERA</v>
       </c>
       <c r="C39" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3626,12 +3630,12 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
-        <v>114</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
+        <v>119</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIGAS")</f>
-        <v>BIGAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
+        <v>MARTIM NETO</v>
       </c>
       <c r="C40" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3640,12 +3644,12 @@
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
-        <v>118</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GERMÁN VALERA")</f>
-        <v>GERMÁN VALERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
+        <v>FEBAS</v>
       </c>
       <c r="C41" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3654,40 +3658,40 @@
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
+        <v>128</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
-        <v>MARTIM NETO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
+        <v>DMITROVIC</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
-        <v>120</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
+        <v>132</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIEDEL")</f>
+        <v>RIEDEL</v>
       </c>
       <c r="C43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
-        <v>DMITROVIC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
       </c>
       <c r="C44" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -3696,12 +3700,12 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
-        <v>132</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
+        <v>143</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIEDEL")</f>
-        <v>RIEDEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PUADO")</f>
+        <v>PUADO</v>
       </c>
       <c r="C45" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -3710,40 +3714,40 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
-        <v>143</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PUADO")</f>
-        <v>PUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
+        <v>IGLESIAS</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
+        <v>149</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
+        <v>KIKO FEMENÍA</v>
       </c>
       <c r="C48" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3752,12 +3756,12 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
+        <v>150</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
-        <v>IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
+        <v>DJENÉ</v>
       </c>
       <c r="C49" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3766,12 +3770,12 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
-        <v>149</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
+        <v>151</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
-        <v>KIKO FEMENÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
+        <v>DOMINGOS DUARTE</v>
       </c>
       <c r="C50" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3780,12 +3784,12 @@
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
-        <v>150</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
+        <v>155</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
-        <v>DJENÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIO MARTÍN")</f>
+        <v>MARIO MARTÍN</v>
       </c>
       <c r="C51" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3794,12 +3798,12 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
-        <v>151</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
+        <v>157</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
-        <v>DOMINGOS DUARTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
       </c>
       <c r="C52" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3808,12 +3812,12 @@
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
-        <v>155</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
+        <v>161</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIO MARTÍN")</f>
-        <v>MARIO MARTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
       </c>
       <c r="C53" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3822,12 +3826,12 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
-        <v>157</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
+        <v>162</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
+        <v>COBA</v>
       </c>
       <c r="C54" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -3836,40 +3840,40 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
-        <v>161</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
+        <v>164</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAZZANIGA")</f>
+        <v>GAZZANIGA</v>
       </c>
       <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
-        <v>162</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
+        <v>167</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
-        <v>COBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO RINCÓN")</f>
+        <v>HUGO RINCÓN</v>
       </c>
       <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
-        <v>164</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
+        <v>168</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAZZANIGA")</f>
-        <v>GAZZANIGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
+        <v>VITOR REIS</v>
       </c>
       <c r="C57" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -3878,12 +3882,12 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
-        <v>167</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
+        <v>169</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO RINCÓN")</f>
-        <v>HUGO RINCÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BLIND")</f>
+        <v>BLIND</v>
       </c>
       <c r="C58" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -3892,12 +3896,12 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
-        <v>168</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
+        <v>178</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
-        <v>VITOR REIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
+        <v>VANAT</v>
       </c>
       <c r="C59" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -3906,40 +3910,40 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
-        <v>169</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
+        <v>182</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BLIND")</f>
-        <v>BLIND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
+        <v>RYAN</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
-        <v>178</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
+        <v>183</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
+        <v>PABLO CAMPOS</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
-        <v>182</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
+        <v>186</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
-        <v>RYAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
+        <v>ELGEZABAL</v>
       </c>
       <c r="C62" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -3948,12 +3952,12 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
-        <v>183</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
+        <v>191</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
-        <v>PABLO CAMPOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
+        <v>PABLO MARTÍNEZ</v>
       </c>
       <c r="C63" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -3962,12 +3966,12 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
-        <v>186</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
+        <v>196</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
-        <v>ELGEZABAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
+        <v>BRUGUÉ</v>
       </c>
       <c r="C64" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -3976,12 +3980,12 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
-        <v>191</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
+        <v>198</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
-        <v>PABLO MARTÍNEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
+        <v>ETTA EYONG</v>
       </c>
       <c r="C65" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
@@ -3990,40 +3994,40 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
-        <v>196</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
+        <v>201</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
-        <v>BRUGUÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
+        <v>LUNIN</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
-        <v>198</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
+        <v>205</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
-        <v>ETTA EYONG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
+        <v>HUIJSEN</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
-        <v>201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
+        <v>214</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
-        <v>LUNIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
+        <v>MBAPPÉ</v>
       </c>
       <c r="C68" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -4032,40 +4036,40 @@
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
-        <v>205</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
+        <v>217</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
-        <v>HUIJSEN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
-        <v>214</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
+        <v>218</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
-        <v>MBAPPÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
+        <v>LEO ROMÁN</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
-        <v>217</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
+        <v>224</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
+        <v>KUMBULLA</v>
       </c>
       <c r="C71" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4074,12 +4078,12 @@
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
+        <v>229</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
+        <v>MORLANES</v>
       </c>
       <c r="C72" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4088,12 +4092,12 @@
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
-        <v>224</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
+        <v>231</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
-        <v>KUMBULLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
+        <v>ASANO</v>
       </c>
       <c r="C73" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4102,12 +4106,12 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
-        <v>229</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
+        <v>232</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
-        <v>MORLANES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
+        <v>MURIQI</v>
       </c>
       <c r="C74" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4116,12 +4120,12 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
-        <v>231</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
+        <v>233</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
-        <v>ASANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
+        <v>MATEO JOSEPH</v>
       </c>
       <c r="C75" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4130,40 +4134,40 @@
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
-        <v>232</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
+        <v>239</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
-        <v>MURIQI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
+        <v>BOYOMO</v>
       </c>
       <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
-        <v>233</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
+        <v>241</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
+        <v>HERRANDO</v>
       </c>
       <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
-        <v>239</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
+        <v>242</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
-        <v>BOYOMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
+        <v>JUAN CRUZ</v>
       </c>
       <c r="C78" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
@@ -4172,54 +4176,54 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
-        <v>241</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
+        <v>253</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
-        <v>HERRANDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
+        <v>254</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
-        <v>JUAN CRUZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
+        <v>AARON ESCANDELL</v>
       </c>
       <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),251.0)</f>
-        <v>251</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUDIMIR")</f>
-        <v>BUDIMIR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
+        <v>RAHIM ALHASSANE</v>
       </c>
       <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
+        <v>261</v>
       </c>
       <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
+        <v>COLOMBATTO</v>
       </c>
       <c r="C82" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4228,12 +4232,12 @@
     </row>
     <row r="83">
       <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
-        <v>254</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
+        <v>263</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
-        <v>AARON ESCANDELL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
+        <v>DENDONCKER</v>
       </c>
       <c r="C83" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4242,12 +4246,12 @@
     </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
+        <v>266</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
-        <v>RAHIM ALHASSANE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
+        <v>HASSAN</v>
       </c>
       <c r="C84" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4256,12 +4260,12 @@
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
-        <v>261</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
+        <v>268</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
-        <v>COLOMBATTO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
+        <v>ILYAS CHAIRA</v>
       </c>
       <c r="C85" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -4270,54 +4274,54 @@
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
-        <v>263</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
+        <v>271</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
-        <v>DENDONCKER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
-        <v>266</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
+        <v>273</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
-        <v>HASSAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
+        <v>CÁRDENAS</v>
       </c>
       <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
-        <v>268</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
+        <v>276</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
-        <v>ILYAS CHAIRA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
+        <v>LEJEUNE</v>
       </c>
       <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
-        <v>271</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
+        <v>279</v>
       </c>
       <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
+        <v>PATHÉ CISS</v>
       </c>
       <c r="C89" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -4326,12 +4330,12 @@
     </row>
     <row r="90">
       <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
-        <v>273</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
+        <v>280</v>
       </c>
       <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
-        <v>CÁRDENAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
+        <v>UNAI LOPEZ</v>
       </c>
       <c r="C90" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -4340,12 +4344,12 @@
     </row>
     <row r="91">
       <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
-        <v>276</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
+        <v>285</v>
       </c>
       <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN PÉREZ")</f>
+        <v>FRAN PÉREZ</v>
       </c>
       <c r="C91" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -4354,54 +4358,54 @@
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
-        <v>279</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
+        <v>289</v>
       </c>
       <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
-        <v>PATHÉ CISS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
-        <v>280</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
+        <v>294</v>
       </c>
       <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
-        <v>UNAI LOPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZUBELDIA")</f>
+        <v>ZUBELDIA</v>
       </c>
       <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
-        <v>285</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
+        <v>297</v>
       </c>
       <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN PÉREZ")</f>
-        <v>FRAN PÉREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
+        <v>GORROTXATEGI</v>
       </c>
       <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
-        <v>289</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
+        <v>300</v>
       </c>
       <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
+        <v>CARLOS SOLER</v>
       </c>
       <c r="C95" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
@@ -4410,12 +4414,12 @@
     </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
-        <v>294</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
+        <v>301</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZUBELDIA")</f>
-        <v>ZUBELDIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
+        <v>BRAIS MÉNDEZ</v>
       </c>
       <c r="C96" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
@@ -4424,12 +4428,12 @@
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
-        <v>297</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
+        <v>305</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
+        <v>ÓSKARSSON</v>
       </c>
       <c r="C97" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
@@ -4438,54 +4442,54 @@
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
-        <v>300</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
+        <v>310</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
+        <v>CARMONA</v>
       </c>
       <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
-        <v>301</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
+        <v>314</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
-        <v>BRAIS MÉNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
+        <v>MARCAO</v>
       </c>
       <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
-        <v>305</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
+        <v>320</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
-        <v>ÓSKARSSON</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
+        <v>VARGAS</v>
       </c>
       <c r="C100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
-        <v>310</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
+        <v>324</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
-        <v>CARMONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
       </c>
       <c r="C101" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
@@ -4494,110 +4498,110 @@
     </row>
     <row r="102">
       <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
-        <v>314</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
+        <v>339</v>
       </c>
       <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
-        <v>MARCAO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
+        <v>DIEGO LÓPEZ</v>
       </c>
       <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
-        <v>320</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
+        <v>348</v>
       </c>
       <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
+        <v>RAFA MARÍN</v>
       </c>
       <c r="C103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
-        <v>324</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
+        <v>349</v>
       </c>
       <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
+        <v>RENATO VEIGA</v>
       </c>
       <c r="C104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
-        <v>339</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
+        <v>360</v>
       </c>
       <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
-        <v>DIEGO LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
+        <v>AYOZE</v>
       </c>
       <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
-        <v>348</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
+        <v>364</v>
       </c>
       <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
-        <v>RAFA MARÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="C106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
-        <v>349</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
+        <v>365</v>
       </c>
       <c r="B107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
-        <v>RENATO VEIGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="C107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
-        <v>360</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
+        <v>366</v>
       </c>
       <c r="B108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
-        <v>AYOZE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="C108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
-        <v>364</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
+        <v>373</v>
       </c>
       <c r="B109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="C109" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4606,12 +4610,12 @@
     </row>
     <row r="110">
       <c r="A110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
-        <v>365</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
+        <v>375</v>
       </c>
       <c r="B110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="C110" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4620,12 +4624,12 @@
     </row>
     <row r="111">
       <c r="A111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
-        <v>366</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
+        <v>377</v>
       </c>
       <c r="B111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="C111" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4634,12 +4638,12 @@
     </row>
     <row r="112">
       <c r="A112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
-        <v>373</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
+        <v>378</v>
       </c>
       <c r="B112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="C112" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4648,12 +4652,12 @@
     </row>
     <row r="113">
       <c r="A113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
-        <v>375</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
+        <v>380</v>
       </c>
       <c r="B113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="C113" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
@@ -4662,110 +4666,110 @@
     </row>
     <row r="114">
       <c r="A114" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
-        <v>377</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
+        <v>383</v>
       </c>
       <c r="B114" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
+      </c>
+      <c r="C114" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
+        <v>384</v>
+      </c>
+      <c r="B115" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
+      </c>
+      <c r="C115" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
+        <v>385</v>
+      </c>
+      <c r="B116" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
+        <v>BATALLA</v>
+      </c>
+      <c r="C116" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
+        <v>386</v>
+      </c>
+      <c r="B117" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
+      </c>
+      <c r="C117" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-      <c r="C114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
-        <v>378</v>
-      </c>
-      <c r="B115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-      <c r="C115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
-        <v>380</v>
-      </c>
-      <c r="B116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="C116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
-        <v>383</v>
-      </c>
-      <c r="B117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
-      </c>
-      <c r="C117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
-        <v>384</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
+        <v>388</v>
       </c>
       <c r="B118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
+        <v>LAPORTE</v>
       </c>
       <c r="C118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
-        <v>385</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
+        <v>390</v>
       </c>
       <c r="B119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
-        <v>BATALLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
+        <v>LE NORMAND</v>
       </c>
       <c r="C119" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
+        <v>394</v>
+      </c>
+      <c r="B120" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
+        <v>LEJEUNE</v>
+      </c>
+      <c r="C120" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
         <v>RAYO VALLECANO</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
-        <v>386</v>
-      </c>
-      <c r="B120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
-      </c>
-      <c r="C120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
     <row r="121">
       <c r="A121" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
-        <v>388</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
+        <v>397</v>
       </c>
       <c r="B121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
-        <v>LAPORTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
+        <v>REGO</v>
       </c>
       <c r="C121" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -4774,54 +4778,54 @@
     </row>
     <row r="122">
       <c r="A122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
-        <v>390</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
+        <v>401</v>
       </c>
       <c r="B122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
-        <v>LE NORMAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
+        <v>RODRI MENDOZA</v>
       </c>
       <c r="C122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
-        <v>394</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
+        <v>410</v>
       </c>
       <c r="B123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
+        <v>GONZALO</v>
       </c>
       <c r="C123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
-        <v>397</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
+        <v>412</v>
       </c>
       <c r="B124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
-        <v>REGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
+        <v>MATEO JOSEPH</v>
       </c>
       <c r="C124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
-        <v>401</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
+        <v>417</v>
       </c>
       <c r="B125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
-        <v>RODRI MENDOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
+        <v>FEBAS</v>
       </c>
       <c r="C125" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -4830,26 +4834,26 @@
     </row>
     <row r="126">
       <c r="A126" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
-        <v>410</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
+        <v>418</v>
       </c>
       <c r="B126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
-        <v>GONZALO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
-        <v>412</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
+        <v>420</v>
       </c>
       <c r="B127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
+        <v>DARDER</v>
       </c>
       <c r="C127" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
@@ -4858,348 +4862,348 @@
     </row>
     <row r="128">
       <c r="A128" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
-        <v>417</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
+        <v>423</v>
       </c>
       <c r="B128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
+        <v>UNAI LÓPEZ</v>
       </c>
       <c r="C128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
-        <v>418</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
+        <v>424</v>
       </c>
       <c r="B129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
+        <v>TENAGLIA</v>
       </c>
       <c r="C129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
-        <v>420</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
+        <v>428</v>
       </c>
       <c r="B130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
-        <v>DARDER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C130" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
+        <v>430</v>
+      </c>
+      <c r="B131" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
+        <v>VANAT</v>
+      </c>
+      <c r="C131" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
+        <v>433</v>
+      </c>
+      <c r="B132" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
+        <v>LEO ROMÁN</v>
+      </c>
+      <c r="C132" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
-        <v>423</v>
-      </c>
-      <c r="B131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
-        <v>UNAI LÓPEZ</v>
-      </c>
-      <c r="C131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
-        <v>424</v>
-      </c>
-      <c r="B132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
-        <v>TENAGLIA</v>
-      </c>
-      <c r="C132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
     <row r="133">
       <c r="A133" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
-        <v>428</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.0)</f>
+        <v>435</v>
       </c>
       <c r="B133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
+        <v>HASSAN</v>
       </c>
       <c r="C133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),429.0)</f>
-        <v>429</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
+        <v>437</v>
       </c>
       <c r="B134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
+        <v>GORROTXATEGI</v>
       </c>
       <c r="C134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
-        <v>430</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
+        <v>438</v>
       </c>
       <c r="B135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
+        <v>BATISTA MENDY</v>
       </c>
       <c r="C135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
-        <v>433</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
+        <v>441</v>
       </c>
       <c r="B136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
+        <v>BUCHANAN</v>
       </c>
       <c r="C136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.0)</f>
-        <v>435</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
+        <v>442</v>
       </c>
       <c r="B137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
-        <v>HASSAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
+        <v>UNAI SIMÓN</v>
       </c>
       <c r="C137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
-        <v>437</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
+        <v>443</v>
       </c>
       <c r="B138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
+        <v>JAUREGIZAR</v>
       </c>
       <c r="C138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
-        <v>438</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
+        <v>445</v>
       </c>
       <c r="B139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
-        <v>BATISTA MENDY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
+        <v>MARCOS LLORENTE</v>
       </c>
       <c r="C139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
+        <v>446</v>
+      </c>
+      <c r="B140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
+        <v>ÁLEX BAENA</v>
+      </c>
+      <c r="C140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
+        <v>451</v>
+      </c>
+      <c r="B141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
+        <v>RAPHINHA</v>
+      </c>
+      <c r="C141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
+        <v>453</v>
+      </c>
+      <c r="B142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
+        <v>RASHFORD</v>
+      </c>
+      <c r="C142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
+        <v>454</v>
+      </c>
+      <c r="B143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISCO")</f>
+        <v>ISCO</v>
+      </c>
+      <c r="C143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
+        <v>460</v>
+      </c>
+      <c r="B144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
+        <v>MASTANTUONO</v>
+      </c>
+      <c r="C144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
+        <v>464</v>
+      </c>
+      <c r="B145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
+        <v>VARGAS</v>
+      </c>
+      <c r="C145" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
-        <v>441</v>
-      </c>
-      <c r="B140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
-        <v>BUCHANAN</v>
-      </c>
-      <c r="C140" s="20" t="str">
+    <row r="146">
+      <c r="A146" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
+        <v>466</v>
+      </c>
+      <c r="B146" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
+        <v>MOLEIRO</v>
+      </c>
+      <c r="C146" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
-        <v>442</v>
-      </c>
-      <c r="B141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
-        <v>UNAI SIMÓN</v>
-      </c>
-      <c r="C141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
-        <v>443</v>
-      </c>
-      <c r="B142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
-        <v>JAUREGIZAR</v>
-      </c>
-      <c r="C142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
-        <v>445</v>
-      </c>
-      <c r="B143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
-        <v>MARCOS LLORENTE</v>
-      </c>
-      <c r="C143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
-        <v>446</v>
-      </c>
-      <c r="B144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
-        <v>ÁLEX BAENA</v>
-      </c>
-      <c r="C144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
-        <v>451</v>
-      </c>
-      <c r="B145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
-        <v>RAPHINHA</v>
-      </c>
-      <c r="C145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
-        <v>453</v>
-      </c>
-      <c r="B146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
-        <v>RASHFORD</v>
-      </c>
-      <c r="C146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
     <row r="147">
       <c r="A147" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
-        <v>454</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
+        <v>468</v>
       </c>
       <c r="B147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISCO")</f>
-        <v>ISCO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
+        <v>CARD CHAMPIONS</v>
       </c>
       <c r="C147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),459.0)</f>
-        <v>459</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
+        <v>470</v>
       </c>
       <c r="B148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
+        <v>JULIÁN ÁLVAREZ</v>
       </c>
       <c r="C148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
+        <v>BALÓN DE ORO (ATLÉTICO)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
-        <v>460</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
+        <v>471</v>
       </c>
       <c r="B149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
-        <v>MASTANTUONO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
+        <v>PEDRI</v>
       </c>
       <c r="C149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
+        <v>BALÓN DE ORO (BARÇA)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
-        <v>464</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
+        <v>472</v>
       </c>
       <c r="B150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
+        <v>LAMINE YAMAL</v>
       </c>
       <c r="C150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
+        <v>BALÓN DE ORO (BARÇA)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
-        <v>466</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
+        <v>473</v>
       </c>
       <c r="B151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
-        <v>MOLEIRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
       </c>
       <c r="C151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (REAL MADRID)")</f>
+        <v>BALÓN DE ORO (REAL MADRID)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
-        <v>468</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
+        <v>475</v>
       </c>
       <c r="B152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
-        <v>CARD CHAMPIONS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
+        <v>BALÓN DE ORO EXCELLENCE</v>
       </c>
       <c r="C152" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
@@ -5208,98 +5212,28 @@
     </row>
     <row r="153">
       <c r="A153" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
-        <v>470</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
+        <v>476</v>
       </c>
       <c r="B153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
-        <v>JULIÁN ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
+        <v>CARD ATÓMICA</v>
       </c>
       <c r="C153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
-        <v>BALÓN DE ORO (ATLÉTICO)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
-        <v>471</v>
-      </c>
-      <c r="B154" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
-        <v>PEDRI</v>
-      </c>
-      <c r="C154" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
-        <v>472</v>
-      </c>
-      <c r="B155" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
-      </c>
-      <c r="C155" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
-        <v>473</v>
-      </c>
-      <c r="B156" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
-      </c>
-      <c r="C156" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (REAL MADRID)")</f>
-        <v>BALÓN DE ORO (REAL MADRID)</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
-        <v>475</v>
-      </c>
-      <c r="B157" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
-        <v>BALÓN DE ORO EXCELLENCE</v>
-      </c>
-      <c r="C157" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
-        <v>476</v>
-      </c>
-      <c r="B158" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
-        <v>CARD ATÓMICA</v>
-      </c>
-      <c r="C158" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
         <v>91</v>
       </c>
-      <c r="B159" s="20" t="str">
+      <c r="B154" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
         <v>ESTADIO</v>
       </c>
-      <c r="C159" s="20" t="str">
+      <c r="C154" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
@@ -5589,52 +5523,52 @@
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
-        <v>JUNIOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
+        <v>BELLERÍN</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
       <c r="D15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
-        <v>CUCHO HERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
       </c>
       <c r="C16" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
       <c r="D16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
-        <v>93</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
-        <v>IVÁN VILLAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
+        <v>CUCHO HERNÁNDEZ</v>
       </c>
       <c r="C17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D17" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5643,12 +5577,12 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
+        <v>93</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
+        <v>IVÁN VILLAR</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5661,12 +5595,12 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
-        <v>ILAIX MORIBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C19" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5679,12 +5613,12 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
-        <v>HUGO ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
+        <v>ILAIX MORIBA</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5697,12 +5631,12 @@
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
+        <v>HUGO ÁLVAREZ</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5715,12 +5649,12 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
-        <v>106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
-        <v>IAGO ASPAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5733,12 +5667,12 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
+        <v>IAGO ASPAS</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5751,12 +5685,12 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
-        <v>JUTGLÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5769,16 +5703,16 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
-        <v>IÑAKI PEÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D25" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5787,12 +5721,12 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
-        <v>DITURO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
+        <v>IÑAKI PEÑA</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5805,12 +5739,12 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
+        <v>DITURO</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5823,12 +5757,12 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
-        <v>117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
-        <v>FEDE REDONDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
+        <v>ÁLVARO NÚÑEZ</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5841,12 +5775,12 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5859,16 +5793,16 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
+        <v>FEDE REDONDO</v>
       </c>
       <c r="C30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D30" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5877,16 +5811,16 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
       </c>
       <c r="C31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D31" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5895,30 +5829,30 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
-        <v>ROBERTO FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5931,34 +5865,34 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
       </c>
       <c r="C34" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
+        <v>ROBERTO FERNÁNDEZ</v>
       </c>
       <c r="C35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D35" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5967,16 +5901,16 @@
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D36" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5985,16 +5919,16 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D37" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6003,16 +5937,16 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D38" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6021,16 +5955,16 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
-        <v>174</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
+        <v>153</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
-        <v>IVÁN MARTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
+        <v>DIEGO RICO</v>
       </c>
       <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D39" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6039,30 +5973,30 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C40" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
         <v>GIRONA FC</v>
       </c>
       <c r="D40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
-        <v>177</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TSYGANKOV")</f>
-        <v>TSYGANKOV</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C41" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -6075,16 +6009,16 @@
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
-        <v>CARVAJAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
+        <v>IVÁN MARTÍN</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D42" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6093,34 +6027,34 @@
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
       </c>
       <c r="C43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
-        <v>GÜLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
+        <v>JOEL ROCA</v>
       </c>
       <c r="C44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D44" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6129,16 +6063,16 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
+        <v>177</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
-        <v>RODRYGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TSYGANKOV")</f>
+        <v>TSYGANKOV</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D45" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6147,12 +6081,12 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
+        <v>202</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
+        <v>CARVAJAL</v>
       </c>
       <c r="C46" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6165,34 +6099,34 @@
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
-        <v>VALJENT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
-        <v>MOJICA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
+        <v>GÜLER</v>
       </c>
       <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D48" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6201,16 +6135,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
+        <v>213</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
-        <v>JAN VIRGILI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
+        <v>RODRYGO</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D49" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6219,34 +6153,34 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
+        <v>VALJENT</v>
       </c>
       <c r="C51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D51" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6255,34 +6189,34 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
-        <v>AITOR FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
+        <v>MOJICA</v>
       </c>
       <c r="C52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
+        <v>234</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
-        <v>AIMAR OROZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
+        <v>JAN VIRGILI</v>
       </c>
       <c r="C53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D53" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6291,12 +6225,12 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
-        <v>RAÚL GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C54" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
@@ -6309,16 +6243,16 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
-        <v>DAVID CARMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D55" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6327,34 +6261,34 @@
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
+        <v>237</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
-        <v>DANI CALVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
+        <v>AITOR FERNÁNDEZ</v>
       </c>
       <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
+        <v>247</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
-        <v>REINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUBÉN GARCÍA")</f>
+        <v>RUBÉN GARCÍA</v>
       </c>
       <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D57" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6363,16 +6297,16 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
-        <v>267</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BREKALO")</f>
-        <v>BREKALO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D58" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6381,16 +6315,16 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
-        <v>FEDE VIÑAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
+        <v>RAÚL GARCÍA</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D59" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6399,16 +6333,16 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
+        <v>255</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
-        <v>LUIZ FELIPE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLDOVAN")</f>
+        <v>MOLDOVAN</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D60" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6417,34 +6351,34 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
+        <v>DAVID CARMO</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
-        <v>PEDRO DÍAZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D62" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6453,16 +6387,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
-        <v>286</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
-        <v>CAMELLO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
+        <v>REINA</v>
       </c>
       <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D63" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6471,16 +6405,16 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
-        <v>290</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
+        <v>267</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BREKALO")</f>
+        <v>BREKALO</v>
       </c>
       <c r="C64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D64" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6489,16 +6423,16 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
-        <v>CALETA-CAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
       </c>
       <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D65" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6507,16 +6441,16 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
-        <v>296</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
-        <v>SERGIO GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
+        <v>LUIZ FELIPE</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D66" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6525,34 +6459,34 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
-        <v>PABLO MARIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
+        <v>PEP CHAVARRÍA</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
-        <v>NYLAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
+        <v>PEDRO DÍAZ</v>
       </c>
       <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D68" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6561,16 +6495,16 @@
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
-        <v>312</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
-        <v>AZPILICUETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
+        <v>CAMELLO</v>
       </c>
       <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D69" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6579,16 +6513,16 @@
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
+        <v>290</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
-        <v>KIKE SALAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6597,52 +6531,52 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
-        <v>EJUKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
+        <v>CALETA-CAR</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
-        <v>AKOR ADAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
+        <v>SERGIO GÓMEZ</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
+        <v>PABLO MARIN</v>
       </c>
       <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D73" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6651,16 +6585,16 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
-        <v>327</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
-        <v>DIMITRIEVSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
+        <v>NYLAND</v>
       </c>
       <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D74" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6669,16 +6603,16 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
-        <v>FOULQUIER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
+        <v>AZPILICUETA</v>
       </c>
       <c r="C75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D75" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6687,16 +6621,16 @@
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
-        <v>330</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
+        <v>313</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
+        <v>KIKE SALAS</v>
       </c>
       <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D76" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6705,70 +6639,70 @@
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
-        <v>331</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
-        <v>COPETE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
+        <v>EJUKE</v>
       </c>
       <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
-        <v>333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
-        <v>GAYÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
+        <v>AKOR ADAMS</v>
       </c>
       <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
-        <v>LUIS RIOJA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C79" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
         <v>VALENCIA CF</v>
       </c>
       <c r="D79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
+        <v>327</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
+        <v>DIMITRIEVSKI</v>
       </c>
       <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D80" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6777,16 +6711,16 @@
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
+        <v>FOULQUIER</v>
       </c>
       <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D81" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6795,16 +6729,16 @@
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
-        <v>350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
       </c>
       <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
-        <v>SERGI CARDONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
       </c>
       <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D82" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6813,16 +6747,16 @@
     </row>
     <row r="83">
       <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
+        <v>331</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
-        <v>SANTI COMESAÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
+        <v>COPETE</v>
       </c>
       <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D83" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6831,16 +6765,16 @@
     </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
-        <v>352</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
-        <v>PAPE GUEYE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
       </c>
       <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D84" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6849,34 +6783,34 @@
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
       </c>
       <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
-        <v>369</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D86" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6885,16 +6819,16 @@
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
-        <v>371</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D87" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6903,34 +6837,34 @@
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
-        <v>387</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
+        <v>350</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
+        <v>SERGI CARDONA</v>
       </c>
       <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
       </c>
       <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
+        <v>SANTI COMESAÑA</v>
       </c>
       <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D89" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6939,16 +6873,16 @@
     </row>
     <row r="90">
       <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
-        <v>398</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
       </c>
       <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
-        <v>DRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
+        <v>PAPE GUEYE</v>
       </c>
       <c r="C90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D90" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6957,16 +6891,16 @@
     </row>
     <row r="91">
       <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
-        <v>400</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
       </c>
       <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO GARCÍA")</f>
-        <v>PABLO GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="C91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D91" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6975,16 +6909,16 @@
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
-        <v>404</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
       </c>
       <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
-      </c>
-      <c r="C92" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
         <v>GETAFE CF</v>
+      </c>
+      <c r="C92" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D92" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6993,16 +6927,16 @@
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
-        <v>409</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
+        <v>371</v>
       </c>
       <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
-        <v>FRAN GONZÁLEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D93" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7011,52 +6945,52 @@
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
       </c>
       <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D94" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
+      </c>
+      <c r="B95" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
+      </c>
+      <c r="C95" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D95" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
-      </c>
-      <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
-        <v>BARRIOS</v>
-      </c>
-      <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-      <c r="D95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
-        <v>SOTELO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
+        <v>DRO</v>
       </c>
       <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D96" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7065,16 +6999,16 @@
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
+        <v>400</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO GARCÍA")</f>
+        <v>PABLO GARCÍA</v>
       </c>
       <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D97" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7083,16 +7017,16 @@
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
-        <v>CAZORLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
       </c>
       <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D98" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7101,16 +7035,16 @@
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
-        <v>425</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
-        <v>CARLOS VICENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
+        <v>FRAN GONZÁLEZ</v>
       </c>
       <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D99" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7119,16 +7053,16 @@
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
-        <v>436</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
+        <v>413</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
       </c>
       <c r="C100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D100" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7137,34 +7071,34 @@
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
-        <v>439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
       </c>
       <c r="C101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
-        <v>444</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
       </c>
       <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
+        <v>SOTELO</v>
       </c>
       <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D102" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7173,16 +7107,16 @@
     </row>
     <row r="103">
       <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
-        <v>449</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
+        <v>419</v>
       </c>
       <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
-        <v>KOUNDÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
       </c>
       <c r="C103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D103" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7191,16 +7125,16 @@
     </row>
     <row r="104">
       <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
-        <v>452</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
+        <v>422</v>
       </c>
       <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
-        <v>LEWANDOWSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
+        <v>CAZORLA</v>
       </c>
       <c r="C104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D104" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7209,16 +7143,16 @@
     </row>
     <row r="105">
       <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
-        <v>456</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
+        <v>425</v>
       </c>
       <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
-        <v>ANTONY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
+        <v>CARLOS VICENTE</v>
       </c>
       <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D105" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7227,16 +7161,16 @@
     </row>
     <row r="106">
       <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
-        <v>458</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
+        <v>436</v>
       </c>
       <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
-        <v>CARRERAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
+        <v>CARLOS SOLER</v>
       </c>
       <c r="C106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D106" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7245,36 +7179,144 @@
     </row>
     <row r="107">
       <c r="A107" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
+        <v>439</v>
+      </c>
+      <c r="B107" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
+      </c>
+      <c r="C107" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D107" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
+        <v>444</v>
+      </c>
+      <c r="B108" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
+        <v>OBLAK</v>
+      </c>
+      <c r="C108" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D108" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
+        <v>449</v>
+      </c>
+      <c r="B109" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
+        <v>KOUNDÉ</v>
+      </c>
+      <c r="C109" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D109" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
+        <v>452</v>
+      </c>
+      <c r="B110" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
+        <v>LEWANDOWSKI</v>
+      </c>
+      <c r="C110" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D110" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
+        <v>456</v>
+      </c>
+      <c r="B111" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
+        <v>ANTONY</v>
+      </c>
+      <c r="C111" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D111" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
+      </c>
+      <c r="B112" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
+        <v>CARRERAS</v>
+      </c>
+      <c r="C112" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D112" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
         <v>469</v>
       </c>
-      <c r="B107" s="20" t="str">
+      <c r="B113" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
         <v>NICO WILLIAMS</v>
       </c>
-      <c r="C107" s="20" t="str">
+      <c r="C113" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
         <v>BALÓN DE ORO (ATHLETIC)</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D113" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="20">
+    <row r="114">
+      <c r="A114" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),477.0)</f>
         <v>477</v>
       </c>
-      <c r="B108" s="20" t="str">
+      <c r="B114" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD INVENCIBLE")</f>
         <v>CARD INVENCIBLE</v>
       </c>
-      <c r="C108" s="20" t="str">
+      <c r="C114" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
         <v>ÚNICA</v>
       </c>
-      <c r="D108" s="20">
+      <c r="D114" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
@@ -7325,7 +7367,9 @@
       <c r="C2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="21">
@@ -8345,6 +8389,9 @@
       <c r="D76" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E76" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="21">
@@ -8603,7 +8650,9 @@
       <c r="C95" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D95" s="21"/>
+      <c r="D95" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="21">
@@ -8861,6 +8910,9 @@
       <c r="D112" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E112" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="21">
@@ -9434,6 +9486,9 @@
       <c r="D153" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E153" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="21">
@@ -9752,6 +9807,9 @@
       <c r="D176" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E176" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="21">
@@ -10104,7 +10162,7 @@
         <v>20</v>
       </c>
       <c r="E202" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="203">
@@ -10742,6 +10800,9 @@
       <c r="D247" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E247" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="21">
@@ -10801,7 +10862,9 @@
       <c r="C251" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D251" s="21"/>
+      <c r="D251" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="21">
@@ -10853,6 +10916,9 @@
       </c>
       <c r="D255" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E255" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="256">

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="399">
   <si>
     <t>Última actualización:</t>
   </si>
@@ -1836,15 +1836,15 @@
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(REGULARES!D:D, "SI")</f>
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="1">B3-C3</f>
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="2">(C3/B3)</f>
-        <v>0.7083333333</v>
+        <v>0.7888888889</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E3, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1884,15 +1884,15 @@
       </c>
       <c r="C5" s="9">
         <f>COUNTIF('¡VAMOS! (361–380)'!D:D, "SI")</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" ref="E5:E13" si="3">C5/B5</f>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="F5" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E5, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1908,15 +1908,15 @@
       </c>
       <c r="C6" s="14">
         <f>COUNTIF('Guantes de Oro (381–387)'!D:D, "SI")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="3"/>
-        <v>0.4285714286</v>
+        <v>0.5714285714</v>
       </c>
       <c r="F6" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E6, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2004,15 +2004,15 @@
       </c>
       <c r="C10" s="14">
         <f>COUNTIF('Protas (424–441)'!D:D, "SI")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="3"/>
-        <v>0.5555555556</v>
+        <v>0.6666666667</v>
       </c>
       <c r="F10" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E10, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2028,15 +2028,15 @@
       </c>
       <c r="C11" s="14">
         <f>COUNTIF('Super Cracks (442–467)'!D:D, "SI")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="3"/>
-        <v>0.6153846154</v>
+        <v>0.6923076923</v>
       </c>
       <c r="F11" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E11, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2052,15 +2052,15 @@
       </c>
       <c r="C12" s="14">
         <f>COUNTIF('Cartas Top y Únicas (468–478)'!D:D, "SI")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>0.3636363636</v>
+        <v>0.4545454545</v>
       </c>
       <c r="F12" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E12, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2077,15 +2077,15 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>0.6907630522</v>
+        <v>0.7670682731</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E13, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2209,6 +2209,9 @@
       </c>
       <c r="D7" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2419,7 +2422,9 @@
       <c r="C12" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="21">
@@ -2448,7 +2453,9 @@
       <c r="C14" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="21">
@@ -2604,7 +2611,9 @@
       <c r="C6" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="21">
@@ -2749,7 +2758,9 @@
       <c r="C4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="21">
@@ -2790,6 +2801,9 @@
       <c r="D7" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="21">
@@ -2873,7 +2887,9 @@
       <c r="C13" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="21">
@@ -2990,6 +3006,9 @@
       <c r="D21" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E21" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="21">
@@ -3055,6 +3074,9 @@
       </c>
       <c r="D26" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E26" s="22">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -3084,12 +3106,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("{FILTER(REGULARES!A:C, REGULARES!D:D&lt;&gt;""SI"", REGULARES!A:A&lt;&gt;""""); FILTER('¡VAMOS! (361–380)'!A:C, '¡VAMOS! (361–380)'!D:D&lt;&gt;""SI"", '¡VAMOS! (361–380)'!A:A&lt;&gt;""""); FILTER('Guantes de Oro (381–387)'!A:C, 'Guantes de Oro (381–387)'!D:D&lt;&gt;""SI"", 'Guantes de"&amp;" Oro (381–387)'!A:A&lt;&gt;""""); FILTER('Kryptonita (388–396)'!A:C, 'Kryptonita (388–396)'!D:D&lt;&gt;""SI"", 'Kryptonita (388–396)'!A:A&lt;&gt;""""); FILTER('Diamantes (397–414)'!A:C, 'Diamantes (397–414)'!D:D&lt;&gt;""SI"", 'Diamantes (397–414)'!A:A&lt;&gt;""""); FILTER('Influencer"&amp;"s (415–423)'!A:C, 'Influencers (415–423)'!D:D&lt;&gt;""SI"", 'Influencers (415–423)'!A:A&lt;&gt;""""); FILTER('Protas (424–441)'!A:C, 'Protas (424–441)'!D:D&lt;&gt;""SI"", 'Protas (424–441)'!A:A&lt;&gt;""""); FILTER('Super Cracks (442–467)'!A:C, 'Super Cracks (442–467)'!D:D&lt;&gt;""S"&amp;"I"", 'Super Cracks (442–467)'!A:A&lt;&gt;""""); FILTER('Cartas Top y Únicas (468–478)'!A:C, 'Cartas Top y Únicas (468–478)'!D:D&lt;&gt;""SI"", 'Cartas Top y Únicas (468–478)'!A:A&lt;&gt;""""); FILTER(Estadios!A:C, Estadios!D:D&lt;&gt;""SI"", Estadios!A:A&lt;&gt;"""")}"),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("{FILTER(REGULARES!A:C, REGULARES!D:D&lt;&gt;""SI"", REGULARES!A:A&lt;&gt;""""); FILTER('¡VAMOS! (361–380)'!A:C, '¡VAMOS! (361–380)'!D:D&lt;&gt;""SI"", '¡VAMOS! (361–380)'!A:A&lt;&gt;""""); FILTER('Guantes de Oro (381–387)'!A:C, 'Guantes de Oro (381–387)'!D:D&lt;&gt;""SI"", 'Guantes de"&amp;" Oro (381–387)'!A:A&lt;&gt;""""); FILTER('Kryptonita (388–396)'!A:C, 'Kryptonita (388–396)'!D:D&lt;&gt;""SI"", 'Kryptonita (388–396)'!A:A&lt;&gt;""""); FILTER('Diamantes (397–414)'!A:C, 'Diamantes (397–414)'!D:D&lt;&gt;""SI"", 'Diamantes (397–414)'!A:A&lt;&gt;""""); FILTER('Influencer"&amp;"s (415–423)'!A:C, 'Influencers (415–423)'!D:D&lt;&gt;""SI"", 'Influencers (415–423)'!A:A&lt;&gt;""""); FILTER('Protas (424–441)'!A:C, 'Protas (424–441)'!D:D&lt;&gt;""SI"", 'Protas (424–441)'!A:A&lt;&gt;""""); FILTER('Super Cracks (442–467)'!A:C, 'Super Cracks (442–467)'!D:D&lt;&gt;""S"&amp;"I"", 'Super Cracks (442–467)'!A:A&lt;&gt;""""); FILTER('Cartas Top y Únicas (468–478)'!A:C, 'Cartas Top y Únicas (468–478)'!D:D&lt;&gt;""SI"", 'Cartas Top y Únicas (468–478)'!A:A&lt;&gt;""""); FILTER(Estadios!A:C, Estadios!D:D&lt;&gt;""SI"", Estadios!A:A&lt;&gt;"""")}"),12.0)</f>
+        <v>12</v>
       </c>
       <c r="B1" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
-        <v>TENAGLIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEÑÁ")</f>
+        <v>ALEÑÁ</v>
       </c>
       <c r="C1" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3098,12 +3120,12 @@
     </row>
     <row r="2">
       <c r="A2" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="B2" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURIDI")</f>
-        <v>GURIDI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO IBÁÑEZ")</f>
+        <v>PABLO IBÁÑEZ</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3112,54 +3134,54 @@
     </row>
     <row r="3">
       <c r="A3" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
-        <v>12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="B3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEÑÁ")</f>
-        <v>ALEÑÁ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
+        <v>UNAI SIMÓN</v>
       </c>
       <c r="C3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
       </c>
       <c r="B4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO IBÁÑEZ")</f>
-        <v>PABLO IBÁÑEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
+        <v>LAPORTE</v>
       </c>
       <c r="C4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
       <c r="B5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TONI MARTÍNEZ")</f>
-        <v>TONI MARTÍNEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YURI")</f>
+        <v>YURI</v>
       </c>
       <c r="C5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
+        <v>29</v>
       </c>
       <c r="B6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
-        <v>UNAI SIMÓN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VESGA")</f>
+        <v>VESGA</v>
       </c>
       <c r="C6" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3168,12 +3190,12 @@
     </row>
     <row r="7">
       <c r="A7" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="B7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAREDES")</f>
-        <v>PAREDES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI GÓMEZ")</f>
+        <v>UNAI GÓMEZ</v>
       </c>
       <c r="C7" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3182,12 +3204,12 @@
     </row>
     <row r="8">
       <c r="A8" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
+        <v>35</v>
       </c>
       <c r="B8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
-        <v>LAPORTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURUZETA")</f>
+        <v>GURUZETA</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3196,1104 +3218,1104 @@
     </row>
     <row r="9">
       <c r="A9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="B9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YURI")</f>
-        <v>YURI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C9" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+      <c r="B10" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEX BAENA")</f>
+        <v>ALEX BAENA</v>
+      </c>
+      <c r="C10" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
+      </c>
+      <c r="B11" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO GONZÁLEZ")</f>
+        <v>NICO GONZÁLEZ</v>
+      </c>
+      <c r="C11" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
+        <v>51</v>
+      </c>
+      <c r="B12" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIULIANO")</f>
+        <v>GIULIANO</v>
+      </c>
+      <c r="C12" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
+        <v>57</v>
+      </c>
+      <c r="B13" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SZCZESNY")</f>
+        <v>SZCZESNY</v>
+      </c>
+      <c r="C13" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
+      </c>
+      <c r="B14" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
+        <v>KOUNDÉ</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
+        <v>60</v>
+      </c>
+      <c r="B15" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ERIC GARCÍA")</f>
+        <v>ERIC GARCÍA</v>
+      </c>
+      <c r="C15" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
+        <v>69</v>
+      </c>
+      <c r="B16" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
+        <v>LAMINE YAMAL</v>
+      </c>
+      <c r="C16" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
+        <v>80</v>
+      </c>
+      <c r="B17" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
+      </c>
+      <c r="C17" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
+        <v>82</v>
+      </c>
+      <c r="B18" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
+        <v>ALTIMIRA</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
+      </c>
+      <c r="B19" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
+        <v>AMRABAT</v>
+      </c>
+      <c r="C19" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
+      </c>
+      <c r="B20" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
+        <v>LO CELSO</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
+      </c>
+      <c r="B21" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
+        <v>RIQUELME</v>
+      </c>
+      <c r="C21" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
+        <v>90</v>
+      </c>
+      <c r="B22" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
+        <v>ABDE</v>
+      </c>
+      <c r="C22" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
+        <v>92</v>
+      </c>
+      <c r="B23" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
+        <v>RADU</v>
+      </c>
+      <c r="C23" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
+        <v>98</v>
+      </c>
+      <c r="B24" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
+        <v>MINGUEZA</v>
+      </c>
+      <c r="C24" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
+      </c>
+      <c r="B25" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
+        <v>FRAN BELTRÁN</v>
+      </c>
+      <c r="C25" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
+      </c>
+      <c r="B26" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
+        <v>113</v>
+      </c>
+      <c r="B27" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
+        <v>CHUST</v>
+      </c>
+      <c r="C27" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
+        <v>119</v>
+      </c>
+      <c r="B28" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
+        <v>MARTIM NETO</v>
+      </c>
+      <c r="C28" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
+      </c>
+      <c r="B29" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
+        <v>FEBAS</v>
+      </c>
+      <c r="C29" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
+        <v>128</v>
+      </c>
+      <c r="B30" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
+        <v>DMITROVIC</v>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
+      </c>
+      <c r="B31" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
+      </c>
+      <c r="C31" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
+      </c>
+      <c r="B32" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C32" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
+      </c>
+      <c r="B33" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
+        <v>IGLESIAS</v>
+      </c>
+      <c r="C33" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
+        <v>149</v>
+      </c>
+      <c r="B34" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
+        <v>KIKO FEMENÍA</v>
+      </c>
+      <c r="C34" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
+        <v>150</v>
+      </c>
+      <c r="B35" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
+        <v>DJENÉ</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
+        <v>151</v>
+      </c>
+      <c r="B36" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
+        <v>DOMINGOS DUARTE</v>
+      </c>
+      <c r="C36" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
+        <v>157</v>
+      </c>
+      <c r="B37" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
+      </c>
+      <c r="C37" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
+        <v>162</v>
+      </c>
+      <c r="B38" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
+        <v>COBA</v>
+      </c>
+      <c r="C38" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
+        <v>168</v>
+      </c>
+      <c r="B39" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
+        <v>VITOR REIS</v>
+      </c>
+      <c r="C39" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
+        <v>178</v>
+      </c>
+      <c r="B40" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
+        <v>VANAT</v>
+      </c>
+      <c r="C40" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
+        <v>182</v>
+      </c>
+      <c r="B41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
+        <v>RYAN</v>
+      </c>
+      <c r="C41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
+        <v>183</v>
+      </c>
+      <c r="B42" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
+        <v>PABLO CAMPOS</v>
+      </c>
+      <c r="C42" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
+        <v>191</v>
+      </c>
+      <c r="B43" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
+        <v>PABLO MARTÍNEZ</v>
+      </c>
+      <c r="C43" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
+        <v>196</v>
+      </c>
+      <c r="B44" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
+        <v>BRUGUÉ</v>
+      </c>
+      <c r="C44" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
+        <v>198</v>
+      </c>
+      <c r="B45" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
+        <v>ETTA EYONG</v>
+      </c>
+      <c r="C45" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
+        <v>201</v>
+      </c>
+      <c r="B46" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
+        <v>LUNIN</v>
+      </c>
+      <c r="C46" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
+        <v>205</v>
+      </c>
+      <c r="B47" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
+        <v>HUIJSEN</v>
+      </c>
+      <c r="C47" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
+        <v>218</v>
+      </c>
+      <c r="B48" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
+        <v>LEO ROMÁN</v>
+      </c>
+      <c r="C48" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
+        <v>231</v>
+      </c>
+      <c r="B49" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
+        <v>ASANO</v>
+      </c>
+      <c r="C49" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
+        <v>232</v>
+      </c>
+      <c r="B50" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
+        <v>MURIQI</v>
+      </c>
+      <c r="C50" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
+        <v>233</v>
+      </c>
+      <c r="B51" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
+        <v>MATEO JOSEPH</v>
+      </c>
+      <c r="C51" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
+        <v>239</v>
+      </c>
+      <c r="B52" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
+        <v>BOYOMO</v>
+      </c>
+      <c r="C52" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
+        <v>241</v>
+      </c>
+      <c r="B53" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
+        <v>HERRANDO</v>
+      </c>
+      <c r="C53" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
+        <v>253</v>
+      </c>
+      <c r="B54" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C54" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
+        <v>254</v>
+      </c>
+      <c r="B55" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
+        <v>AARON ESCANDELL</v>
+      </c>
+      <c r="C55" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
+      </c>
+      <c r="B56" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
+        <v>RAHIM ALHASSANE</v>
+      </c>
+      <c r="C56" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
+        <v>261</v>
+      </c>
+      <c r="B57" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
+        <v>COLOMBATTO</v>
+      </c>
+      <c r="C57" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
+        <v>263</v>
+      </c>
+      <c r="B58" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
+        <v>DENDONCKER</v>
+      </c>
+      <c r="C58" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
+        <v>268</v>
+      </c>
+      <c r="B59" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
+        <v>ILYAS CHAIRA</v>
+      </c>
+      <c r="C59" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
+        <v>271</v>
+      </c>
+      <c r="B60" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C60" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
+        <v>273</v>
+      </c>
+      <c r="B61" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
+        <v>CÁRDENAS</v>
+      </c>
+      <c r="C61" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
+        <v>276</v>
+      </c>
+      <c r="B62" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
+        <v>LEJEUNE</v>
+      </c>
+      <c r="C62" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
+        <v>279</v>
+      </c>
+      <c r="B63" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
+        <v>PATHÉ CISS</v>
+      </c>
+      <c r="C63" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
+        <v>280</v>
+      </c>
+      <c r="B64" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
+        <v>UNAI LOPEZ</v>
+      </c>
+      <c r="C64" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
+        <v>289</v>
+      </c>
+      <c r="B65" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C65" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
+        <v>297</v>
+      </c>
+      <c r="B66" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
+        <v>GORROTXATEGI</v>
+      </c>
+      <c r="C66" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
+        <v>300</v>
+      </c>
+      <c r="B67" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
+        <v>CARLOS SOLER</v>
+      </c>
+      <c r="C67" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
+        <v>301</v>
+      </c>
+      <c r="B68" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
+        <v>BRAIS MÉNDEZ</v>
+      </c>
+      <c r="C68" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
+        <v>305</v>
+      </c>
+      <c r="B69" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
+        <v>ÓSKARSSON</v>
+      </c>
+      <c r="C69" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
+        <v>310</v>
+      </c>
+      <c r="B70" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
+        <v>CARMONA</v>
+      </c>
+      <c r="C70" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
+        <v>314</v>
+      </c>
+      <c r="B71" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
+        <v>MARCAO</v>
+      </c>
+      <c r="C71" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
+        <v>324</v>
+      </c>
+      <c r="B72" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
+      </c>
+      <c r="C72" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
+        <v>339</v>
+      </c>
+      <c r="B73" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
+        <v>DIEGO LÓPEZ</v>
+      </c>
+      <c r="C73" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
+        <v>348</v>
+      </c>
+      <c r="B74" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
+        <v>RAFA MARÍN</v>
+      </c>
+      <c r="C74" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
+        <v>349</v>
+      </c>
+      <c r="B75" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
+        <v>RENATO VEIGA</v>
+      </c>
+      <c r="C75" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
+        <v>360</v>
+      </c>
+      <c r="B76" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
+        <v>AYOZE</v>
+      </c>
+      <c r="C76" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
+        <v>364</v>
+      </c>
+      <c r="B77" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="C77" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
+        <v>365</v>
+      </c>
+      <c r="B78" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="C78" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
+        <v>375</v>
+      </c>
+      <c r="B79" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="C79" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
+        <v>378</v>
+      </c>
+      <c r="B80" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="C80" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
+        <v>380</v>
+      </c>
+      <c r="B81" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="C81" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
+        <v>384</v>
+      </c>
+      <c r="B82" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
+      </c>
+      <c r="C82" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
+        <v>385</v>
+      </c>
+      <c r="B83" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
+        <v>BATALLA</v>
+      </c>
+      <c r="C83" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
+        <v>386</v>
+      </c>
+      <c r="B84" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
+      </c>
+      <c r="C84" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
+        <v>388</v>
+      </c>
+      <c r="B85" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
+        <v>LAPORTE</v>
+      </c>
+      <c r="C85" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
         <v>ATHLETIC CLUB</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
-      </c>
-      <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VESGA")</f>
-        <v>VESGA</v>
-      </c>
-      <c r="C10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
-      </c>
-      <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI GÓMEZ")</f>
-        <v>UNAI GÓMEZ</v>
-      </c>
-      <c r="C11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
-      </c>
-      <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURUZETA")</f>
-        <v>GURUZETA</v>
-      </c>
-      <c r="C12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
-      </c>
-      <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
-        <v>NICO WILLIAMS</v>
-      </c>
-      <c r="C13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
-      </c>
-      <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C14" s="20" t="str">
+    <row r="86">
+      <c r="A86" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
+        <v>390</v>
+      </c>
+      <c r="B86" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
+        <v>LE NORMAND</v>
+      </c>
+      <c r="C86" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
         <v>ATLÉTICO DE MADRID</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
-      </c>
-      <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
-      </c>
-      <c r="C15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
-      </c>
-      <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEX BAENA")</f>
-        <v>ALEX BAENA</v>
-      </c>
-      <c r="C16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
-      </c>
-      <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO GONZÁLEZ")</f>
-        <v>NICO GONZÁLEZ</v>
-      </c>
-      <c r="C17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
-        <v>51</v>
-      </c>
-      <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIULIANO")</f>
-        <v>GIULIANO</v>
-      </c>
-      <c r="C18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
-        <v>54</v>
-      </c>
-      <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
-        <v>GRIEZMANN</v>
-      </c>
-      <c r="C19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
-        <v>57</v>
-      </c>
-      <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SZCZESNY")</f>
-        <v>SZCZESNY</v>
-      </c>
-      <c r="C20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
-      </c>
-      <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
-        <v>KOUNDÉ</v>
-      </c>
-      <c r="C21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
-        <v>60</v>
-      </c>
-      <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ERIC GARCÍA")</f>
-        <v>ERIC GARCÍA</v>
-      </c>
-      <c r="C22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),68.0)</f>
-        <v>68</v>
-      </c>
-      <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
-        <v>RAPHINHA</v>
-      </c>
-      <c r="C23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
-        <v>69</v>
-      </c>
-      <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
-      </c>
-      <c r="C24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
-        <v>70</v>
-      </c>
-      <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERRAN TORRES")</f>
-        <v>FERRAN TORRES</v>
-      </c>
-      <c r="C25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
-        <v>80</v>
-      </c>
-      <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
-      </c>
-      <c r="C26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
-        <v>82</v>
-      </c>
-      <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
-        <v>ALTIMIRA</v>
-      </c>
-      <c r="C27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
-        <v>83</v>
-      </c>
-      <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
-        <v>AMRABAT</v>
-      </c>
-      <c r="C28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
-        <v>85</v>
-      </c>
-      <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
-        <v>LO CELSO</v>
-      </c>
-      <c r="C29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
-      </c>
-      <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
-        <v>RIQUELME</v>
-      </c>
-      <c r="C30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
-        <v>90</v>
-      </c>
-      <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
-        <v>ABDE</v>
-      </c>
-      <c r="C31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
-      </c>
-      <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
-        <v>RADU</v>
-      </c>
-      <c r="C32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),96.0)</f>
-        <v>96</v>
-      </c>
-      <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STARFELT")</f>
-        <v>STARFELT</v>
-      </c>
-      <c r="C33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
-        <v>98</v>
-      </c>
-      <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
-        <v>MINGUEZA</v>
-      </c>
-      <c r="C34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
-      </c>
-      <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
-        <v>FRAN BELTRÁN</v>
-      </c>
-      <c r="C35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
-      </c>
-      <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
-      </c>
-      <c r="C36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
-        <v>113</v>
-      </c>
-      <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
-        <v>CHUST</v>
-      </c>
-      <c r="C37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
-        <v>114</v>
-      </c>
-      <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BIGAS")</f>
-        <v>BIGAS</v>
-      </c>
-      <c r="C38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
-        <v>118</v>
-      </c>
-      <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GERMÁN VALERA")</f>
-        <v>GERMÁN VALERA</v>
-      </c>
-      <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
-      </c>
-      <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
-        <v>MARTIM NETO</v>
-      </c>
-      <c r="C40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
-        <v>120</v>
-      </c>
-      <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
-      </c>
-      <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
-      </c>
-      <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
-        <v>DMITROVIC</v>
-      </c>
-      <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
-        <v>132</v>
-      </c>
-      <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIEDEL")</f>
-        <v>RIEDEL</v>
-      </c>
-      <c r="C43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
-      </c>
-      <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
-      </c>
-      <c r="C44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),143.0)</f>
-        <v>143</v>
-      </c>
-      <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PUADO")</f>
-        <v>PUADO</v>
-      </c>
-      <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
-      </c>
-      <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
-      </c>
-      <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
-        <v>IGLESIAS</v>
-      </c>
-      <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
-        <v>149</v>
-      </c>
-      <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
-        <v>KIKO FEMENÍA</v>
-      </c>
-      <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
-        <v>150</v>
-      </c>
-      <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
-        <v>DJENÉ</v>
-      </c>
-      <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
-        <v>151</v>
-      </c>
-      <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
-        <v>DOMINGOS DUARTE</v>
-      </c>
-      <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),155.0)</f>
-        <v>155</v>
-      </c>
-      <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIO MARTÍN")</f>
-        <v>MARIO MARTÍN</v>
-      </c>
-      <c r="C51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
-        <v>157</v>
-      </c>
-      <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
-      </c>
-      <c r="C52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),161.0)</f>
-        <v>161</v>
-      </c>
-      <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
-      </c>
-      <c r="C53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
-        <v>162</v>
-      </c>
-      <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
-        <v>COBA</v>
-      </c>
-      <c r="C54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
-        <v>164</v>
-      </c>
-      <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAZZANIGA")</f>
-        <v>GAZZANIGA</v>
-      </c>
-      <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
-        <v>167</v>
-      </c>
-      <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO RINCÓN")</f>
-        <v>HUGO RINCÓN</v>
-      </c>
-      <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
-        <v>168</v>
-      </c>
-      <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
-        <v>VITOR REIS</v>
-      </c>
-      <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),169.0)</f>
-        <v>169</v>
-      </c>
-      <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BLIND")</f>
-        <v>BLIND</v>
-      </c>
-      <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
-        <v>178</v>
-      </c>
-      <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
-      </c>
-      <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
-        <v>182</v>
-      </c>
-      <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
-        <v>RYAN</v>
-      </c>
-      <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
-        <v>183</v>
-      </c>
-      <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
-        <v>PABLO CAMPOS</v>
-      </c>
-      <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
-        <v>186</v>
-      </c>
-      <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
-        <v>ELGEZABAL</v>
-      </c>
-      <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
-        <v>191</v>
-      </c>
-      <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
-        <v>PABLO MARTÍNEZ</v>
-      </c>
-      <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
-        <v>196</v>
-      </c>
-      <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
-        <v>BRUGUÉ</v>
-      </c>
-      <c r="C64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
-        <v>198</v>
-      </c>
-      <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
-        <v>ETTA EYONG</v>
-      </c>
-      <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
-        <v>201</v>
-      </c>
-      <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
-        <v>LUNIN</v>
-      </c>
-      <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
-        <v>205</v>
-      </c>
-      <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
-        <v>HUIJSEN</v>
-      </c>
-      <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
-        <v>214</v>
-      </c>
-      <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
-        <v>MBAPPÉ</v>
-      </c>
-      <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
-        <v>217</v>
-      </c>
-      <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
-      </c>
-      <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
-      </c>
-      <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
-        <v>224</v>
-      </c>
-      <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
-        <v>KUMBULLA</v>
-      </c>
-      <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
-        <v>229</v>
-      </c>
-      <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
-        <v>MORLANES</v>
-      </c>
-      <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
-        <v>231</v>
-      </c>
-      <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
-        <v>ASANO</v>
-      </c>
-      <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
-        <v>232</v>
-      </c>
-      <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
-        <v>MURIQI</v>
-      </c>
-      <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
-        <v>233</v>
-      </c>
-      <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
-      </c>
-      <c r="C75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
-        <v>239</v>
-      </c>
-      <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
-        <v>BOYOMO</v>
-      </c>
-      <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
-        <v>241</v>
-      </c>
-      <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
-        <v>HERRANDO</v>
-      </c>
-      <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
-      </c>
-      <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
-        <v>JUAN CRUZ</v>
-      </c>
-      <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
-      </c>
-      <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
-        <v>254</v>
-      </c>
-      <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
-        <v>AARON ESCANDELL</v>
-      </c>
-      <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
-      </c>
-      <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
-        <v>RAHIM ALHASSANE</v>
-      </c>
-      <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
-        <v>261</v>
-      </c>
-      <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
-        <v>COLOMBATTO</v>
-      </c>
-      <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
-        <v>263</v>
-      </c>
-      <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
-        <v>DENDONCKER</v>
-      </c>
-      <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
-        <v>266</v>
-      </c>
-      <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
-        <v>HASSAN</v>
-      </c>
-      <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
-        <v>268</v>
-      </c>
-      <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
-        <v>ILYAS CHAIRA</v>
-      </c>
-      <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
-        <v>271</v>
-      </c>
-      <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
-        <v>273</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
+        <v>394</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
-        <v>CÁRDENAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
+        <v>LEJEUNE</v>
       </c>
       <c r="C87" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -4302,180 +4324,180 @@
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
-        <v>276</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
+        <v>397</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
+        <v>REGO</v>
       </c>
       <c r="C88" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
+        <v>401</v>
+      </c>
+      <c r="B89" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
+        <v>RODRI MENDOZA</v>
+      </c>
+      <c r="C89" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
+        <v>410</v>
+      </c>
+      <c r="B90" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
+        <v>GONZALO</v>
+      </c>
+      <c r="C90" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
+        <v>412</v>
+      </c>
+      <c r="B91" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
+        <v>MATEO JOSEPH</v>
+      </c>
+      <c r="C91" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
+        <v>417</v>
+      </c>
+      <c r="B92" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
+        <v>FEBAS</v>
+      </c>
+      <c r="C92" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
+        <v>418</v>
+      </c>
+      <c r="B93" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
+      </c>
+      <c r="C93" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
+        <v>420</v>
+      </c>
+      <c r="B94" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
+        <v>DARDER</v>
+      </c>
+      <c r="C94" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
+        <v>423</v>
+      </c>
+      <c r="B95" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
+        <v>UNAI LÓPEZ</v>
+      </c>
+      <c r="C95" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
         <v>RAYO VALLECANO</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
-        <v>279</v>
-      </c>
-      <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
-        <v>PATHÉ CISS</v>
-      </c>
-      <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
-        <v>280</v>
-      </c>
-      <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
-        <v>UNAI LOPEZ</v>
-      </c>
-      <c r="C90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
-        <v>285</v>
-      </c>
-      <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN PÉREZ")</f>
-        <v>FRAN PÉREZ</v>
-      </c>
-      <c r="C91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
-        <v>289</v>
-      </c>
-      <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
-        <v>294</v>
-      </c>
-      <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ZUBELDIA")</f>
-        <v>ZUBELDIA</v>
-      </c>
-      <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
-        <v>297</v>
-      </c>
-      <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
-      </c>
-      <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
-        <v>300</v>
-      </c>
-      <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
-      </c>
-      <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
-        <v>301</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
+        <v>424</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
-        <v>BRAIS MÉNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
+        <v>TENAGLIA</v>
       </c>
       <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
-        <v>305</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
+        <v>428</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
-        <v>ÓSKARSSON</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
-        <v>310</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
+        <v>430</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
-        <v>CARMONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
+        <v>VANAT</v>
       </c>
       <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
-        <v>314</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
+        <v>433</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
-        <v>MARCAO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
+        <v>LEO ROMÁN</v>
       </c>
       <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),320.0)</f>
-        <v>320</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
+        <v>438</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
+        <v>BATISTA MENDY</v>
       </c>
       <c r="C100" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
@@ -4484,756 +4506,224 @@
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
-        <v>324</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
+        <v>441</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
+        <v>BUCHANAN</v>
       </c>
       <c r="C101" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
+        <v>442</v>
+      </c>
+      <c r="B102" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
+        <v>UNAI SIMÓN</v>
+      </c>
+      <c r="C102" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
+        <v>443</v>
+      </c>
+      <c r="B103" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
+        <v>JAUREGIZAR</v>
+      </c>
+      <c r="C103" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
+        <v>446</v>
+      </c>
+      <c r="B104" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
+        <v>ÁLEX BAENA</v>
+      </c>
+      <c r="C104" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
+        <v>451</v>
+      </c>
+      <c r="B105" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
+        <v>RAPHINHA</v>
+      </c>
+      <c r="C105" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
+        <v>453</v>
+      </c>
+      <c r="B106" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
+        <v>RASHFORD</v>
+      </c>
+      <c r="C106" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
+        <v>460</v>
+      </c>
+      <c r="B107" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
+        <v>MASTANTUONO</v>
+      </c>
+      <c r="C107" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
+        <v>464</v>
+      </c>
+      <c r="B108" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
+        <v>VARGAS</v>
+      </c>
+      <c r="C108" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
-        <v>339</v>
-      </c>
-      <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
-        <v>DIEGO LÓPEZ</v>
-      </c>
-      <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
-        <v>348</v>
-      </c>
-      <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
-        <v>RAFA MARÍN</v>
-      </c>
-      <c r="C103" s="20" t="str">
+    <row r="109">
+      <c r="A109" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
+        <v>466</v>
+      </c>
+      <c r="B109" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
+        <v>MOLEIRO</v>
+      </c>
+      <c r="C109" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
-        <v>349</v>
-      </c>
-      <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
-        <v>RENATO VEIGA</v>
-      </c>
-      <c r="C104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
-        <v>360</v>
-      </c>
-      <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
-        <v>AYOZE</v>
-      </c>
-      <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
-        <v>364</v>
-      </c>
-      <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-      <c r="C106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
-        <v>365</v>
-      </c>
-      <c r="B107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-      <c r="C107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
-        <v>366</v>
-      </c>
-      <c r="B108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-      <c r="C108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),373.0)</f>
-        <v>373</v>
-      </c>
-      <c r="B109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-      <c r="C109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
     <row r="110">
       <c r="A110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
-        <v>375</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
+        <v>468</v>
       </c>
       <c r="B110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
+        <v>CARD CHAMPIONS</v>
       </c>
       <c r="C110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),377.0)</f>
-        <v>377</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
+        <v>470</v>
       </c>
       <c r="B111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
+        <v>JULIÁN ÁLVAREZ</v>
       </c>
       <c r="C111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
+        <v>BALÓN DE ORO (ATLÉTICO)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
-        <v>378</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
+        <v>471</v>
       </c>
       <c r="B112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
+        <v>PEDRI</v>
       </c>
       <c r="C112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
+        <v>BALÓN DE ORO (BARÇA)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
-        <v>380</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
+        <v>472</v>
       </c>
       <c r="B113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
+        <v>LAMINE YAMAL</v>
       </c>
       <c r="C113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
+        <v>BALÓN DE ORO (BARÇA)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
-        <v>383</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
+        <v>475</v>
       </c>
       <c r="B114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
+        <v>BALÓN DE ORO EXCELLENCE</v>
       </c>
       <c r="C114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
-        <v>384</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
+        <v>476</v>
       </c>
       <c r="B115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
+        <v>CARD ATÓMICA</v>
       </c>
       <c r="C115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
+        <v>ÚNICA</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
-        <v>385</v>
-      </c>
-      <c r="B116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
-        <v>BATALLA</v>
-      </c>
-      <c r="C116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
-        <v>386</v>
-      </c>
-      <c r="B117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
-      </c>
-      <c r="C117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
-        <v>388</v>
-      </c>
-      <c r="B118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
-        <v>LAPORTE</v>
-      </c>
-      <c r="C118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
-        <v>390</v>
-      </c>
-      <c r="B119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
-        <v>LE NORMAND</v>
-      </c>
-      <c r="C119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
-        <v>394</v>
-      </c>
-      <c r="B120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
-      </c>
-      <c r="C120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
-        <v>397</v>
-      </c>
-      <c r="B121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
-        <v>REGO</v>
-      </c>
-      <c r="C121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
-        <v>401</v>
-      </c>
-      <c r="B122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
-        <v>RODRI MENDOZA</v>
-      </c>
-      <c r="C122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
-        <v>410</v>
-      </c>
-      <c r="B123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
-        <v>GONZALO</v>
-      </c>
-      <c r="C123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
-        <v>412</v>
-      </c>
-      <c r="B124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
-      </c>
-      <c r="C124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
-        <v>417</v>
-      </c>
-      <c r="B125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
-      </c>
-      <c r="C125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
-        <v>418</v>
-      </c>
-      <c r="B126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
-      </c>
-      <c r="C126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
-        <v>420</v>
-      </c>
-      <c r="B127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
-        <v>DARDER</v>
-      </c>
-      <c r="C127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
-        <v>423</v>
-      </c>
-      <c r="B128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
-        <v>UNAI LÓPEZ</v>
-      </c>
-      <c r="C128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
-        <v>424</v>
-      </c>
-      <c r="B129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
-        <v>TENAGLIA</v>
-      </c>
-      <c r="C129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
-        <v>428</v>
-      </c>
-      <c r="B130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
-      </c>
-      <c r="C130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
-        <v>430</v>
-      </c>
-      <c r="B131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
-      </c>
-      <c r="C131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
-        <v>433</v>
-      </c>
-      <c r="B132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
-      </c>
-      <c r="C132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),435.0)</f>
-        <v>435</v>
-      </c>
-      <c r="B133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HASSAN")</f>
-        <v>HASSAN</v>
-      </c>
-      <c r="C133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),437.0)</f>
-        <v>437</v>
-      </c>
-      <c r="B134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
-      </c>
-      <c r="C134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
-        <v>438</v>
-      </c>
-      <c r="B135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
-        <v>BATISTA MENDY</v>
-      </c>
-      <c r="C135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
-        <v>441</v>
-      </c>
-      <c r="B136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
-        <v>BUCHANAN</v>
-      </c>
-      <c r="C136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
-        <v>442</v>
-      </c>
-      <c r="B137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
-        <v>UNAI SIMÓN</v>
-      </c>
-      <c r="C137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
-        <v>443</v>
-      </c>
-      <c r="B138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
-        <v>JAUREGIZAR</v>
-      </c>
-      <c r="C138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),445.0)</f>
-        <v>445</v>
-      </c>
-      <c r="B139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
-        <v>MARCOS LLORENTE</v>
-      </c>
-      <c r="C139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
-        <v>446</v>
-      </c>
-      <c r="B140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
-        <v>ÁLEX BAENA</v>
-      </c>
-      <c r="C140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
-        <v>451</v>
-      </c>
-      <c r="B141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
-        <v>RAPHINHA</v>
-      </c>
-      <c r="C141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
-        <v>453</v>
-      </c>
-      <c r="B142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
-        <v>RASHFORD</v>
-      </c>
-      <c r="C142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
-        <v>454</v>
-      </c>
-      <c r="B143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISCO")</f>
-        <v>ISCO</v>
-      </c>
-      <c r="C143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
-        <v>460</v>
-      </c>
-      <c r="B144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
-        <v>MASTANTUONO</v>
-      </c>
-      <c r="C144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
-        <v>464</v>
-      </c>
-      <c r="B145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
-      </c>
-      <c r="C145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
-        <v>466</v>
-      </c>
-      <c r="B146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
-        <v>MOLEIRO</v>
-      </c>
-      <c r="C146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
-        <v>468</v>
-      </c>
-      <c r="B147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
-        <v>CARD CHAMPIONS</v>
-      </c>
-      <c r="C147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
-        <v>470</v>
-      </c>
-      <c r="B148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
-        <v>JULIÁN ÁLVAREZ</v>
-      </c>
-      <c r="C148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
-        <v>BALÓN DE ORO (ATLÉTICO)</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
-        <v>471</v>
-      </c>
-      <c r="B149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
-        <v>PEDRI</v>
-      </c>
-      <c r="C149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
-        <v>472</v>
-      </c>
-      <c r="B150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
-      </c>
-      <c r="C150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),473.0)</f>
-        <v>473</v>
-      </c>
-      <c r="B151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
-      </c>
-      <c r="C151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (REAL MADRID)")</f>
-        <v>BALÓN DE ORO (REAL MADRID)</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
-        <v>475</v>
-      </c>
-      <c r="B152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
-        <v>BALÓN DE ORO EXCELLENCE</v>
-      </c>
-      <c r="C152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
-        <v>476</v>
-      </c>
-      <c r="B153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
-        <v>CARD ATÓMICA</v>
-      </c>
-      <c r="C153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
         <v>91</v>
       </c>
-      <c r="B154" s="20" t="str">
+      <c r="B116" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
         <v>ESTADIO</v>
       </c>
-      <c r="C154" s="20" t="str">
+      <c r="C116" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
@@ -5283,18 +4773,18 @@
         <v>D. ALAVÉS</v>
       </c>
       <c r="D1" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
-        <v>4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="B2" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JONNY")</f>
-        <v>JONNY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -5307,12 +4797,12 @@
     </row>
     <row r="3">
       <c r="A3" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
-        <v>15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="B3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
-        <v>CARLOS VICENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL FERNÁNDEZ")</f>
+        <v>RAÚL FERNÁNDEZ</v>
       </c>
       <c r="C3" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -5325,12 +4815,12 @@
     </row>
     <row r="4">
       <c r="A4" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
       </c>
       <c r="B4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYÉ")</f>
-        <v>BOYÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JONNY")</f>
+        <v>JONNY</v>
       </c>
       <c r="C4" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -5343,12 +4833,12 @@
     </row>
     <row r="5">
       <c r="A5" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
       </c>
       <c r="B5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIANO")</f>
-        <v>MARIANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
+        <v>TENAGLIA</v>
       </c>
       <c r="C5" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -5361,16 +4851,16 @@
     </row>
     <row r="6">
       <c r="A6" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
       </c>
       <c r="B6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PARADA")</f>
+        <v>PARADA</v>
       </c>
       <c r="C6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D6" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5379,34 +4869,34 @@
     </row>
     <row r="7">
       <c r="A7" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
-        <v>27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
+        <v>15</v>
       </c>
       <c r="B7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
-        <v>RUIZ DE GALARRETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
+        <v>CARLOS VICENTE</v>
       </c>
       <c r="C7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D7" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
+        <v>17</v>
       </c>
       <c r="B8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
-        <v>MAROAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYÉ")</f>
+        <v>BOYÉ</v>
       </c>
       <c r="C8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D8" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5415,16 +4905,16 @@
     </row>
     <row r="9">
       <c r="A9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
+        <v>18</v>
       </c>
       <c r="B9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
-        <v>MARCOS LLORENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIANO")</f>
+        <v>MARIANO</v>
       </c>
       <c r="C9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D9" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5433,34 +4923,34 @@
     </row>
     <row r="10">
       <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
+        <v>19</v>
       </c>
       <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
-        <v>LENGLET</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
+        <v>21</v>
       </c>
       <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
-        <v>ALMADA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PADILLA")</f>
+        <v>PADILLA</v>
       </c>
       <c r="C11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D11" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5469,16 +4959,16 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
-        <v>67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
+        <v>23</v>
       </c>
       <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
-        <v>DANI OLMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VIVIAN")</f>
+        <v>VIVIAN</v>
       </c>
       <c r="C12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D12" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5487,16 +4977,16 @@
     </row>
     <row r="13">
       <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
-        <v>73</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
+        <v>RUIZ DE GALARRETA</v>
       </c>
       <c r="C13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D13" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5505,34 +4995,34 @@
     </row>
     <row r="14">
       <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
-        <v>PAU LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
+        <v>MAROAN</v>
       </c>
       <c r="C14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
-        <v>76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
-        <v>BELLERÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
+        <v>MARCOS LLORENTE</v>
       </c>
       <c r="C15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D15" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5541,34 +5031,34 @@
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
-        <v>JUNIOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
+        <v>LENGLET</v>
       </c>
       <c r="C16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
-        <v>CUCHO HERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
+        <v>ALMADA</v>
       </c>
       <c r="C17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D17" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5577,16 +5067,16 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
-        <v>93</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
-        <v>IVÁN VILLAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
+        <v>JULIÁN ALVAREZ</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D18" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5595,16 +5085,16 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
+        <v>55</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5613,16 +5103,16 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
+        <v>56</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
-        <v>ILAIX MORIBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOAN GARCÍA")</f>
+        <v>JOAN GARCÍA</v>
       </c>
       <c r="C20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D20" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5631,16 +5121,16 @@
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
+        <v>66</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
-        <v>HUGO ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
+        <v>FERMÍN</v>
       </c>
       <c r="C21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D21" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5649,16 +5139,16 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
+        <v>DANI OLMO</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D22" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5667,16 +5157,16 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
-        <v>106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
-        <v>IAGO ASPAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D23" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5685,16 +5175,16 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
+        <v>PAU LÓPEZ</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D24" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5703,16 +5193,16 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
-        <v>JUTGLÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
+        <v>BELLERÍN</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D25" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5721,16 +5211,16 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
-        <v>IÑAKI PEÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D26" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5739,16 +5229,16 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
-        <v>DITURO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
+        <v>PABLO FORNALS</v>
       </c>
       <c r="C27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D27" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5757,16 +5247,16 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
-        <v>ÁLVARO NÚÑEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
+        <v>CUCHO HERNÁNDEZ</v>
       </c>
       <c r="C28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D28" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5775,16 +5265,16 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
+        <v>91</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D29" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5793,16 +5283,16 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
-        <v>117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
+        <v>93</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
-        <v>FEDE REDONDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
+        <v>IVÁN VILLAR</v>
       </c>
       <c r="C30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D30" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5811,16 +5301,16 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
+        <v>JAVI RUEDA</v>
       </c>
       <c r="C31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D31" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5829,16 +5319,16 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D32" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5847,16 +5337,16 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
+        <v>ILAIX MORIBA</v>
       </c>
       <c r="C33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D33" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5865,34 +5355,34 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
+        <v>HUGO ÁLVAREZ</v>
       </c>
       <c r="C34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
+        <v>104</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
-        <v>ROBERTO FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
+        <v>SWEDBERG</v>
       </c>
       <c r="C35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D35" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5901,16 +5391,16 @@
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D36" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5919,16 +5409,16 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
+        <v>IAGO ASPAS</v>
       </c>
       <c r="C37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D37" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5937,16 +5427,16 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D38" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5955,16 +5445,16 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
-        <v>153</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
-        <v>DIEGO RICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
       </c>
       <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D39" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5973,16 +5463,16 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
+        <v>IÑAKI PEÑA</v>
       </c>
       <c r="C40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D40" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5991,16 +5481,16 @@
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
+        <v>DITURO</v>
       </c>
       <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D41" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6009,16 +5499,16 @@
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
-        <v>174</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
-        <v>IVÁN MARTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
+        <v>ÁLVARO NÚÑEZ</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D42" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6027,34 +5517,34 @@
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
-        <v>176</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
-        <v>JOEL ROCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
+        <v>FEDE REDONDO</v>
       </c>
       <c r="C44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D44" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6063,16 +5553,16 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
-        <v>177</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TSYGANKOV")</f>
-        <v>TSYGANKOV</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D45" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6081,52 +5571,52 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
+        <v>127</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
-        <v>CARVAJAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
-        <v>GÜLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D48" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6135,16 +5625,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
-        <v>RODRYGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D49" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6153,34 +5643,34 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
+        <v>ROBERTO FERNÁNDEZ</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
-        <v>VALJENT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D51" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6189,16 +5679,16 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
-        <v>MOJICA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D52" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6207,16 +5697,16 @@
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
-        <v>JAN VIRGILI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D53" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6225,16 +5715,16 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
+        <v>153</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
+        <v>DIEGO RICO</v>
       </c>
       <c r="C54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D54" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6243,16 +5733,16 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D55" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6261,34 +5751,34 @@
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
-        <v>AITOR FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
-        <v>247</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUBÉN GARCÍA")</f>
-        <v>RUBÉN GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
+        <v>IVÁN MARTÍN</v>
       </c>
       <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D57" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6297,34 +5787,34 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
-        <v>AIMAR OROZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
-        <v>RAÚL GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
+        <v>JOEL ROCA</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D59" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6333,16 +5823,16 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
-        <v>255</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
+        <v>177</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLDOVAN")</f>
-        <v>MOLDOVAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TSYGANKOV")</f>
+        <v>TSYGANKOV</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D60" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6351,16 +5841,16 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
+        <v>181</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
-        <v>DAVID CARMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D61" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6369,16 +5859,16 @@
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),184.0)</f>
+        <v>184</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
-        <v>DANI CALVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TOLJAN")</f>
+        <v>TOLJAN</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D62" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6387,16 +5877,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),185.0)</f>
+        <v>185</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
-        <v>REINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DELA")</f>
+        <v>DELA</v>
       </c>
       <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D63" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6405,16 +5895,16 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
-        <v>267</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
+        <v>186</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BREKALO")</f>
-        <v>BREKALO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
+        <v>ELGEZABAL</v>
       </c>
       <c r="C64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D64" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6423,16 +5913,16 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
+        <v>189</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
-        <v>FEDE VIÑAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
+        <v>PAMPÍN</v>
       </c>
       <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D65" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6441,16 +5931,16 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
+        <v>202</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
-        <v>LUIZ FELIPE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
+        <v>CARVAJAL</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D66" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6459,34 +5949,34 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),208.0)</f>
+        <v>208</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TCHOUAMÉNI")</f>
+        <v>TCHOUAMÉNI</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
-        <v>PEDRO DÍAZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
       </c>
       <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D68" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6495,16 +5985,16 @@
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
-        <v>286</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
-        <v>CAMELLO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
+        <v>GÜLER</v>
       </c>
       <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D69" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6513,16 +6003,16 @@
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
-        <v>290</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
+        <v>212</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
+        <v>MASTANTUONO</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6531,16 +6021,16 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
+        <v>213</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
-        <v>CALETA-CAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
+        <v>RODRYGO</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D71" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6549,16 +6039,16 @@
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
-        <v>296</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
+        <v>214</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
-        <v>SERGIO GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
+        <v>MBAPPÉ</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D72" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6567,16 +6057,16 @@
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
-        <v>PABLO MARIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
       </c>
       <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D73" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6585,16 +6075,16 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
+        <v>219</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
-        <v>NYLAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERGSTRÖM")</f>
+        <v>BERGSTRÖM</v>
       </c>
       <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D74" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6603,16 +6093,16 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
-        <v>312</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
-        <v>AZPILICUETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
+        <v>VALJENT</v>
       </c>
       <c r="C75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D75" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6621,16 +6111,16 @@
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
-        <v>KIKE SALAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
+        <v>MOJICA</v>
       </c>
       <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D76" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6639,52 +6129,52 @@
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),226.0)</f>
+        <v>226</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
-        <v>EJUKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SAMÚ COSTA")</f>
+        <v>SAMÚ COSTA</v>
       </c>
       <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
+        <v>229</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
-        <v>AKOR ADAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
+        <v>MORLANES</v>
       </c>
       <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
+        <v>234</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
+        <v>JAN VIRGILI</v>
       </c>
       <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D79" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6693,34 +6183,34 @@
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
-        <v>327</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
-        <v>DIMITRIEVSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
-        <v>FOULQUIER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D81" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6729,16 +6219,16 @@
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
-        <v>330</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
+        <v>237</v>
       </c>
       <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
+        <v>AITOR FERNÁNDEZ</v>
       </c>
       <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D82" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6747,16 +6237,16 @@
     </row>
     <row r="83">
       <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
-        <v>331</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
+        <v>242</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
-        <v>COPETE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
+        <v>JUAN CRUZ</v>
       </c>
       <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D83" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6765,16 +6255,16 @@
     </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
-        <v>333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
+        <v>245</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
-        <v>GAYÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MONCAYOLA")</f>
+        <v>MONCAYOLA</v>
       </c>
       <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D84" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6783,34 +6273,34 @@
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
+        <v>247</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
-        <v>LUIS RIOJA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUBÉN GARCÍA")</f>
+        <v>RUBÉN GARCÍA</v>
       </c>
       <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
       </c>
       <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D86" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6819,16 +6309,16 @@
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
+        <v>RAÚL GARCÍA</v>
       </c>
       <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D87" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6837,16 +6327,16 @@
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
-        <v>350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
+        <v>253</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
-        <v>SERGI CARDONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D88" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6855,16 +6345,16 @@
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
+        <v>255</v>
       </c>
       <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
-        <v>SANTI COMESAÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLDOVAN")</f>
+        <v>MOLDOVAN</v>
       </c>
       <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D89" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6873,16 +6363,16 @@
     </row>
     <row r="90">
       <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
-        <v>352</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
-        <v>PAPE GUEYE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
+        <v>DAVID CARMO</v>
       </c>
       <c r="C90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D90" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6891,16 +6381,16 @@
     </row>
     <row r="91">
       <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
       </c>
       <c r="C91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D91" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6909,16 +6399,16 @@
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
-        <v>369</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
+        <v>REINA</v>
       </c>
       <c r="C92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D92" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6927,16 +6417,16 @@
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
-        <v>371</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
+        <v>265</v>
       </c>
       <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILIC")</f>
+        <v>ILIC</v>
       </c>
       <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D93" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6945,34 +6435,34 @@
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
-        <v>387</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
+        <v>267</v>
       </c>
       <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BREKALO")</f>
+        <v>BREKALO</v>
       </c>
       <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
       </c>
       <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D95" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6981,16 +6471,16 @@
     </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
-        <v>398</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
+        <v>275</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
-        <v>DRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALLIU")</f>
+        <v>BALLIU</v>
       </c>
       <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D96" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6999,16 +6489,16 @@
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
-        <v>400</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO GARCÍA")</f>
-        <v>PABLO GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
+        <v>LUIZ FELIPE</v>
       </c>
       <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D97" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7017,16 +6507,16 @@
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
-        <v>404</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
+        <v>PEP CHAVARRÍA</v>
       </c>
       <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D98" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7035,16 +6525,16 @@
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
-        <v>409</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
+        <v>281</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
-        <v>FRAN GONZÁLEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
+        <v>ÓSCAR VALENTÍN</v>
       </c>
       <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D99" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7053,16 +6543,16 @@
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
+        <v>PEDRO DÍAZ</v>
       </c>
       <c r="C100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D100" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7071,34 +6561,34 @@
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.0)</f>
+        <v>284</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
-        <v>BARRIOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO GARCÍA")</f>
+        <v>ÁLVARO GARCÍA</v>
       </c>
       <c r="C101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
       </c>
       <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
-        <v>SOTELO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
+        <v>CAMELLO</v>
       </c>
       <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D102" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7107,16 +6597,16 @@
     </row>
     <row r="103">
       <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
+        <v>289</v>
       </c>
       <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D103" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7125,16 +6615,16 @@
     </row>
     <row r="104">
       <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
+        <v>290</v>
       </c>
       <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
-        <v>CAZORLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
       </c>
       <c r="C104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D104" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7143,16 +6633,16 @@
     </row>
     <row r="105">
       <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
-        <v>425</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
+        <v>292</v>
       </c>
       <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
-        <v>CARLOS VICENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBURU")</f>
+        <v>ARAMBURU</v>
       </c>
       <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D105" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7161,12 +6651,12 @@
     </row>
     <row r="106">
       <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
-        <v>436</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.0)</f>
+        <v>293</v>
       </c>
       <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARITZ ELUSTONDO")</f>
+        <v>ARITZ ELUSTONDO</v>
       </c>
       <c r="C106" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
@@ -7179,16 +6669,16 @@
     </row>
     <row r="107">
       <c r="A107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
-        <v>439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
       </c>
       <c r="B107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
+        <v>CALETA-CAR</v>
       </c>
       <c r="C107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D107" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7197,16 +6687,16 @@
     </row>
     <row r="108">
       <c r="A108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
-        <v>444</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
       </c>
       <c r="B108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
+        <v>SERGIO GÓMEZ</v>
       </c>
       <c r="C108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D108" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7215,16 +6705,16 @@
     </row>
     <row r="109">
       <c r="A109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
-        <v>449</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="B109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
-        <v>KOUNDÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
+        <v>PABLO MARIN</v>
       </c>
       <c r="C109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D109" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7233,16 +6723,16 @@
     </row>
     <row r="110">
       <c r="A110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
-        <v>452</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="B110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
-        <v>LEWANDOWSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
+        <v>NYLAND</v>
       </c>
       <c r="C110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D110" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7251,16 +6741,16 @@
     </row>
     <row r="111">
       <c r="A111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
-        <v>456</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
       </c>
       <c r="B111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
-        <v>ANTONY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
+        <v>AZPILICUETA</v>
       </c>
       <c r="C111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D111" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7269,16 +6759,16 @@
     </row>
     <row r="112">
       <c r="A112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
-        <v>458</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
+        <v>313</v>
       </c>
       <c r="B112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
-        <v>CARRERAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
+        <v>KIKE SALAS</v>
       </c>
       <c r="C112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D112" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7287,36 +6777,990 @@
     </row>
     <row r="113">
       <c r="A113" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),316.0)</f>
+        <v>316</v>
+      </c>
+      <c r="B113" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GUDELJ")</f>
+        <v>GUDELJ</v>
+      </c>
+      <c r="C113" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D113" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
+        <v>317</v>
+      </c>
+      <c r="B114" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGOUME")</f>
+        <v>AGOUME</v>
+      </c>
+      <c r="C114" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D114" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
+      </c>
+      <c r="B115" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
+        <v>EJUKE</v>
+      </c>
+      <c r="C115" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D115" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
+      </c>
+      <c r="B116" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
+        <v>AKOR ADAMS</v>
+      </c>
+      <c r="C116" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D116" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
+      </c>
+      <c r="B117" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C117" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D117" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
+        <v>326</v>
+      </c>
+      <c r="B118" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
+      </c>
+      <c r="C118" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D118" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
+        <v>327</v>
+      </c>
+      <c r="B119" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
+        <v>DIMITRIEVSKI</v>
+      </c>
+      <c r="C119" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D119" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
+      </c>
+      <c r="B120" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
+        <v>FOULQUIER</v>
+      </c>
+      <c r="C120" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D120" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
+      </c>
+      <c r="B121" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
+      </c>
+      <c r="C121" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D121" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
+        <v>331</v>
+      </c>
+      <c r="B122" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
+        <v>COPETE</v>
+      </c>
+      <c r="C122" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D122" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
+      </c>
+      <c r="B123" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
+      </c>
+      <c r="C123" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D123" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),335.0)</f>
+        <v>335</v>
+      </c>
+      <c r="B124" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTAMARÍA")</f>
+        <v>SANTAMARÍA</v>
+      </c>
+      <c r="C124" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D124" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
+        <v>337</v>
+      </c>
+      <c r="B125" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
+        <v>ANDRÉ ALMEIDA</v>
+      </c>
+      <c r="C125" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D125" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
+      </c>
+      <c r="B126" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
+      </c>
+      <c r="C126" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D126" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341.0)</f>
+        <v>341</v>
+      </c>
+      <c r="B127" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANJUMA")</f>
+        <v>DANJUMA</v>
+      </c>
+      <c r="C127" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D127" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
+      </c>
+      <c r="B128" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C128" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D128" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
+      </c>
+      <c r="B129" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C129" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D129" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),347.0)</f>
+        <v>347</v>
+      </c>
+      <c r="B130" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOYTH")</f>
+        <v>FOYTH</v>
+      </c>
+      <c r="C130" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D130" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
+        <v>350</v>
+      </c>
+      <c r="B131" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
+        <v>SERGI CARDONA</v>
+      </c>
+      <c r="C131" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D131" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
+      </c>
+      <c r="B132" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
+        <v>SANTI COMESAÑA</v>
+      </c>
+      <c r="C132" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D132" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
+      </c>
+      <c r="B133" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
+        <v>PAPE GUEYE</v>
+      </c>
+      <c r="C133" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D133" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),354.0)</f>
+        <v>354</v>
+      </c>
+      <c r="B134" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"THOMAS")</f>
+        <v>THOMAS</v>
+      </c>
+      <c r="C134" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D134" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
+        <v>355</v>
+      </c>
+      <c r="B135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
+        <v>MOLEIRO</v>
+      </c>
+      <c r="C135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D135" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
+      </c>
+      <c r="B136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
+      </c>
+      <c r="C136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+      <c r="D136" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
+      </c>
+      <c r="B137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="C137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+      <c r="D137" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
+        <v>371</v>
+      </c>
+      <c r="B138" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+      <c r="C138" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
+      </c>
+      <c r="D138" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),381.0)</f>
+        <v>381</v>
+      </c>
+      <c r="B139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SIVERA")</f>
+        <v>SIVERA</v>
+      </c>
+      <c r="C139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
+      </c>
+      <c r="D139" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
+      </c>
+      <c r="B140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
+      </c>
+      <c r="C140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D140" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),391.0)</f>
+        <v>391</v>
+      </c>
+      <c r="B141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
+      </c>
+      <c r="C141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+      <c r="D141" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
+      </c>
+      <c r="B142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
+      </c>
+      <c r="C142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D142" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
+      </c>
+      <c r="B143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
+        <v>DRO</v>
+      </c>
+      <c r="C143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D143" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
+        <v>399</v>
+      </c>
+      <c r="B144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
+      </c>
+      <c r="C144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D144" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
+        <v>400</v>
+      </c>
+      <c r="B145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO GARCÍA")</f>
+        <v>PABLO GARCÍA</v>
+      </c>
+      <c r="C145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D145" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
+      </c>
+      <c r="B146" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
+      </c>
+      <c r="C146" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D146" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
+        <v>407</v>
+      </c>
+      <c r="B147" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
+        <v>CARLOS ÁLVAREZ</v>
+      </c>
+      <c r="C147" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+      <c r="D147" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
+      </c>
+      <c r="B148" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
+        <v>FRAN GONZÁLEZ</v>
+      </c>
+      <c r="C148" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D148" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
+        <v>413</v>
+      </c>
+      <c r="B149" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
+      </c>
+      <c r="C149" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D149" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
+      </c>
+      <c r="B150" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
+      </c>
+      <c r="C150" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D150" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
+      </c>
+      <c r="B151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
+        <v>SOTELO</v>
+      </c>
+      <c r="C151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D151" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
+        <v>419</v>
+      </c>
+      <c r="B152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
+      </c>
+      <c r="C152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D152" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
+        <v>421</v>
+      </c>
+      <c r="B153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
+      </c>
+      <c r="C153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D153" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
+        <v>422</v>
+      </c>
+      <c r="B154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
+        <v>CAZORLA</v>
+      </c>
+      <c r="C154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D154" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
+        <v>425</v>
+      </c>
+      <c r="B155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
+        <v>CARLOS VICENTE</v>
+      </c>
+      <c r="C155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
+      </c>
+      <c r="D155" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
+        <v>436</v>
+      </c>
+      <c r="B156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
+        <v>CARLOS SOLER</v>
+      </c>
+      <c r="C156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+      <c r="D156" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
+        <v>439</v>
+      </c>
+      <c r="B157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
+      </c>
+      <c r="C157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D157" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
+        <v>444</v>
+      </c>
+      <c r="B158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
+        <v>OBLAK</v>
+      </c>
+      <c r="C158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D158" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
+        <v>448</v>
+      </c>
+      <c r="B159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
+        <v>GRIEZMANN</v>
+      </c>
+      <c r="C159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D159" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
+        <v>449</v>
+      </c>
+      <c r="B160" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
+        <v>KOUNDÉ</v>
+      </c>
+      <c r="C160" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D160" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
+        <v>452</v>
+      </c>
+      <c r="B161" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
+        <v>LEWANDOWSKI</v>
+      </c>
+      <c r="C161" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D161" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
+        <v>456</v>
+      </c>
+      <c r="B162" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
+        <v>ANTONY</v>
+      </c>
+      <c r="C162" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D162" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
+      </c>
+      <c r="B163" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
+        <v>CARRERAS</v>
+      </c>
+      <c r="C163" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D163" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
+        <v>462</v>
+      </c>
+      <c r="B164" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
+        <v>ISI</v>
+      </c>
+      <c r="C164" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D164" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),467.0)</f>
+        <v>467</v>
+      </c>
+      <c r="B165" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PÉPÉ")</f>
+        <v>PÉPÉ</v>
+      </c>
+      <c r="C165" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D165" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
         <v>469</v>
       </c>
-      <c r="B113" s="20" t="str">
+      <c r="B166" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
         <v>NICO WILLIAMS</v>
       </c>
-      <c r="C113" s="20" t="str">
+      <c r="C166" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
         <v>BALÓN DE ORO (ATHLETIC)</v>
       </c>
-      <c r="D113" s="20">
+      <c r="D166" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="20">
+    <row r="167">
+      <c r="A167" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),477.0)</f>
         <v>477</v>
       </c>
-      <c r="B114" s="20" t="str">
+      <c r="B167" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD INVENCIBLE")</f>
         <v>CARD INVENCIBLE</v>
       </c>
-      <c r="C114" s="20" t="str">
+      <c r="C167" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
         <v>ÚNICA</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D167" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
@@ -7354,7 +7798,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
@@ -7384,6 +7828,9 @@
       <c r="D3" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="21">
@@ -7412,7 +7859,12 @@
       <c r="C5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="21">
@@ -7441,6 +7893,9 @@
       <c r="D7" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="21">
@@ -7494,7 +7949,9 @@
       <c r="C11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="21">
@@ -7561,7 +8018,9 @@
       <c r="C16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21">
@@ -7636,6 +8095,9 @@
       <c r="D21" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E21" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="21">
@@ -7664,6 +8126,9 @@
       <c r="D23" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E23" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="21">
@@ -7675,7 +8140,9 @@
       <c r="C24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="21">
@@ -7715,7 +8182,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -7837,7 +8304,9 @@
       <c r="C36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="21">
@@ -7861,7 +8330,9 @@
       <c r="C38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="21">
@@ -7922,7 +8393,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -8061,6 +8532,9 @@
       <c r="D52" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E52" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="21">
@@ -8086,7 +8560,9 @@
       <c r="C54" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="21"/>
+      <c r="D54" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="21">
@@ -8101,6 +8577,9 @@
       <c r="D55" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E55" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="21">
@@ -8115,6 +8594,9 @@
       <c r="D56" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E56" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="21">
@@ -8249,6 +8731,9 @@
       <c r="D66" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E66" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="21">
@@ -8277,7 +8762,9 @@
       <c r="C68" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="21"/>
+      <c r="D68" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="21">
@@ -8301,7 +8788,9 @@
       <c r="C70" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="21"/>
+      <c r="D70" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="21">
@@ -8359,7 +8848,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -8461,7 +8950,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -8501,6 +8990,9 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E84" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="21">
@@ -8596,6 +9088,9 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E91" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="21">
@@ -8639,6 +9134,9 @@
       <c r="D94" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E94" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="21">
@@ -8664,7 +9162,9 @@
       <c r="C96" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D96" s="21"/>
+      <c r="D96" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="21">
@@ -8782,6 +9282,9 @@
       <c r="D104" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E104" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="21">
@@ -8936,7 +9439,9 @@
       <c r="C114" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D114" s="21"/>
+      <c r="D114" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="21">
@@ -8996,7 +9501,9 @@
       <c r="C118" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D118" s="21"/>
+      <c r="D118" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="21">
@@ -9122,6 +9629,9 @@
       <c r="D127" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E127" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="21">
@@ -9187,7 +9697,9 @@
       <c r="C132" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D132" s="21"/>
+      <c r="D132" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="21">
@@ -9305,7 +9817,7 @@
         <v>20</v>
       </c>
       <c r="E140" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="141">
@@ -9349,7 +9861,9 @@
       <c r="C143" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D143" s="21"/>
+      <c r="D143" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="21">
@@ -9514,7 +10028,9 @@
       <c r="C155" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D155" s="21"/>
+      <c r="D155" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="21">
@@ -9594,7 +10110,9 @@
       <c r="C161" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D161" s="21"/>
+      <c r="D161" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="21">
@@ -9635,7 +10153,9 @@
       <c r="C164" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D164" s="21"/>
+      <c r="D164" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="21">
@@ -9675,7 +10195,9 @@
       <c r="C167" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D167" s="21"/>
+      <c r="D167" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="21">
@@ -9699,7 +10221,9 @@
       <c r="C169" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D169" s="21"/>
+      <c r="D169" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="21">
@@ -9791,7 +10315,7 @@
         <v>20</v>
       </c>
       <c r="E175" s="22">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="176">
@@ -9881,6 +10405,9 @@
       <c r="D181" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E181" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="21">
@@ -9919,6 +10446,9 @@
       <c r="D184" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E184" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="21">
@@ -9933,6 +10463,9 @@
       <c r="D185" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E185" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="21">
@@ -9944,7 +10477,12 @@
       <c r="C186" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D186" s="21"/>
+      <c r="D186" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="21">
@@ -9987,6 +10525,9 @@
       <c r="D189" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E189" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="21">
@@ -10162,7 +10703,7 @@
         <v>20</v>
       </c>
       <c r="E202" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="203">
@@ -10246,6 +10787,9 @@
       <c r="D208" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E208" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="21">
@@ -10261,7 +10805,7 @@
         <v>20</v>
       </c>
       <c r="E209" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="210">
@@ -10308,6 +10852,9 @@
       <c r="D212" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E212" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="21">
@@ -10336,7 +10883,12 @@
       <c r="C214" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D214" s="21"/>
+      <c r="D214" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E214" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="21">
@@ -10366,7 +10918,7 @@
         <v>20</v>
       </c>
       <c r="E216" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="217">
@@ -10379,7 +10931,9 @@
       <c r="C217" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D217" s="21"/>
+      <c r="D217" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="21">
@@ -10406,6 +10960,9 @@
       <c r="D219" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E219" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="21">
@@ -10476,7 +11033,9 @@
       <c r="C224" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D224" s="21"/>
+      <c r="D224" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="21">
@@ -10508,6 +11067,9 @@
       <c r="D226" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E226" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="21">
@@ -10547,7 +11109,12 @@
       <c r="C229" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D229" s="21"/>
+      <c r="D229" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="21">
@@ -10630,7 +11197,7 @@
         <v>20</v>
       </c>
       <c r="E235" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="236">
@@ -10664,7 +11231,7 @@
         <v>20</v>
       </c>
       <c r="E237" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="238">
@@ -10729,7 +11296,12 @@
       <c r="C242" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D242" s="21"/>
+      <c r="D242" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E242" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="21">
@@ -10772,6 +11344,9 @@
       <c r="D245" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E245" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="21">
@@ -11063,6 +11638,9 @@
       <c r="D265" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E265" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="21">
@@ -11074,7 +11652,9 @@
       <c r="C266" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D266" s="21"/>
+      <c r="D266" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="21">
@@ -11201,6 +11781,9 @@
       <c r="D275" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E275" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="21">
@@ -11245,7 +11828,7 @@
         <v>20</v>
       </c>
       <c r="E278" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="279">
@@ -11285,6 +11868,9 @@
       <c r="D281" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E281" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="21">
@@ -11330,6 +11916,9 @@
       <c r="D284" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E284" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="21">
@@ -11341,7 +11930,9 @@
       <c r="C285" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D285" s="21"/>
+      <c r="D285" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="21">
@@ -11444,6 +12035,9 @@
       <c r="D292" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E292" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="21">
@@ -11458,6 +12052,9 @@
       <c r="D293" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E293" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="21">
@@ -11469,7 +12066,9 @@
       <c r="C294" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="D294" s="21"/>
+      <c r="D294" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="21">
@@ -11784,6 +12383,9 @@
       <c r="D316" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E316" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="21">
@@ -11798,6 +12400,9 @@
       <c r="D317" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E317" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="21">
@@ -11837,7 +12442,9 @@
       <c r="C320" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D320" s="21"/>
+      <c r="D320" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="21">
@@ -11929,6 +12536,9 @@
       <c r="D326" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E326" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="21">
@@ -12070,6 +12680,9 @@
       <c r="D335" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E335" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="21">
@@ -12098,6 +12711,9 @@
       <c r="D337" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E337" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="21">
@@ -12113,7 +12729,7 @@
         <v>20</v>
       </c>
       <c r="E338" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="339">
@@ -12155,6 +12771,9 @@
       <c r="D341" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E341" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="21">
@@ -12242,6 +12861,9 @@
       <c r="D347" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E347" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="21">
@@ -12345,6 +12967,9 @@
       <c r="D354" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E354" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="21">
@@ -12358,6 +12983,9 @@
       </c>
       <c r="D355" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E355" s="22">
+        <v>2.0</v>
       </c>
     </row>
     <row r="356">
@@ -12470,6 +13098,9 @@
       <c r="D1" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E1" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">
@@ -12673,6 +13304,9 @@
       <c r="D15" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E15" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21">
@@ -12700,6 +13334,9 @@
       </c>
       <c r="D17" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -12849,7 +13486,9 @@
       <c r="C6" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="21">
@@ -12951,7 +13590,9 @@
       <c r="C13" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="21">
@@ -13003,7 +13644,9 @@
       <c r="C17" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21">
@@ -15119,6 +15762,9 @@
       <c r="D1" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E1" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">
@@ -15144,7 +15790,9 @@
       <c r="C3" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="21">
@@ -15272,6 +15920,9 @@
       </c>
       <c r="D4" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -15411,6 +16062,9 @@
       <c r="D3" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="21">
@@ -15526,6 +16180,9 @@
       </c>
       <c r="D11" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="399">
   <si>
     <t>Última actualización:</t>
   </si>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B1" s="2">
         <f>TODAY()</f>
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1836,15 +1836,15 @@
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(REGULARES!D:D, "SI")</f>
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="1">B3-C3</f>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="2">(C3/B3)</f>
-        <v>0.7888888889</v>
+        <v>0.8027777778</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E3, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1860,15 +1860,15 @@
       </c>
       <c r="C4" s="9">
         <f>COUNTIF(Estadios!D:D, "SI")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="2"/>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F4" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E4, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1932,15 +1932,15 @@
       </c>
       <c r="C7" s="14">
         <f>COUNTIF('Kryptonita (388–396)'!D:D, "SI")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="3"/>
-        <v>0.6666666667</v>
+        <v>0.7777777778</v>
       </c>
       <c r="F7" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E7, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1980,15 +1980,15 @@
       </c>
       <c r="C9" s="14">
         <f>COUNTIF('Influencers (415–423)'!D:D, "SI")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="3"/>
-        <v>0.5555555556</v>
+        <v>0.6666666667</v>
       </c>
       <c r="F9" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E9, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2028,15 +2028,15 @@
       </c>
       <c r="C11" s="14">
         <f>COUNTIF('Super Cracks (442–467)'!D:D, "SI")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="3"/>
-        <v>0.6923076923</v>
+        <v>0.7307692308</v>
       </c>
       <c r="F11" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E11, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2077,15 +2077,15 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>0.7670682731</v>
+        <v>0.7851405622</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E13, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2141,7 +2141,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -2166,7 +2166,9 @@
       <c r="C4" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="21">
@@ -3060,7 +3062,9 @@
       <c r="C25" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="21">
@@ -3105,1627 +3109,9 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("{FILTER(REGULARES!A:C, REGULARES!D:D&lt;&gt;""SI"", REGULARES!A:A&lt;&gt;""""); FILTER('¡VAMOS! (361–380)'!A:C, '¡VAMOS! (361–380)'!D:D&lt;&gt;""SI"", '¡VAMOS! (361–380)'!A:A&lt;&gt;""""); FILTER('Guantes de Oro (381–387)'!A:C, 'Guantes de Oro (381–387)'!D:D&lt;&gt;""SI"", 'Guantes de"&amp;" Oro (381–387)'!A:A&lt;&gt;""""); FILTER('Kryptonita (388–396)'!A:C, 'Kryptonita (388–396)'!D:D&lt;&gt;""SI"", 'Kryptonita (388–396)'!A:A&lt;&gt;""""); FILTER('Diamantes (397–414)'!A:C, 'Diamantes (397–414)'!D:D&lt;&gt;""SI"", 'Diamantes (397–414)'!A:A&lt;&gt;""""); FILTER('Influencer"&amp;"s (415–423)'!A:C, 'Influencers (415–423)'!D:D&lt;&gt;""SI"", 'Influencers (415–423)'!A:A&lt;&gt;""""); FILTER('Protas (424–441)'!A:C, 'Protas (424–441)'!D:D&lt;&gt;""SI"", 'Protas (424–441)'!A:A&lt;&gt;""""); FILTER('Super Cracks (442–467)'!A:C, 'Super Cracks (442–467)'!D:D&lt;&gt;""S"&amp;"I"", 'Super Cracks (442–467)'!A:A&lt;&gt;""""); FILTER('Cartas Top y Únicas (468–478)'!A:C, 'Cartas Top y Únicas (468–478)'!D:D&lt;&gt;""SI"", 'Cartas Top y Únicas (468–478)'!A:A&lt;&gt;""""); FILTER(Estadios!A:C, Estadios!D:D&lt;&gt;""SI"", Estadios!A:A&lt;&gt;"""")}"),12.0)</f>
-        <v>12</v>
-      </c>
-      <c r="B1" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEÑÁ")</f>
-        <v>ALEÑÁ</v>
-      </c>
-      <c r="C1" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
-      </c>
-      <c r="B2" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO IBÁÑEZ")</f>
-        <v>PABLO IBÁÑEZ</v>
-      </c>
-      <c r="C2" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
-      </c>
-      <c r="B3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
-        <v>UNAI SIMÓN</v>
-      </c>
-      <c r="C3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
-        <v>25</v>
-      </c>
-      <c r="B4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
-        <v>LAPORTE</v>
-      </c>
-      <c r="C4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
-      </c>
-      <c r="B5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YURI")</f>
-        <v>YURI</v>
-      </c>
-      <c r="C5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
-      </c>
-      <c r="B6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VESGA")</f>
-        <v>VESGA</v>
-      </c>
-      <c r="C6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
-      </c>
-      <c r="B7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI GÓMEZ")</f>
-        <v>UNAI GÓMEZ</v>
-      </c>
-      <c r="C7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
-      </c>
-      <c r="B8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GURUZETA")</f>
-        <v>GURUZETA</v>
-      </c>
-      <c r="C8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
-      </c>
-      <c r="B9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
-      </c>
-      <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEX BAENA")</f>
-        <v>ALEX BAENA</v>
-      </c>
-      <c r="C10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
-      </c>
-      <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO GONZÁLEZ")</f>
-        <v>NICO GONZÁLEZ</v>
-      </c>
-      <c r="C11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
-        <v>51</v>
-      </c>
-      <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIULIANO")</f>
-        <v>GIULIANO</v>
-      </c>
-      <c r="C12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
-        <v>57</v>
-      </c>
-      <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SZCZESNY")</f>
-        <v>SZCZESNY</v>
-      </c>
-      <c r="C13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
-      </c>
-      <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
-        <v>KOUNDÉ</v>
-      </c>
-      <c r="C14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
-        <v>60</v>
-      </c>
-      <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ERIC GARCÍA")</f>
-        <v>ERIC GARCÍA</v>
-      </c>
-      <c r="C15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),69.0)</f>
-        <v>69</v>
-      </c>
-      <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
-      </c>
-      <c r="C16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
-        <v>80</v>
-      </c>
-      <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
-      </c>
-      <c r="C17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
-        <v>82</v>
-      </c>
-      <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALTIMIRA")</f>
-        <v>ALTIMIRA</v>
-      </c>
-      <c r="C18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
-        <v>83</v>
-      </c>
-      <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AMRABAT")</f>
-        <v>AMRABAT</v>
-      </c>
-      <c r="C19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
-        <v>85</v>
-      </c>
-      <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LO CELSO")</f>
-        <v>LO CELSO</v>
-      </c>
-      <c r="C20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
-      </c>
-      <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIQUELME")</f>
-        <v>RIQUELME</v>
-      </c>
-      <c r="C21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
-        <v>90</v>
-      </c>
-      <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABDE")</f>
-        <v>ABDE</v>
-      </c>
-      <c r="C22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
-      </c>
-      <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RADU")</f>
-        <v>RADU</v>
-      </c>
-      <c r="C23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
-        <v>98</v>
-      </c>
-      <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MINGUEZA")</f>
-        <v>MINGUEZA</v>
-      </c>
-      <c r="C24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
-      </c>
-      <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN BELTRÁN")</f>
-        <v>FRAN BELTRÁN</v>
-      </c>
-      <c r="C25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
-      </c>
-      <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
-      </c>
-      <c r="C26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
-        <v>113</v>
-      </c>
-      <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CHUST")</f>
-        <v>CHUST</v>
-      </c>
-      <c r="C27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
-      </c>
-      <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARTIM NETO")</f>
-        <v>MARTIM NETO</v>
-      </c>
-      <c r="C28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
-        <v>120</v>
-      </c>
-      <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
-      </c>
-      <c r="C29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
-      </c>
-      <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
-        <v>DMITROVIC</v>
-      </c>
-      <c r="C30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
-        <v>133</v>
-      </c>
-      <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
-      </c>
-      <c r="C31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
-      </c>
-      <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
-      </c>
-      <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IGLESIAS")</f>
-        <v>IGLESIAS</v>
-      </c>
-      <c r="C33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
-        <v>149</v>
-      </c>
-      <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKO FEMENÍA")</f>
-        <v>KIKO FEMENÍA</v>
-      </c>
-      <c r="C34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),150.0)</f>
-        <v>150</v>
-      </c>
-      <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DJENÉ")</f>
-        <v>DJENÉ</v>
-      </c>
-      <c r="C35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
-        <v>151</v>
-      </c>
-      <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOMINGOS DUARTE")</f>
-        <v>DOMINGOS DUARTE</v>
-      </c>
-      <c r="C36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),157.0)</f>
-        <v>157</v>
-      </c>
-      <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
-      </c>
-      <c r="C37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),162.0)</f>
-        <v>162</v>
-      </c>
-      <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COBA")</f>
-        <v>COBA</v>
-      </c>
-      <c r="C38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
-        <v>168</v>
-      </c>
-      <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VITOR REIS")</f>
-        <v>VITOR REIS</v>
-      </c>
-      <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
-        <v>178</v>
-      </c>
-      <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
-      </c>
-      <c r="C40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),182.0)</f>
-        <v>182</v>
-      </c>
-      <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RYAN")</f>
-        <v>RYAN</v>
-      </c>
-      <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),183.0)</f>
-        <v>183</v>
-      </c>
-      <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO CAMPOS")</f>
-        <v>PABLO CAMPOS</v>
-      </c>
-      <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),191.0)</f>
-        <v>191</v>
-      </c>
-      <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARTÍNEZ")</f>
-        <v>PABLO MARTÍNEZ</v>
-      </c>
-      <c r="C43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),196.0)</f>
-        <v>196</v>
-      </c>
-      <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRUGUÉ")</f>
-        <v>BRUGUÉ</v>
-      </c>
-      <c r="C44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),198.0)</f>
-        <v>198</v>
-      </c>
-      <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
-        <v>ETTA EYONG</v>
-      </c>
-      <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),201.0)</f>
-        <v>201</v>
-      </c>
-      <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUNIN")</f>
-        <v>LUNIN</v>
-      </c>
-      <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),205.0)</f>
-        <v>205</v>
-      </c>
-      <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUIJSEN")</f>
-        <v>HUIJSEN</v>
-      </c>
-      <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
-      </c>
-      <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
-      </c>
-      <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
-        <v>231</v>
-      </c>
-      <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ASANO")</f>
-        <v>ASANO</v>
-      </c>
-      <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
-        <v>232</v>
-      </c>
-      <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MURIQI")</f>
-        <v>MURIQI</v>
-      </c>
-      <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),233.0)</f>
-        <v>233</v>
-      </c>
-      <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
-      </c>
-      <c r="C51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),239.0)</f>
-        <v>239</v>
-      </c>
-      <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYOMO")</f>
-        <v>BOYOMO</v>
-      </c>
-      <c r="C52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),241.0)</f>
-        <v>241</v>
-      </c>
-      <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HERRANDO")</f>
-        <v>HERRANDO</v>
-      </c>
-      <c r="C53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
-      </c>
-      <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),254.0)</f>
-        <v>254</v>
-      </c>
-      <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AARON ESCANDELL")</f>
-        <v>AARON ESCANDELL</v>
-      </c>
-      <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
-      </c>
-      <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
-        <v>RAHIM ALHASSANE</v>
-      </c>
-      <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),261.0)</f>
-        <v>261</v>
-      </c>
-      <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COLOMBATTO")</f>
-        <v>COLOMBATTO</v>
-      </c>
-      <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
-        <v>263</v>
-      </c>
-      <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DENDONCKER")</f>
-        <v>DENDONCKER</v>
-      </c>
-      <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),268.0)</f>
-        <v>268</v>
-      </c>
-      <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILYAS CHAIRA")</f>
-        <v>ILYAS CHAIRA</v>
-      </c>
-      <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),271.0)</f>
-        <v>271</v>
-      </c>
-      <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
-        <v>273</v>
-      </c>
-      <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CÁRDENAS")</f>
-        <v>CÁRDENAS</v>
-      </c>
-      <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
-        <v>276</v>
-      </c>
-      <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
-      </c>
-      <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),279.0)</f>
-        <v>279</v>
-      </c>
-      <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PATHÉ CISS")</f>
-        <v>PATHÉ CISS</v>
-      </c>
-      <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),280.0)</f>
-        <v>280</v>
-      </c>
-      <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LOPEZ")</f>
-        <v>UNAI LOPEZ</v>
-      </c>
-      <c r="C64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
-        <v>289</v>
-      </c>
-      <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
-        <v>297</v>
-      </c>
-      <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GORROTXATEGI")</f>
-        <v>GORROTXATEGI</v>
-      </c>
-      <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),300.0)</f>
-        <v>300</v>
-      </c>
-      <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
-      </c>
-      <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
-        <v>301</v>
-      </c>
-      <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRAIS MÉNDEZ")</f>
-        <v>BRAIS MÉNDEZ</v>
-      </c>
-      <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),305.0)</f>
-        <v>305</v>
-      </c>
-      <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSKARSSON")</f>
-        <v>ÓSKARSSON</v>
-      </c>
-      <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),310.0)</f>
-        <v>310</v>
-      </c>
-      <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARMONA")</f>
-        <v>CARMONA</v>
-      </c>
-      <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),314.0)</f>
-        <v>314</v>
-      </c>
-      <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCAO")</f>
-        <v>MARCAO</v>
-      </c>
-      <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),324.0)</f>
-        <v>324</v>
-      </c>
-      <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
-      </c>
-      <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
-        <v>339</v>
-      </c>
-      <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO LÓPEZ")</f>
-        <v>DIEGO LÓPEZ</v>
-      </c>
-      <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),348.0)</f>
-        <v>348</v>
-      </c>
-      <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MARÍN")</f>
-        <v>RAFA MARÍN</v>
-      </c>
-      <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),349.0)</f>
-        <v>349</v>
-      </c>
-      <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RENATO VEIGA")</f>
-        <v>RENATO VEIGA</v>
-      </c>
-      <c r="C75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),360.0)</f>
-        <v>360</v>
-      </c>
-      <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AYOZE")</f>
-        <v>AYOZE</v>
-      </c>
-      <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),364.0)</f>
-        <v>364</v>
-      </c>
-      <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-      <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),365.0)</f>
-        <v>365</v>
-      </c>
-      <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-      <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),375.0)</f>
-        <v>375</v>
-      </c>
-      <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),378.0)</f>
-        <v>378</v>
-      </c>
-      <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-      <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
-        <v>380</v>
-      </c>
-      <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),384.0)</f>
-        <v>384</v>
-      </c>
-      <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
-      </c>
-      <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),385.0)</f>
-        <v>385</v>
-      </c>
-      <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATALLA")</f>
-        <v>BATALLA</v>
-      </c>
-      <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),386.0)</f>
-        <v>386</v>
-      </c>
-      <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
-      </c>
-      <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
-        <v>388</v>
-      </c>
-      <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAPORTE")</f>
-        <v>LAPORTE</v>
-      </c>
-      <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),390.0)</f>
-        <v>390</v>
-      </c>
-      <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LE NORMAND")</f>
-        <v>LE NORMAND</v>
-      </c>
-      <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),394.0)</f>
-        <v>394</v>
-      </c>
-      <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEJEUNE")</f>
-        <v>LEJEUNE</v>
-      </c>
-      <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),397.0)</f>
-        <v>397</v>
-      </c>
-      <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REGO")</f>
-        <v>REGO</v>
-      </c>
-      <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),401.0)</f>
-        <v>401</v>
-      </c>
-      <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRI MENDOZA")</f>
-        <v>RODRI MENDOZA</v>
-      </c>
-      <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),410.0)</f>
-        <v>410</v>
-      </c>
-      <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
-        <v>GONZALO</v>
-      </c>
-      <c r="C90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),412.0)</f>
-        <v>412</v>
-      </c>
-      <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MATEO JOSEPH")</f>
-        <v>MATEO JOSEPH</v>
-      </c>
-      <c r="C91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),417.0)</f>
-        <v>417</v>
-      </c>
-      <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEBAS")</f>
-        <v>FEBAS</v>
-      </c>
-      <c r="C92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),418.0)</f>
-        <v>418</v>
-      </c>
-      <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
-      </c>
-      <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),420.0)</f>
-        <v>420</v>
-      </c>
-      <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
-        <v>DARDER</v>
-      </c>
-      <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),423.0)</f>
-        <v>423</v>
-      </c>
-      <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI LÓPEZ")</f>
-        <v>UNAI LÓPEZ</v>
-      </c>
-      <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),424.0)</f>
-        <v>424</v>
-      </c>
-      <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
-        <v>TENAGLIA</v>
-      </c>
-      <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
-        <v>428</v>
-      </c>
-      <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
-      </c>
-      <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),430.0)</f>
-        <v>430</v>
-      </c>
-      <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VANAT")</f>
-        <v>VANAT</v>
-      </c>
-      <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),433.0)</f>
-        <v>433</v>
-      </c>
-      <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEO ROMÁN")</f>
-        <v>LEO ROMÁN</v>
-      </c>
-      <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),438.0)</f>
-        <v>438</v>
-      </c>
-      <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BATISTA MENDY")</f>
-        <v>BATISTA MENDY</v>
-      </c>
-      <c r="C100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),441.0)</f>
-        <v>441</v>
-      </c>
-      <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BUCHANAN")</f>
-        <v>BUCHANAN</v>
-      </c>
-      <c r="C101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),442.0)</f>
-        <v>442</v>
-      </c>
-      <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UNAI SIMÓN")</f>
-        <v>UNAI SIMÓN</v>
-      </c>
-      <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),443.0)</f>
-        <v>443</v>
-      </c>
-      <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAUREGIZAR")</f>
-        <v>JAUREGIZAR</v>
-      </c>
-      <c r="C103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
-        <v>446</v>
-      </c>
-      <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLEX BAENA")</f>
-        <v>ÁLEX BAENA</v>
-      </c>
-      <c r="C104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),451.0)</f>
-        <v>451</v>
-      </c>
-      <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAPHINHA")</f>
-        <v>RAPHINHA</v>
-      </c>
-      <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),453.0)</f>
-        <v>453</v>
-      </c>
-      <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RASHFORD")</f>
-        <v>RASHFORD</v>
-      </c>
-      <c r="C106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
-        <v>460</v>
-      </c>
-      <c r="B107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
-        <v>MASTANTUONO</v>
-      </c>
-      <c r="C107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),464.0)</f>
-        <v>464</v>
-      </c>
-      <c r="B108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VARGAS")</f>
-        <v>VARGAS</v>
-      </c>
-      <c r="C108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),466.0)</f>
-        <v>466</v>
-      </c>
-      <c r="B109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
-        <v>MOLEIRO</v>
-      </c>
-      <c r="C109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
-        <v>468</v>
-      </c>
-      <c r="B110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD CHAMPIONS")</f>
-        <v>CARD CHAMPIONS</v>
-      </c>
-      <c r="C110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),470.0)</f>
-        <v>470</v>
-      </c>
-      <c r="B111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ÁLVAREZ")</f>
-        <v>JULIÁN ÁLVAREZ</v>
-      </c>
-      <c r="C111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATLÉTICO)")</f>
-        <v>BALÓN DE ORO (ATLÉTICO)</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),471.0)</f>
-        <v>471</v>
-      </c>
-      <c r="B112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRI")</f>
-        <v>PEDRI</v>
-      </c>
-      <c r="C112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),472.0)</f>
-        <v>472</v>
-      </c>
-      <c r="B113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LAMINE YAMAL")</f>
-        <v>LAMINE YAMAL</v>
-      </c>
-      <c r="C113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (BARÇA)")</f>
-        <v>BALÓN DE ORO (BARÇA)</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),475.0)</f>
-        <v>475</v>
-      </c>
-      <c r="B114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO EXCELLENCE")</f>
-        <v>BALÓN DE ORO EXCELLENCE</v>
-      </c>
-      <c r="C114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),476.0)</f>
-        <v>476</v>
-      </c>
-      <c r="B115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD ATÓMICA")</f>
-        <v>CARD ATÓMICA</v>
-      </c>
-      <c r="C115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
-        <v>91</v>
-      </c>
-      <c r="B116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+      <c r="A1" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("{FILTER(REGULARES!A:C, REGULARES!D:D&lt;&gt;""SI"", REGULARES!A:A&lt;&gt;""""); FILTER('¡VAMOS! (361–380)'!A:C, '¡VAMOS! (361–380)'!D:D&lt;&gt;""SI"", '¡VAMOS! (361–380)'!A:A&lt;&gt;""""); FILTER('Guantes de Oro (381–387)'!A:C, 'Guantes de Oro (381–387)'!D:D&lt;&gt;""SI"", 'Guantes de"&amp;" Oro (381–387)'!A:A&lt;&gt;""""); FILTER('Kryptonita (388–396)'!A:C, 'Kryptonita (388–396)'!D:D&lt;&gt;""SI"", 'Kryptonita (388–396)'!A:A&lt;&gt;""""); FILTER('Diamantes (397–414)'!A:C, 'Diamantes (397–414)'!D:D&lt;&gt;""SI"", 'Diamantes (397–414)'!A:A&lt;&gt;""""); FILTER('Influencer"&amp;"s (415–423)'!A:C, 'Influencers (415–423)'!D:D&lt;&gt;""SI"", 'Influencers (415–423)'!A:A&lt;&gt;""""); FILTER('Protas (424–441)'!A:C, 'Protas (424–441)'!D:D&lt;&gt;""SI"", 'Protas (424–441)'!A:A&lt;&gt;""""); FILTER('Super Cracks (442–467)'!A:C, 'Super Cracks (442–467)'!D:D&lt;&gt;""S"&amp;"I"", 'Super Cracks (442–467)'!A:A&lt;&gt;""""); FILTER('Cartas Top y Únicas (468–478)'!A:C, 'Cartas Top y Únicas (468–478)'!D:D&lt;&gt;""SI"", 'Cartas Top y Únicas (468–478)'!A:A&lt;&gt;""""); FILTER(Estadios!A:C, Estadios!D:D&lt;&gt;""SI"", Estadios!A:A&lt;&gt;"""")}"),"#VALUE!")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -5013,12 +3399,12 @@
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
+        <v>39</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
-        <v>MARCOS LLORENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MUSSO")</f>
+        <v>MUSSO</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -5031,12 +3417,12 @@
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
-        <v>LENGLET</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
+        <v>MARCOS LLORENTE</v>
       </c>
       <c r="C16" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -5049,12 +3435,12 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
-        <v>ALMADA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
+        <v>LENGLET</v>
       </c>
       <c r="C17" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -5067,12 +3453,12 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
-        <v>52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
+        <v>43</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
-        <v>JULIÁN ALVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HANCKO")</f>
+        <v>HANCKO</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -5085,48 +3471,48 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
+      </c>
+      <c r="B19" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
+        <v>ALMADA</v>
+      </c>
+      <c r="C19" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D19" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
+      </c>
+      <c r="B20" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
+        <v>JULIÁN ALVAREZ</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D20" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
         <v>55</v>
       </c>
-      <c r="B19" s="20" t="str">
+      <c r="B21" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
         <v>ESCUDO</v>
-      </c>
-      <c r="C19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-      <c r="D19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
-        <v>56</v>
-      </c>
-      <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOAN GARCÍA")</f>
-        <v>JOAN GARCÍA</v>
-      </c>
-      <c r="C20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-      <c r="D20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
-        <v>66</v>
-      </c>
-      <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
-        <v>FERMÍN</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -5139,12 +3525,12 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
-        <v>67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
+        <v>56</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
-        <v>DANI OLMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOAN GARCÍA")</f>
+        <v>JOAN GARCÍA</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -5157,48 +3543,48 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
+        <v>66</v>
+      </c>
+      <c r="B23" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
+        <v>FERMÍN</v>
+      </c>
+      <c r="C23" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D23" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
+      </c>
+      <c r="B24" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
+        <v>DANI OLMO</v>
+      </c>
+      <c r="C24" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D24" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
         <v>73</v>
       </c>
-      <c r="B23" s="20" t="str">
+      <c r="B25" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
         <v>ESTADIO</v>
-      </c>
-      <c r="C23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-      <c r="D23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
-      </c>
-      <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
-        <v>PAU LÓPEZ</v>
-      </c>
-      <c r="C24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-      <c r="D24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
-        <v>76</v>
-      </c>
-      <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
-        <v>BELLERÍN</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -5211,12 +3597,12 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
-        <v>JUNIOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
+        <v>PAU LÓPEZ</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -5229,12 +3615,12 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
-        <v>PABLO FORNALS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
+        <v>BELLERÍN</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -5247,12 +3633,12 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
-        <v>CUCHO HERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -5265,48 +3651,48 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
+      </c>
+      <c r="B29" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
+        <v>PABLO FORNALS</v>
+      </c>
+      <c r="C29" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D29" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
+      </c>
+      <c r="B30" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
+        <v>CUCHO HERNÁNDEZ</v>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D30" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
         <v>91</v>
       </c>
-      <c r="B29" s="20" t="str">
+      <c r="B31" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
         <v>ESCUDO</v>
-      </c>
-      <c r="C29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-      <c r="D29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
-        <v>93</v>
-      </c>
-      <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
-        <v>IVÁN VILLAR</v>
-      </c>
-      <c r="C30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-      <c r="D30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
-        <v>94</v>
-      </c>
-      <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
-        <v>JAVI RUEDA</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5319,12 +3705,12 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
+        <v>93</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
+        <v>IVÁN VILLAR</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5337,12 +3723,12 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
-        <v>ILAIX MORIBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
+        <v>JAVI RUEDA</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5355,12 +3741,12 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
-        <v>HUGO ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C34" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5373,12 +3759,12 @@
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
-        <v>104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
-        <v>SWEDBERG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
+        <v>ILAIX MORIBA</v>
       </c>
       <c r="C35" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5391,12 +3777,12 @@
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
+        <v>HUGO ÁLVAREZ</v>
       </c>
       <c r="C36" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5409,30 +3795,30 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
-        <v>106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
+        <v>104</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
-        <v>IAGO ASPAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
+        <v>SWEDBERG</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
       <c r="D37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C38" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5445,12 +3831,12 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
-        <v>JUTGLÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
+        <v>IAGO ASPAS</v>
       </c>
       <c r="C39" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -5463,48 +3849,48 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
+      </c>
+      <c r="B40" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
+      </c>
+      <c r="C40" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D40" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
+      </c>
+      <c r="B41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
+      </c>
+      <c r="C41" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D41" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
         <v>110</v>
       </c>
-      <c r="B40" s="20" t="str">
+      <c r="B42" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
         <v>IÑAKI PEÑA</v>
-      </c>
-      <c r="C40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-      <c r="D40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
-      </c>
-      <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
-        <v>DITURO</v>
-      </c>
-      <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-      <c r="D41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
-      </c>
-      <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
-        <v>ÁLVARO NÚÑEZ</v>
       </c>
       <c r="C42" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5517,12 +3903,12 @@
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
+        <v>DITURO</v>
       </c>
       <c r="C43" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5535,12 +3921,12 @@
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
-        <v>117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
-        <v>FEDE REDONDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
+        <v>ÁLVARO NÚÑEZ</v>
       </c>
       <c r="C44" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5553,12 +3939,12 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C45" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -5571,66 +3957,66 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
+      </c>
+      <c r="B46" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
+        <v>FEDE REDONDO</v>
+      </c>
+      <c r="C46" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+      <c r="D46" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
+      </c>
+      <c r="B47" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
+      </c>
+      <c r="C47" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+      <c r="D47" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
+        <v>126</v>
+      </c>
+      <c r="B48" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
+        <v>RAFA MIR</v>
+      </c>
+      <c r="C48" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+      <c r="D48" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
         <v>127</v>
       </c>
-      <c r="B46" s="20" t="str">
+      <c r="B49" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
         <v>ESCUDO</v>
-      </c>
-      <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-      <c r="D46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
-      </c>
-      <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
-      </c>
-      <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-      <c r="D47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
-      </c>
-      <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
-      </c>
-      <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-      <c r="D48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
-      </c>
-      <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
       </c>
       <c r="C49" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5643,12 +4029,12 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
-        <v>ROBERTO FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C50" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5661,12 +4047,12 @@
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C51" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -5679,138 +4065,138 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
+        <v>139</v>
+      </c>
+      <c r="B52" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONIU ROCA")</f>
+        <v>ANTONIU ROCA</v>
+      </c>
+      <c r="C52" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D52" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
+      </c>
+      <c r="B53" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
+      </c>
+      <c r="C53" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D53" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
+      </c>
+      <c r="B54" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
+        <v>ROBERTO FERNÁNDEZ</v>
+      </c>
+      <c r="C54" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D54" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
+      </c>
+      <c r="B55" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
+      </c>
+      <c r="C55" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D55" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
         <v>145</v>
       </c>
-      <c r="B52" s="20" t="str">
+      <c r="B56" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
         <v>ESTADIO</v>
       </c>
-      <c r="C52" s="20" t="str">
+      <c r="C56" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
         <v>GETAFE CF</v>
       </c>
-      <c r="D52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="20">
+      <c r="D56" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
         <v>146</v>
       </c>
-      <c r="B53" s="20" t="str">
+      <c r="B57" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
         <v>DAVID SORIA</v>
       </c>
-      <c r="C53" s="20" t="str">
+      <c r="C57" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
         <v>GETAFE CF</v>
       </c>
-      <c r="D53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="20">
+      <c r="D57" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
         <v>153</v>
       </c>
-      <c r="B54" s="20" t="str">
+      <c r="B58" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
         <v>DIEGO RICO</v>
       </c>
-      <c r="C54" s="20" t="str">
+      <c r="C58" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
         <v>GETAFE CF</v>
       </c>
-      <c r="D54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="20">
+      <c r="D58" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
         <v>163</v>
       </c>
-      <c r="B55" s="20" t="str">
+      <c r="B59" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
         <v>ESCUDO</v>
-      </c>
-      <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-      <c r="D55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
-      </c>
-      <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
-      </c>
-      <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-      <c r="D56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
-        <v>174</v>
-      </c>
-      <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
-        <v>IVÁN MARTÍN</v>
-      </c>
-      <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-      <c r="D57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
-      </c>
-      <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
-      </c>
-      <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-      <c r="D58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
-        <v>176</v>
-      </c>
-      <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
-        <v>JOEL ROCA</v>
       </c>
       <c r="C59" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -5823,12 +4209,12 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
-        <v>177</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TSYGANKOV")</f>
-        <v>TSYGANKOV</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C60" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -5841,192 +4227,192 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),173.0)</f>
+        <v>173</v>
+      </c>
+      <c r="B61" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUNAHI")</f>
+        <v>OUNAHI</v>
+      </c>
+      <c r="C61" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+      <c r="D61" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
+      </c>
+      <c r="B62" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
+        <v>IVÁN MARTÍN</v>
+      </c>
+      <c r="C62" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+      <c r="D62" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
+      </c>
+      <c r="B63" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
+      </c>
+      <c r="C63" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+      <c r="D63" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
+      </c>
+      <c r="B64" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
+        <v>JOEL ROCA</v>
+      </c>
+      <c r="C64" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+      <c r="D64" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
+        <v>177</v>
+      </c>
+      <c r="B65" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TSYGANKOV")</f>
+        <v>TSYGANKOV</v>
+      </c>
+      <c r="C65" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
+      </c>
+      <c r="D65" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
         <v>181</v>
       </c>
-      <c r="B61" s="20" t="str">
+      <c r="B66" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
         <v>ESCUDO</v>
       </c>
-      <c r="C61" s="20" t="str">
+      <c r="C66" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
         <v>LEVANTE UD</v>
       </c>
-      <c r="D61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="20">
+      <c r="D66" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),184.0)</f>
         <v>184</v>
       </c>
-      <c r="B62" s="20" t="str">
+      <c r="B67" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TOLJAN")</f>
         <v>TOLJAN</v>
       </c>
-      <c r="C62" s="20" t="str">
+      <c r="C67" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
         <v>LEVANTE UD</v>
       </c>
-      <c r="D62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="20">
+      <c r="D67" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),185.0)</f>
         <v>185</v>
       </c>
-      <c r="B63" s="20" t="str">
+      <c r="B68" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DELA")</f>
         <v>DELA</v>
       </c>
-      <c r="C63" s="20" t="str">
+      <c r="C68" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
         <v>LEVANTE UD</v>
       </c>
-      <c r="D63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="20">
+      <c r="D68" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
         <v>186</v>
       </c>
-      <c r="B64" s="20" t="str">
+      <c r="B69" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
         <v>ELGEZABAL</v>
       </c>
-      <c r="C64" s="20" t="str">
+      <c r="C69" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
         <v>LEVANTE UD</v>
       </c>
-      <c r="D64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="20">
+      <c r="D69" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
         <v>189</v>
       </c>
-      <c r="B65" s="20" t="str">
+      <c r="B70" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
         <v>PAMPÍN</v>
       </c>
-      <c r="C65" s="20" t="str">
+      <c r="C70" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
         <v>LEVANTE UD</v>
       </c>
-      <c r="D65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="20">
+      <c r="D70" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
         <v>202</v>
       </c>
-      <c r="B66" s="20" t="str">
+      <c r="B71" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
         <v>CARVAJAL</v>
-      </c>
-      <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),208.0)</f>
-        <v>208</v>
-      </c>
-      <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TCHOUAMÉNI")</f>
-        <v>TCHOUAMÉNI</v>
-      </c>
-      <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
-      </c>
-      <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
-      </c>
-      <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
-      </c>
-      <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
-        <v>GÜLER</v>
-      </c>
-      <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
-        <v>212</v>
-      </c>
-      <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
-        <v>MASTANTUONO</v>
-      </c>
-      <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
-      </c>
-      <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
-        <v>RODRYGO</v>
       </c>
       <c r="C71" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6039,12 +4425,12 @@
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
-        <v>214</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),208.0)</f>
+        <v>208</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
-        <v>MBAPPÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TCHOUAMÉNI")</f>
+        <v>TCHOUAMÉNI</v>
       </c>
       <c r="C72" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6057,12 +4443,12 @@
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
       </c>
       <c r="C73" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
@@ -6075,246 +4461,246 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),210.0)</f>
+        <v>210</v>
+      </c>
+      <c r="B74" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLINGHAM")</f>
+        <v>BELLINGHAM</v>
+      </c>
+      <c r="C74" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D74" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
+      </c>
+      <c r="B75" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
+        <v>GÜLER</v>
+      </c>
+      <c r="C75" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D75" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
+        <v>212</v>
+      </c>
+      <c r="B76" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
+        <v>MASTANTUONO</v>
+      </c>
+      <c r="C76" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D76" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
+        <v>213</v>
+      </c>
+      <c r="B77" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
+        <v>RODRYGO</v>
+      </c>
+      <c r="C77" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D77" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
+        <v>214</v>
+      </c>
+      <c r="B78" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
+        <v>MBAPPÉ</v>
+      </c>
+      <c r="C78" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D78" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
+      </c>
+      <c r="B79" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
+      </c>
+      <c r="C79" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D79" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
         <v>219</v>
       </c>
-      <c r="B74" s="20" t="str">
+      <c r="B80" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERGSTRÖM")</f>
         <v>BERGSTRÖM</v>
       </c>
-      <c r="C74" s="20" t="str">
+      <c r="C80" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
-      <c r="D74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="20">
+      <c r="D80" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
         <v>222</v>
       </c>
-      <c r="B75" s="20" t="str">
+      <c r="B81" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
         <v>VALJENT</v>
       </c>
-      <c r="C75" s="20" t="str">
+      <c r="C81" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
-      <c r="D75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="20">
+      <c r="D81" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
         <v>225</v>
       </c>
-      <c r="B76" s="20" t="str">
+      <c r="B82" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
         <v>MOJICA</v>
       </c>
-      <c r="C76" s="20" t="str">
+      <c r="C82" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
-      <c r="D76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="20">
+      <c r="D82" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),226.0)</f>
         <v>226</v>
       </c>
-      <c r="B77" s="20" t="str">
+      <c r="B83" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SAMÚ COSTA")</f>
         <v>SAMÚ COSTA</v>
       </c>
-      <c r="C77" s="20" t="str">
+      <c r="C83" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
-      <c r="D77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="20">
+      <c r="D83" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
         <v>229</v>
       </c>
-      <c r="B78" s="20" t="str">
+      <c r="B84" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
         <v>MORLANES</v>
       </c>
-      <c r="C78" s="20" t="str">
+      <c r="C84" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
-      <c r="D78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="20">
+      <c r="D84" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
         <v>234</v>
       </c>
-      <c r="B79" s="20" t="str">
+      <c r="B85" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
         <v>JAN VIRGILI</v>
       </c>
-      <c r="C79" s="20" t="str">
+      <c r="C85" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
-      <c r="D79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="20">
+      <c r="D85" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
         <v>235</v>
       </c>
-      <c r="B80" s="20" t="str">
+      <c r="B86" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
         <v>ESCUDO</v>
-      </c>
-      <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
-      </c>
-      <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
-      </c>
-      <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
-      </c>
-      <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
-        <v>AITOR FERNÁNDEZ</v>
-      </c>
-      <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
-      </c>
-      <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
-        <v>JUAN CRUZ</v>
-      </c>
-      <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
-        <v>245</v>
-      </c>
-      <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MONCAYOLA")</f>
-        <v>MONCAYOLA</v>
-      </c>
-      <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
-        <v>247</v>
-      </c>
-      <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUBÉN GARCÍA")</f>
-        <v>RUBÉN GARCÍA</v>
-      </c>
-      <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
-      </c>
-      <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
-        <v>AIMAR OROZ</v>
       </c>
       <c r="C86" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
         <v>CA OSASUNA</v>
       </c>
       <c r="D86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
-        <v>RAÚL GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C87" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
@@ -6327,120 +4713,120 @@
     </row>
     <row r="88">
       <c r="A88" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
+        <v>237</v>
+      </c>
+      <c r="B88" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
+        <v>AITOR FERNÁNDEZ</v>
+      </c>
+      <c r="C88" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D88" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
+        <v>242</v>
+      </c>
+      <c r="B89" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
+        <v>JUAN CRUZ</v>
+      </c>
+      <c r="C89" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D89" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
+        <v>245</v>
+      </c>
+      <c r="B90" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MONCAYOLA")</f>
+        <v>MONCAYOLA</v>
+      </c>
+      <c r="C90" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D90" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
+        <v>247</v>
+      </c>
+      <c r="B91" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUBÉN GARCÍA")</f>
+        <v>RUBÉN GARCÍA</v>
+      </c>
+      <c r="C91" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D91" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
+      </c>
+      <c r="B92" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
+      </c>
+      <c r="C92" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D92" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
+      </c>
+      <c r="B93" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
+        <v>RAÚL GARCÍA</v>
+      </c>
+      <c r="C93" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D93" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
         <v>253</v>
       </c>
-      <c r="B88" s="20" t="str">
+      <c r="B94" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
         <v>ESTADIO</v>
-      </c>
-      <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="D88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
-        <v>255</v>
-      </c>
-      <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLDOVAN")</f>
-        <v>MOLDOVAN</v>
-      </c>
-      <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="D89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
-      </c>
-      <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
-        <v>DAVID CARMO</v>
-      </c>
-      <c r="C90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="D90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
-      </c>
-      <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
-        <v>DANI CALVO</v>
-      </c>
-      <c r="C91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="D91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
-      </c>
-      <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
-        <v>REINA</v>
-      </c>
-      <c r="C92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="D92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
-        <v>265</v>
-      </c>
-      <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILIC")</f>
-        <v>ILIC</v>
-      </c>
-      <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="D93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
-        <v>267</v>
-      </c>
-      <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BREKALO")</f>
-        <v>BREKALO</v>
       </c>
       <c r="C94" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -6453,12 +4839,12 @@
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
+        <v>255</v>
       </c>
       <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
-        <v>FEDE VIÑAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLDOVAN")</f>
+        <v>MOLDOVAN</v>
       </c>
       <c r="C95" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
@@ -6471,120 +4857,120 @@
     </row>
     <row r="96">
       <c r="A96" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
+      </c>
+      <c r="B96" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
+        <v>DAVID CARMO</v>
+      </c>
+      <c r="C96" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D96" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
+      </c>
+      <c r="B97" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
+      </c>
+      <c r="C97" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D97" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
+      </c>
+      <c r="B98" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
+        <v>REINA</v>
+      </c>
+      <c r="C98" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D98" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
+        <v>265</v>
+      </c>
+      <c r="B99" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILIC")</f>
+        <v>ILIC</v>
+      </c>
+      <c r="C99" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D99" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
+        <v>267</v>
+      </c>
+      <c r="B100" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BREKALO")</f>
+        <v>BREKALO</v>
+      </c>
+      <c r="C100" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D100" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
+      </c>
+      <c r="B101" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
+      </c>
+      <c r="C101" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D101" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
         <v>275</v>
       </c>
-      <c r="B96" s="20" t="str">
+      <c r="B102" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALLIU")</f>
         <v>BALLIU</v>
-      </c>
-      <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-      <c r="D96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
-      </c>
-      <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
-        <v>LUIZ FELIPE</v>
-      </c>
-      <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-      <c r="D97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
-      </c>
-      <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
-      </c>
-      <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-      <c r="D98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
-        <v>281</v>
-      </c>
-      <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
-        <v>ÓSCAR VALENTÍN</v>
-      </c>
-      <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-      <c r="D99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
-      </c>
-      <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
-        <v>PEDRO DÍAZ</v>
-      </c>
-      <c r="C100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-      <c r="D100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.0)</f>
-        <v>284</v>
-      </c>
-      <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO GARCÍA")</f>
-        <v>ÁLVARO GARCÍA</v>
-      </c>
-      <c r="C101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-      <c r="D101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
-        <v>286</v>
-      </c>
-      <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
-        <v>CAMELLO</v>
       </c>
       <c r="C102" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
@@ -6597,426 +4983,426 @@
     </row>
     <row r="103">
       <c r="A103" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
+        <v>277</v>
+      </c>
+      <c r="B103" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
+        <v>LUIZ FELIPE</v>
+      </c>
+      <c r="C103" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D103" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
+      </c>
+      <c r="B104" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
+        <v>PEP CHAVARRÍA</v>
+      </c>
+      <c r="C104" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D104" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
+        <v>281</v>
+      </c>
+      <c r="B105" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
+        <v>ÓSCAR VALENTÍN</v>
+      </c>
+      <c r="C105" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D105" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
+        <v>282</v>
+      </c>
+      <c r="B106" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
+        <v>ISI</v>
+      </c>
+      <c r="C106" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D106" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
+      </c>
+      <c r="B107" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
+        <v>PEDRO DÍAZ</v>
+      </c>
+      <c r="C107" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D107" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.0)</f>
+        <v>284</v>
+      </c>
+      <c r="B108" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO GARCÍA")</f>
+        <v>ÁLVARO GARCÍA</v>
+      </c>
+      <c r="C108" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D108" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
+      </c>
+      <c r="B109" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
+        <v>CAMELLO</v>
+      </c>
+      <c r="C109" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D109" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
         <v>289</v>
       </c>
-      <c r="B103" s="20" t="str">
+      <c r="B110" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
         <v>ESTADIO</v>
       </c>
-      <c r="C103" s="20" t="str">
+      <c r="C110" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-      <c r="D103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="20">
+      <c r="D110" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
         <v>290</v>
       </c>
-      <c r="B104" s="20" t="str">
+      <c r="B111" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
         <v>REMIRO</v>
       </c>
-      <c r="C104" s="20" t="str">
+      <c r="C111" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-      <c r="D104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="20">
+      <c r="D111" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
         <v>292</v>
       </c>
-      <c r="B105" s="20" t="str">
+      <c r="B112" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBURU")</f>
         <v>ARAMBURU</v>
       </c>
-      <c r="C105" s="20" t="str">
+      <c r="C112" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-      <c r="D105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="20">
+      <c r="D112" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.0)</f>
         <v>293</v>
       </c>
-      <c r="B106" s="20" t="str">
+      <c r="B113" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARITZ ELUSTONDO")</f>
         <v>ARITZ ELUSTONDO</v>
       </c>
-      <c r="C106" s="20" t="str">
+      <c r="C113" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-      <c r="D106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="20">
+      <c r="D113" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
         <v>295</v>
       </c>
-      <c r="B107" s="20" t="str">
+      <c r="B114" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
         <v>CALETA-CAR</v>
       </c>
-      <c r="C107" s="20" t="str">
+      <c r="C114" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-      <c r="D107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="20">
+      <c r="D114" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
         <v>296</v>
       </c>
-      <c r="B108" s="20" t="str">
+      <c r="B115" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
         <v>SERGIO GÓMEZ</v>
       </c>
-      <c r="C108" s="20" t="str">
+      <c r="C115" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-      <c r="D108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="20">
+      <c r="D115" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
         <v>299</v>
       </c>
-      <c r="B109" s="20" t="str">
+      <c r="B116" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
         <v>PABLO MARIN</v>
       </c>
-      <c r="C109" s="20" t="str">
+      <c r="C116" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-      <c r="D109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="20">
+      <c r="D116" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.0)</f>
+        <v>302</v>
+      </c>
+      <c r="B117" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUBO")</f>
+        <v>KUBO</v>
+      </c>
+      <c r="C117" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
+      </c>
+      <c r="D117" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
         <v>309</v>
       </c>
-      <c r="B110" s="20" t="str">
+      <c r="B118" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
         <v>NYLAND</v>
       </c>
-      <c r="C110" s="20" t="str">
+      <c r="C118" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
-      <c r="D110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="20">
+      <c r="D118" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
         <v>312</v>
       </c>
-      <c r="B111" s="20" t="str">
+      <c r="B119" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
         <v>AZPILICUETA</v>
       </c>
-      <c r="C111" s="20" t="str">
+      <c r="C119" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
-      <c r="D111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="20">
+      <c r="D119" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
         <v>313</v>
       </c>
-      <c r="B112" s="20" t="str">
+      <c r="B120" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
         <v>KIKE SALAS</v>
       </c>
-      <c r="C112" s="20" t="str">
+      <c r="C120" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
-      <c r="D112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="20">
+      <c r="D120" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),316.0)</f>
         <v>316</v>
       </c>
-      <c r="B113" s="20" t="str">
+      <c r="B121" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GUDELJ")</f>
         <v>GUDELJ</v>
       </c>
-      <c r="C113" s="20" t="str">
+      <c r="C121" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
-      <c r="D113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="20">
+      <c r="D121" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
         <v>317</v>
       </c>
-      <c r="B114" s="20" t="str">
+      <c r="B122" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGOUME")</f>
         <v>AGOUME</v>
       </c>
-      <c r="C114" s="20" t="str">
+      <c r="C122" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
-      <c r="D114" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="20">
+      <c r="D122" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
         <v>321</v>
       </c>
-      <c r="B115" s="20" t="str">
+      <c r="B123" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
         <v>EJUKE</v>
       </c>
-      <c r="C115" s="20" t="str">
+      <c r="C123" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
-      <c r="D115" s="20">
+      <c r="D123" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="20">
+    <row r="124">
+      <c r="A124" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),322.0)</f>
+        <v>322</v>
+      </c>
+      <c r="B124" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISAAC ROMERO")</f>
+        <v>ISAAC ROMERO</v>
+      </c>
+      <c r="C124" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D124" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
         <v>323</v>
       </c>
-      <c r="B116" s="20" t="str">
+      <c r="B125" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
         <v>AKOR ADAMS</v>
       </c>
-      <c r="C116" s="20" t="str">
+      <c r="C125" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
-      <c r="D116" s="20">
+      <c r="D125" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="20">
+    <row r="126">
+      <c r="A126" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
         <v>325</v>
       </c>
-      <c r="B117" s="20" t="str">
+      <c r="B126" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
         <v>ESCUDO</v>
-      </c>
-      <c r="C117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D117" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
-        <v>326</v>
-      </c>
-      <c r="B118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
-      </c>
-      <c r="C118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
-        <v>327</v>
-      </c>
-      <c r="B119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
-        <v>DIMITRIEVSKI</v>
-      </c>
-      <c r="C119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
-      </c>
-      <c r="B120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
-        <v>FOULQUIER</v>
-      </c>
-      <c r="C120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
-        <v>330</v>
-      </c>
-      <c r="B121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
-      </c>
-      <c r="C121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D121" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
-        <v>331</v>
-      </c>
-      <c r="B122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
-        <v>COPETE</v>
-      </c>
-      <c r="C122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
-        <v>333</v>
-      </c>
-      <c r="B123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
-        <v>GAYÀ</v>
-      </c>
-      <c r="C123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),335.0)</f>
-        <v>335</v>
-      </c>
-      <c r="B124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTAMARÍA")</f>
-        <v>SANTAMARÍA</v>
-      </c>
-      <c r="C124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D124" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
-        <v>337</v>
-      </c>
-      <c r="B125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
-        <v>ANDRÉ ALMEIDA</v>
-      </c>
-      <c r="C125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
-      </c>
-      <c r="B126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
-        <v>LUIS RIOJA</v>
       </c>
       <c r="C126" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -7029,12 +5415,12 @@
     </row>
     <row r="127">
       <c r="A127" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341.0)</f>
-        <v>341</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
+        <v>326</v>
       </c>
       <c r="B127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANJUMA")</f>
-        <v>DANJUMA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C127" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -7047,412 +5433,412 @@
     </row>
     <row r="128">
       <c r="A128" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
+        <v>327</v>
+      </c>
+      <c r="B128" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
+        <v>DIMITRIEVSKI</v>
+      </c>
+      <c r="C128" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D128" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
+      </c>
+      <c r="B129" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
+        <v>FOULQUIER</v>
+      </c>
+      <c r="C129" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D129" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329.0)</f>
+        <v>329</v>
+      </c>
+      <c r="B130" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CORREIA")</f>
+        <v>CORREIA</v>
+      </c>
+      <c r="C130" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D130" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
+      </c>
+      <c r="B131" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
+      </c>
+      <c r="C131" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D131" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
+        <v>331</v>
+      </c>
+      <c r="B132" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
+        <v>COPETE</v>
+      </c>
+      <c r="C132" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D132" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
+      </c>
+      <c r="B133" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
+      </c>
+      <c r="C133" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D133" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),335.0)</f>
+        <v>335</v>
+      </c>
+      <c r="B134" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTAMARÍA")</f>
+        <v>SANTAMARÍA</v>
+      </c>
+      <c r="C134" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D134" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
+        <v>337</v>
+      </c>
+      <c r="B135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
+        <v>ANDRÉ ALMEIDA</v>
+      </c>
+      <c r="C135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D135" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
+      </c>
+      <c r="B136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
+      </c>
+      <c r="C136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D136" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341.0)</f>
+        <v>341</v>
+      </c>
+      <c r="B137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANJUMA")</f>
+        <v>DANJUMA</v>
+      </c>
+      <c r="C137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D137" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
         <v>343</v>
       </c>
-      <c r="B128" s="20" t="str">
+      <c r="B138" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
         <v>ESCUDO</v>
       </c>
-      <c r="C128" s="20" t="str">
+      <c r="C138" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
-      <c r="D128" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="20">
+      <c r="D138" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
         <v>343</v>
       </c>
-      <c r="B129" s="20" t="str">
+      <c r="B139" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
         <v>ESTADIO</v>
       </c>
-      <c r="C129" s="20" t="str">
+      <c r="C139" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
-      <c r="D129" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="20">
+      <c r="D139" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),347.0)</f>
         <v>347</v>
       </c>
-      <c r="B130" s="20" t="str">
+      <c r="B140" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOYTH")</f>
         <v>FOYTH</v>
       </c>
-      <c r="C130" s="20" t="str">
+      <c r="C140" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
-      <c r="D130" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="20">
+      <c r="D140" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
         <v>350</v>
       </c>
-      <c r="B131" s="20" t="str">
+      <c r="B141" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
         <v>SERGI CARDONA</v>
       </c>
-      <c r="C131" s="20" t="str">
+      <c r="C141" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
-      <c r="D131" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="20">
+      <c r="D141" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
         <v>351</v>
       </c>
-      <c r="B132" s="20" t="str">
+      <c r="B142" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
         <v>SANTI COMESAÑA</v>
       </c>
-      <c r="C132" s="20" t="str">
+      <c r="C142" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
-      <c r="D132" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="20">
+      <c r="D142" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
         <v>352</v>
       </c>
-      <c r="B133" s="20" t="str">
+      <c r="B143" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
         <v>PAPE GUEYE</v>
       </c>
-      <c r="C133" s="20" t="str">
+      <c r="C143" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
-      <c r="D133" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="20">
+      <c r="D143" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),354.0)</f>
         <v>354</v>
       </c>
-      <c r="B134" s="20" t="str">
+      <c r="B144" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"THOMAS")</f>
         <v>THOMAS</v>
       </c>
-      <c r="C134" s="20" t="str">
+      <c r="C144" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
-      <c r="D134" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="20">
+      <c r="D144" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
         <v>355</v>
       </c>
-      <c r="B135" s="20" t="str">
+      <c r="B145" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
         <v>MOLEIRO</v>
       </c>
-      <c r="C135" s="20" t="str">
+      <c r="C145" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
-      <c r="D135" s="20">
+      <c r="D145" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="20">
+    <row r="146">
+      <c r="A146" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
         <v>361</v>
       </c>
-      <c r="B136" s="20" t="str">
+      <c r="B146" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
         <v>D. ALAVÉS</v>
       </c>
-      <c r="C136" s="20" t="str">
+      <c r="C146" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
         <v>¡VAMOS!</v>
       </c>
-      <c r="D136" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="20">
+      <c r="D146" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
         <v>369</v>
       </c>
-      <c r="B137" s="20" t="str">
+      <c r="B147" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
         <v>GETAFE CF</v>
       </c>
-      <c r="C137" s="20" t="str">
+      <c r="C147" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
         <v>¡VAMOS!</v>
       </c>
-      <c r="D137" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="20">
+      <c r="D147" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
         <v>371</v>
       </c>
-      <c r="B138" s="20" t="str">
+      <c r="B148" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
         <v>LEVANTE UD</v>
       </c>
-      <c r="C138" s="20" t="str">
+      <c r="C148" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
         <v>¡VAMOS!</v>
       </c>
-      <c r="D138" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="20">
+      <c r="D148" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),381.0)</f>
         <v>381</v>
       </c>
-      <c r="B139" s="20" t="str">
+      <c r="B149" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SIVERA")</f>
         <v>SIVERA</v>
       </c>
-      <c r="C139" s="20" t="str">
+      <c r="C149" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
         <v>D. ALAVÉS</v>
       </c>
-      <c r="D139" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="20">
+      <c r="D149" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
         <v>387</v>
       </c>
-      <c r="B140" s="20" t="str">
+      <c r="B150" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
         <v>AGIRREZABALA</v>
       </c>
-      <c r="C140" s="20" t="str">
+      <c r="C150" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
         <v>VALENCIA CF</v>
-      </c>
-      <c r="D140" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),391.0)</f>
-        <v>391</v>
-      </c>
-      <c r="B141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
-      </c>
-      <c r="C141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-      <c r="D141" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
-      </c>
-      <c r="B142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
-      </c>
-      <c r="C142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-      <c r="D142" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
-        <v>398</v>
-      </c>
-      <c r="B143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
-        <v>DRO</v>
-      </c>
-      <c r="C143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-      <c r="D143" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
-        <v>399</v>
-      </c>
-      <c r="B144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
-      </c>
-      <c r="C144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-      <c r="D144" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
-        <v>400</v>
-      </c>
-      <c r="B145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO GARCÍA")</f>
-        <v>PABLO GARCÍA</v>
-      </c>
-      <c r="C145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-      <c r="D145" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
-        <v>404</v>
-      </c>
-      <c r="B146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
-      </c>
-      <c r="C146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-      <c r="D146" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
-        <v>407</v>
-      </c>
-      <c r="B147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
-        <v>CARLOS ÁLVAREZ</v>
-      </c>
-      <c r="C147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-      <c r="D147" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
-        <v>409</v>
-      </c>
-      <c r="B148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
-        <v>FRAN GONZÁLEZ</v>
-      </c>
-      <c r="C148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D148" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
-      </c>
-      <c r="B149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
-      </c>
-      <c r="C149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D149" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
-      </c>
-      <c r="B150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
-        <v>BARRIOS</v>
-      </c>
-      <c r="C150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D150" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -7461,306 +5847,486 @@
     </row>
     <row r="151">
       <c r="A151" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),391.0)</f>
+        <v>391</v>
+      </c>
+      <c r="B151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
+      </c>
+      <c r="C151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
+      </c>
+      <c r="D151" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
+      </c>
+      <c r="B152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
+      </c>
+      <c r="C152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D152" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
+      </c>
+      <c r="B153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
+        <v>DRO</v>
+      </c>
+      <c r="C153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D153" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
+        <v>399</v>
+      </c>
+      <c r="B154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
+      </c>
+      <c r="C154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D154" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
+        <v>400</v>
+      </c>
+      <c r="B155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO GARCÍA")</f>
+        <v>PABLO GARCÍA</v>
+      </c>
+      <c r="C155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D155" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
+      </c>
+      <c r="B156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
+      </c>
+      <c r="C156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D156" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
+        <v>407</v>
+      </c>
+      <c r="B157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
+        <v>CARLOS ÁLVAREZ</v>
+      </c>
+      <c r="C157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+      <c r="D157" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
+      </c>
+      <c r="B158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
+        <v>FRAN GONZÁLEZ</v>
+      </c>
+      <c r="C158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D158" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
+        <v>413</v>
+      </c>
+      <c r="B159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
+      </c>
+      <c r="C159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D159" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
+      </c>
+      <c r="B160" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
+      </c>
+      <c r="C160" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D160" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
         <v>416</v>
       </c>
-      <c r="B151" s="20" t="str">
+      <c r="B161" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
         <v>SOTELO</v>
       </c>
-      <c r="C151" s="20" t="str">
+      <c r="C161" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
-      <c r="D151" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="20">
+      <c r="D161" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
         <v>419</v>
       </c>
-      <c r="B152" s="20" t="str">
+      <c r="B162" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
         <v>MILLA</v>
       </c>
-      <c r="C152" s="20" t="str">
+      <c r="C162" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
         <v>GETAFE CF</v>
       </c>
-      <c r="D152" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="20">
+      <c r="D162" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
         <v>421</v>
       </c>
-      <c r="B153" s="20" t="str">
+      <c r="B163" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
         <v>AIMAR OROZ</v>
       </c>
-      <c r="C153" s="20" t="str">
+      <c r="C163" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
         <v>CA OSASUNA</v>
       </c>
-      <c r="D153" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="20">
+      <c r="D163" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
         <v>422</v>
       </c>
-      <c r="B154" s="20" t="str">
+      <c r="B164" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
         <v>CAZORLA</v>
       </c>
-      <c r="C154" s="20" t="str">
+      <c r="C164" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
         <v>REAL OVIEDO</v>
       </c>
-      <c r="D154" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="20">
+      <c r="D164" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
         <v>425</v>
       </c>
-      <c r="B155" s="20" t="str">
+      <c r="B165" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
         <v>CARLOS VICENTE</v>
       </c>
-      <c r="C155" s="20" t="str">
+      <c r="C165" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
         <v>D. ALAVÉS</v>
       </c>
-      <c r="D155" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="20">
+      <c r="D165" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
         <v>436</v>
       </c>
-      <c r="B156" s="20" t="str">
+      <c r="B166" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
         <v>CARLOS SOLER</v>
       </c>
-      <c r="C156" s="20" t="str">
+      <c r="C166" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
         <v>REAL SOCIEDAD</v>
       </c>
-      <c r="D156" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="20">
+      <c r="D166" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
         <v>439</v>
       </c>
-      <c r="B157" s="20" t="str">
+      <c r="B167" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
         <v>ALEXIS SÁNCHEZ</v>
       </c>
-      <c r="C157" s="20" t="str">
+      <c r="C167" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
-      <c r="D157" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="20">
+      <c r="D167" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
         <v>444</v>
       </c>
-      <c r="B158" s="20" t="str">
+      <c r="B168" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
         <v>OBLAK</v>
       </c>
-      <c r="C158" s="20" t="str">
+      <c r="C168" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
         <v>ATLÉTICO DE MADRID</v>
       </c>
-      <c r="D158" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="20">
+      <c r="D168" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
         <v>448</v>
       </c>
-      <c r="B159" s="20" t="str">
+      <c r="B169" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
         <v>GRIEZMANN</v>
       </c>
-      <c r="C159" s="20" t="str">
+      <c r="C169" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
         <v>ATLÉTICO DE MADRID</v>
       </c>
-      <c r="D159" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="20">
+      <c r="D169" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
         <v>449</v>
       </c>
-      <c r="B160" s="20" t="str">
+      <c r="B170" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
         <v>KOUNDÉ</v>
       </c>
-      <c r="C160" s="20" t="str">
+      <c r="C170" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
         <v>FC BARCELONA</v>
       </c>
-      <c r="D160" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="20">
+      <c r="D170" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
         <v>452</v>
       </c>
-      <c r="B161" s="20" t="str">
+      <c r="B171" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
         <v>LEWANDOWSKI</v>
       </c>
-      <c r="C161" s="20" t="str">
+      <c r="C171" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
         <v>FC BARCELONA</v>
       </c>
-      <c r="D161" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="20">
+      <c r="D171" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
         <v>456</v>
       </c>
-      <c r="B162" s="20" t="str">
+      <c r="B172" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
         <v>ANTONY</v>
       </c>
-      <c r="C162" s="20" t="str">
+      <c r="C172" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
-      <c r="D162" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="20">
+      <c r="D172" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
         <v>458</v>
       </c>
-      <c r="B163" s="20" t="str">
+      <c r="B173" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
         <v>CARRERAS</v>
       </c>
-      <c r="C163" s="20" t="str">
+      <c r="C173" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
         <v>REAL MADRID</v>
       </c>
-      <c r="D163" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="20">
+      <c r="D173" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
         <v>462</v>
       </c>
-      <c r="B164" s="20" t="str">
+      <c r="B174" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
         <v>ISI</v>
       </c>
-      <c r="C164" s="20" t="str">
+      <c r="C174" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
         <v>RAYO VALLECANO</v>
       </c>
-      <c r="D164" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="20">
+      <c r="D174" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),467.0)</f>
         <v>467</v>
       </c>
-      <c r="B165" s="20" t="str">
+      <c r="B175" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PÉPÉ")</f>
         <v>PÉPÉ</v>
       </c>
-      <c r="C165" s="20" t="str">
+      <c r="C175" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
         <v>VILLARREAL CF</v>
       </c>
-      <c r="D165" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="20">
+      <c r="D175" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
         <v>469</v>
       </c>
-      <c r="B166" s="20" t="str">
+      <c r="B176" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
         <v>NICO WILLIAMS</v>
       </c>
-      <c r="C166" s="20" t="str">
+      <c r="C176" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
         <v>BALÓN DE ORO (ATHLETIC)</v>
       </c>
-      <c r="D166" s="20">
+      <c r="D176" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="20">
+    <row r="177">
+      <c r="A177" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),477.0)</f>
         <v>477</v>
       </c>
-      <c r="B167" s="20" t="str">
+      <c r="B177" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD INVENCIBLE")</f>
         <v>CARD INVENCIBLE</v>
       </c>
-      <c r="C167" s="20" t="str">
+      <c r="C177" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
         <v>ÚNICA</v>
       </c>
-      <c r="D167" s="20">
+      <c r="D177" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
@@ -8347,6 +6913,9 @@
       <c r="D39" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E39" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="21">
@@ -8409,6 +6978,9 @@
       <c r="D43" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E43" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="21">
@@ -9283,7 +7855,7 @@
         <v>20</v>
       </c>
       <c r="E104" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="105">
@@ -9615,6 +8187,9 @@
       <c r="D126" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E126" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="21">
@@ -9802,6 +8377,9 @@
       <c r="D139" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E139" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="21">
@@ -10283,6 +8861,9 @@
       <c r="D173" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E173" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="21">
@@ -10362,7 +8943,9 @@
       <c r="C178" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D178" s="21"/>
+      <c r="D178" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="21">
@@ -10744,7 +9327,9 @@
       <c r="C205" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D205" s="21"/>
+      <c r="D205" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="21">
@@ -10821,6 +9406,9 @@
       <c r="D210" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E210" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="21">
@@ -11140,7 +9728,9 @@
       <c r="C231" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D231" s="21"/>
+      <c r="D231" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="21">
@@ -11258,7 +9848,9 @@
       <c r="C239" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D239" s="21"/>
+      <c r="D239" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="21">
@@ -11726,7 +10318,9 @@
       <c r="C271" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D271" s="21"/>
+      <c r="D271" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="21">
@@ -11885,6 +10479,9 @@
       <c r="D282" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E282" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="21">
@@ -12184,6 +10781,9 @@
       <c r="D302" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E302" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="21">
@@ -12341,7 +10941,7 @@
         <v>20</v>
       </c>
       <c r="E313" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="314">
@@ -12476,6 +11076,9 @@
       <c r="D322" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E322" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="21">
@@ -12587,6 +11190,9 @@
       <c r="D329" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E329" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="21">
@@ -12803,7 +11409,7 @@
         <v>20</v>
       </c>
       <c r="E343" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="344">
@@ -13174,7 +11780,9 @@
       <c r="C6" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="21">
@@ -13381,7 +11989,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -15880,7 +14488,9 @@
       <c r="C1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="399">
   <si>
     <t>Última actualización:</t>
   </si>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B1" s="2">
         <f>TODAY()</f>
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1836,15 +1836,15 @@
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(REGULARES!D:D, "SI")</f>
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="1">B3-C3</f>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="2">(C3/B3)</f>
-        <v>0.8027777778</v>
+        <v>0.8305555556</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E3, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1884,15 +1884,15 @@
       </c>
       <c r="C5" s="9">
         <f>COUNTIF('¡VAMOS! (361–380)'!D:D, "SI")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" ref="E5:E13" si="3">C5/B5</f>
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F5" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E5, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1956,15 +1956,15 @@
       </c>
       <c r="C8" s="14">
         <f>COUNTIF('Diamantes (397–414)'!D:D, "SI")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="3"/>
-        <v>0.7777777778</v>
+        <v>0.9444444444</v>
       </c>
       <c r="F8" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E8, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2028,15 +2028,15 @@
       </c>
       <c r="C11" s="14">
         <f>COUNTIF('Super Cracks (442–467)'!D:D, "SI")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="3"/>
-        <v>0.7307692308</v>
+        <v>0.8076923077</v>
       </c>
       <c r="F11" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E11, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2077,15 +2077,15 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>0.7851405622</v>
+        <v>0.8192771084</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E13, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2290,9 +2290,6 @@
       <c r="D2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="21">
@@ -2440,9 +2437,6 @@
       </c>
       <c r="D13" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -2668,9 +2662,6 @@
       <c r="D10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="21">
@@ -2719,7 +2710,9 @@
       <c r="C1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">
@@ -2746,9 +2739,6 @@
       <c r="D3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="21">
@@ -2820,9 +2810,6 @@
       <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="21">
@@ -2920,9 +2907,6 @@
       <c r="D15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="21">
@@ -2979,7 +2963,9 @@
       <c r="C19" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="21">
@@ -3078,9 +3064,6 @@
       </c>
       <c r="D26" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="E26" s="22">
-        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -3219,12 +3202,12 @@
     </row>
     <row r="5">
       <c r="A5" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
-        <v>5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
       </c>
       <c r="B5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TENAGLIA")</f>
-        <v>TENAGLIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PARADA")</f>
+        <v>PARADA</v>
       </c>
       <c r="C5" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3237,12 +3220,12 @@
     </row>
     <row r="6">
       <c r="A6" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
+        <v>15</v>
       </c>
       <c r="B6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PARADA")</f>
-        <v>PARADA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
+        <v>CARLOS VICENTE</v>
       </c>
       <c r="C6" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3255,16 +3238,16 @@
     </row>
     <row r="7">
       <c r="A7" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
-        <v>15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
+        <v>19</v>
       </c>
       <c r="B7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
-        <v>CARLOS VICENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D7" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3273,16 +3256,16 @@
     </row>
     <row r="8">
       <c r="A8" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
+        <v>21</v>
       </c>
       <c r="B8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYÉ")</f>
-        <v>BOYÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PADILLA")</f>
+        <v>PADILLA</v>
       </c>
       <c r="C8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D8" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3291,16 +3274,16 @@
     </row>
     <row r="9">
       <c r="A9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
+        <v>23</v>
       </c>
       <c r="B9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIANO")</f>
-        <v>MARIANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VIVIAN")</f>
+        <v>VIVIAN</v>
       </c>
       <c r="C9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D9" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3309,12 +3292,12 @@
     </row>
     <row r="10">
       <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
+        <v>RUIZ DE GALARRETA</v>
       </c>
       <c r="C10" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3327,12 +3310,12 @@
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
-        <v>21</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PADILLA")</f>
-        <v>PADILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
+        <v>MAROAN</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3345,16 +3328,16 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
-        <v>23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
+        <v>39</v>
       </c>
       <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VIVIAN")</f>
-        <v>VIVIAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MUSSO")</f>
+        <v>MUSSO</v>
       </c>
       <c r="C12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D12" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3363,16 +3346,16 @@
     </row>
     <row r="13">
       <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
-        <v>27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
-        <v>RUIZ DE GALARRETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
+        <v>ALMADA</v>
       </c>
       <c r="C13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D13" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3381,16 +3364,16 @@
     </row>
     <row r="14">
       <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
       </c>
       <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
-        <v>MAROAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
+        <v>JULIÁN ALVAREZ</v>
       </c>
       <c r="C14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D14" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3399,16 +3382,16 @@
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
+        <v>55</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MUSSO")</f>
-        <v>MUSSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D15" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3417,16 +3400,16 @@
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
+        <v>66</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
-        <v>MARCOS LLORENTE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
+        <v>FERMÍN</v>
       </c>
       <c r="C16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D16" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3435,16 +3418,16 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
-        <v>LENGLET</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
+        <v>DANI OLMO</v>
       </c>
       <c r="C17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D17" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3453,16 +3436,16 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
-        <v>43</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HANCKO")</f>
-        <v>HANCKO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D18" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3471,16 +3454,16 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
-        <v>ALMADA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
+        <v>PAU LÓPEZ</v>
       </c>
       <c r="C19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3489,16 +3472,16 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
-        <v>52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
-        <v>JULIÁN ALVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
+        <v>BELLERÍN</v>
       </c>
       <c r="C20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D20" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3507,16 +3490,16 @@
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
-        <v>55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
       </c>
       <c r="C21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D21" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3525,16 +3508,16 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
-        <v>56</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOAN GARCÍA")</f>
-        <v>JOAN GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
+        <v>PABLO FORNALS</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D22" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3543,16 +3526,16 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
-        <v>66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
-        <v>FERMÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
+        <v>CUCHO HERNÁNDEZ</v>
       </c>
       <c r="C23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D23" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3561,16 +3544,16 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
-        <v>67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
+        <v>91</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
-        <v>DANI OLMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D24" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3579,16 +3562,16 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
-        <v>73</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
+        <v>JAVI RUEDA</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D25" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3597,16 +3580,16 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
-        <v>PAU LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D26" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3615,16 +3598,16 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
-        <v>76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
-        <v>BELLERÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
+        <v>ILAIX MORIBA</v>
       </c>
       <c r="C27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D27" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3633,16 +3616,16 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
-        <v>JUNIOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
+        <v>HUGO ÁLVAREZ</v>
       </c>
       <c r="C28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D28" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3651,34 +3634,34 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
+        <v>104</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
-        <v>PABLO FORNALS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
+        <v>SWEDBERG</v>
       </c>
       <c r="C29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
-        <v>CUCHO HERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D30" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3687,12 +3670,12 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
-        <v>91</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
+        <v>IAGO ASPAS</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3705,12 +3688,12 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93.0)</f>
-        <v>93</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN VILLAR")</f>
-        <v>IVÁN VILLAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3723,12 +3706,12 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
-        <v>94</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
-        <v>JAVI RUEDA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3741,16 +3724,16 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
+        <v>IÑAKI PEÑA</v>
       </c>
       <c r="C34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D34" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3759,16 +3742,16 @@
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
-        <v>ILAIX MORIBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
+        <v>DITURO</v>
       </c>
       <c r="C35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D35" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3777,16 +3760,16 @@
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
-        <v>HUGO ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
+        <v>ÁLVARO NÚÑEZ</v>
       </c>
       <c r="C36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D36" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3795,34 +3778,34 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
-        <v>104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
-        <v>SWEDBERG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
       </c>
       <c r="C38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D38" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3831,16 +3814,16 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
-        <v>106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
+        <v>126</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
-        <v>IAGO ASPAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
+        <v>RAFA MIR</v>
       </c>
       <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D39" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3849,16 +3832,16 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
+        <v>127</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D40" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3867,16 +3850,16 @@
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
-        <v>JUTGLÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D41" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3885,16 +3868,16 @@
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
-        <v>IÑAKI PEÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D42" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3903,16 +3886,16 @@
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
+        <v>139</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
-        <v>DITURO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONIU ROCA")</f>
+        <v>ANTONIU ROCA</v>
       </c>
       <c r="C43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D43" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3921,16 +3904,16 @@
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
-        <v>ÁLVARO NÚÑEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
       </c>
       <c r="C44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D44" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3939,16 +3922,16 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D45" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3957,16 +3940,16 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
-        <v>117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE REDONDO")</f>
-        <v>FEDE REDONDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D46" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3975,16 +3958,16 @@
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D47" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3993,16 +3976,16 @@
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
-        <v>126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
+        <v>153</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
-        <v>RAFA MIR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
+        <v>DIEGO RICO</v>
       </c>
       <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D48" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4011,16 +3994,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
-        <v>127</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B49" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
         <v>ESCUDO</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D49" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4029,16 +4012,16 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D50" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4047,16 +4030,16 @@
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
+        <v>IVÁN MARTÍN</v>
       </c>
       <c r="C51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D51" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4065,16 +4048,16 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
-        <v>139</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONIU ROCA")</f>
-        <v>ANTONIU ROCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
       </c>
       <c r="C52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D52" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4083,16 +4066,16 @@
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
+        <v>JOEL ROCA</v>
       </c>
       <c r="C53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D53" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4101,16 +4084,16 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
+        <v>189</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
-        <v>ROBERTO FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
+        <v>PAMPÍN</v>
       </c>
       <c r="C54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D54" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4119,16 +4102,16 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
+        <v>202</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
+        <v>CARVAJAL</v>
       </c>
       <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D55" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4137,16 +4120,16 @@
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
       </c>
       <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D56" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4155,16 +4138,16 @@
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
+        <v>GÜLER</v>
       </c>
       <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D57" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4173,16 +4156,16 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
-        <v>153</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
+        <v>212</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
-        <v>DIEGO RICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
+        <v>MASTANTUONO</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D58" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4191,16 +4174,16 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D59" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4209,16 +4192,16 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
+        <v>219</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERGSTRÖM")</f>
+        <v>BERGSTRÖM</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D60" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4227,16 +4210,16 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),173.0)</f>
-        <v>173</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OUNAHI")</f>
-        <v>OUNAHI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
+        <v>VALJENT</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D61" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4245,16 +4228,16 @@
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
-        <v>174</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
-        <v>IVÁN MARTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
+        <v>MOJICA</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D62" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4263,52 +4246,52 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
+        <v>234</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
+        <v>JAN VIRGILI</v>
       </c>
       <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D63" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
+      </c>
+      <c r="B64" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C64" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D64" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
-        <v>176</v>
-      </c>
-      <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
-        <v>JOEL ROCA</v>
-      </c>
-      <c r="C64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
-      </c>
-      <c r="D64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
-        <v>177</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TSYGANKOV")</f>
-        <v>TSYGANKOV</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D65" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4317,16 +4300,16 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),181.0)</f>
-        <v>181</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
+        <v>245</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MONCAYOLA")</f>
+        <v>MONCAYOLA</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D66" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4335,16 +4318,16 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),184.0)</f>
-        <v>184</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TOLJAN")</f>
-        <v>TOLJAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D67" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4353,16 +4336,16 @@
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),185.0)</f>
-        <v>185</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DELA")</f>
-        <v>DELA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
+        <v>RAÚL GARCÍA</v>
       </c>
       <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D68" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4371,16 +4354,16 @@
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
-        <v>186</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELGEZABAL")</f>
-        <v>ELGEZABAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
+        <v>DAVID CARMO</v>
       </c>
       <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D69" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4389,16 +4372,16 @@
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
-        <v>189</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
-        <v>PAMPÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4407,16 +4390,16 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
-        <v>CARVAJAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
+        <v>REINA</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D71" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4425,16 +4408,16 @@
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),208.0)</f>
-        <v>208</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
+        <v>265</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TCHOUAMÉNI")</f>
-        <v>TCHOUAMÉNI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILIC")</f>
+        <v>ILIC</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D72" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4443,16 +4426,16 @@
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
       </c>
       <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D73" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4461,16 +4444,16 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),210.0)</f>
-        <v>210</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLINGHAM")</f>
-        <v>BELLINGHAM</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
+        <v>PEP CHAVARRÍA</v>
       </c>
       <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D74" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4479,16 +4462,16 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
+        <v>281</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
-        <v>GÜLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
+        <v>ÓSCAR VALENTÍN</v>
       </c>
       <c r="C75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D75" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4497,16 +4480,16 @@
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
-        <v>212</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
+        <v>282</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
-        <v>MASTANTUONO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
+        <v>ISI</v>
       </c>
       <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D76" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4515,16 +4498,16 @@
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RODRYGO")</f>
-        <v>RODRYGO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
+        <v>PEDRO DÍAZ</v>
       </c>
       <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D77" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4533,16 +4516,16 @@
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
-        <v>214</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MBAPPÉ")</f>
-        <v>MBAPPÉ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
+        <v>CAMELLO</v>
       </c>
       <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D78" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4551,16 +4534,16 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
+        <v>290</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
       </c>
       <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D79" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4569,16 +4552,16 @@
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
-        <v>219</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
+        <v>292</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERGSTRÖM")</f>
-        <v>BERGSTRÖM</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBURU")</f>
+        <v>ARAMBURU</v>
       </c>
       <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D80" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4587,16 +4570,16 @@
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
-        <v>VALJENT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
+        <v>CALETA-CAR</v>
       </c>
       <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D81" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4605,16 +4588,16 @@
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
       </c>
       <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
-        <v>MOJICA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
+        <v>SERGIO GÓMEZ</v>
       </c>
       <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D82" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4623,16 +4606,16 @@
     </row>
     <row r="83">
       <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),226.0)</f>
-        <v>226</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SAMÚ COSTA")</f>
-        <v>SAMÚ COSTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
+        <v>PABLO MARIN</v>
       </c>
       <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D83" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4641,16 +4624,16 @@
     </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
-        <v>229</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.0)</f>
+        <v>302</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORLANES")</f>
-        <v>MORLANES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUBO")</f>
+        <v>KUBO</v>
       </c>
       <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D84" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4659,16 +4642,16 @@
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
-        <v>JAN VIRGILI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
+        <v>NYLAND</v>
       </c>
       <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D85" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4677,52 +4660,52 @@
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
+        <v>AZPILICUETA</v>
       </c>
       <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D86" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
+        <v>313</v>
+      </c>
+      <c r="B87" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
+        <v>KIKE SALAS</v>
+      </c>
+      <c r="C87" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D87" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
-      </c>
-      <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
-      </c>
-      <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
-        <v>237</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
+        <v>317</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
-        <v>AITOR FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGOUME")</f>
+        <v>AGOUME</v>
       </c>
       <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D88" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4731,52 +4714,52 @@
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),242.0)</f>
-        <v>242</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
       </c>
       <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUAN CRUZ")</f>
-        <v>JUAN CRUZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
+        <v>EJUKE</v>
       </c>
       <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
-        <v>245</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
       </c>
       <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MONCAYOLA")</f>
-        <v>MONCAYOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
+        <v>AKOR ADAMS</v>
       </c>
       <c r="C90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
-        <v>247</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
       </c>
       <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUBÉN GARCÍA")</f>
-        <v>RUBÉN GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D91" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4785,16 +4768,16 @@
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
+        <v>326</v>
       </c>
       <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
-        <v>AIMAR OROZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D92" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4803,16 +4786,16 @@
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
+        <v>327</v>
       </c>
       <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
-        <v>RAÚL GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
+        <v>DIMITRIEVSKI</v>
       </c>
       <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D93" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4821,16 +4804,16 @@
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
-        <v>253</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
       </c>
       <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
+        <v>FOULQUIER</v>
       </c>
       <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D94" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4839,16 +4822,16 @@
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),255.0)</f>
-        <v>255</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329.0)</f>
+        <v>329</v>
       </c>
       <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLDOVAN")</f>
-        <v>MOLDOVAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CORREIA")</f>
+        <v>CORREIA</v>
       </c>
       <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D95" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4857,16 +4840,16 @@
     </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
-        <v>DAVID CARMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
       </c>
       <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D96" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4875,16 +4858,16 @@
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
+        <v>331</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
-        <v>DANI CALVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
+        <v>COPETE</v>
       </c>
       <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D97" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4893,16 +4876,16 @@
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
-        <v>REINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
       </c>
       <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D98" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4911,16 +4894,16 @@
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
-        <v>265</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
+        <v>337</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILIC")</f>
-        <v>ILIC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
+        <v>ANDRÉ ALMEIDA</v>
       </c>
       <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D99" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4929,16 +4912,16 @@
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),267.0)</f>
-        <v>267</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BREKALO")</f>
-        <v>BREKALO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
       </c>
       <c r="C100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D100" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4947,52 +4930,52 @@
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
-        <v>FEDE VIÑAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),275.0)</f>
-        <v>275</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALLIU")</f>
-        <v>BALLIU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),277.0)</f>
-        <v>277</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
+        <v>350</v>
       </c>
       <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ FELIPE")</f>
-        <v>LUIZ FELIPE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
+        <v>SERGI CARDONA</v>
       </c>
       <c r="C103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D103" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5001,16 +4984,16 @@
     </row>
     <row r="104">
       <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
       </c>
       <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
+        <v>SANTI COMESAÑA</v>
       </c>
       <c r="C104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D104" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5019,16 +5002,16 @@
     </row>
     <row r="105">
       <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
-        <v>281</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
       </c>
       <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
-        <v>ÓSCAR VALENTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
+        <v>PAPE GUEYE</v>
       </c>
       <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D105" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5037,34 +5020,34 @@
     </row>
     <row r="106">
       <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
-        <v>282</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
+        <v>355</v>
       </c>
       <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
-        <v>ISI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
+        <v>MOLEIRO</v>
       </c>
       <c r="C106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
       </c>
       <c r="B107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
-        <v>PEDRO DÍAZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="C107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D107" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5073,16 +5056,16 @@
     </row>
     <row r="108">
       <c r="A108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.0)</f>
-        <v>284</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
       </c>
       <c r="B108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO GARCÍA")</f>
-        <v>ÁLVARO GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="C108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D108" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5091,16 +5074,16 @@
     </row>
     <row r="109">
       <c r="A109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
-        <v>286</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
+        <v>371</v>
       </c>
       <c r="B109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
-        <v>CAMELLO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="C109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D109" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5109,34 +5092,34 @@
     </row>
     <row r="110">
       <c r="A110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
-        <v>289</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
       </c>
       <c r="B110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
-        <v>290</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
       </c>
       <c r="B111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
       </c>
       <c r="C111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D111" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5145,16 +5128,16 @@
     </row>
     <row r="112">
       <c r="A112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
-        <v>292</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
       </c>
       <c r="B112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBURU")</f>
-        <v>ARAMBURU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
+        <v>DRO</v>
       </c>
       <c r="C112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D112" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5163,16 +5146,16 @@
     </row>
     <row r="113">
       <c r="A113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.0)</f>
-        <v>293</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
+        <v>399</v>
       </c>
       <c r="B113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARITZ ELUSTONDO")</f>
-        <v>ARITZ ELUSTONDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
       </c>
       <c r="C113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D113" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5181,16 +5164,16 @@
     </row>
     <row r="114">
       <c r="A114" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
       </c>
       <c r="B114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
-        <v>CALETA-CAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
       </c>
       <c r="C114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D114" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5199,16 +5182,16 @@
     </row>
     <row r="115">
       <c r="A115" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
-        <v>296</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
+        <v>407</v>
       </c>
       <c r="B115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
-        <v>SERGIO GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
+        <v>CARLOS ÁLVAREZ</v>
       </c>
       <c r="C115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D115" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5217,16 +5200,16 @@
     </row>
     <row r="116">
       <c r="A116" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
       </c>
       <c r="B116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
-        <v>PABLO MARIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
+        <v>FRAN GONZÁLEZ</v>
       </c>
       <c r="C116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D116" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5235,16 +5218,16 @@
     </row>
     <row r="117">
       <c r="A117" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.0)</f>
-        <v>302</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
+        <v>413</v>
       </c>
       <c r="B117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUBO")</f>
-        <v>KUBO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
       </c>
       <c r="C117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D117" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5253,70 +5236,70 @@
     </row>
     <row r="118">
       <c r="A118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
       </c>
       <c r="B118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
-        <v>NYLAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
       </c>
       <c r="C118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D118" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
+      </c>
+      <c r="B119" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
+        <v>SOTELO</v>
+      </c>
+      <c r="C119" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D119" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
+        <v>419</v>
+      </c>
+      <c r="B120" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
+      </c>
+      <c r="C120" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D120" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
-        <v>312</v>
-      </c>
-      <c r="B119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
-        <v>AZPILICUETA</v>
-      </c>
-      <c r="C119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-      <c r="D119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
-      </c>
-      <c r="B120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
-        <v>KIKE SALAS</v>
-      </c>
-      <c r="C120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-      <c r="D120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="121">
       <c r="A121" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),316.0)</f>
-        <v>316</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
+        <v>421</v>
       </c>
       <c r="B121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GUDELJ")</f>
-        <v>GUDELJ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
       </c>
       <c r="C121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D121" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5325,16 +5308,16 @@
     </row>
     <row r="122">
       <c r="A122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
-        <v>317</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
+        <v>422</v>
       </c>
       <c r="B122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGOUME")</f>
-        <v>AGOUME</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
+        <v>CAZORLA</v>
       </c>
       <c r="C122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D122" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5343,34 +5326,34 @@
     </row>
     <row r="123">
       <c r="A123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
+        <v>439</v>
       </c>
       <c r="B123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
-        <v>EJUKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
       </c>
       <c r="C123" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
         <v>SEVILLA FC</v>
       </c>
       <c r="D123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),322.0)</f>
-        <v>322</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
+        <v>448</v>
       </c>
       <c r="B124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISAAC ROMERO")</f>
-        <v>ISAAC ROMERO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
+        <v>GRIEZMANN</v>
       </c>
       <c r="C124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D124" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5379,34 +5362,34 @@
     </row>
     <row r="125">
       <c r="A125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
+        <v>452</v>
       </c>
       <c r="B125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
-        <v>AKOR ADAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
+        <v>LEWANDOWSKI</v>
       </c>
       <c r="C125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
       </c>
       <c r="B126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
+        <v>CARRERAS</v>
       </c>
       <c r="C126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D126" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5415,16 +5398,16 @@
     </row>
     <row r="127">
       <c r="A127" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
-        <v>326</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
+        <v>462</v>
       </c>
       <c r="B127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
+        <v>ISI</v>
       </c>
       <c r="C127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D127" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5433,902 +5416,20 @@
     </row>
     <row r="128">
       <c r="A128" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
-        <v>327</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
+        <v>469</v>
       </c>
       <c r="B128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
-        <v>DIMITRIEVSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
+        <v>NICO WILLIAMS</v>
       </c>
       <c r="C128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
+        <v>BALÓN DE ORO (ATHLETIC)</v>
       </c>
       <c r="D128" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
-      </c>
-      <c r="B129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
-        <v>FOULQUIER</v>
-      </c>
-      <c r="C129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D129" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329.0)</f>
-        <v>329</v>
-      </c>
-      <c r="B130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CORREIA")</f>
-        <v>CORREIA</v>
-      </c>
-      <c r="C130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D130" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
-        <v>330</v>
-      </c>
-      <c r="B131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
-      </c>
-      <c r="C131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D131" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
-        <v>331</v>
-      </c>
-      <c r="B132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
-        <v>COPETE</v>
-      </c>
-      <c r="C132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D132" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
-        <v>333</v>
-      </c>
-      <c r="B133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
-        <v>GAYÀ</v>
-      </c>
-      <c r="C133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D133" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),335.0)</f>
-        <v>335</v>
-      </c>
-      <c r="B134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTAMARÍA")</f>
-        <v>SANTAMARÍA</v>
-      </c>
-      <c r="C134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D134" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
-        <v>337</v>
-      </c>
-      <c r="B135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
-        <v>ANDRÉ ALMEIDA</v>
-      </c>
-      <c r="C135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D135" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
-      </c>
-      <c r="B136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
-        <v>LUIS RIOJA</v>
-      </c>
-      <c r="C136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D136" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341.0)</f>
-        <v>341</v>
-      </c>
-      <c r="B137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANJUMA")</f>
-        <v>DANJUMA</v>
-      </c>
-      <c r="C137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D137" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
-      </c>
-      <c r="B138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D138" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
-      </c>
-      <c r="B139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D139" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),347.0)</f>
-        <v>347</v>
-      </c>
-      <c r="B140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOYTH")</f>
-        <v>FOYTH</v>
-      </c>
-      <c r="C140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D140" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
-        <v>350</v>
-      </c>
-      <c r="B141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
-        <v>SERGI CARDONA</v>
-      </c>
-      <c r="C141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D141" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
-      </c>
-      <c r="B142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
-        <v>SANTI COMESAÑA</v>
-      </c>
-      <c r="C142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D142" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
-        <v>352</v>
-      </c>
-      <c r="B143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
-        <v>PAPE GUEYE</v>
-      </c>
-      <c r="C143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D143" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),354.0)</f>
-        <v>354</v>
-      </c>
-      <c r="B144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"THOMAS")</f>
-        <v>THOMAS</v>
-      </c>
-      <c r="C144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D144" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
-        <v>355</v>
-      </c>
-      <c r="B145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
-        <v>MOLEIRO</v>
-      </c>
-      <c r="C145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D145" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
-      </c>
-      <c r="B146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-      <c r="C146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-      <c r="D146" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
-        <v>369</v>
-      </c>
-      <c r="B147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-      <c r="C147" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-      <c r="D147" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
-        <v>371</v>
-      </c>
-      <c r="B148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-      <c r="C148" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-      <c r="D148" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),381.0)</f>
-        <v>381</v>
-      </c>
-      <c r="B149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SIVERA")</f>
-        <v>SIVERA</v>
-      </c>
-      <c r="C149" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-      <c r="D149" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
-        <v>387</v>
-      </c>
-      <c r="B150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
-      </c>
-      <c r="C150" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D150" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),391.0)</f>
-        <v>391</v>
-      </c>
-      <c r="B151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
-      </c>
-      <c r="C151" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-      <c r="D151" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
-      </c>
-      <c r="B152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
-      </c>
-      <c r="C152" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
-      </c>
-      <c r="D152" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
-        <v>398</v>
-      </c>
-      <c r="B153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
-        <v>DRO</v>
-      </c>
-      <c r="C153" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-      <c r="D153" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
-        <v>399</v>
-      </c>
-      <c r="B154" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
-      </c>
-      <c r="C154" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-      <c r="D154" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),400.0)</f>
-        <v>400</v>
-      </c>
-      <c r="B155" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO GARCÍA")</f>
-        <v>PABLO GARCÍA</v>
-      </c>
-      <c r="C155" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-      <c r="D155" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
-        <v>404</v>
-      </c>
-      <c r="B156" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
-      </c>
-      <c r="C156" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-      <c r="D156" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
-        <v>407</v>
-      </c>
-      <c r="B157" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
-        <v>CARLOS ÁLVAREZ</v>
-      </c>
-      <c r="C157" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
-      </c>
-      <c r="D157" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
-        <v>409</v>
-      </c>
-      <c r="B158" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
-        <v>FRAN GONZÁLEZ</v>
-      </c>
-      <c r="C158" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D158" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
-      </c>
-      <c r="B159" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
-      </c>
-      <c r="C159" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D159" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
-      </c>
-      <c r="B160" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
-        <v>BARRIOS</v>
-      </c>
-      <c r="C160" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-      <c r="D160" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
-      </c>
-      <c r="B161" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
-        <v>SOTELO</v>
-      </c>
-      <c r="C161" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
-      </c>
-      <c r="D161" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
-      </c>
-      <c r="B162" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
-      </c>
-      <c r="C162" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
-      </c>
-      <c r="D162" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
-        <v>421</v>
-      </c>
-      <c r="B163" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
-        <v>AIMAR OROZ</v>
-      </c>
-      <c r="C163" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D163" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
-      </c>
-      <c r="B164" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
-        <v>CAZORLA</v>
-      </c>
-      <c r="C164" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="D164" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),425.0)</f>
-        <v>425</v>
-      </c>
-      <c r="B165" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS VICENTE")</f>
-        <v>CARLOS VICENTE</v>
-      </c>
-      <c r="C165" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
-      </c>
-      <c r="D165" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),436.0)</f>
-        <v>436</v>
-      </c>
-      <c r="B166" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS SOLER")</f>
-        <v>CARLOS SOLER</v>
-      </c>
-      <c r="C166" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
-      </c>
-      <c r="D166" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
-        <v>439</v>
-      </c>
-      <c r="B167" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
-      </c>
-      <c r="C167" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-      <c r="D167" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
-        <v>444</v>
-      </c>
-      <c r="B168" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OBLAK")</f>
-        <v>OBLAK</v>
-      </c>
-      <c r="C168" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-      <c r="D168" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
-        <v>448</v>
-      </c>
-      <c r="B169" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
-        <v>GRIEZMANN</v>
-      </c>
-      <c r="C169" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
-      </c>
-      <c r="D169" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),449.0)</f>
-        <v>449</v>
-      </c>
-      <c r="B170" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KOUNDÉ")</f>
-        <v>KOUNDÉ</v>
-      </c>
-      <c r="C170" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-      <c r="D170" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
-        <v>452</v>
-      </c>
-      <c r="B171" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
-        <v>LEWANDOWSKI</v>
-      </c>
-      <c r="C171" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
-      </c>
-      <c r="D171" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),456.0)</f>
-        <v>456</v>
-      </c>
-      <c r="B172" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONY")</f>
-        <v>ANTONY</v>
-      </c>
-      <c r="C172" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
-      </c>
-      <c r="D172" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
-        <v>458</v>
-      </c>
-      <c r="B173" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
-        <v>CARRERAS</v>
-      </c>
-      <c r="C173" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
-      </c>
-      <c r="D173" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
-        <v>462</v>
-      </c>
-      <c r="B174" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
-        <v>ISI</v>
-      </c>
-      <c r="C174" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-      <c r="D174" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),467.0)</f>
-        <v>467</v>
-      </c>
-      <c r="B175" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PÉPÉ")</f>
-        <v>PÉPÉ</v>
-      </c>
-      <c r="C175" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D175" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
-        <v>469</v>
-      </c>
-      <c r="B176" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
-        <v>NICO WILLIAMS</v>
-      </c>
-      <c r="C176" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
-        <v>BALÓN DE ORO (ATHLETIC)</v>
-      </c>
-      <c r="D176" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),477.0)</f>
-        <v>477</v>
-      </c>
-      <c r="B177" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARD INVENCIBLE")</f>
-        <v>CARD INVENCIBLE</v>
-      </c>
-      <c r="C177" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÚNICA")</f>
-        <v>ÚNICA</v>
-      </c>
-      <c r="D177" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6428,9 +5529,6 @@
       <c r="D5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="21">
@@ -6601,9 +5699,6 @@
       <c r="D17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="21">
@@ -6618,9 +5713,6 @@
       <c r="D18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="21">
@@ -6930,9 +6022,6 @@
       <c r="D40" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="21">
@@ -6961,9 +6050,6 @@
       <c r="D42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="21">
@@ -6978,9 +6064,6 @@
       <c r="D43" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="21">
@@ -7089,7 +6172,9 @@
       <c r="C51" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="21"/>
+      <c r="D51" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="21">
@@ -7166,9 +6251,6 @@
       <c r="D56" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="21">
@@ -7192,7 +6274,9 @@
       <c r="C58" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="21"/>
+      <c r="D58" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="21">
@@ -7506,7 +6590,9 @@
       <c r="C80" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D80" s="21"/>
+      <c r="D80" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="21">
@@ -7689,9 +6775,6 @@
       <c r="D93" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="21">
@@ -8059,9 +7142,6 @@
       <c r="D117" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E117" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="21">
@@ -8218,7 +7298,9 @@
       <c r="C128" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D128" s="21"/>
+      <c r="D128" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="21">
@@ -8411,9 +7493,6 @@
       <c r="D141" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E141" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="21">
@@ -8861,9 +7940,7 @@
       <c r="D173" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E173" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="E173" s="22"/>
     </row>
     <row r="174">
       <c r="A174" s="21">
@@ -8896,7 +7973,7 @@
         <v>20</v>
       </c>
       <c r="E175" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="176">
@@ -8929,9 +8006,6 @@
       <c r="D177" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E177" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="21">
@@ -8988,9 +8062,6 @@
       <c r="D181" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E181" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="21">
@@ -9029,9 +8100,6 @@
       <c r="D184" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E184" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="21">
@@ -9046,9 +8114,6 @@
       <c r="D185" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E185" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="21">
@@ -9063,9 +8128,6 @@
       <c r="D186" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E186" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="21">
@@ -9372,9 +8434,6 @@
       <c r="D208" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E208" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="21">
@@ -9406,9 +8465,6 @@
       <c r="D210" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E210" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="21">
@@ -9457,9 +8513,6 @@
       <c r="D213" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E213" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="21">
@@ -9474,9 +8527,6 @@
       <c r="D214" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E214" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="21">
@@ -9655,9 +8705,6 @@
       <c r="D226" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E226" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="21">
@@ -9700,9 +8747,6 @@
       <c r="D229" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E229" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="21">
@@ -9820,9 +8864,6 @@
       <c r="D237" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E237" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="21">
@@ -9891,9 +8932,6 @@
       <c r="D242" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E242" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="21">
@@ -9967,9 +9005,6 @@
       <c r="D247" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E247" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="21">
@@ -10084,9 +9119,6 @@
       <c r="D255" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E255" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="21">
@@ -10160,7 +9192,9 @@
       <c r="C260" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D260" s="21"/>
+      <c r="D260" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="21">
@@ -10261,9 +9295,6 @@
       <c r="D267" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E267" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="21">
@@ -10375,9 +9406,6 @@
       <c r="D275" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E275" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="21">
@@ -10404,9 +9432,6 @@
       <c r="D277" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E277" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="21">
@@ -10435,7 +9460,9 @@
       <c r="C279" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D279" s="21"/>
+      <c r="D279" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="21">
@@ -10513,9 +9540,6 @@
       <c r="D284" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E284" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="21">
@@ -10649,9 +9673,6 @@
       <c r="D293" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E293" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="21">
@@ -10754,7 +9775,9 @@
       <c r="C300" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="D300" s="21"/>
+      <c r="D300" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="21">
@@ -10954,7 +9977,9 @@
       <c r="C314" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D314" s="21"/>
+      <c r="D314" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="21">
@@ -10983,9 +10008,6 @@
       <c r="D316" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E316" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="21">
@@ -11060,7 +10082,7 @@
         <v>20</v>
       </c>
       <c r="E321" s="22">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="322">
@@ -11076,9 +10098,6 @@
       <c r="D322" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E322" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="21">
@@ -11286,9 +10305,6 @@
       <c r="D335" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E335" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" s="21">
@@ -11348,7 +10364,9 @@
       <c r="C339" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="D339" s="21"/>
+      <c r="D339" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="21">
@@ -11377,9 +10395,6 @@
       <c r="D341" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E341" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="21">
@@ -11467,9 +10482,6 @@
       <c r="D347" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E347" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" s="21">
@@ -11481,7 +10493,9 @@
       <c r="C348" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D348" s="21"/>
+      <c r="D348" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="21">
@@ -11572,9 +10586,6 @@
       </c>
       <c r="D354" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="E354" s="22">
-        <v>1.0</v>
       </c>
     </row>
     <row r="355">
@@ -11912,9 +10923,6 @@
       <c r="D15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="21">
@@ -11942,9 +10950,6 @@
       </c>
       <c r="D17" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -12070,7 +11075,9 @@
       <c r="C4" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="21">
@@ -12226,7 +11233,9 @@
       <c r="C15" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21">
@@ -14370,9 +13379,6 @@
       <c r="D1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">
@@ -14530,9 +13536,6 @@
       </c>
       <c r="D4" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -14640,7 +13643,9 @@
       <c r="C1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">
@@ -14689,9 +13694,6 @@
       <c r="D4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="22">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="21">
@@ -14703,7 +13705,9 @@
       <c r="C5" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="21">
@@ -14836,7 +13840,9 @@
       <c r="C14" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="21">

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="399">
   <si>
     <t>Última actualización:</t>
   </si>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B1" s="2">
         <f>TODAY()</f>
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1836,15 +1836,15 @@
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(REGULARES!D:D, "SI")</f>
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="1">B3-C3</f>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="2">(C3/B3)</f>
-        <v>0.8305555556</v>
+        <v>0.8416666667</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E3, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2004,15 +2004,15 @@
       </c>
       <c r="C10" s="14">
         <f>COUNTIF('Protas (424–441)'!D:D, "SI")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="3"/>
-        <v>0.6666666667</v>
+        <v>0.7777777778</v>
       </c>
       <c r="F10" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E10, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2052,15 +2052,15 @@
       </c>
       <c r="C12" s="14">
         <f>COUNTIF('Cartas Top y Únicas (468–478)'!D:D, "SI")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>0.4545454545</v>
+        <v>0.5454545455</v>
       </c>
       <c r="F12" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E12, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2077,15 +2077,15 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>0.8192771084</v>
+        <v>0.8333333333</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E13, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2395,7 +2395,9 @@
       <c r="C10" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="21">
@@ -2463,7 +2465,9 @@
       <c r="C15" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21">
@@ -2542,7 +2546,9 @@
       <c r="C1" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">
@@ -3232,22 +3238,22 @@
         <v>D. ALAVÉS</v>
       </c>
       <c r="D6" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="B7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TONI MARTÍNEZ")</f>
+        <v>TONI MARTÍNEZ</v>
       </c>
       <c r="C7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D7" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3256,16 +3262,16 @@
     </row>
     <row r="8">
       <c r="A8" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
-        <v>21</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
+        <v>18</v>
       </c>
       <c r="B8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PADILLA")</f>
-        <v>PADILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIANO")</f>
+        <v>MARIANO</v>
       </c>
       <c r="C8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D8" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3274,12 +3280,12 @@
     </row>
     <row r="9">
       <c r="A9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
-        <v>23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
+        <v>19</v>
       </c>
       <c r="B9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VIVIAN")</f>
-        <v>VIVIAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C9" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3292,12 +3298,12 @@
     </row>
     <row r="10">
       <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
-        <v>27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
+        <v>21</v>
       </c>
       <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
-        <v>RUIZ DE GALARRETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PADILLA")</f>
+        <v>PADILLA</v>
       </c>
       <c r="C10" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3310,12 +3316,12 @@
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
+        <v>23</v>
       </c>
       <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
-        <v>MAROAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VIVIAN")</f>
+        <v>VIVIAN</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3328,16 +3334,16 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MUSSO")</f>
-        <v>MUSSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
+        <v>RUIZ DE GALARRETA</v>
       </c>
       <c r="C12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D12" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3346,16 +3352,16 @@
     </row>
     <row r="13">
       <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
       </c>
       <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
-        <v>ALMADA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WILLIAMS")</f>
+        <v>WILLIAMS</v>
       </c>
       <c r="C13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D13" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3364,16 +3370,16 @@
     </row>
     <row r="14">
       <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
-        <v>52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
-        <v>JULIÁN ALVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
+        <v>MAROAN</v>
       </c>
       <c r="C14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D14" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3382,16 +3388,16 @@
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
-        <v>55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D15" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3400,16 +3406,16 @@
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
-        <v>66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
+        <v>39</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
-        <v>FERMÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MUSSO")</f>
+        <v>MUSSO</v>
       </c>
       <c r="C16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D16" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3418,16 +3424,16 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
-        <v>67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
-        <v>DANI OLMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
+        <v>LENGLET</v>
       </c>
       <c r="C17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D17" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3436,16 +3442,16 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
-        <v>73</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
+        <v>ALMADA</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D18" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3454,16 +3460,16 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
-        <v>PAU LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
+        <v>JULIÁN ALVAREZ</v>
       </c>
       <c r="C19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3472,16 +3478,16 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
-        <v>76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
+        <v>55</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
-        <v>BELLERÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D20" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3490,16 +3496,16 @@
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
+        <v>56</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
-        <v>JUNIOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOAN GARCÍA")</f>
+        <v>JOAN GARCÍA</v>
       </c>
       <c r="C21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D21" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3508,16 +3514,16 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
+        <v>63</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
-        <v>PABLO FORNALS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DE JONG")</f>
+        <v>DE JONG</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D22" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3526,16 +3532,16 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
+        <v>66</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
-        <v>CUCHO HERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
+        <v>FERMÍN</v>
       </c>
       <c r="C23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D23" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3544,16 +3550,16 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
-        <v>91</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
+        <v>DANI OLMO</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D24" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3562,16 +3568,16 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
-        <v>94</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
-        <v>JAVI RUEDA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D25" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3580,16 +3586,16 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
+        <v>PAU LÓPEZ</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D26" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3598,16 +3604,16 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
-        <v>ILAIX MORIBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
+        <v>BELLERÍN</v>
       </c>
       <c r="C27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D27" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3616,16 +3622,16 @@
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
-        <v>HUGO ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
       </c>
       <c r="C28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D28" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3634,34 +3640,34 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
-        <v>104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
-        <v>SWEDBERG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
+        <v>PABLO FORNALS</v>
       </c>
       <c r="C29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
+        <v>CUCHO HERNÁNDEZ</v>
       </c>
       <c r="C30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D30" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3670,12 +3676,12 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
-        <v>106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
+        <v>91</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
-        <v>IAGO ASPAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3688,12 +3694,12 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
+        <v>JAVI RUEDA</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3706,12 +3712,12 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
-        <v>JUTGLÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3724,16 +3730,16 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
-        <v>IÑAKI PEÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
+        <v>ILAIX MORIBA</v>
       </c>
       <c r="C34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D34" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3742,52 +3748,52 @@
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
-        <v>DITURO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
+        <v>HUGO ÁLVAREZ</v>
       </c>
       <c r="C35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
+        <v>104</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
-        <v>ÁLVARO NÚÑEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
+        <v>SWEDBERG</v>
       </c>
       <c r="C36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D37" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3796,16 +3802,16 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
+        <v>IAGO ASPAS</v>
       </c>
       <c r="C38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D38" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3814,16 +3820,16 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
-        <v>126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
-        <v>RAFA MIR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D39" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3832,16 +3838,16 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
-        <v>127</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
       </c>
       <c r="C40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D40" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3850,16 +3856,16 @@
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
+        <v>IÑAKI PEÑA</v>
       </c>
       <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D41" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3868,34 +3874,34 @@
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
+        <v>DITURO</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
-        <v>139</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONIU ROCA")</f>
-        <v>ANTONIU ROCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
+        <v>ÁLVARO NÚÑEZ</v>
       </c>
       <c r="C43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D43" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3904,16 +3910,16 @@
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D44" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3922,16 +3928,16 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D45" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3940,16 +3946,16 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
+        <v>126</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
+        <v>RAFA MIR</v>
       </c>
       <c r="C46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D46" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3958,16 +3964,16 @@
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
+        <v>127</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D47" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3976,16 +3982,16 @@
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
-        <v>153</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
-        <v>DIEGO RICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ROMERO")</f>
+        <v>CARLOS ROMERO</v>
       </c>
       <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D48" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3994,16 +4000,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D49" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4012,34 +4018,34 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
-        <v>174</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
+        <v>139</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
-        <v>IVÁN MARTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONIU ROCA")</f>
+        <v>ANTONIU ROCA</v>
       </c>
       <c r="C51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D51" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4048,16 +4054,16 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
       </c>
       <c r="C52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D52" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4066,16 +4072,16 @@
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
-        <v>176</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
-        <v>JOEL ROCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
+        <v>ROBERTO FERNÁNDEZ</v>
       </c>
       <c r="C53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D53" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4084,16 +4090,16 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
-        <v>189</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
-        <v>PAMPÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D54" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4102,16 +4108,16 @@
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
-        <v>CARVAJAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D55" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4120,16 +4126,16 @@
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D56" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4138,16 +4144,16 @@
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
+        <v>153</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
-        <v>GÜLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
+        <v>DIEGO RICO</v>
       </c>
       <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D57" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4156,16 +4162,16 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
-        <v>212</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
-        <v>MASTANTUONO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D58" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4174,16 +4180,16 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D59" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4192,16 +4198,16 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
-        <v>219</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERGSTRÖM")</f>
-        <v>BERGSTRÖM</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
+        <v>IVÁN MARTÍN</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D60" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4210,34 +4216,34 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
-        <v>VALJENT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
-        <v>MOJICA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
+        <v>JOEL ROCA</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D62" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4246,16 +4252,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
+        <v>189</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
-        <v>JAN VIRGILI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
+        <v>PAMPÍN</v>
       </c>
       <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D63" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4264,34 +4270,34 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
+        <v>195</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORALES")</f>
+        <v>MORALES</v>
       </c>
       <c r="C64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
+        <v>202</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
+        <v>CARVAJAL</v>
       </c>
       <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D65" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4300,16 +4306,16 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
-        <v>245</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MONCAYOLA")</f>
-        <v>MONCAYOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D66" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4318,16 +4324,16 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
-        <v>AIMAR OROZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
+        <v>GÜLER</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D67" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4336,16 +4342,16 @@
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
+        <v>212</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
-        <v>RAÚL GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
+        <v>MASTANTUONO</v>
       </c>
       <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D68" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4354,16 +4360,16 @@
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
-        <v>DAVID CARMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
       </c>
       <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D69" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4372,16 +4378,16 @@
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
+        <v>219</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
-        <v>DANI CALVO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERGSTRÖM")</f>
+        <v>BERGSTRÖM</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4390,34 +4396,34 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
-        <v>REINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
+        <v>VALJENT</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
-        <v>265</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
+        <v>224</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILIC")</f>
-        <v>ILIC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
+        <v>KUMBULLA</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D72" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4426,16 +4432,16 @@
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
-        <v>FEDE VIÑAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
+        <v>MOJICA</v>
       </c>
       <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D73" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4444,16 +4450,16 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.0)</f>
+        <v>230</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO TORRE")</f>
+        <v>PABLO TORRE</v>
       </c>
       <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D74" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4462,16 +4468,16 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
-        <v>281</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
+        <v>234</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
-        <v>ÓSCAR VALENTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
+        <v>JAN VIRGILI</v>
       </c>
       <c r="C75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D75" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4480,34 +4486,34 @@
     </row>
     <row r="76">
       <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
-        <v>282</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
       </c>
       <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
-        <v>ISI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
       </c>
       <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
-        <v>PEDRO DÍAZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D77" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4516,16 +4522,16 @@
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
-        <v>286</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
-        <v>CAMELLO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D78" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4534,16 +4540,16 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
-        <v>290</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
+        <v>245</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MONCAYOLA")</f>
+        <v>MONCAYOLA</v>
       </c>
       <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D79" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4552,16 +4558,16 @@
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
-        <v>292</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBURU")</f>
-        <v>ARAMBURU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
       </c>
       <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D80" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4570,52 +4576,52 @@
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
-        <v>CALETA-CAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
+        <v>RAÚL GARCÍA</v>
       </c>
       <c r="C81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
-        <v>296</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
-        <v>SERGIO GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
+        <v>DAVID CARMO</v>
       </c>
       <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
-        <v>PABLO MARIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
       </c>
       <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D83" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4624,16 +4630,16 @@
     </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.0)</f>
-        <v>302</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUBO")</f>
-        <v>KUBO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
+        <v>RAHIM ALHASSANE</v>
       </c>
       <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D84" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4642,16 +4648,16 @@
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
-        <v>NYLAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
+        <v>REINA</v>
       </c>
       <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D85" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4660,16 +4666,16 @@
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
-        <v>312</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
+        <v>265</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
-        <v>AZPILICUETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILIC")</f>
+        <v>ILIC</v>
       </c>
       <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D86" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4678,88 +4684,88 @@
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
-        <v>KIKE SALAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
       </c>
       <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D87" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
+      </c>
+      <c r="B88" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
+        <v>PEP CHAVARRÍA</v>
+      </c>
+      <c r="C88" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D88" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
-        <v>317</v>
-      </c>
-      <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGOUME")</f>
-        <v>AGOUME</v>
-      </c>
-      <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-      <c r="D88" s="20">
+    <row r="89">
+      <c r="A89" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
+        <v>281</v>
+      </c>
+      <c r="B89" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
+        <v>ÓSCAR VALENTÍN</v>
+      </c>
+      <c r="C89" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D89" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
-      </c>
-      <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
-        <v>EJUKE</v>
-      </c>
-      <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
-      </c>
-      <c r="D89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="90">
       <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
+        <v>282</v>
       </c>
       <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
-        <v>AKOR ADAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
+        <v>ISI</v>
       </c>
       <c r="C90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
       </c>
       <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
+        <v>PEDRO DÍAZ</v>
       </c>
       <c r="C91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D91" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4768,16 +4774,16 @@
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
-        <v>326</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
       </c>
       <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
+        <v>CAMELLO</v>
       </c>
       <c r="C92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D92" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4786,16 +4792,16 @@
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
-        <v>327</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
+        <v>290</v>
       </c>
       <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
-        <v>DIMITRIEVSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
       </c>
       <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D93" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4804,16 +4810,16 @@
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
+        <v>292</v>
       </c>
       <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
-        <v>FOULQUIER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBURU")</f>
+        <v>ARAMBURU</v>
       </c>
       <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D94" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4822,16 +4828,16 @@
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329.0)</f>
-        <v>329</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
       </c>
       <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CORREIA")</f>
-        <v>CORREIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
+        <v>CALETA-CAR</v>
       </c>
       <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D95" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4840,16 +4846,16 @@
     </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
-        <v>330</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
+        <v>SERGIO GÓMEZ</v>
       </c>
       <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D96" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4858,16 +4864,16 @@
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
-        <v>331</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
-        <v>COPETE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
+        <v>PABLO MARIN</v>
       </c>
       <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D97" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4876,16 +4882,16 @@
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
-        <v>333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.0)</f>
+        <v>302</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
-        <v>GAYÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUBO")</f>
+        <v>KUBO</v>
       </c>
       <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D98" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4894,16 +4900,16 @@
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
-        <v>337</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
-        <v>ANDRÉ ALMEIDA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
+        <v>NYLAND</v>
       </c>
       <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D99" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4912,16 +4918,16 @@
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
-        <v>LUIS RIOJA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
+        <v>AZPILICUETA</v>
       </c>
       <c r="C100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D100" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4930,16 +4936,16 @@
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
+        <v>313</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
+        <v>KIKE SALAS</v>
       </c>
       <c r="C101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D101" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -4948,106 +4954,106 @@
     </row>
     <row r="102">
       <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
+        <v>317</v>
       </c>
       <c r="B102" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGOUME")</f>
+        <v>AGOUME</v>
+      </c>
+      <c r="C102" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D102" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
+      </c>
+      <c r="B103" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
+        <v>EJUKE</v>
+      </c>
+      <c r="C103" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D103" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
+      </c>
+      <c r="B104" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
+        <v>AKOR ADAMS</v>
+      </c>
+      <c r="C104" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D104" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
+      </c>
+      <c r="B105" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C105" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D105" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
+      </c>
+      <c r="B106" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
         <v>ESTADIO</v>
       </c>
-      <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
-        <v>350</v>
-      </c>
-      <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
-        <v>SERGI CARDONA</v>
-      </c>
-      <c r="C103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D103" s="20">
+      <c r="C106" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D106" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
-      </c>
-      <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
-        <v>SANTI COMESAÑA</v>
-      </c>
-      <c r="C104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
-        <v>352</v>
-      </c>
-      <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
-        <v>PAPE GUEYE</v>
-      </c>
-      <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
-        <v>355</v>
-      </c>
-      <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
-        <v>MOLEIRO</v>
-      </c>
-      <c r="C106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
-      </c>
-      <c r="D106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="107">
       <c r="A107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
+        <v>326</v>
       </c>
       <c r="B107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D107" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5056,16 +5062,16 @@
     </row>
     <row r="108">
       <c r="A108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
-        <v>369</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
+        <v>327</v>
       </c>
       <c r="B108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
+        <v>DIMITRIEVSKI</v>
       </c>
       <c r="C108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D108" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5074,52 +5080,52 @@
     </row>
     <row r="109">
       <c r="A109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
-        <v>371</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
       </c>
       <c r="B109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
+        <v>FOULQUIER</v>
       </c>
       <c r="C109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
-        <v>387</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329.0)</f>
+        <v>329</v>
       </c>
       <c r="B110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CORREIA")</f>
+        <v>CORREIA</v>
       </c>
       <c r="C110" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
         <v>VALENCIA CF</v>
       </c>
       <c r="D110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
       </c>
       <c r="B111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
       </c>
       <c r="C111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D111" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5128,16 +5134,16 @@
     </row>
     <row r="112">
       <c r="A112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
-        <v>398</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
+        <v>331</v>
       </c>
       <c r="B112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
-        <v>DRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
+        <v>COPETE</v>
       </c>
       <c r="C112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D112" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5146,16 +5152,16 @@
     </row>
     <row r="113">
       <c r="A113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
-        <v>399</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),332.0)</f>
+        <v>332</v>
       </c>
       <c r="B113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIAKHABY")</f>
+        <v>DIAKHABY</v>
       </c>
       <c r="C113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D113" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5164,16 +5170,16 @@
     </row>
     <row r="114">
       <c r="A114" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
-        <v>404</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
       </c>
       <c r="B114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
       </c>
       <c r="C114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D114" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5182,16 +5188,16 @@
     </row>
     <row r="115">
       <c r="A115" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
-        <v>407</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
+        <v>337</v>
       </c>
       <c r="B115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
-        <v>CARLOS ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
+        <v>ANDRÉ ALMEIDA</v>
       </c>
       <c r="C115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D115" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5200,16 +5206,16 @@
     </row>
     <row r="116">
       <c r="A116" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
-        <v>409</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
       </c>
       <c r="B116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
-        <v>FRAN GONZÁLEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
       </c>
       <c r="C116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D116" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5218,34 +5224,34 @@
     </row>
     <row r="117">
       <c r="A117" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D117" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
-        <v>BARRIOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D118" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -5254,34 +5260,34 @@
     </row>
     <row r="119">
       <c r="A119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
+        <v>350</v>
       </c>
       <c r="B119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
-        <v>SOTELO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
+        <v>SERGI CARDONA</v>
       </c>
       <c r="C119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
       </c>
       <c r="B120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
+        <v>SANTI COMESAÑA</v>
       </c>
       <c r="C120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D120" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5290,16 +5296,16 @@
     </row>
     <row r="121">
       <c r="A121" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
-        <v>421</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
       </c>
       <c r="B121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
-        <v>AIMAR OROZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
+        <v>PAPE GUEYE</v>
       </c>
       <c r="C121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D121" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5308,52 +5314,52 @@
     </row>
     <row r="122">
       <c r="A122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
+        <v>355</v>
       </c>
       <c r="B122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
-        <v>CAZORLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
+        <v>MOLEIRO</v>
       </c>
       <c r="C122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
-        <v>439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
       </c>
       <c r="B123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="C123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
-        <v>448</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
       </c>
       <c r="B124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
-        <v>GRIEZMANN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="C124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D124" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5362,16 +5368,16 @@
     </row>
     <row r="125">
       <c r="A125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
-        <v>452</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
+        <v>371</v>
       </c>
       <c r="B125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
-        <v>LEWANDOWSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="C125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D125" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5380,16 +5386,16 @@
     </row>
     <row r="126">
       <c r="A126" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
-        <v>458</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376.0)</f>
+        <v>376</v>
       </c>
       <c r="B126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
-        <v>CARRERAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="C126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D126" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5398,36 +5404,378 @@
     </row>
     <row r="127">
       <c r="A127" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
+      </c>
+      <c r="B127" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
+      </c>
+      <c r="C127" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
+      </c>
+      <c r="D127" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
+      </c>
+      <c r="B128" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
+      </c>
+      <c r="C128" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
+      </c>
+      <c r="D128" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
+      </c>
+      <c r="B129" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
+        <v>DRO</v>
+      </c>
+      <c r="C129" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D129" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
+        <v>399</v>
+      </c>
+      <c r="B130" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
+      </c>
+      <c r="C130" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D130" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),403.0)</f>
+        <v>403</v>
+      </c>
+      <c r="B131" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVINCHI")</f>
+        <v>DAVINCHI</v>
+      </c>
+      <c r="C131" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D131" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
+      </c>
+      <c r="B132" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
+      </c>
+      <c r="C132" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D132" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
+        <v>407</v>
+      </c>
+      <c r="B133" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
+        <v>CARLOS ÁLVAREZ</v>
+      </c>
+      <c r="C133" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+      <c r="D133" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.0)</f>
+        <v>408</v>
+      </c>
+      <c r="B134" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
+        <v>ETTA EYONG</v>
+      </c>
+      <c r="C134" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+      <c r="D134" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
+      </c>
+      <c r="B135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
+        <v>FRAN GONZÁLEZ</v>
+      </c>
+      <c r="C135" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D135" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
+        <v>413</v>
+      </c>
+      <c r="B136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
+      </c>
+      <c r="C136" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D136" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
+      </c>
+      <c r="B137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
+      </c>
+      <c r="C137" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D137" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
+      </c>
+      <c r="B138" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
+        <v>SOTELO</v>
+      </c>
+      <c r="C138" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D138" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
+        <v>419</v>
+      </c>
+      <c r="B139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
+      </c>
+      <c r="C139" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D139" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
+        <v>421</v>
+      </c>
+      <c r="B140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
+      </c>
+      <c r="C140" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D140" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
+        <v>422</v>
+      </c>
+      <c r="B141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
+        <v>CAZORLA</v>
+      </c>
+      <c r="C141" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D141" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
+        <v>439</v>
+      </c>
+      <c r="B142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
+      </c>
+      <c r="C142" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D142" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
+        <v>448</v>
+      </c>
+      <c r="B143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
+        <v>GRIEZMANN</v>
+      </c>
+      <c r="C143" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D143" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
+        <v>452</v>
+      </c>
+      <c r="B144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
+        <v>LEWANDOWSKI</v>
+      </c>
+      <c r="C144" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D144" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
+      </c>
+      <c r="B145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
+        <v>CARRERAS</v>
+      </c>
+      <c r="C145" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D145" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
         <v>462</v>
       </c>
-      <c r="B127" s="20" t="str">
+      <c r="B146" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
         <v>ISI</v>
       </c>
-      <c r="C127" s="20" t="str">
+      <c r="C146" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
         <v>RAYO VALLECANO</v>
       </c>
-      <c r="D127" s="20">
+      <c r="D146" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="20">
+    <row r="147">
+      <c r="A147" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
         <v>469</v>
       </c>
-      <c r="B128" s="20" t="str">
+      <c r="B147" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
         <v>NICO WILLIAMS</v>
       </c>
-      <c r="C128" s="20" t="str">
+      <c r="C147" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
         <v>BALÓN DE ORO (ATHLETIC)</v>
       </c>
-      <c r="D128" s="20">
+      <c r="D147" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
@@ -5669,7 +6017,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -5685,6 +6033,9 @@
       <c r="D16" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E16" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21">
@@ -5713,6 +6064,9 @@
       <c r="D18" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E18" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="21">
@@ -5922,6 +6276,9 @@
       <c r="D33" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E33" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="21">
@@ -6050,6 +6407,9 @@
       <c r="D42" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E42" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="21">
@@ -6131,7 +6491,9 @@
       <c r="C48" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="21"/>
+      <c r="D48" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="21">
@@ -6251,6 +6613,9 @@
       <c r="D56" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E56" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="21">
@@ -6345,6 +6710,9 @@
       <c r="D63" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E63" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="21">
@@ -6921,7 +7289,7 @@
         <v>20</v>
       </c>
       <c r="E103" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="104">
@@ -7052,7 +7420,7 @@
         <v>20</v>
       </c>
       <c r="E111" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="112">
@@ -7383,6 +7751,9 @@
       <c r="D134" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E134" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="21">
@@ -7443,7 +7814,7 @@
         <v>20</v>
       </c>
       <c r="E138" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="139">
@@ -7493,6 +7864,9 @@
       <c r="D141" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E141" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="21">
@@ -7713,7 +8087,9 @@
       <c r="C157" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D157" s="21"/>
+      <c r="D157" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="21">
@@ -7973,7 +8349,7 @@
         <v>20</v>
       </c>
       <c r="E175" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="176">
@@ -8085,7 +8461,9 @@
       <c r="C183" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D183" s="21"/>
+      <c r="D183" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="21">
@@ -8255,6 +8633,9 @@
       <c r="D195" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E195" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="21">
@@ -8644,7 +9025,7 @@
         <v>20</v>
       </c>
       <c r="E222" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="223">
@@ -8674,6 +9055,9 @@
       <c r="D224" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E224" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="21">
@@ -8761,6 +9145,9 @@
       <c r="D230" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E230" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="21">
@@ -9051,7 +9438,7 @@
         <v>20</v>
       </c>
       <c r="E250" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="251">
@@ -9162,7 +9549,7 @@
         <v>20</v>
       </c>
       <c r="E258" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="259">
@@ -9195,6 +9582,9 @@
       <c r="D260" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E260" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="21">
@@ -9377,7 +9767,9 @@
       <c r="C273" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D273" s="21"/>
+      <c r="D273" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="21">
@@ -9447,7 +9839,7 @@
         <v>20</v>
       </c>
       <c r="E278" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="279">
@@ -10082,7 +10474,7 @@
         <v>20</v>
       </c>
       <c r="E321" s="22">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="322">
@@ -10142,7 +10534,7 @@
         <v>20</v>
       </c>
       <c r="E325" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="326">
@@ -10193,7 +10585,7 @@
         <v>20</v>
       </c>
       <c r="E328" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="329">
@@ -10259,6 +10651,9 @@
       </c>
       <c r="D332" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E332" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="333">
@@ -10749,6 +11144,9 @@
       <c r="D3" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="21">
@@ -10909,6 +11307,9 @@
       <c r="D14" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E14" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="21">
@@ -10978,6 +11379,9 @@
       </c>
       <c r="D19" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -11034,7 +11438,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="2">
@@ -11249,6 +11653,9 @@
       </c>
       <c r="D16" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -13458,7 +13865,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="22">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -13736,6 +14143,9 @@
       <c r="D7" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="21">
@@ -13811,6 +14221,9 @@
       </c>
       <c r="D12" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="399">
   <si>
     <t>Última actualización:</t>
   </si>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B1" s="2">
         <f>TODAY()</f>
-        <v>46065</v>
+        <v>46068</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1836,15 +1836,15 @@
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(REGULARES!D:D, "SI")</f>
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="1">B3-C3</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="2">(C3/B3)</f>
-        <v>0.8416666667</v>
+        <v>0.85</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E3, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2004,15 +2004,15 @@
       </c>
       <c r="C10" s="14">
         <f>COUNTIF('Protas (424–441)'!D:D, "SI")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="3"/>
-        <v>0.7777777778</v>
+        <v>0.8333333333</v>
       </c>
       <c r="F10" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E10, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2028,15 +2028,15 @@
       </c>
       <c r="C11" s="14">
         <f>COUNTIF('Super Cracks (442–467)'!D:D, "SI")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="3"/>
-        <v>0.8076923077</v>
+        <v>0.8461538462</v>
       </c>
       <c r="F11" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E11, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2077,15 +2077,15 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>0.8333333333</v>
+        <v>0.843373494</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E13, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2355,7 +2355,9 @@
       <c r="C7" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="21">
@@ -2770,7 +2772,9 @@
       <c r="C5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="21">
@@ -2884,6 +2888,9 @@
       </c>
       <c r="D13" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -3514,12 +3521,12 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
-        <v>63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
+        <v>62</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DE JONG")</f>
-        <v>DE JONG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALDE")</f>
+        <v>BALDE</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3532,12 +3539,12 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
-        <v>66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
+        <v>63</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
-        <v>FERMÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DE JONG")</f>
+        <v>DE JONG</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3550,12 +3557,12 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
-        <v>67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
+        <v>66</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
-        <v>DANI OLMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
+        <v>FERMÍN</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3568,16 +3575,16 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
-        <v>73</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
+        <v>DANI OLMO</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D25" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3586,12 +3593,12 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
-        <v>PAU LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3604,30 +3611,30 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
-        <v>76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
-        <v>BELLERÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
+        <v>PAU LÓPEZ</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
       <c r="D27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
-        <v>JUNIOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
+        <v>BELLERÍN</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3640,12 +3647,12 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
-        <v>PABLO FORNALS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3658,12 +3665,12 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
-        <v>CUCHO HERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
+        <v>PABLO FORNALS</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3676,16 +3683,16 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
-        <v>91</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
+        <v>CUCHO HERNÁNDEZ</v>
       </c>
       <c r="C31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D31" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3694,12 +3701,12 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
-        <v>94</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
+        <v>91</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
-        <v>JAVI RUEDA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3712,12 +3719,12 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
+        <v>JAVI RUEDA</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3730,12 +3737,12 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
-        <v>ILAIX MORIBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C34" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3748,30 +3755,30 @@
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
-        <v>HUGO ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
+        <v>ILAIX MORIBA</v>
       </c>
       <c r="C35" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
       <c r="D35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
-        <v>104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
-        <v>SWEDBERG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
+        <v>HUGO ÁLVAREZ</v>
       </c>
       <c r="C36" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3784,30 +3791,30 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
+        <v>104</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
+        <v>SWEDBERG</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
       <c r="D37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
-        <v>106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
-        <v>IAGO ASPAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C38" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3820,30 +3827,30 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
+        <v>IAGO ASPAS</v>
       </c>
       <c r="C39" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
       <c r="D39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
-        <v>JUTGLÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
       </c>
       <c r="C40" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3856,16 +3863,16 @@
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
-        <v>IÑAKI PEÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
       </c>
       <c r="C41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D41" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3874,48 +3881,48 @@
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
-        <v>DITURO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
+        <v>IÑAKI PEÑA</v>
       </c>
       <c r="C42" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
         <v>ELCHE CF</v>
       </c>
       <c r="D42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
-        <v>ÁLVARO NÚÑEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
+        <v>DITURO</v>
       </c>
       <c r="C43" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
         <v>ELCHE CF</v>
       </c>
       <c r="D43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
+        <v>ÁLVARO NÚÑEZ</v>
       </c>
       <c r="C44" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3928,12 +3935,12 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C45" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3946,34 +3953,34 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
-        <v>126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
-        <v>RAFA MIR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
       </c>
       <c r="C46" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
         <v>ELCHE CF</v>
       </c>
       <c r="D46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
-        <v>127</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
+        <v>126</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
+        <v>RAFA MIR</v>
       </c>
       <c r="C47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D47" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3982,12 +3989,12 @@
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
-        <v>134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
+        <v>127</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ROMERO")</f>
-        <v>CARLOS ROMERO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C48" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -4000,12 +4007,12 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
+        <v>128</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
+        <v>DMITROVIC</v>
       </c>
       <c r="C49" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -4018,30 +4025,30 @@
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ROMERO")</f>
+        <v>CARLOS ROMERO</v>
       </c>
       <c r="C50" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
-        <v>139</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONIU ROCA")</f>
-        <v>ANTONIU ROCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C51" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -4054,30 +4061,30 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C52" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
+        <v>139</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
-        <v>ROBERTO FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONIU ROCA")</f>
+        <v>ANTONIU ROCA</v>
       </c>
       <c r="C53" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -4090,34 +4097,34 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
       </c>
       <c r="C54" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
+        <v>ROBERTO FERNÁNDEZ</v>
       </c>
       <c r="C55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D55" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4126,16 +4133,16 @@
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D56" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4144,12 +4151,12 @@
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
-        <v>153</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
-        <v>DIEGO RICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C57" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4162,16 +4169,16 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D58" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4180,16 +4187,16 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),152.0)</f>
+        <v>152</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABQAR")</f>
+        <v>ABQAR</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D59" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4198,16 +4205,16 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
-        <v>174</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
+        <v>153</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
-        <v>IVÁN MARTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
+        <v>DIEGO RICO</v>
       </c>
       <c r="C60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D60" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4216,30 +4223,30 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C61" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
         <v>GIRONA FC</v>
       </c>
       <c r="D61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
-        <v>176</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
-        <v>JOEL ROCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C62" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -4252,16 +4259,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
-        <v>189</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
-        <v>PAMPÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D63" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4270,16 +4277,16 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
-        <v>195</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORALES")</f>
-        <v>MORALES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
+        <v>IVÁN MARTÍN</v>
       </c>
       <c r="C64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D64" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4288,34 +4295,34 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
-        <v>CARVAJAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
       </c>
       <c r="C65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
+        <v>JOEL ROCA</v>
       </c>
       <c r="C66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D66" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4324,16 +4331,16 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
+        <v>189</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
-        <v>GÜLER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
+        <v>PAMPÍN</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D67" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4342,16 +4349,16 @@
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
-        <v>212</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),190.0)</f>
+        <v>190</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
-        <v>MASTANTUONO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORIOL REY")</f>
+        <v>ORIOL REY</v>
       </c>
       <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D68" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4360,16 +4367,16 @@
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
+        <v>195</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
-        <v>VINÍCIUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORALES")</f>
+        <v>MORALES</v>
       </c>
       <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="D69" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4378,16 +4385,16 @@
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
-        <v>219</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
+        <v>202</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERGSTRÖM")</f>
-        <v>BERGSTRÖM</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
+        <v>CARVAJAL</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4396,34 +4403,34 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
+        <v>209</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
-        <v>VALJENT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
+        <v>FEDE VALVERDE</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
-        <v>224</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
       </c>
       <c r="B72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
-        <v>KUMBULLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GÜLER")</f>
+        <v>GÜLER</v>
       </c>
       <c r="C72" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D72" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4432,16 +4439,16 @@
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
+        <v>212</v>
       </c>
       <c r="B73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
-        <v>MOJICA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MASTANTUONO")</f>
+        <v>MASTANTUONO</v>
       </c>
       <c r="C73" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D73" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4450,16 +4457,16 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.0)</f>
-        <v>230</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),215.0)</f>
+        <v>215</v>
       </c>
       <c r="B74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO TORRE")</f>
-        <v>PABLO TORRE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GONZALO")</f>
+        <v>GONZALO</v>
       </c>
       <c r="C74" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
-        <v>RCD MALLORCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="D74" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4468,70 +4475,70 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
-        <v>234</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="B75" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
-        <v>JAN VIRGILI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VINÍCIUS")</f>
+        <v>VINÍCIUS</v>
       </c>
       <c r="C75" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D75" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
+        <v>219</v>
+      </c>
+      <c r="B76" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BERGSTRÖM")</f>
+        <v>BERGSTRÖM</v>
+      </c>
+      <c r="C76" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
         <v>RCD MALLORCA</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D76" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
-      </c>
-      <c r="B76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
-      </c>
-      <c r="C76" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D76" s="20">
+    <row r="77">
+      <c r="A77" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
+      </c>
+      <c r="B77" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALJENT")</f>
+        <v>VALJENT</v>
+      </c>
+      <c r="C77" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+      <c r="D77" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
-      </c>
-      <c r="B77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
-      </c>
-      <c r="C77" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
-      </c>
-      <c r="D77" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="78">
       <c r="A78" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
+        <v>224</v>
       </c>
       <c r="B78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
-        <v>SERGIO HERRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUMBULLA")</f>
+        <v>KUMBULLA</v>
       </c>
       <c r="C78" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D78" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4540,16 +4547,16 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
-        <v>245</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="B79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MONCAYOLA")</f>
-        <v>MONCAYOLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOJICA")</f>
+        <v>MOJICA</v>
       </c>
       <c r="C79" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D79" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4558,16 +4565,16 @@
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
-        <v>248</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
+        <v>228</v>
       </c>
       <c r="B80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
-        <v>AIMAR OROZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DARDER")</f>
+        <v>DARDER</v>
       </c>
       <c r="C80" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
       </c>
       <c r="D80" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4576,70 +4583,70 @@
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
-        <v>250</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.0)</f>
+        <v>230</v>
       </c>
       <c r="B81" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
-        <v>RAÚL GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO TORRE")</f>
+        <v>PABLO TORRE</v>
       </c>
       <c r="C81" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+      <c r="D81" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),234.0)</f>
+        <v>234</v>
+      </c>
+      <c r="B82" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAN VIRGILI")</f>
+        <v>JAN VIRGILI</v>
+      </c>
+      <c r="C82" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD MALLORCA")</f>
+        <v>RCD MALLORCA</v>
+      </c>
+      <c r="D82" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
+      </c>
+      <c r="B83" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
+      </c>
+      <c r="C83" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
         <v>CA OSASUNA</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D83" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
-        <v>258</v>
-      </c>
-      <c r="B82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
-        <v>DAVID CARMO</v>
-      </c>
-      <c r="C82" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="D82" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
-      </c>
-      <c r="B83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
-        <v>DANI CALVO</v>
-      </c>
-      <c r="C83" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
-      </c>
-      <c r="D83" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="84">
       <c r="A84" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
+        <v>235</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
-        <v>RAHIM ALHASSANE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C84" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D84" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4648,16 +4655,16 @@
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
-        <v>262</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="B85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
-        <v>REINA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO HERRERA")</f>
+        <v>SERGIO HERRERA</v>
       </c>
       <c r="C85" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D85" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4666,16 +4673,16 @@
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
-        <v>265</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),237.0)</f>
+        <v>237</v>
       </c>
       <c r="B86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILIC")</f>
-        <v>ILIC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AITOR FERNÁNDEZ")</f>
+        <v>AITOR FERNÁNDEZ</v>
       </c>
       <c r="C86" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D86" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4684,16 +4691,16 @@
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
-        <v>269</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
+        <v>245</v>
       </c>
       <c r="B87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
-        <v>FEDE VIÑAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MONCAYOLA")</f>
+        <v>MONCAYOLA</v>
       </c>
       <c r="C87" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D87" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4702,16 +4709,16 @@
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
-        <v>278</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),248.0)</f>
+        <v>248</v>
       </c>
       <c r="B88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
-        <v>PEP CHAVARRÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
       </c>
       <c r="C88" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D88" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -4720,52 +4727,52 @@
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
-        <v>281</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),250.0)</f>
+        <v>250</v>
       </c>
       <c r="B89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
-        <v>ÓSCAR VALENTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAÚL GARCÍA")</f>
+        <v>RAÚL GARCÍA</v>
       </c>
       <c r="C89" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
       </c>
       <c r="D89" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
-        <v>282</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),258.0)</f>
+        <v>258</v>
       </c>
       <c r="B90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
-        <v>ISI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID CARMO")</f>
+        <v>DAVID CARMO</v>
       </c>
       <c r="C90" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D90" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
+        <v>259</v>
       </c>
       <c r="B91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
-        <v>PEDRO DÍAZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI CALVO")</f>
+        <v>DANI CALVO</v>
       </c>
       <c r="C91" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D91" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4774,16 +4781,16 @@
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
-        <v>286</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
       </c>
       <c r="B92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
-        <v>CAMELLO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAHIM ALHASSANE")</f>
+        <v>RAHIM ALHASSANE</v>
       </c>
       <c r="C92" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D92" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4792,16 +4799,16 @@
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
-        <v>290</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),262.0)</f>
+        <v>262</v>
       </c>
       <c r="B93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
-        <v>REMIRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REINA")</f>
+        <v>REINA</v>
       </c>
       <c r="C93" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D93" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4810,16 +4817,16 @@
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
-        <v>292</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),265.0)</f>
+        <v>265</v>
       </c>
       <c r="B94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBURU")</f>
-        <v>ARAMBURU</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILIC")</f>
+        <v>ILIC</v>
       </c>
       <c r="C94" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D94" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4828,16 +4835,16 @@
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),269.0)</f>
+        <v>269</v>
       </c>
       <c r="B95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
-        <v>CALETA-CAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VIÑAS")</f>
+        <v>FEDE VIÑAS</v>
       </c>
       <c r="C95" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
       </c>
       <c r="D95" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4846,34 +4853,34 @@
     </row>
     <row r="96">
       <c r="A96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
-        <v>296</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),278.0)</f>
+        <v>278</v>
       </c>
       <c r="B96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
-        <v>SERGIO GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEP CHAVARRÍA")</f>
+        <v>PEP CHAVARRÍA</v>
       </c>
       <c r="C96" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D96" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
+        <v>281</v>
       </c>
       <c r="B97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
-        <v>PABLO MARIN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÓSCAR VALENTÍN")</f>
+        <v>ÓSCAR VALENTÍN</v>
       </c>
       <c r="C97" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D97" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4882,16 +4889,16 @@
     </row>
     <row r="98">
       <c r="A98" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.0)</f>
-        <v>302</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
+        <v>282</v>
       </c>
       <c r="B98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUBO")</f>
-        <v>KUBO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
+        <v>ISI</v>
       </c>
       <c r="C98" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
-        <v>REAL SOCIEDAD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D98" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4900,16 +4907,16 @@
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
-        <v>309</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
       </c>
       <c r="B99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
-        <v>NYLAND</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PEDRO DÍAZ")</f>
+        <v>PEDRO DÍAZ</v>
       </c>
       <c r="C99" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D99" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4918,16 +4925,16 @@
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
-        <v>312</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
-        <v>AZPILICUETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAMELLO")</f>
+        <v>CAMELLO</v>
       </c>
       <c r="C100" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="D100" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4936,34 +4943,34 @@
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
-        <v>313</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
+        <v>290</v>
       </c>
       <c r="B101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
-        <v>KIKE SALAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REMIRO")</f>
+        <v>REMIRO</v>
       </c>
       <c r="C101" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D101" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
-        <v>317</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
+        <v>292</v>
       </c>
       <c r="B102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGOUME")</f>
-        <v>AGOUME</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAMBURU")</f>
+        <v>ARAMBURU</v>
       </c>
       <c r="C102" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D102" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4972,70 +4979,70 @@
     </row>
     <row r="103">
       <c r="A103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
-        <v>321</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
       </c>
       <c r="B103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
-        <v>EJUKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CALETA-CAR")</f>
+        <v>CALETA-CAR</v>
       </c>
       <c r="C103" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D103" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
-        <v>323</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
       </c>
       <c r="B104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
-        <v>AKOR ADAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGIO GÓMEZ")</f>
+        <v>SERGIO GÓMEZ</v>
       </c>
       <c r="C104" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D104" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="B105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO MARIN")</f>
+        <v>PABLO MARIN</v>
       </c>
       <c r="C105" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D105" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
-        <v>325</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),302.0)</f>
+        <v>302</v>
       </c>
       <c r="B106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KUBO")</f>
+        <v>KUBO</v>
       </c>
       <c r="C106" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL SOCIEDAD")</f>
+        <v>REAL SOCIEDAD</v>
       </c>
       <c r="D106" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5044,16 +5051,16 @@
     </row>
     <row r="107">
       <c r="A107" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
-        <v>326</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),309.0)</f>
+        <v>309</v>
       </c>
       <c r="B107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NYLAND")</f>
+        <v>NYLAND</v>
       </c>
       <c r="C107" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D107" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5062,16 +5069,16 @@
     </row>
     <row r="108">
       <c r="A108" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
-        <v>327</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),312.0)</f>
+        <v>312</v>
       </c>
       <c r="B108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
-        <v>DIMITRIEVSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AZPILICUETA")</f>
+        <v>AZPILICUETA</v>
       </c>
       <c r="C108" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D108" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5080,16 +5087,16 @@
     </row>
     <row r="109">
       <c r="A109" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
-        <v>328</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),313.0)</f>
+        <v>313</v>
       </c>
       <c r="B109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
-        <v>FOULQUIER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"KIKE SALAS")</f>
+        <v>KIKE SALAS</v>
       </c>
       <c r="C109" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D109" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -5098,16 +5105,16 @@
     </row>
     <row r="110">
       <c r="A110" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329.0)</f>
-        <v>329</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),317.0)</f>
+        <v>317</v>
       </c>
       <c r="B110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CORREIA")</f>
-        <v>CORREIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGOUME")</f>
+        <v>AGOUME</v>
       </c>
       <c r="C110" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D110" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5116,66 +5123,66 @@
     </row>
     <row r="111">
       <c r="A111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
-        <v>330</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),321.0)</f>
+        <v>321</v>
       </c>
       <c r="B111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
-        <v>TÁRREGA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EJUKE")</f>
+        <v>EJUKE</v>
       </c>
       <c r="C111" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D111" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
-        <v>331</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),323.0)</f>
+        <v>323</v>
       </c>
       <c r="B112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
-        <v>COPETE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AKOR ADAMS")</f>
+        <v>AKOR ADAMS</v>
       </c>
       <c r="C112" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
       </c>
       <c r="D112" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),332.0)</f>
-        <v>332</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
       </c>
       <c r="B113" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIAKHABY")</f>
-        <v>DIAKHABY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C113" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
         <v>VALENCIA CF</v>
       </c>
       <c r="D113" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
-        <v>333</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),325.0)</f>
+        <v>325</v>
       </c>
       <c r="B114" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
-        <v>GAYÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C114" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -5188,12 +5195,12 @@
     </row>
     <row r="115">
       <c r="A115" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
-        <v>337</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),326.0)</f>
+        <v>326</v>
       </c>
       <c r="B115" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
-        <v>ANDRÉ ALMEIDA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C115" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
@@ -5206,34 +5213,34 @@
     </row>
     <row r="116">
       <c r="A116" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),327.0)</f>
+        <v>327</v>
       </c>
       <c r="B116" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
-        <v>LUIS RIOJA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIMITRIEVSKI")</f>
+        <v>DIMITRIEVSKI</v>
       </c>
       <c r="C116" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
         <v>VALENCIA CF</v>
       </c>
       <c r="D116" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),328.0)</f>
+        <v>328</v>
       </c>
       <c r="B117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FOULQUIER")</f>
+        <v>FOULQUIER</v>
       </c>
       <c r="C117" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D117" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -5242,34 +5249,34 @@
     </row>
     <row r="118">
       <c r="A118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
-        <v>343</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),329.0)</f>
+        <v>329</v>
       </c>
       <c r="B118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CORREIA")</f>
+        <v>CORREIA</v>
       </c>
       <c r="C118" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D118" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
-        <v>350</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),330.0)</f>
+        <v>330</v>
       </c>
       <c r="B119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
-        <v>SERGI CARDONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TÁRREGA")</f>
+        <v>TÁRREGA</v>
       </c>
       <c r="C119" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D119" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5278,34 +5285,34 @@
     </row>
     <row r="120">
       <c r="A120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
-        <v>351</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),331.0)</f>
+        <v>331</v>
       </c>
       <c r="B120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
-        <v>SANTI COMESAÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"COPETE")</f>
+        <v>COPETE</v>
       </c>
       <c r="C120" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D120" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
-        <v>352</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),332.0)</f>
+        <v>332</v>
       </c>
       <c r="B121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
-        <v>PAPE GUEYE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIAKHABY")</f>
+        <v>DIAKHABY</v>
       </c>
       <c r="C121" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D121" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5314,52 +5321,52 @@
     </row>
     <row r="122">
       <c r="A122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
-        <v>355</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),333.0)</f>
+        <v>333</v>
       </c>
       <c r="B122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
-        <v>MOLEIRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAYÀ")</f>
+        <v>GAYÀ</v>
       </c>
       <c r="C122" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
-        <v>VILLARREAL CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D122" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
-        <v>361</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
+        <v>337</v>
       </c>
       <c r="B123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
-        <v>D. ALAVÉS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANDRÉ ALMEIDA")</f>
+        <v>ANDRÉ ALMEIDA</v>
       </c>
       <c r="C123" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D123" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
-        <v>369</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
+        <v>338</v>
       </c>
       <c r="B124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIS RIOJA")</f>
+        <v>LUIS RIOJA</v>
       </c>
       <c r="C124" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D124" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5368,70 +5375,70 @@
     </row>
     <row r="125">
       <c r="A125" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
-        <v>371</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
       </c>
       <c r="B125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C125" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D125" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),343.0)</f>
+        <v>343</v>
+      </c>
+      <c r="B126" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
+      </c>
+      <c r="C126" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D126" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),344.0)</f>
+        <v>344</v>
+      </c>
+      <c r="B127" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LUIZ JÚNIOR")</f>
+        <v>LUIZ JÚNIOR</v>
+      </c>
+      <c r="C127" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
+      </c>
+      <c r="D127" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376.0)</f>
-        <v>376</v>
-      </c>
-      <c r="B126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
-      </c>
-      <c r="C126" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
-        <v>¡VAMOS!</v>
-      </c>
-      <c r="D126" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
-        <v>387</v>
-      </c>
-      <c r="B127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
-        <v>AGIRREZABALA</v>
-      </c>
-      <c r="C127" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
-        <v>VALENCIA CF</v>
-      </c>
-      <c r="D127" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-    </row>
     <row r="128">
       <c r="A128" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),350.0)</f>
+        <v>350</v>
       </c>
       <c r="B128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
-        <v>CABRERA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SERGI CARDONA")</f>
+        <v>SERGI CARDONA</v>
       </c>
       <c r="C128" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D128" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5440,16 +5447,16 @@
     </row>
     <row r="129">
       <c r="A129" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
-        <v>398</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
       </c>
       <c r="B129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
-        <v>DRO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SANTI COMESAÑA")</f>
+        <v>SANTI COMESAÑA</v>
       </c>
       <c r="C129" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D129" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5458,16 +5465,16 @@
     </row>
     <row r="130">
       <c r="A130" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
-        <v>399</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),352.0)</f>
+        <v>352</v>
       </c>
       <c r="B130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
-        <v>VALENTÍN GÓMEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAPE GUEYE")</f>
+        <v>PAPE GUEYE</v>
       </c>
       <c r="C130" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D130" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5476,52 +5483,52 @@
     </row>
     <row r="131">
       <c r="A131" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),403.0)</f>
-        <v>403</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),355.0)</f>
+        <v>355</v>
       </c>
       <c r="B131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVINCHI")</f>
-        <v>DAVINCHI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOLEIRO")</f>
+        <v>MOLEIRO</v>
       </c>
       <c r="C131" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D131" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
-        <v>404</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),361.0)</f>
+        <v>361</v>
       </c>
       <c r="B132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
-        <v>LISO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="C132" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D132" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
-        <v>407</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),366.0)</f>
+        <v>366</v>
       </c>
       <c r="B133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
-        <v>CARLOS ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="C133" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D133" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5530,16 +5537,16 @@
     </row>
     <row r="134">
       <c r="A134" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.0)</f>
-        <v>408</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),369.0)</f>
+        <v>369</v>
       </c>
       <c r="B134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
-        <v>ETTA EYONG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="C134" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D134" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5548,16 +5555,16 @@
     </row>
     <row r="135">
       <c r="A135" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
-        <v>409</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),371.0)</f>
+        <v>371</v>
       </c>
       <c r="B135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
-        <v>FRAN GONZÁLEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
       </c>
       <c r="C135" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D135" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5566,16 +5573,16 @@
     </row>
     <row r="136">
       <c r="A136" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
-        <v>413</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),372.0)</f>
+        <v>372</v>
       </c>
       <c r="B136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
-        <v>VÍCTOR MUÑOZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
       </c>
       <c r="C136" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D136" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5584,70 +5591,70 @@
     </row>
     <row r="137">
       <c r="A137" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
-        <v>415</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),376.0)</f>
+        <v>376</v>
       </c>
       <c r="B137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
-        <v>BARRIOS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
       </c>
       <c r="C137" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"¡VAMOS!")</f>
+        <v>¡VAMOS!</v>
       </c>
       <c r="D137" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
-        <v>416</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),383.0)</f>
+        <v>383</v>
       </c>
       <c r="B138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
-        <v>SOTELO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C138" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D138" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
-        <v>419</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),387.0)</f>
+        <v>387</v>
       </c>
       <c r="B139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
-        <v>MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGIRREZABALA")</f>
+        <v>AGIRREZABALA</v>
       </c>
       <c r="C139" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENCIA CF")</f>
+        <v>VALENCIA CF</v>
       </c>
       <c r="D139" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
-        <v>421</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
       </c>
       <c r="B140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
-        <v>AIMAR OROZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CABRERA")</f>
+        <v>CABRERA</v>
       </c>
       <c r="C140" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
-        <v>CA OSASUNA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D140" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5656,16 +5663,16 @@
     </row>
     <row r="141">
       <c r="A141" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
-        <v>422</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),396.0)</f>
+        <v>396</v>
       </c>
       <c r="B141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
-        <v>CAZORLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MOURIÑO")</f>
+        <v>MOURIÑO</v>
       </c>
       <c r="C141" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
-        <v>REAL OVIEDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VILLARREAL CF")</f>
+        <v>VILLARREAL CF</v>
       </c>
       <c r="D141" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5674,16 +5681,16 @@
     </row>
     <row r="142">
       <c r="A142" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
-        <v>439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),398.0)</f>
+        <v>398</v>
       </c>
       <c r="B142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
-        <v>ALEXIS SÁNCHEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DRO")</f>
+        <v>DRO</v>
       </c>
       <c r="C142" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
-        <v>SEVILLA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D142" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5692,16 +5699,16 @@
     </row>
     <row r="143">
       <c r="A143" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
-        <v>448</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),399.0)</f>
+        <v>399</v>
       </c>
       <c r="B143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
-        <v>GRIEZMANN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VALENTÍN GÓMEZ")</f>
+        <v>VALENTÍN GÓMEZ</v>
       </c>
       <c r="C143" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D143" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5710,16 +5717,16 @@
     </row>
     <row r="144">
       <c r="A144" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
-        <v>452</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),402.0)</f>
+        <v>402</v>
       </c>
       <c r="B144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
-        <v>LEWANDOWSKI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RIEDEL")</f>
+        <v>RIEDEL</v>
       </c>
       <c r="C144" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D144" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5728,16 +5735,16 @@
     </row>
     <row r="145">
       <c r="A145" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
-        <v>458</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),403.0)</f>
+        <v>403</v>
       </c>
       <c r="B145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
-        <v>CARRERAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVINCHI")</f>
+        <v>DAVINCHI</v>
       </c>
       <c r="C145" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D145" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5746,16 +5753,16 @@
     </row>
     <row r="146">
       <c r="A146" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
-        <v>462</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),404.0)</f>
+        <v>404</v>
       </c>
       <c r="B146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
-        <v>ISI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISO")</f>
+        <v>LISO</v>
       </c>
       <c r="C146" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
-        <v>RAYO VALLECANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D146" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5764,18 +5771,288 @@
     </row>
     <row r="147">
       <c r="A147" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),407.0)</f>
+        <v>407</v>
+      </c>
+      <c r="B147" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ÁLVAREZ")</f>
+        <v>CARLOS ÁLVAREZ</v>
+      </c>
+      <c r="C147" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+      <c r="D147" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),408.0)</f>
+        <v>408</v>
+      </c>
+      <c r="B148" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ETTA EYONG")</f>
+        <v>ETTA EYONG</v>
+      </c>
+      <c r="C148" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
+        <v>LEVANTE UD</v>
+      </c>
+      <c r="D148" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),409.0)</f>
+        <v>409</v>
+      </c>
+      <c r="B149" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FRAN GONZÁLEZ")</f>
+        <v>FRAN GONZÁLEZ</v>
+      </c>
+      <c r="C149" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D149" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),413.0)</f>
+        <v>413</v>
+      </c>
+      <c r="B150" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VÍCTOR MUÑOZ")</f>
+        <v>VÍCTOR MUÑOZ</v>
+      </c>
+      <c r="C150" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D150" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),415.0)</f>
+        <v>415</v>
+      </c>
+      <c r="B151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BARRIOS")</f>
+        <v>BARRIOS</v>
+      </c>
+      <c r="C151" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D151" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),416.0)</f>
+        <v>416</v>
+      </c>
+      <c r="B152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SOTELO")</f>
+        <v>SOTELO</v>
+      </c>
+      <c r="C152" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D152" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),419.0)</f>
+        <v>419</v>
+      </c>
+      <c r="B153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MILLA")</f>
+        <v>MILLA</v>
+      </c>
+      <c r="C153" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
+      </c>
+      <c r="D153" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),421.0)</f>
+        <v>421</v>
+      </c>
+      <c r="B154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIMAR OROZ")</f>
+        <v>AIMAR OROZ</v>
+      </c>
+      <c r="C154" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CA OSASUNA")</f>
+        <v>CA OSASUNA</v>
+      </c>
+      <c r="D154" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),422.0)</f>
+        <v>422</v>
+      </c>
+      <c r="B155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CAZORLA")</f>
+        <v>CAZORLA</v>
+      </c>
+      <c r="C155" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL OVIEDO")</f>
+        <v>REAL OVIEDO</v>
+      </c>
+      <c r="D155" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),439.0)</f>
+        <v>439</v>
+      </c>
+      <c r="B156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALEXIS SÁNCHEZ")</f>
+        <v>ALEXIS SÁNCHEZ</v>
+      </c>
+      <c r="C156" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SEVILLA FC")</f>
+        <v>SEVILLA FC</v>
+      </c>
+      <c r="D156" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),448.0)</f>
+        <v>448</v>
+      </c>
+      <c r="B157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GRIEZMANN")</f>
+        <v>GRIEZMANN</v>
+      </c>
+      <c r="C157" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
+      </c>
+      <c r="D157" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),452.0)</f>
+        <v>452</v>
+      </c>
+      <c r="B158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEWANDOWSKI")</f>
+        <v>LEWANDOWSKI</v>
+      </c>
+      <c r="C158" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
+      </c>
+      <c r="D158" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),454.0)</f>
+        <v>454</v>
+      </c>
+      <c r="B159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISCO")</f>
+        <v>ISCO</v>
+      </c>
+      <c r="C159" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
+      </c>
+      <c r="D159" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),458.0)</f>
+        <v>458</v>
+      </c>
+      <c r="B160" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARRERAS")</f>
+        <v>CARRERAS</v>
+      </c>
+      <c r="C160" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
+        <v>REAL MADRID</v>
+      </c>
+      <c r="D160" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),462.0)</f>
+        <v>462</v>
+      </c>
+      <c r="B161" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISI")</f>
+        <v>ISI</v>
+      </c>
+      <c r="C161" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAYO VALLECANO")</f>
+        <v>RAYO VALLECANO</v>
+      </c>
+      <c r="D161" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),469.0)</f>
         <v>469</v>
       </c>
-      <c r="B147" s="20" t="str">
+      <c r="B162" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NICO WILLIAMS")</f>
         <v>NICO WILLIAMS</v>
       </c>
-      <c r="C147" s="20" t="str">
+      <c r="C162" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALÓN DE ORO (ATHLETIC)")</f>
         <v>BALÓN DE ORO (ATHLETIC)</v>
       </c>
-      <c r="D147" s="20">
+      <c r="D162" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
@@ -6696,6 +6973,9 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E62" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="21">
@@ -6872,7 +7152,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
@@ -7216,7 +7496,9 @@
       <c r="C98" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D98" s="21"/>
+      <c r="D98" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="21">
@@ -7340,7 +7622,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="107">
@@ -7450,7 +7732,9 @@
       <c r="C113" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D113" s="21"/>
+      <c r="D113" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="21">
@@ -7547,7 +7831,9 @@
       <c r="C120" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D120" s="21"/>
+      <c r="D120" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="21">
@@ -7563,7 +7849,7 @@
         <v>20</v>
       </c>
       <c r="E121" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="122">
@@ -7669,6 +7955,9 @@
       <c r="D128" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E128" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="21">
@@ -7848,7 +8137,7 @@
         <v>20</v>
       </c>
       <c r="E140" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="141">
@@ -8017,6 +8306,9 @@
       <c r="D152" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E152" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="21">
@@ -8565,6 +8857,9 @@
       <c r="D190" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E190" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="21">
@@ -8922,6 +9217,9 @@
       <c r="D215" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E215" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="21">
@@ -8937,7 +9235,7 @@
         <v>20</v>
       </c>
       <c r="E216" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="217">
@@ -9117,6 +9415,9 @@
       <c r="D228" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E228" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="21">
@@ -9251,6 +9552,9 @@
       <c r="D237" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E237" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="21">
@@ -9407,7 +9711,7 @@
         <v>20</v>
       </c>
       <c r="E248" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="249">
@@ -10094,7 +10398,7 @@
         <v>20</v>
       </c>
       <c r="E295" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="296">
@@ -10568,7 +10872,7 @@
         <v>20</v>
       </c>
       <c r="E327" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="328">
@@ -10636,7 +10940,7 @@
         <v>20</v>
       </c>
       <c r="E331" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="332">
@@ -10834,6 +11138,9 @@
       </c>
       <c r="D344" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E344" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="345">
@@ -11251,6 +11558,9 @@
       <c r="D10" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E10" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="21">
@@ -11508,6 +11818,9 @@
       <c r="D6" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="21">
@@ -11597,6 +11910,9 @@
       </c>
       <c r="D12" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -13814,6 +14130,9 @@
       <c r="D3" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="21">
@@ -14014,6 +14333,9 @@
       </c>
       <c r="D9" s="21" t="s">
         <v>20</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -14129,6 +14451,9 @@
       <c r="D6" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="21">

--- a/Checklist_Adrenalyn_XL_2025-26.xlsx
+++ b/Checklist_Adrenalyn_XL_2025-26.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="422">
   <si>
     <t>Última actualización:</t>
   </si>
@@ -1217,6 +1217,75 @@
   </si>
   <si>
     <t>CAMPEÓN CARD</t>
+  </si>
+  <si>
+    <t>1MN</t>
+  </si>
+  <si>
+    <t>2MN</t>
+  </si>
+  <si>
+    <t>CELTA</t>
+  </si>
+  <si>
+    <t>3MN</t>
+  </si>
+  <si>
+    <t>4MN</t>
+  </si>
+  <si>
+    <t>5MN</t>
+  </si>
+  <si>
+    <t>HACNKO</t>
+  </si>
+  <si>
+    <t>ATLETICO DE MADRID</t>
+  </si>
+  <si>
+    <t>6MN</t>
+  </si>
+  <si>
+    <t>7MN</t>
+  </si>
+  <si>
+    <t>NICO GONZALEZ</t>
+  </si>
+  <si>
+    <t>8MN</t>
+  </si>
+  <si>
+    <t>SANTAMARIA</t>
+  </si>
+  <si>
+    <t>9MN</t>
+  </si>
+  <si>
+    <t>10MN</t>
+  </si>
+  <si>
+    <t>MASTANTUONDO</t>
+  </si>
+  <si>
+    <t>11MN</t>
+  </si>
+  <si>
+    <t>12MN</t>
+  </si>
+  <si>
+    <t>13MN</t>
+  </si>
+  <si>
+    <t>VILLAREAL CF</t>
+  </si>
+  <si>
+    <t>14MN</t>
+  </si>
+  <si>
+    <t>15MN</t>
+  </si>
+  <si>
+    <t>OLUWASEVI</t>
   </si>
   <si>
     <t>ÁLEX BAENA</t>
@@ -1437,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1488,6 +1557,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1780,7 +1852,7 @@
       </c>
       <c r="B1" s="2">
         <f>TODAY()</f>
-        <v>46068</v>
+        <v>46070</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1836,15 +1908,15 @@
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(REGULARES!D:D, "SI")</f>
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D12" si="1">B3-C3</f>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="2">(C3/B3)</f>
-        <v>0.85</v>
+        <v>0.8583333333</v>
       </c>
       <c r="F3" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E3, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -1908,15 +1980,15 @@
       </c>
       <c r="C6" s="14">
         <f>COUNTIF('Guantes de Oro (381–387)'!D:D, "SI")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="3"/>
-        <v>0.5714285714</v>
+        <v>0.7142857143</v>
       </c>
       <c r="F6" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E6, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2004,15 +2076,15 @@
       </c>
       <c r="C10" s="14">
         <f>COUNTIF('Protas (424–441)'!D:D, "SI")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="3"/>
-        <v>0.8333333333</v>
+        <v>0.8888888889</v>
       </c>
       <c r="F10" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E10, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2052,15 +2124,15 @@
       </c>
       <c r="C12" s="14">
         <f>COUNTIF('Cartas Top y Únicas (468–478)'!D:D, "SI")</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D12" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="3"/>
-        <v>0.5454545455</v>
+        <v>1.363636364</v>
       </c>
       <c r="F12" s="11" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E12, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2077,15 +2149,15 @@
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="3"/>
-        <v>0.843373494</v>
+        <v>0.8714859438</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(E13, {""charttype"",""bar""; ""max"",1; ""color1"",""green""; ""empty"",""ignore""})"),"")</f>
@@ -2275,7 +2347,9 @@
       <c r="C1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="21">
@@ -2685,8 +2759,224 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D11">
+  <conditionalFormatting sqref="A1:D26">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D1="SI"</formula>
     </cfRule>
@@ -2761,13 +3051,16 @@
       <c r="D4" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E4" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="21">
         <v>446.0</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>56</v>
@@ -3269,12 +3562,12 @@
     </row>
     <row r="8">
       <c r="A8" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
+        <v>17</v>
       </c>
       <c r="B8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIANO")</f>
-        <v>MARIANO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BOYÉ")</f>
+        <v>BOYÉ</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
@@ -3287,16 +3580,16 @@
     </row>
     <row r="9">
       <c r="A9" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
+        <v>18</v>
       </c>
       <c r="B9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARIANO")</f>
+        <v>MARIANO</v>
       </c>
       <c r="C9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
-        <v>ATHLETIC CLUB</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D. ALAVÉS")</f>
+        <v>D. ALAVÉS</v>
       </c>
       <c r="D9" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3305,12 +3598,12 @@
     </row>
     <row r="10">
       <c r="A10" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
-        <v>21</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
+        <v>19</v>
       </c>
       <c r="B10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PADILLA")</f>
-        <v>PADILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C10" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3323,12 +3616,12 @@
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
-        <v>23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
+        <v>21</v>
       </c>
       <c r="B11" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VIVIAN")</f>
-        <v>VIVIAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PADILLA")</f>
+        <v>PADILLA</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3341,12 +3634,12 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
-        <v>27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
+        <v>23</v>
       </c>
       <c r="B12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
-        <v>RUIZ DE GALARRETA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"VIVIAN")</f>
+        <v>VIVIAN</v>
       </c>
       <c r="C12" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3359,12 +3652,12 @@
     </row>
     <row r="13">
       <c r="A13" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
-        <v>33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="B13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WILLIAMS")</f>
-        <v>WILLIAMS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RUIZ DE GALARRETA")</f>
+        <v>RUIZ DE GALARRETA</v>
       </c>
       <c r="C13" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3377,12 +3670,12 @@
     </row>
     <row r="14">
       <c r="A14" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
       </c>
       <c r="B14" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
-        <v>MAROAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WILLIAMS")</f>
+        <v>WILLIAMS</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
@@ -3395,16 +3688,16 @@
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="B15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MAROAN")</f>
+        <v>MAROAN</v>
       </c>
       <c r="C15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
-        <v>ATLÉTICO DE MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATHLETIC CLUB")</f>
+        <v>ATHLETIC CLUB</v>
       </c>
       <c r="D15" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3413,12 +3706,12 @@
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MUSSO")</f>
-        <v>MUSSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C16" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3431,12 +3724,12 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
+        <v>39</v>
       </c>
       <c r="B17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
-        <v>LENGLET</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MUSSO")</f>
+        <v>MUSSO</v>
       </c>
       <c r="C17" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3449,12 +3742,12 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="B18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
-        <v>ALMADA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS LLORENTE")</f>
+        <v>MARCOS LLORENTE</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3467,12 +3760,12 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
-        <v>52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
       <c r="B19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
-        <v>JULIÁN ALVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LENGLET")</f>
+        <v>LENGLET</v>
       </c>
       <c r="C19" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
@@ -3485,16 +3778,16 @@
     </row>
     <row r="20">
       <c r="A20" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
-        <v>55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="B20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ALMADA")</f>
+        <v>ALMADA</v>
       </c>
       <c r="C20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D20" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3503,16 +3796,16 @@
     </row>
     <row r="21">
       <c r="A21" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
-        <v>56</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
       </c>
       <c r="B21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOAN GARCÍA")</f>
-        <v>JOAN GARCÍA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JULIÁN ALVAREZ")</f>
+        <v>JULIÁN ALVAREZ</v>
       </c>
       <c r="C21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
-        <v>FC BARCELONA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ATLÉTICO DE MADRID")</f>
+        <v>ATLÉTICO DE MADRID</v>
       </c>
       <c r="D21" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3521,12 +3814,12 @@
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
-        <v>62</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
+        <v>55</v>
       </c>
       <c r="B22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALDE")</f>
-        <v>BALDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3539,12 +3832,12 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
-        <v>63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
+        <v>56</v>
       </c>
       <c r="B23" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DE JONG")</f>
-        <v>DE JONG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOAN GARCÍA")</f>
+        <v>JOAN GARCÍA</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3557,12 +3850,12 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
-        <v>66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
+        <v>61</v>
       </c>
       <c r="B24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
-        <v>FERMÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ARAÚJO")</f>
+        <v>ARAÚJO</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3575,12 +3868,12 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
-        <v>67</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
+        <v>62</v>
       </c>
       <c r="B25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
-        <v>DANI OLMO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BALDE")</f>
+        <v>BALDE</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
@@ -3593,16 +3886,16 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
-        <v>73</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
+        <v>63</v>
       </c>
       <c r="B26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DE JONG")</f>
+        <v>DE JONG</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D26" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3611,34 +3904,34 @@
     </row>
     <row r="27">
       <c r="A27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
+        <v>66</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
-        <v>PAU LÓPEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FERMÍN")</f>
+        <v>FERMÍN</v>
       </c>
       <c r="C27" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D27" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
-        <v>76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),67.0)</f>
+        <v>67</v>
       </c>
       <c r="B28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
-        <v>BELLERÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DANI OLMO")</f>
+        <v>DANI OLMO</v>
       </c>
       <c r="C28" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
-        <v>REAL BETIS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FC BARCELONA")</f>
+        <v>FC BARCELONA</v>
       </c>
       <c r="D28" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3647,12 +3940,12 @@
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
-        <v>81</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
       </c>
       <c r="B29" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
-        <v>JUNIOR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3665,30 +3958,30 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
-        <v>PABLO FORNALS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAU LÓPEZ")</f>
+        <v>PAU LÓPEZ</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
         <v>REAL BETIS</v>
       </c>
       <c r="D30" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
-        <v>88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
-        <v>CUCHO HERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BELLERÍN")</f>
+        <v>BELLERÍN</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
@@ -3701,16 +3994,16 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
-        <v>91</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
       </c>
       <c r="B32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUNIOR")</f>
+        <v>JUNIOR</v>
       </c>
       <c r="C32" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D32" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3719,16 +4012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
-        <v>94</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
-        <v>JAVI RUEDA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PABLO FORNALS")</f>
+        <v>PABLO FORNALS</v>
       </c>
       <c r="C33" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D33" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3737,16 +4030,16 @@
     </row>
     <row r="34">
       <c r="A34" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
-        <v>97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
-        <v>MARCOS ALONSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CUCHO HERNÁNDEZ")</f>
+        <v>CUCHO HERNÁNDEZ</v>
       </c>
       <c r="C34" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
-        <v>RC CELTA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL BETIS")</f>
+        <v>REAL BETIS</v>
       </c>
       <c r="D34" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3755,12 +4048,12 @@
     </row>
     <row r="35">
       <c r="A35" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
-        <v>100</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),91.0)</f>
+        <v>91</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
-        <v>ILAIX MORIBA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C35" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3773,48 +4066,48 @@
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
-        <v>103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
-        <v>HUGO ÁLVAREZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JAVI RUEDA")</f>
+        <v>JAVI RUEDA</v>
       </c>
       <c r="C36" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
       <c r="D36" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
-        <v>104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
-        <v>SWEDBERG</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARCOS ALONSO")</f>
+        <v>MARCOS ALONSO</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
       <c r="D37" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
-        <v>105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100.0)</f>
+        <v>100</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
-        <v>BRYAN ZARAGOZA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ILAIX MORIBA")</f>
+        <v>ILAIX MORIBA</v>
       </c>
       <c r="C38" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3827,12 +4120,12 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
-        <v>106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),103.0)</f>
+        <v>103</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
-        <v>IAGO ASPAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"HUGO ÁLVAREZ")</f>
+        <v>HUGO ÁLVAREZ</v>
       </c>
       <c r="C39" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3845,30 +4138,30 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
+        <v>104</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
-        <v>BORJA IGLESIAS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SWEDBERG")</f>
+        <v>SWEDBERG</v>
       </c>
       <c r="C40" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
         <v>RC CELTA</v>
       </c>
       <c r="D40" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
-        <v>108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),105.0)</f>
+        <v>105</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
-        <v>JUTGLÀ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRYAN ZARAGOZA")</f>
+        <v>BRYAN ZARAGOZA</v>
       </c>
       <c r="C41" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
@@ -3881,52 +4174,52 @@
     </row>
     <row r="42">
       <c r="A42" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
-        <v>IÑAKI PEÑA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IAGO ASPAS")</f>
+        <v>IAGO ASPAS</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D42" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="20">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
+      </c>
+      <c r="B43" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BORJA IGLESIAS")</f>
+        <v>BORJA IGLESIAS</v>
+      </c>
+      <c r="C43" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
+      </c>
+      <c r="D43" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
-      </c>
-      <c r="B43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
-        <v>DITURO</v>
-      </c>
-      <c r="C43" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
-      </c>
-      <c r="D43" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="44">
       <c r="A44" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
-        <v>ÁLVARO NÚÑEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JUTGLÀ")</f>
+        <v>JUTGLÀ</v>
       </c>
       <c r="C44" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
-        <v>ELCHE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RC CELTA")</f>
+        <v>RC CELTA</v>
       </c>
       <c r="D44" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -3935,12 +4228,12 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
-        <v>115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
-        <v>AFFENGRUBER</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IÑAKI PEÑA")</f>
+        <v>IÑAKI PEÑA</v>
       </c>
       <c r="C45" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3953,12 +4246,12 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
-        <v>121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
-        <v>MARC AGUADO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DITURO")</f>
+        <v>DITURO</v>
       </c>
       <c r="C46" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3971,12 +4264,12 @@
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
-        <v>126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
-        <v>RAFA MIR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ÁLVARO NÚÑEZ")</f>
+        <v>ÁLVARO NÚÑEZ</v>
       </c>
       <c r="C47" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
@@ -3989,16 +4282,16 @@
     </row>
     <row r="48">
       <c r="A48" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
-        <v>127</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="B48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AFFENGRUBER")</f>
+        <v>AFFENGRUBER</v>
       </c>
       <c r="C48" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D48" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4007,34 +4300,34 @@
     </row>
     <row r="49">
       <c r="A49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="B49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
-        <v>DMITROVIC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MARC AGUADO")</f>
+        <v>MARC AGUADO</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D49" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
-        <v>134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
+        <v>126</v>
       </c>
       <c r="B50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ROMERO")</f>
-        <v>CARLOS ROMERO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RAFA MIR")</f>
+        <v>RAFA MIR</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
-        <v>RCD ESPANYOL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ELCHE CF")</f>
+        <v>ELCHE CF</v>
       </c>
       <c r="D50" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4043,12 +4336,12 @@
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
-        <v>137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
+        <v>127</v>
       </c>
       <c r="B51" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
-        <v>EDU EXPÓSITO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C51" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -4061,30 +4354,30 @@
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
+        <v>128</v>
       </c>
       <c r="B52" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
-        <v>TERRATS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DMITROVIC")</f>
+        <v>DMITROVIC</v>
       </c>
       <c r="C52" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D52" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
-        <v>139</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
       </c>
       <c r="B53" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONIU ROCA")</f>
-        <v>ANTONIU ROCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARLOS ROMERO")</f>
+        <v>CARLOS ROMERO</v>
       </c>
       <c r="C53" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -4097,48 +4390,48 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B54" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
-        <v>DOLAN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EDU EXPÓSITO")</f>
+        <v>EDU EXPÓSITO</v>
       </c>
       <c r="C54" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D54" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
-        <v>ROBERTO FERNÁNDEZ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TERRATS")</f>
+        <v>TERRATS</v>
       </c>
       <c r="C55" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
         <v>RCD ESPANYOL</v>
       </c>
       <c r="D55" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
+        <v>139</v>
       </c>
       <c r="B56" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
-        <v>PERE MILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ANTONIU ROCA")</f>
+        <v>ANTONIU ROCA</v>
       </c>
       <c r="C56" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
@@ -4151,34 +4444,34 @@
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
-        <v>145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DOLAN")</f>
+        <v>DOLAN</v>
       </c>
       <c r="C57" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D57" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
-        <v>DAVID SORIA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ROBERTO FERNÁNDEZ")</f>
+        <v>ROBERTO FERNÁNDEZ</v>
       </c>
       <c r="C58" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D58" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4187,16 +4480,16 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),152.0)</f>
-        <v>152</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABQAR")</f>
-        <v>ABQAR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PERE MILLA")</f>
+        <v>PERE MILLA</v>
       </c>
       <c r="C59" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
-        <v>GETAFE CF</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"RCD ESPANYOL")</f>
+        <v>RCD ESPANYOL</v>
       </c>
       <c r="D59" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4205,12 +4498,12 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
-        <v>153</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),145.0)</f>
+        <v>145</v>
       </c>
       <c r="B60" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
-        <v>DIEGO RICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C60" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
@@ -4223,16 +4516,16 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
       </c>
       <c r="B61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
-        <v>ESCUDO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DAVID SORIA")</f>
+        <v>DAVID SORIA</v>
       </c>
       <c r="C61" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D61" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4241,16 +4534,16 @@
     </row>
     <row r="62">
       <c r="A62" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
-        <v>163</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),152.0)</f>
+        <v>152</v>
       </c>
       <c r="B62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
-        <v>ESTADIO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ABQAR")</f>
+        <v>ABQAR</v>
       </c>
       <c r="C62" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D62" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4259,16 +4552,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
-        <v>172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),153.0)</f>
+        <v>153</v>
       </c>
       <c r="B63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
-        <v>WITSEL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DIEGO RICO")</f>
+        <v>DIEGO RICO</v>
       </c>
       <c r="C63" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
-        <v>GIRONA FC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GETAFE CF")</f>
+        <v>GETAFE CF</v>
       </c>
       <c r="D63" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4277,12 +4570,12 @@
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
-        <v>174</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B64" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
-        <v>IVÁN MARTÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESCUDO")</f>
+        <v>ESCUDO</v>
       </c>
       <c r="C64" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -4295,30 +4588,30 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
-        <v>175</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B65" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
-        <v>YÁSER ASPRILLA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ESTADIO")</f>
+        <v>ESTADIO</v>
       </c>
       <c r="C65" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
         <v>GIRONA FC</v>
       </c>
       <c r="D65" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
-        <v>176</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
+        <v>164</v>
       </c>
       <c r="B66" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
-        <v>JOEL ROCA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GAZZANIGA")</f>
+        <v>GAZZANIGA</v>
       </c>
       <c r="C66" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
@@ -4331,16 +4624,16 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
-        <v>189</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PAMPÍN")</f>
-        <v>PAMPÍN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WITSEL")</f>
+        <v>WITSEL</v>
       </c>
       <c r="C67" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D67" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4349,52 +4642,52 @@
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),190.0)</f>
-        <v>190</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
       </c>
       <c r="B68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ORIOL REY")</f>
-        <v>ORIOL REY</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IVÁN MARTÍN")</f>
+        <v>IVÁN MARTÍN</v>
       </c>
       <c r="C68" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D68" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
-        <v>195</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),175.0)</f>
+        <v>175</v>
       </c>
       <c r="B69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MORALES")</f>
-        <v>MORALES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YÁSER ASPRILLA")</f>
+        <v>YÁSER ASPRILLA</v>
       </c>
       <c r="C69" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LEVANTE UD")</f>
-        <v>LEVANTE UD</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D69" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),202.0)</f>
-        <v>202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
       </c>
       <c r="B70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CARVAJAL")</f>
-        <v>CARVAJAL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JOEL ROCA")</f>
+        <v>JOEL ROCA</v>
       </c>
       <c r="C70" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REAL MADRID")</f>
-        <v>REAL MADRID</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GIRONA FC")</f>
+        <v>GIRONA FC</v>
       </c>
       <c r="D70" s="20">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -4403,16 +4696,16 @@
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179.0)</f>
+        <v>179</v>
       </c>
       <c r="B71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FEDE VALVERDE")</f>
-        <v>FEDE VALVERDE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"STUANI")</f>
+        <v>STUANI</v>
       </c>
       <c r="C71" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""C